--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -47,163 +47,163 @@
     <t xml:space="preserve">2023 Toyota AFL Premiership</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Carlton</t>
+    <t xml:space="preserve">Round 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs v Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betfair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueBet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midasbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmerbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wst Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopSport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon v West Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide v Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v Collingwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn</t>
   </si>
   <si>
     <t xml:space="preserve">Collingwood</t>
   </si>
   <si>
+    <t xml:space="preserve">Geelong v Port Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geelong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Western Sydney v Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Western Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda v Carlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlton</t>
   </si>
   <si>
-    <t xml:space="preserve">Betfair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueBet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midasbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmerbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pointsbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sportsbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TopSport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geelong v Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geelong</t>
+    <t xml:space="preserve">Fremantle v Brisbane Lions</t>
   </si>
   <si>
     <t xml:space="preserve">Fremantle</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Bulldogs v Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wst Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast v Brisbane Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brisbane Lions</t>
   </si>
   <si>
     <t xml:space="preserve">Brisbane</t>
   </si>
   <si>
-    <t xml:space="preserve">Essendon v Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide v Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn v St Kilda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond v Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast v North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs v Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon v West Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide v Gold Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn v Collingwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geelong v Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Western Sydney v Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Melbourne v Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v Carlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremantle v Brisbane Lions</t>
+    <t xml:space="preserve">Round 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collingwood v Geelong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne v Essendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney v Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Lions v Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlton v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast v Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda v Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide v Greater Western Sydney</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -592,16 +592,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.3705</v>
+        <v>1.646</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.375</v>
+        <v>2.349</v>
       </c>
       <c r="I2" t="n">
-        <v>2.596</v>
+        <v>3.325</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -624,16 +624,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3705</v>
+        <v>1.646</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3275</v>
+        <v>2.273</v>
       </c>
       <c r="I3" t="n">
-        <v>3.019</v>
+        <v>4.748</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -656,16 +656,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.3705</v>
+        <v>1.6365</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>3.28</v>
+        <v>2.349</v>
       </c>
       <c r="I4" t="n">
-        <v>3.454</v>
+        <v>3.677</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -688,16 +688,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.361</v>
+        <v>1.6365</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.375</v>
+        <v>2.273</v>
       </c>
       <c r="I5" t="n">
-        <v>3.105</v>
+        <v>5.101</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -720,24 +720,24 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1.361</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3275</v>
+        <v>2.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.528</v>
+        <v>5.053</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -752,24 +752,24 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1.361</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.28</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>3.963</v>
+        <v>5.235</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -784,24 +784,24 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3515</v>
+        <v>1.58</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>3.375</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.621</v>
+        <v>4.958</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -816,24 +816,24 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.3515</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3275</v>
+        <v>2.26</v>
       </c>
       <c r="I9" t="n">
-        <v>4.044</v>
+        <v>6.748</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -848,24 +848,24 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3515</v>
+        <v>1.58</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>3.28</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.48</v>
+        <v>4.958</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -880,24 +880,24 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>2.31</v>
       </c>
       <c r="I11" t="n">
-        <v>5.324</v>
+        <v>5.018</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -912,24 +912,24 @@
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.688</v>
+        <v>5.207</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -944,24 +944,24 @@
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="I13" t="n">
-        <v>5.324</v>
+        <v>5.053</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -976,24 +976,24 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>2.31</v>
       </c>
       <c r="I14" t="n">
-        <v>6.373</v>
+        <v>5.018</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1005,27 +1005,27 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.787</v>
+        <v>4.958</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1040,24 +1040,24 @@
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="I16" t="n">
-        <v>6.073</v>
+        <v>6.944</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1066,30 +1066,30 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>1.36</v>
+        <v>1.076</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>11.925</v>
       </c>
       <c r="I17" t="n">
-        <v>4.299</v>
+        <v>1.323</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1098,30 +1098,30 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
-        <v>1.35</v>
+        <v>1.076</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>11.45</v>
       </c>
       <c r="I18" t="n">
-        <v>5.324</v>
+        <v>1.67</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1130,30 +1130,30 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>1.34</v>
+        <v>1.0665</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>3.18</v>
+        <v>11.925</v>
       </c>
       <c r="I19" t="n">
-        <v>6.073</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1162,30 +1162,30 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>1.36</v>
+        <v>1.0665</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>11.45</v>
       </c>
       <c r="I20" t="n">
-        <v>4.779</v>
+        <v>2.498</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1194,30 +1194,30 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>1.36</v>
+        <v>1.057</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>11.925</v>
       </c>
       <c r="I21" t="n">
-        <v>4.779</v>
+        <v>2.993</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1226,22 +1226,22 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
-        <v>1.076</v>
+        <v>1.057</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>11.925</v>
+        <v>11.45</v>
       </c>
       <c r="I22" t="n">
-        <v>1.323</v>
+        <v>3.341</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1258,30 +1258,30 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>1.076</v>
+        <v>1.05</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>11.45</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>1.67</v>
+        <v>5.238</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1290,30 +1290,30 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0665</v>
+        <v>1.06</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>11.925</v>
+        <v>9.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>4.866</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1322,30 +1322,30 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0665</v>
+        <v>1.05</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25" t="n">
-        <v>11.45</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>2.498</v>
+        <v>5.238</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1354,30 +1354,30 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>1.057</v>
+        <v>1.05</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>11.925</v>
+        <v>9.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.993</v>
+        <v>6.108</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1386,30 +1386,30 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" t="n">
-        <v>1.057</v>
+        <v>1.06</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27" t="n">
-        <v>11.45</v>
+        <v>9.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3.341</v>
+        <v>4.596</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1418,30 +1418,30 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.238</v>
+        <v>4.866</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1450,30 +1450,30 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n">
         <v>1.06</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>4.866</v>
+        <v>5.451</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1482,16 +1482,16 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
         <v>1.06</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30" t="n">
         <v>9</v>
@@ -1500,12 +1500,12 @@
         <v>5.451</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1514,30 +1514,30 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="I31" t="n">
-        <v>6.474</v>
+        <v>4.866</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1546,30 +1546,30 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.049</v>
+        <v>5.451</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.15625</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1578,30 +1578,30 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" t="n">
         <v>1.05</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>7.003</v>
+        <v>6.349</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1610,30 +1610,30 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F34" t="n">
-        <v>1.06</v>
+        <v>1.3705</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>3.375</v>
       </c>
       <c r="I34" t="n">
-        <v>5.451</v>
+        <v>2.596</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1642,30 +1642,30 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" t="n">
-        <v>1.06</v>
+        <v>1.3515</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H35" t="n">
-        <v>9.5</v>
+        <v>3.375</v>
       </c>
       <c r="I35" t="n">
-        <v>4.866</v>
+        <v>3.621</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1674,30 +1674,30 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F36" t="n">
-        <v>1.05</v>
+        <v>1.342</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>9.5</v>
+        <v>3.375</v>
       </c>
       <c r="I36" t="n">
-        <v>5.764</v>
+        <v>4.145</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1706,30 +1706,30 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>5.451</v>
+        <v>5.491</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1738,30 +1738,30 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>5.223</v>
+        <v>5.251</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1770,30 +1770,30 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>5.621</v>
+        <v>5.251</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1802,30 +1802,30 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>5.329</v>
+        <v>6.861</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1834,30 +1834,30 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>5.303</v>
+        <v>5.787</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1866,30 +1866,30 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>2.74</v>
+        <v>3.17</v>
       </c>
       <c r="I42" t="n">
-        <v>6.426</v>
+        <v>5.075</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1898,30 +1898,30 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="I43" t="n">
-        <v>5.329</v>
+        <v>5.327</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1930,30 +1930,30 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>5.807</v>
+        <v>5.491</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1962,30 +1962,30 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45" t="n">
-        <v>2.75</v>
+        <v>3.17</v>
       </c>
       <c r="I45" t="n">
-        <v>5.329</v>
+        <v>5.075</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1994,30 +1994,30 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>5.807</v>
+        <v>4.762</v>
       </c>
       <c r="J46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2026,30 +2026,30 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
       <c r="H47" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>5.159</v>
+        <v>6.863</v>
       </c>
       <c r="J47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45136.15625</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2058,30 +2058,30 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F48" t="n">
-        <v>1.42</v>
+        <v>5.75</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H48" t="n">
-        <v>2.85</v>
+        <v>1.171</v>
       </c>
       <c r="I48" t="n">
-        <v>5.51</v>
+        <v>2.788</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2090,30 +2090,30 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
         <v>35</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G49" t="s">
         <v>36</v>
       </c>
-      <c r="F49" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
       <c r="H49" t="n">
-        <v>1.35</v>
+        <v>1.1615</v>
       </c>
       <c r="I49" t="n">
-        <v>5.324</v>
+        <v>3.487</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2122,30 +2122,30 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G50" t="s">
         <v>36</v>
       </c>
-      <c r="F50" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
       <c r="H50" t="n">
-        <v>1.37</v>
+        <v>1.152</v>
       </c>
       <c r="I50" t="n">
-        <v>5.251</v>
+        <v>4.197</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2154,30 +2154,30 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
         <v>35</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G51" t="s">
         <v>36</v>
       </c>
-      <c r="F51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
       <c r="H51" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="I51" t="n">
-        <v>5.324</v>
+        <v>5.138</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2186,30 +2186,30 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
         <v>35</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G52" t="s">
         <v>36</v>
       </c>
-      <c r="F52" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
       <c r="H52" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="I52" t="n">
-        <v>5.251</v>
+        <v>5.138</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2218,30 +2218,30 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
         <v>35</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G53" t="s">
         <v>36</v>
       </c>
-      <c r="F53" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
       <c r="H53" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="I53" t="n">
-        <v>6.125</v>
+        <v>5.138</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2250,30 +2250,30 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
         <v>35</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G54" t="s">
         <v>36</v>
       </c>
-      <c r="F54" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
       <c r="H54" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="I54" t="n">
-        <v>4.722</v>
+        <v>6.353</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2282,30 +2282,30 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
         <v>35</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G55" t="s">
         <v>36</v>
       </c>
-      <c r="F55" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
       <c r="H55" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="I55" t="n">
-        <v>5.169</v>
+        <v>5.576</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2314,30 +2314,30 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
         <v>35</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G56" t="s">
         <v>36</v>
       </c>
-      <c r="F56" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
       <c r="H56" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="I56" t="n">
-        <v>6.125</v>
+        <v>5.111</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2346,30 +2346,30 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
         <v>35</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G57" t="s">
         <v>36</v>
       </c>
-      <c r="F57" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
       <c r="H57" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="I57" t="n">
-        <v>4.722</v>
+        <v>5.111</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2378,30 +2378,30 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
         <v>35</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G58" t="s">
         <v>36</v>
       </c>
-      <c r="F58" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
       <c r="H58" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="I58" t="n">
-        <v>5.275</v>
+        <v>4.961</v>
       </c>
       <c r="J58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2410,30 +2410,30 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F59" t="n">
-        <v>2.539</v>
+        <v>5.75</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H59" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="I59" t="n">
-        <v>3.08</v>
+        <v>5.111</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2442,30 +2442,30 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F60" t="n">
-        <v>2.539</v>
+        <v>5.5</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H60" t="n">
-        <v>1.551</v>
+        <v>1.15</v>
       </c>
       <c r="I60" t="n">
-        <v>3.86</v>
+        <v>5.138</v>
       </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2474,30 +2474,30 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F61" t="n">
-        <v>2.52</v>
+        <v>5.5</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H61" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="I61" t="n">
-        <v>3.377</v>
+        <v>6.677</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2506,22 +2506,22 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="G62" t="s">
         <v>39</v>
       </c>
-      <c r="E62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
       <c r="H62" t="n">
-        <v>1.551</v>
+        <v>2.406</v>
       </c>
       <c r="I62" t="n">
-        <v>4.157</v>
+        <v>4.121</v>
       </c>
       <c r="J62" t="s">
         <v>15</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2538,22 +2538,22 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="G63" t="s">
         <v>39</v>
       </c>
-      <c r="E63" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2.501</v>
-      </c>
-      <c r="G63" t="s">
-        <v>41</v>
-      </c>
       <c r="H63" t="n">
-        <v>1.57</v>
+        <v>2.387</v>
       </c>
       <c r="I63" t="n">
-        <v>3.678</v>
+        <v>4.452</v>
       </c>
       <c r="J63" t="s">
         <v>15</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2570,22 +2570,22 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.5795</v>
+      </c>
+      <c r="G64" t="s">
         <v>39</v>
       </c>
-      <c r="E64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2.501</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
-      </c>
       <c r="H64" t="n">
-        <v>1.551</v>
+        <v>2.406</v>
       </c>
       <c r="I64" t="n">
-        <v>4.459</v>
+        <v>4.874</v>
       </c>
       <c r="J64" t="s">
         <v>15</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2602,30 +2602,30 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.5795</v>
+      </c>
+      <c r="G65" t="s">
         <v>39</v>
       </c>
-      <c r="E65" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>41</v>
-      </c>
       <c r="H65" t="n">
-        <v>1.58</v>
+        <v>2.387</v>
       </c>
       <c r="I65" t="n">
-        <v>5.664</v>
+        <v>5.205</v>
       </c>
       <c r="J65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2634,30 +2634,30 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G66" t="s">
         <v>39</v>
       </c>
-      <c r="E66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
       <c r="H66" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="I66" t="n">
-        <v>5.332</v>
+        <v>5.361</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2666,30 +2666,30 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G67" t="s">
         <v>39</v>
       </c>
-      <c r="E67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
-      </c>
       <c r="H67" t="n">
-        <v>1.62</v>
+        <v>2.45</v>
       </c>
       <c r="I67" t="n">
-        <v>5.207</v>
+        <v>5.332</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2698,30 +2698,30 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G68" t="s">
         <v>39</v>
       </c>
-      <c r="E68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
       <c r="H68" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="I68" t="n">
-        <v>6.533</v>
+        <v>5.359</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2730,30 +2730,30 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G69" t="s">
         <v>39</v>
       </c>
-      <c r="E69" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G69" t="s">
-        <v>41</v>
-      </c>
       <c r="H69" t="n">
-        <v>1.58</v>
+        <v>2.44</v>
       </c>
       <c r="I69" t="n">
-        <v>5.844</v>
+        <v>6.343</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2762,30 +2762,30 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G70" t="s">
         <v>39</v>
       </c>
-      <c r="E70" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G70" t="s">
-        <v>41</v>
-      </c>
       <c r="H70" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="I70" t="n">
-        <v>6.183</v>
+        <v>5.42</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2794,30 +2794,30 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G71" t="s">
         <v>39</v>
       </c>
-      <c r="E71" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G71" t="s">
-        <v>41</v>
-      </c>
       <c r="H71" t="n">
-        <v>1.55</v>
+        <v>2.49</v>
       </c>
       <c r="I71" t="n">
-        <v>5.332</v>
+        <v>5.096</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2826,30 +2826,30 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G72" t="s">
         <v>39</v>
       </c>
-      <c r="E72" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G72" t="s">
-        <v>41</v>
-      </c>
       <c r="H72" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="I72" t="n">
-        <v>5.053</v>
+        <v>5.207</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2858,30 +2858,30 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G73" t="s">
         <v>39</v>
       </c>
-      <c r="E73" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="G73" t="s">
-        <v>41</v>
-      </c>
       <c r="H73" t="n">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="I73" t="n">
-        <v>6.01</v>
+        <v>5.332</v>
       </c>
       <c r="J73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2890,30 +2890,30 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G74" t="s">
         <v>39</v>
       </c>
-      <c r="E74" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
       <c r="H74" t="n">
-        <v>1.55</v>
+        <v>2.49</v>
       </c>
       <c r="I74" t="n">
-        <v>5.332</v>
+        <v>5.096</v>
       </c>
       <c r="J74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2922,22 +2922,22 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G75" t="s">
         <v>39</v>
       </c>
-      <c r="E75" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G75" t="s">
-        <v>41</v>
-      </c>
       <c r="H75" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="I75" t="n">
-        <v>5.361</v>
+        <v>5.359</v>
       </c>
       <c r="J75" t="s">
         <v>26</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2954,30 +2954,30 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F76" t="n">
-        <v>2.653</v>
+        <v>1.54</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H76" t="n">
-        <v>1.513</v>
+        <v>2.4</v>
       </c>
       <c r="I76" t="n">
-        <v>3.787</v>
+        <v>6.602</v>
       </c>
       <c r="J76" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2986,30 +2986,30 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G77" t="s">
         <v>42</v>
       </c>
-      <c r="E77" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2.653</v>
-      </c>
-      <c r="G77" t="s">
-        <v>44</v>
-      </c>
       <c r="H77" t="n">
-        <v>1.5035</v>
+        <v>2.1</v>
       </c>
       <c r="I77" t="n">
-        <v>4.205</v>
+        <v>5.09</v>
       </c>
       <c r="J77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -3018,30 +3018,30 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G78" t="s">
         <v>42</v>
       </c>
-      <c r="E78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="G78" t="s">
-        <v>44</v>
-      </c>
       <c r="H78" t="n">
-        <v>1.513</v>
+        <v>2.08</v>
       </c>
       <c r="I78" t="n">
-        <v>5.479</v>
+        <v>5.22</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3050,30 +3050,30 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G79" t="s">
         <v>42</v>
       </c>
-      <c r="E79" t="s">
-        <v>43</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
       <c r="H79" t="n">
-        <v>1.5035</v>
+        <v>1.95</v>
       </c>
       <c r="I79" t="n">
-        <v>5.897</v>
+        <v>5.336</v>
       </c>
       <c r="J79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3082,30 +3082,30 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G80" t="s">
         <v>42</v>
       </c>
-      <c r="E80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G80" t="s">
-        <v>44</v>
-      </c>
       <c r="H80" t="n">
-        <v>1.51</v>
+        <v>2.08</v>
       </c>
       <c r="I80" t="n">
-        <v>5.288</v>
+        <v>6.556</v>
       </c>
       <c r="J80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3114,30 +3114,30 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G81" t="s">
         <v>42</v>
       </c>
-      <c r="E81" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G81" t="s">
-        <v>44</v>
-      </c>
       <c r="H81" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="I81" t="n">
-        <v>5.128</v>
+        <v>5.423</v>
       </c>
       <c r="J81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3146,30 +3146,30 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G82" t="s">
         <v>42</v>
       </c>
-      <c r="E82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>44</v>
-      </c>
       <c r="H82" t="n">
-        <v>1.46</v>
+        <v>2.1</v>
       </c>
       <c r="I82" t="n">
-        <v>5.53</v>
+        <v>4.762</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3178,30 +3178,30 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G83" t="s">
         <v>42</v>
       </c>
-      <c r="E83" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G83" t="s">
-        <v>44</v>
-      </c>
       <c r="H83" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="I83" t="n">
-        <v>6.349</v>
+        <v>5.423</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3210,30 +3210,30 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G84" t="s">
         <v>42</v>
       </c>
-      <c r="E84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G84" t="s">
-        <v>44</v>
-      </c>
       <c r="H84" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="I84" t="n">
-        <v>5.005</v>
+        <v>4.762</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3242,30 +3242,30 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E85" t="s">
         <v>43</v>
       </c>
       <c r="F85" t="n">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H85" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="I85" t="n">
-        <v>5.882</v>
+        <v>5.336</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -3274,30 +3274,30 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G86" t="s">
         <v>42</v>
       </c>
-      <c r="E86" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G86" t="s">
-        <v>44</v>
-      </c>
       <c r="H86" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="I86" t="n">
-        <v>5.005</v>
+        <v>6.443</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3306,30 +3306,30 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F87" t="n">
-        <v>2.65</v>
+        <v>8.22</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H87" t="n">
-        <v>1.48</v>
+        <v>1.114</v>
       </c>
       <c r="I87" t="n">
-        <v>5.303</v>
+        <v>1.932</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3338,30 +3338,30 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F88" t="n">
-        <v>2.55</v>
+        <v>8.22</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H88" t="n">
-        <v>1.5</v>
+        <v>1.1045</v>
       </c>
       <c r="I88" t="n">
-        <v>5.882</v>
+        <v>2.704</v>
       </c>
       <c r="J88" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3370,30 +3370,30 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F89" t="n">
-        <v>2.5</v>
+        <v>8.22</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H89" t="n">
-        <v>1.53</v>
+        <v>1.095</v>
       </c>
       <c r="I89" t="n">
-        <v>5.359</v>
+        <v>3.49</v>
       </c>
       <c r="J89" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -3402,30 +3402,30 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F90" t="n">
-        <v>2.55</v>
+        <v>8.03</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H90" t="n">
-        <v>1.52</v>
+        <v>1.114</v>
       </c>
       <c r="I90" t="n">
-        <v>5.005</v>
+        <v>2.22</v>
       </c>
       <c r="J90" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3434,22 +3434,22 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
         <v>45</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="G91" t="s">
         <v>46</v>
       </c>
-      <c r="F91" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="G91" t="s">
-        <v>47</v>
-      </c>
       <c r="H91" t="n">
-        <v>1.722</v>
+        <v>1.1045</v>
       </c>
       <c r="I91" t="n">
-        <v>3.198</v>
+        <v>2.992</v>
       </c>
       <c r="J91" t="s">
         <v>15</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3466,22 +3466,22 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" t="s">
         <v>45</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="G92" t="s">
         <v>46</v>
       </c>
-      <c r="F92" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="G92" t="s">
-        <v>47</v>
-      </c>
       <c r="H92" t="n">
-        <v>1.7125</v>
+        <v>1.095</v>
       </c>
       <c r="I92" t="n">
-        <v>3.521</v>
+        <v>3.778</v>
       </c>
       <c r="J92" t="s">
         <v>15</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3498,30 +3498,30 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
         <v>45</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="n">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
         <v>46</v>
       </c>
-      <c r="F93" t="n">
-        <v>2.216</v>
-      </c>
-      <c r="G93" t="s">
-        <v>47</v>
-      </c>
       <c r="H93" t="n">
-        <v>1.703</v>
+        <v>1.1</v>
       </c>
       <c r="I93" t="n">
-        <v>3.846</v>
+        <v>5.195</v>
       </c>
       <c r="J93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3530,30 +3530,30 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
         <v>45</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="n">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
         <v>46</v>
       </c>
-      <c r="F94" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G94" t="s">
-        <v>47</v>
-      </c>
       <c r="H94" t="n">
-        <v>1.722</v>
+        <v>1.1</v>
       </c>
       <c r="I94" t="n">
-        <v>3.589</v>
+        <v>5.195</v>
       </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3562,30 +3562,30 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
         <v>45</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="n">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
         <v>46</v>
       </c>
-      <c r="F95" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G95" t="s">
-        <v>47</v>
-      </c>
       <c r="H95" t="n">
-        <v>1.7125</v>
+        <v>1.1</v>
       </c>
       <c r="I95" t="n">
-        <v>3.911</v>
+        <v>5.195</v>
       </c>
       <c r="J95" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3594,30 +3594,30 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
         <v>45</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G96" t="s">
         <v>46</v>
       </c>
-      <c r="F96" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G96" t="s">
-        <v>47</v>
-      </c>
       <c r="H96" t="n">
-        <v>1.703</v>
+        <v>1.09</v>
       </c>
       <c r="I96" t="n">
-        <v>4.237</v>
+        <v>6.236</v>
       </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3626,30 +3626,30 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
         <v>45</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="n">
+        <v>7</v>
+      </c>
+      <c r="G97" t="s">
         <v>46</v>
       </c>
-      <c r="F97" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="G97" t="s">
-        <v>47</v>
-      </c>
       <c r="H97" t="n">
-        <v>1.722</v>
+        <v>1.09</v>
       </c>
       <c r="I97" t="n">
-        <v>3.986</v>
+        <v>6.029</v>
       </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3658,30 +3658,30 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
         <v>45</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="n">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
         <v>46</v>
       </c>
-      <c r="F98" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="G98" t="s">
-        <v>47</v>
-      </c>
       <c r="H98" t="n">
-        <v>1.7125</v>
+        <v>1.1</v>
       </c>
       <c r="I98" t="n">
-        <v>4.308</v>
+        <v>5.195</v>
       </c>
       <c r="J98" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3690,30 +3690,30 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
         <v>45</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="n">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
         <v>46</v>
       </c>
-      <c r="F99" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="G99" t="s">
-        <v>47</v>
-      </c>
       <c r="H99" t="n">
-        <v>1.703</v>
+        <v>1.1</v>
       </c>
       <c r="I99" t="n">
-        <v>4.634</v>
+        <v>5.195</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3722,30 +3722,30 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
         <v>45</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="n">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
         <v>46</v>
       </c>
-      <c r="F100" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>47</v>
-      </c>
       <c r="H100" t="n">
-        <v>1.66</v>
+        <v>1.1</v>
       </c>
       <c r="I100" t="n">
-        <v>5.286</v>
+        <v>5.195</v>
       </c>
       <c r="J100" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3754,30 +3754,30 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" t="s">
         <v>45</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" t="s">
         <v>46</v>
       </c>
-      <c r="F101" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>47</v>
-      </c>
       <c r="H101" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="I101" t="n">
-        <v>5.335</v>
+        <v>5.195</v>
       </c>
       <c r="J101" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3786,30 +3786,30 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
         <v>45</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="n">
+        <v>7</v>
+      </c>
+      <c r="G102" t="s">
         <v>46</v>
       </c>
-      <c r="F102" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G102" t="s">
-        <v>47</v>
-      </c>
       <c r="H102" t="n">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="I102" t="n">
-        <v>5.335</v>
+        <v>5.195</v>
       </c>
       <c r="J102" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3818,30 +3818,30 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
         <v>45</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="n">
+        <v>7</v>
+      </c>
+      <c r="G103" t="s">
         <v>46</v>
       </c>
-      <c r="F103" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>47</v>
-      </c>
       <c r="H103" t="n">
-        <v>1.69</v>
+        <v>1.1</v>
       </c>
       <c r="I103" t="n">
-        <v>6.341</v>
+        <v>5.195</v>
       </c>
       <c r="J103" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3850,30 +3850,30 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F104" t="n">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H104" t="n">
-        <v>1.7</v>
+        <v>1.456</v>
       </c>
       <c r="I104" t="n">
-        <v>5.335</v>
+        <v>3.164</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3882,30 +3882,30 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F105" t="n">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H105" t="n">
-        <v>1.65</v>
+        <v>1.4275</v>
       </c>
       <c r="I105" t="n">
-        <v>7.118</v>
+        <v>4.535</v>
       </c>
       <c r="J105" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3914,30 +3914,30 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F106" t="n">
-        <v>2.2</v>
+        <v>2.805</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H106" t="n">
-        <v>1.67</v>
+        <v>1.456</v>
       </c>
       <c r="I106" t="n">
-        <v>5.335</v>
+        <v>4.332</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3946,30 +3946,30 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F107" t="n">
-        <v>2.15</v>
+        <v>2.805</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H107" t="n">
-        <v>1.7</v>
+        <v>1.4275</v>
       </c>
       <c r="I107" t="n">
-        <v>5.335</v>
+        <v>5.703</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3978,30 +3978,30 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F108" t="n">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H108" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="I108" t="n">
-        <v>5.759</v>
+        <v>5.327</v>
       </c>
       <c r="J108" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -4010,30 +4010,30 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F109" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H109" t="n">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="I109" t="n">
-        <v>5.335</v>
+        <v>5.169</v>
       </c>
       <c r="J109" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4042,30 +4042,30 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F110" t="n">
-        <v>2.18</v>
+        <v>2.95</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H110" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="I110" t="n">
-        <v>5.395</v>
+        <v>5.327</v>
       </c>
       <c r="J110" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4074,30 +4074,30 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" t="s">
         <v>48</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G111" t="s">
         <v>49</v>
       </c>
-      <c r="F111" t="n">
-        <v>2.463</v>
-      </c>
-      <c r="G111" t="s">
-        <v>50</v>
-      </c>
       <c r="H111" t="n">
-        <v>1.5985</v>
+        <v>1.39</v>
       </c>
       <c r="I111" t="n">
-        <v>3.16</v>
+        <v>6.425</v>
       </c>
       <c r="J111" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4106,30 +4106,30 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" t="s">
         <v>48</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G112" t="s">
         <v>49</v>
       </c>
-      <c r="F112" t="n">
-        <v>2.463</v>
-      </c>
-      <c r="G112" t="s">
-        <v>50</v>
-      </c>
       <c r="H112" t="n">
-        <v>1.589</v>
+        <v>1.42</v>
       </c>
       <c r="I112" t="n">
-        <v>3.534</v>
+        <v>4.905</v>
       </c>
       <c r="J112" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -4138,30 +4138,30 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" t="s">
         <v>48</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G113" t="s">
         <v>49</v>
       </c>
-      <c r="F113" t="n">
-        <v>2.463</v>
-      </c>
-      <c r="G113" t="s">
-        <v>50</v>
-      </c>
       <c r="H113" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="I113" t="n">
-        <v>4.295</v>
+        <v>5.052</v>
       </c>
       <c r="J113" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -4170,30 +4170,30 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" t="s">
         <v>48</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G114" t="s">
         <v>49</v>
       </c>
-      <c r="F114" t="n">
-        <v>2.425</v>
-      </c>
-      <c r="G114" t="s">
-        <v>50</v>
-      </c>
       <c r="H114" t="n">
-        <v>1.5985</v>
+        <v>1.42</v>
       </c>
       <c r="I114" t="n">
-        <v>3.796</v>
+        <v>5.51</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4202,30 +4202,30 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E115" t="s">
         <v>48</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
         <v>49</v>
       </c>
-      <c r="F115" t="n">
-        <v>2.425</v>
-      </c>
-      <c r="G115" t="s">
-        <v>50</v>
-      </c>
       <c r="H115" t="n">
-        <v>1.589</v>
+        <v>1.4</v>
       </c>
       <c r="I115" t="n">
-        <v>4.17</v>
+        <v>4.762</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4234,30 +4234,30 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
+        <v>47</v>
+      </c>
+      <c r="E116" t="s">
         <v>48</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G116" t="s">
         <v>49</v>
       </c>
-      <c r="F116" t="n">
-        <v>2.425</v>
-      </c>
-      <c r="G116" t="s">
-        <v>50</v>
-      </c>
       <c r="H116" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="I116" t="n">
-        <v>4.931</v>
+        <v>5.052</v>
       </c>
       <c r="J116" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4266,30 +4266,30 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" t="s">
         <v>48</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
         <v>49</v>
       </c>
-      <c r="F117" t="n">
-        <v>2.406</v>
-      </c>
-      <c r="G117" t="s">
-        <v>50</v>
-      </c>
       <c r="H117" t="n">
-        <v>1.5985</v>
+        <v>1.4</v>
       </c>
       <c r="I117" t="n">
-        <v>4.121</v>
+        <v>4.762</v>
       </c>
       <c r="J117" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4298,30 +4298,30 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118" t="s">
         <v>48</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G118" t="s">
         <v>49</v>
       </c>
-      <c r="F118" t="n">
-        <v>2.406</v>
-      </c>
-      <c r="G118" t="s">
-        <v>50</v>
-      </c>
       <c r="H118" t="n">
-        <v>1.589</v>
+        <v>1.38</v>
       </c>
       <c r="I118" t="n">
-        <v>4.495</v>
+        <v>6.947</v>
       </c>
       <c r="J118" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4330,30 +4330,30 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F119" t="n">
-        <v>2.406</v>
+        <v>2.95</v>
       </c>
       <c r="G119" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H119" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="I119" t="n">
-        <v>5.257</v>
+        <v>5.327</v>
       </c>
       <c r="J119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -4362,30 +4362,30 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F120" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="G120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H120" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="I120" t="n">
-        <v>5.042</v>
+        <v>5.169</v>
       </c>
       <c r="J120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -4394,30 +4394,30 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F121" t="n">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="G121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H121" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="I121" t="n">
-        <v>4.958</v>
+        <v>5.018</v>
       </c>
       <c r="J121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4426,30 +4426,30 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F122" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="G122" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H122" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="I122" t="n">
-        <v>5.361</v>
+        <v>5.327</v>
       </c>
       <c r="J122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4458,30 +4458,30 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F123" t="n">
-        <v>2.42</v>
+        <v>2.95</v>
       </c>
       <c r="G123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H123" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="I123" t="n">
-        <v>6.257</v>
+        <v>5.327</v>
       </c>
       <c r="J123" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4490,30 +4490,30 @@
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F124" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="G124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H124" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="I124" t="n">
-        <v>4.511</v>
+        <v>5.911</v>
       </c>
       <c r="J124" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4522,30 +4522,30 @@
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F125" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="G125" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H125" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="I125" t="n">
-        <v>6.112</v>
+        <v>5.052</v>
       </c>
       <c r="J125" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4554,30 +4554,30 @@
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F126" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G126" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H126" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="I126" t="n">
-        <v>5.359</v>
+        <v>5.159</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4586,54 +4586,54 @@
         <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F127" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="G127" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H127" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="I127" t="n">
-        <v>5.332</v>
+        <v>5.911</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D128" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E128" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F128" t="n">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="G128" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H128" t="n">
-        <v>1.52</v>
+        <v>2.8</v>
       </c>
       <c r="I128" t="n">
-        <v>6.112</v>
+        <v>5.159</v>
       </c>
       <c r="J128" t="s">
         <v>24</v>
@@ -4641,2049 +4641,257 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45150.15625</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D129" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E129" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F129" t="n">
-        <v>2.45</v>
+        <v>4.1</v>
       </c>
       <c r="G129" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H129" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="I129" t="n">
-        <v>5.332</v>
+        <v>5.035</v>
       </c>
       <c r="J129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45150.15625</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E130" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F130" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G130" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H130" t="n">
-        <v>1.57</v>
+        <v>2.99</v>
       </c>
       <c r="I130" t="n">
-        <v>5.361</v>
+        <v>4.873</v>
       </c>
       <c r="J130" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F131" t="n">
-        <v>2.387</v>
+        <v>1.25</v>
       </c>
       <c r="G131" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H131" t="n">
-        <v>1.6175</v>
+        <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3.717</v>
+        <v>5</v>
       </c>
       <c r="J131" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D132" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E132" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F132" t="n">
-        <v>2.387</v>
+        <v>2.31</v>
       </c>
       <c r="G132" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H132" t="n">
-        <v>1.5985</v>
+        <v>1.62</v>
       </c>
       <c r="I132" t="n">
-        <v>4.452</v>
+        <v>5.018</v>
       </c>
       <c r="J132" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D133" t="s">
+        <v>60</v>
+      </c>
+      <c r="E133" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G133" t="s">
         <v>51</v>
       </c>
-      <c r="E133" t="s">
-        <v>52</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2.387</v>
-      </c>
-      <c r="G133" t="s">
-        <v>53</v>
-      </c>
       <c r="H133" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="I133" t="n">
-        <v>5.588</v>
+        <v>5.11</v>
       </c>
       <c r="J133" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D134" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E134" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F134" t="n">
-        <v>2.368</v>
+        <v>2.55</v>
       </c>
       <c r="G134" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="H134" t="n">
-        <v>1.6175</v>
+        <v>1.52</v>
       </c>
       <c r="I134" t="n">
-        <v>4.054</v>
+        <v>5.005</v>
       </c>
       <c r="J134" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D135" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E135" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F135" t="n">
-        <v>2.368</v>
+        <v>2.12</v>
       </c>
       <c r="G135" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H135" t="n">
-        <v>1.5985</v>
+        <v>1.73</v>
       </c>
       <c r="I135" t="n">
-        <v>4.788</v>
+        <v>4.973</v>
       </c>
       <c r="J135" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D136" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E136" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F136" t="n">
-        <v>2.368</v>
+        <v>1.43</v>
       </c>
       <c r="G136" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H136" t="n">
-        <v>1.57</v>
+        <v>2.86</v>
       </c>
       <c r="I136" t="n">
-        <v>5.924</v>
+        <v>4.895</v>
       </c>
       <c r="J136" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>51</v>
-      </c>
-      <c r="E137" t="s">
-        <v>52</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="G137" t="s">
-        <v>53</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1.6175</v>
-      </c>
-      <c r="I137" t="n">
-        <v>4.742</v>
-      </c>
-      <c r="J137" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s">
-        <v>51</v>
-      </c>
-      <c r="E138" t="s">
-        <v>52</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="G138" t="s">
-        <v>53</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1.5985</v>
-      </c>
-      <c r="I138" t="n">
-        <v>5.477</v>
-      </c>
-      <c r="J138" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
-        <v>51</v>
-      </c>
-      <c r="E139" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="G139" t="s">
-        <v>53</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I139" t="n">
-        <v>6.613</v>
-      </c>
-      <c r="J139" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s">
-        <v>51</v>
-      </c>
-      <c r="E140" t="s">
-        <v>52</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G140" t="s">
-        <v>53</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I140" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B141" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s">
-        <v>51</v>
-      </c>
-      <c r="E141" t="s">
-        <v>52</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G141" t="s">
-        <v>53</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5.215</v>
-      </c>
-      <c r="J141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s">
-        <v>51</v>
-      </c>
-      <c r="E142" t="s">
-        <v>52</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G142" t="s">
-        <v>53</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5.335</v>
-      </c>
-      <c r="J142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>51</v>
-      </c>
-      <c r="E143" t="s">
-        <v>52</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>53</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I143" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J143" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s">
-        <v>51</v>
-      </c>
-      <c r="E144" t="s">
-        <v>52</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G144" t="s">
-        <v>53</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5.051</v>
-      </c>
-      <c r="J144" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B145" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s">
-        <v>51</v>
-      </c>
-      <c r="E145" t="s">
-        <v>52</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G145" t="s">
-        <v>53</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I145" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="J145" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B146" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s">
-        <v>51</v>
-      </c>
-      <c r="E146" t="s">
-        <v>52</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G146" t="s">
-        <v>53</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5.207</v>
-      </c>
-      <c r="J146" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s">
-        <v>51</v>
-      </c>
-      <c r="E147" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G147" t="s">
-        <v>53</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5.207</v>
-      </c>
-      <c r="J147" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B148" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s">
-        <v>51</v>
-      </c>
-      <c r="E148" t="s">
-        <v>52</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G148" t="s">
-        <v>53</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I148" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J148" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B149" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s">
-        <v>51</v>
-      </c>
-      <c r="E149" t="s">
-        <v>52</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G149" t="s">
-        <v>53</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5.053</v>
-      </c>
-      <c r="J149" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>45137.2777777778</v>
-      </c>
-      <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s">
-        <v>51</v>
-      </c>
-      <c r="E150" t="s">
-        <v>52</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G150" t="s">
-        <v>53</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.207</v>
-      </c>
-      <c r="J150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B151" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" t="s">
-        <v>54</v>
-      </c>
-      <c r="D151" t="s">
-        <v>55</v>
-      </c>
-      <c r="E151" t="s">
-        <v>31</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1.5035</v>
-      </c>
-      <c r="G151" t="s">
-        <v>49</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2.425</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7.749</v>
-      </c>
-      <c r="J151" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" t="s">
-        <v>54</v>
-      </c>
-      <c r="D152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E152" t="s">
-        <v>31</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1.5035</v>
-      </c>
-      <c r="G152" t="s">
-        <v>49</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="I152" t="n">
-        <v>11.254</v>
-      </c>
-      <c r="J152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>54</v>
-      </c>
-      <c r="D153" t="s">
-        <v>55</v>
-      </c>
-      <c r="E153" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1.5035</v>
-      </c>
-      <c r="G153" t="s">
-        <v>49</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I153" t="n">
-        <v>14.519</v>
-      </c>
-      <c r="J153" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" t="s">
-        <v>54</v>
-      </c>
-      <c r="D154" t="s">
-        <v>55</v>
-      </c>
-      <c r="E154" t="s">
-        <v>31</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="G154" t="s">
-        <v>49</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2.425</v>
-      </c>
-      <c r="I154" t="n">
-        <v>9.918</v>
-      </c>
-      <c r="J154" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B155" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" t="s">
-        <v>54</v>
-      </c>
-      <c r="D155" t="s">
-        <v>55</v>
-      </c>
-      <c r="E155" t="s">
-        <v>31</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="G155" t="s">
-        <v>49</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="I155" t="n">
-        <v>13.424</v>
-      </c>
-      <c r="J155" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="s">
-        <v>54</v>
-      </c>
-      <c r="D156" t="s">
-        <v>55</v>
-      </c>
-      <c r="E156" t="s">
-        <v>31</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="G156" t="s">
-        <v>49</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I156" t="n">
-        <v>16.689</v>
-      </c>
-      <c r="J156" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B157" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" t="s">
-        <v>54</v>
-      </c>
-      <c r="D157" t="s">
-        <v>55</v>
-      </c>
-      <c r="E157" t="s">
-        <v>31</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G157" t="s">
-        <v>49</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.511</v>
-      </c>
-      <c r="J157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>45142.4097222222</v>
-      </c>
-      <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" t="s">
-        <v>54</v>
-      </c>
-      <c r="D158" t="s">
-        <v>55</v>
-      </c>
-      <c r="E158" t="s">
-        <v>31</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G158" t="s">
-        <v>49</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.919</v>
-      </c>
-      <c r="J158" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>45143.15625</v>
-      </c>
-      <c r="B159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" t="s">
-        <v>54</v>
-      </c>
-      <c r="D159" t="s">
-        <v>56</v>
-      </c>
-      <c r="E159" t="s">
-        <v>40</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1.0095</v>
-      </c>
-      <c r="G159" t="s">
-        <v>52</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1.0095</v>
-      </c>
-      <c r="I159" t="n">
-        <v>98.118</v>
-      </c>
-      <c r="J159" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>45143.15625</v>
-      </c>
-      <c r="B160" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" t="s">
-        <v>56</v>
-      </c>
-      <c r="E160" t="s">
-        <v>40</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G160" t="s">
-        <v>52</v>
-      </c>
-      <c r="H160" t="n">
-        <v>11</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5.245</v>
-      </c>
-      <c r="J160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>45143.15625</v>
-      </c>
-      <c r="B161" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" t="s">
-        <v>54</v>
-      </c>
-      <c r="D161" t="s">
-        <v>56</v>
-      </c>
-      <c r="E161" t="s">
-        <v>40</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G161" t="s">
-        <v>52</v>
-      </c>
-      <c r="H161" t="n">
-        <v>11</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5.245</v>
-      </c>
-      <c r="J161" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>45143.1736111111</v>
-      </c>
-      <c r="B162" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162" t="s">
-        <v>57</v>
-      </c>
-      <c r="E162" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="G162" t="s">
-        <v>36</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I162" t="n">
-        <v>10.069</v>
-      </c>
-      <c r="J162" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>45143.1736111111</v>
-      </c>
-      <c r="B163" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" t="s">
-        <v>54</v>
-      </c>
-      <c r="D163" t="s">
-        <v>57</v>
-      </c>
-      <c r="E163" t="s">
-        <v>43</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1.2945</v>
-      </c>
-      <c r="G163" t="s">
-        <v>36</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I163" t="n">
-        <v>11.733</v>
-      </c>
-      <c r="J163" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>45143.1736111111</v>
-      </c>
-      <c r="B164" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" t="s">
-        <v>54</v>
-      </c>
-      <c r="D164" t="s">
-        <v>57</v>
-      </c>
-      <c r="E164" t="s">
-        <v>43</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G164" t="s">
-        <v>36</v>
-      </c>
-      <c r="H164" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.039</v>
-      </c>
-      <c r="J164" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>45143.1736111111</v>
-      </c>
-      <c r="B165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" t="s">
-        <v>54</v>
-      </c>
-      <c r="D165" t="s">
-        <v>57</v>
-      </c>
-      <c r="E165" t="s">
-        <v>43</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G165" t="s">
-        <v>36</v>
-      </c>
-      <c r="H165" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="I165" t="n">
-        <v>5.128</v>
-      </c>
-      <c r="J165" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>45143.2743055556</v>
-      </c>
-      <c r="B166" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" t="s">
-        <v>54</v>
-      </c>
-      <c r="D166" t="s">
-        <v>58</v>
-      </c>
-      <c r="E166" t="s">
-        <v>46</v>
-      </c>
-      <c r="F166" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.948</v>
-      </c>
-      <c r="J166" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>45143.2743055556</v>
-      </c>
-      <c r="B167" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" t="s">
-        <v>54</v>
-      </c>
-      <c r="D167" t="s">
-        <v>58</v>
-      </c>
-      <c r="E167" t="s">
-        <v>46</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="G167" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4.948</v>
-      </c>
-      <c r="J167" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" t="s">
-        <v>54</v>
-      </c>
-      <c r="D168" t="s">
-        <v>59</v>
-      </c>
-      <c r="E168" t="s">
-        <v>28</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1.5415</v>
-      </c>
-      <c r="G168" t="s">
-        <v>44</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2.463</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.473</v>
-      </c>
-      <c r="J168" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B169" t="s">
-        <v>10</v>
-      </c>
-      <c r="C169" t="s">
-        <v>54</v>
-      </c>
-      <c r="D169" t="s">
-        <v>59</v>
-      </c>
-      <c r="E169" t="s">
-        <v>28</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1.5415</v>
-      </c>
-      <c r="G169" t="s">
-        <v>44</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="I169" t="n">
-        <v>9.615</v>
-      </c>
-      <c r="J169" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B170" t="s">
-        <v>10</v>
-      </c>
-      <c r="C170" t="s">
-        <v>54</v>
-      </c>
-      <c r="D170" t="s">
-        <v>59</v>
-      </c>
-      <c r="E170" t="s">
-        <v>28</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1.5415</v>
-      </c>
-      <c r="G170" t="s">
-        <v>44</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I170" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="J170" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" t="s">
-        <v>54</v>
-      </c>
-      <c r="D171" t="s">
-        <v>59</v>
-      </c>
-      <c r="E171" t="s">
-        <v>28</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1.494</v>
-      </c>
-      <c r="G171" t="s">
-        <v>44</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2.463</v>
-      </c>
-      <c r="I171" t="n">
-        <v>7.535</v>
-      </c>
-      <c r="J171" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="s">
-        <v>54</v>
-      </c>
-      <c r="D172" t="s">
-        <v>59</v>
-      </c>
-      <c r="E172" t="s">
-        <v>28</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1.494</v>
-      </c>
-      <c r="G172" t="s">
-        <v>44</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="I172" t="n">
-        <v>11.677</v>
-      </c>
-      <c r="J172" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" t="s">
-        <v>54</v>
-      </c>
-      <c r="D173" t="s">
-        <v>59</v>
-      </c>
-      <c r="E173" t="s">
-        <v>28</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1.494</v>
-      </c>
-      <c r="G173" t="s">
-        <v>44</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I173" t="n">
-        <v>14.942</v>
-      </c>
-      <c r="J173" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" t="s">
-        <v>54</v>
-      </c>
-      <c r="D174" t="s">
-        <v>59</v>
-      </c>
-      <c r="E174" t="s">
-        <v>28</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1.4465</v>
-      </c>
-      <c r="G174" t="s">
-        <v>44</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2.463</v>
-      </c>
-      <c r="I174" t="n">
-        <v>9.733</v>
-      </c>
-      <c r="J174" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" t="s">
-        <v>54</v>
-      </c>
-      <c r="D175" t="s">
-        <v>59</v>
-      </c>
-      <c r="E175" t="s">
-        <v>28</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1.4465</v>
-      </c>
-      <c r="G175" t="s">
-        <v>44</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="I175" t="n">
-        <v>13.875</v>
-      </c>
-      <c r="J175" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B176" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" t="s">
-        <v>54</v>
-      </c>
-      <c r="D176" t="s">
-        <v>59</v>
-      </c>
-      <c r="E176" t="s">
-        <v>28</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.4465</v>
-      </c>
-      <c r="G176" t="s">
-        <v>44</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I176" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="J176" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177" t="s">
-        <v>59</v>
-      </c>
-      <c r="E177" t="s">
-        <v>28</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G177" t="s">
-        <v>44</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I177" t="n">
-        <v>5.359</v>
-      </c>
-      <c r="J177" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>45143.3923611111</v>
-      </c>
-      <c r="B178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" t="s">
-        <v>54</v>
-      </c>
-      <c r="D178" t="s">
-        <v>59</v>
-      </c>
-      <c r="E178" t="s">
-        <v>28</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G178" t="s">
-        <v>44</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I178" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="J178" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>45143.3958333333</v>
-      </c>
-      <c r="B179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" t="s">
-        <v>54</v>
-      </c>
-      <c r="D179" t="s">
-        <v>60</v>
-      </c>
-      <c r="E179" t="s">
-        <v>32</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G179" t="s">
-        <v>41</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I179" t="n">
-        <v>5.061</v>
-      </c>
-      <c r="J179" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>45143.3958333333</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" t="s">
-        <v>60</v>
-      </c>
-      <c r="E180" t="s">
-        <v>32</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G180" t="s">
-        <v>41</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J180" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>45144.1319444444</v>
-      </c>
-      <c r="B181" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" t="s">
-        <v>54</v>
-      </c>
-      <c r="D181" t="s">
-        <v>61</v>
-      </c>
-      <c r="E181" t="s">
-        <v>53</v>
-      </c>
-      <c r="F181" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G181" t="s">
-        <v>50</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4.961</v>
-      </c>
-      <c r="J181" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>45144.1319444444</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" t="s">
-        <v>54</v>
-      </c>
-      <c r="D182" t="s">
-        <v>61</v>
-      </c>
-      <c r="E182" t="s">
-        <v>53</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G182" t="s">
-        <v>50</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="I182" t="n">
-        <v>4.961</v>
-      </c>
-      <c r="J182" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" t="s">
-        <v>54</v>
-      </c>
-      <c r="D183" t="s">
-        <v>62</v>
-      </c>
-      <c r="E183" t="s">
-        <v>47</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2.995</v>
-      </c>
-      <c r="G183" t="s">
-        <v>14</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1.3515</v>
-      </c>
-      <c r="I183" t="n">
-        <v>7.381</v>
-      </c>
-      <c r="J183" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B184" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" t="s">
-        <v>54</v>
-      </c>
-      <c r="D184" t="s">
-        <v>62</v>
-      </c>
-      <c r="E184" t="s">
-        <v>47</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2.995</v>
-      </c>
-      <c r="G184" t="s">
-        <v>14</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="I184" t="n">
-        <v>8.975</v>
-      </c>
-      <c r="J184" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" t="s">
-        <v>54</v>
-      </c>
-      <c r="D185" t="s">
-        <v>62</v>
-      </c>
-      <c r="E185" t="s">
-        <v>47</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2.995</v>
-      </c>
-      <c r="G185" t="s">
-        <v>14</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1.285</v>
-      </c>
-      <c r="I185" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="J185" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B186" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" t="s">
-        <v>54</v>
-      </c>
-      <c r="D186" t="s">
-        <v>62</v>
-      </c>
-      <c r="E186" t="s">
-        <v>47</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2.767</v>
-      </c>
-      <c r="G186" t="s">
-        <v>14</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1.3515</v>
-      </c>
-      <c r="I186" t="n">
-        <v>10.132</v>
-      </c>
-      <c r="J186" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" t="s">
-        <v>54</v>
-      </c>
-      <c r="D187" t="s">
-        <v>62</v>
-      </c>
-      <c r="E187" t="s">
-        <v>47</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2.767</v>
-      </c>
-      <c r="G187" t="s">
-        <v>14</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="I187" t="n">
-        <v>11.726</v>
-      </c>
-      <c r="J187" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" t="s">
-        <v>54</v>
-      </c>
-      <c r="D188" t="s">
-        <v>62</v>
-      </c>
-      <c r="E188" t="s">
-        <v>47</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2.767</v>
-      </c>
-      <c r="G188" t="s">
-        <v>14</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1.285</v>
-      </c>
-      <c r="I188" t="n">
-        <v>13.961</v>
-      </c>
-      <c r="J188" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" t="s">
-        <v>54</v>
-      </c>
-      <c r="D189" t="s">
-        <v>62</v>
-      </c>
-      <c r="E189" t="s">
-        <v>47</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G189" t="s">
-        <v>14</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I189" t="n">
-        <v>4.905</v>
-      </c>
-      <c r="J189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>45144.2222222222</v>
-      </c>
-      <c r="B190" t="s">
-        <v>10</v>
-      </c>
-      <c r="C190" t="s">
-        <v>54</v>
-      </c>
-      <c r="D190" t="s">
-        <v>62</v>
-      </c>
-      <c r="E190" t="s">
-        <v>47</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="G190" t="s">
-        <v>14</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I190" t="n">
-        <v>4.669</v>
-      </c>
-      <c r="J190" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>45144.2777777778</v>
-      </c>
-      <c r="B191" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" t="s">
-        <v>54</v>
-      </c>
-      <c r="D191" t="s">
-        <v>63</v>
-      </c>
-      <c r="E191" t="s">
-        <v>29</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G191" t="s">
-        <v>37</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I191" t="n">
-        <v>5.641</v>
-      </c>
-      <c r="J191" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>45144.2777777778</v>
-      </c>
-      <c r="B192" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" t="s">
-        <v>54</v>
-      </c>
-      <c r="D192" t="s">
-        <v>63</v>
-      </c>
-      <c r="E192" t="s">
-        <v>29</v>
-      </c>
-      <c r="F192" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G192" t="s">
-        <v>38</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I192" t="n">
-        <v>5.006</v>
-      </c>
-      <c r="J192" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.349</v>
+        <v>2.368</v>
       </c>
       <c r="I2" t="n">
-        <v>3.325</v>
+        <v>2.983</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -630,10 +630,10 @@
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273</v>
+        <v>2.349</v>
       </c>
       <c r="I3" t="n">
-        <v>4.748</v>
+        <v>3.325</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -656,16 +656,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.6365</v>
+        <v>1.646</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.349</v>
+        <v>2.273</v>
       </c>
       <c r="I4" t="n">
-        <v>3.677</v>
+        <v>4.748</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -688,16 +688,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.6365</v>
+        <v>1.6175</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.273</v>
+        <v>2.368</v>
       </c>
       <c r="I5" t="n">
-        <v>5.101</v>
+        <v>4.054</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -720,19 +720,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>1.6175</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.35</v>
+        <v>2.349</v>
       </c>
       <c r="I6" t="n">
-        <v>5.053</v>
+        <v>4.395</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -752,19 +752,19 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.6175</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>2.273</v>
       </c>
       <c r="I7" t="n">
-        <v>5.235</v>
+        <v>5.819</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -784,19 +784,19 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958</v>
+        <v>5.053</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -816,19 +816,19 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>6.748</v>
+        <v>5.215</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -854,13 +854,13 @@
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.958</v>
+        <v>6.769</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -880,19 +880,19 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="I11" t="n">
-        <v>5.018</v>
+        <v>6.36</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -924,7 +924,7 @@
         <v>5.207</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -944,19 +944,19 @@
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="I13" t="n">
-        <v>5.053</v>
+        <v>5.215</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -982,13 +982,13 @@
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.018</v>
+        <v>5.207</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1005,22 +1005,22 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I15" t="n">
-        <v>4.958</v>
+        <v>5.053</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1040,24 +1040,24 @@
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>6.944</v>
+        <v>5.215</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1066,30 +1066,30 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>1.076</v>
+        <v>1.62</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>11.925</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1.323</v>
+        <v>5.207</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45142.4097222222</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1098,25 +1098,25 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>1.076</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>11.45</v>
+        <v>2.27</v>
       </c>
       <c r="I18" t="n">
-        <v>1.67</v>
+        <v>6.165</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1136,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0665</v>
+        <v>1.076</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -1145,7 +1145,7 @@
         <v>11.925</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>1.323</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0665</v>
+        <v>1.076</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -1177,7 +1177,7 @@
         <v>11.45</v>
       </c>
       <c r="I20" t="n">
-        <v>2.498</v>
+        <v>1.67</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1200,7 +1200,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>1.057</v>
+        <v>1.0665</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -1209,7 +1209,7 @@
         <v>11.925</v>
       </c>
       <c r="I21" t="n">
-        <v>2.993</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1232,7 +1232,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="n">
-        <v>1.057</v>
+        <v>1.0665</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -1241,7 +1241,7 @@
         <v>11.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.341</v>
+        <v>2.498</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1264,19 +1264,19 @@
         <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>1.05</v>
+        <v>1.057</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>11.925</v>
       </c>
       <c r="I23" t="n">
-        <v>5.238</v>
+        <v>2.993</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1296,19 +1296,19 @@
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>1.06</v>
+        <v>1.057</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>9.5</v>
+        <v>11.45</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866</v>
+        <v>3.341</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1340,7 +1340,7 @@
         <v>5.238</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1366,13 +1366,13 @@
         <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>9.2</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>6.108</v>
+        <v>5.238</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -1392,19 +1392,19 @@
         <v>29</v>
       </c>
       <c r="F27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>4.596</v>
+        <v>5.238</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1424,19 +1424,19 @@
         <v>29</v>
       </c>
       <c r="F28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
       </c>
       <c r="H28" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.866</v>
+        <v>6.571</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1462,13 +1462,13 @@
         <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>5.451</v>
+        <v>4.34</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1488,19 +1488,19 @@
         <v>29</v>
       </c>
       <c r="F30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I30" t="n">
-        <v>5.451</v>
+        <v>4.762</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1520,19 +1520,19 @@
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>4.866</v>
+        <v>5.238</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -1564,7 +1564,7 @@
         <v>5.451</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -1590,18 +1590,18 @@
         <v>30</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I33" t="n">
-        <v>6.349</v>
+        <v>4.762</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45143.15625</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1610,30 +1610,30 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3705</v>
+        <v>1.05</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H34" t="n">
-        <v>3.375</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>2.596</v>
+        <v>5.238</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45143.15625</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1642,25 +1642,25 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n">
-        <v>1.3515</v>
+        <v>1.05</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H35" t="n">
-        <v>3.375</v>
+        <v>9</v>
       </c>
       <c r="I35" t="n">
-        <v>3.621</v>
+        <v>6.349</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
@@ -1680,16 +1680,16 @@
         <v>32</v>
       </c>
       <c r="F36" t="n">
-        <v>1.342</v>
+        <v>1.3895</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>3.375</v>
+        <v>2.9475</v>
       </c>
       <c r="I36" t="n">
-        <v>4.145</v>
+        <v>5.895</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -1712,19 +1712,19 @@
         <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>1.33</v>
+        <v>1.3895</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491</v>
+        <v>6.451</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1744,19 +1744,19 @@
         <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>1.37</v>
+        <v>1.361</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>2.9475</v>
       </c>
       <c r="I38" t="n">
-        <v>5.251</v>
+        <v>7.402</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1776,19 +1776,19 @@
         <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>1.37</v>
+        <v>1.361</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>5.251</v>
+        <v>7.958</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1808,19 +1808,19 @@
         <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>1.35</v>
+        <v>1.3515</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>2.9475</v>
       </c>
       <c r="I40" t="n">
-        <v>6.861</v>
+        <v>7.919</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1840,19 +1840,19 @@
         <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>1.36</v>
+        <v>1.3515</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I41" t="n">
-        <v>5.787</v>
+        <v>8.475</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1872,19 +1872,19 @@
         <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>5.075</v>
+        <v>5.324</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1904,19 +1904,19 @@
         <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>5.327</v>
+        <v>5.251</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1936,19 +1936,19 @@
         <v>32</v>
       </c>
       <c r="F44" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>5.491</v>
+        <v>5.251</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1974,13 +1974,13 @@
         <v>33</v>
       </c>
       <c r="H45" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="I45" t="n">
-        <v>5.075</v>
+        <v>6.316</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -2000,19 +2000,19 @@
         <v>32</v>
       </c>
       <c r="F46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4.762</v>
+        <v>5.787</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -2038,18 +2038,18 @@
         <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="I47" t="n">
-        <v>6.863</v>
+        <v>5.075</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2058,30 +2058,30 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>5.75</v>
+        <v>1.37</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H48" t="n">
-        <v>1.171</v>
+        <v>3.15</v>
       </c>
       <c r="I48" t="n">
-        <v>2.788</v>
+        <v>4.739</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2090,30 +2090,30 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F49" t="n">
-        <v>5.75</v>
+        <v>1.36</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H49" t="n">
-        <v>1.1615</v>
+        <v>3.15</v>
       </c>
       <c r="I49" t="n">
-        <v>3.487</v>
+        <v>5.275</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2122,30 +2122,30 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F50" t="n">
-        <v>5.75</v>
+        <v>1.36</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H50" t="n">
-        <v>1.152</v>
+        <v>3.17</v>
       </c>
       <c r="I50" t="n">
-        <v>4.197</v>
+        <v>5.075</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2154,30 +2154,30 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>5.5</v>
+        <v>1.37</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H51" t="n">
-        <v>1.15</v>
+        <v>3.15</v>
       </c>
       <c r="I51" t="n">
-        <v>5.138</v>
+        <v>4.739</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2186,25 +2186,25 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F52" t="n">
-        <v>5.5</v>
+        <v>1.37</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H52" t="n">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>5.138</v>
+        <v>6.326</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -2224,19 +2224,19 @@
         <v>35</v>
       </c>
       <c r="F53" t="n">
-        <v>5.5</v>
+        <v>5.275</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
       </c>
       <c r="H53" t="n">
-        <v>1.15</v>
+        <v>1.1805</v>
       </c>
       <c r="I53" t="n">
-        <v>5.138</v>
+        <v>3.667</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -2256,19 +2256,19 @@
         <v>35</v>
       </c>
       <c r="F54" t="n">
-        <v>5.6</v>
+        <v>5.275</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
       </c>
       <c r="H54" t="n">
-        <v>1.13</v>
+        <v>1.171</v>
       </c>
       <c r="I54" t="n">
-        <v>6.353</v>
+        <v>4.354</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -2288,19 +2288,19 @@
         <v>35</v>
       </c>
       <c r="F55" t="n">
-        <v>5.6</v>
+        <v>5.275</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
       </c>
       <c r="H55" t="n">
-        <v>1.14</v>
+        <v>1.1615</v>
       </c>
       <c r="I55" t="n">
-        <v>5.576</v>
+        <v>5.053</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -2320,19 +2320,19 @@
         <v>35</v>
       </c>
       <c r="F56" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
       </c>
       <c r="H56" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="I56" t="n">
-        <v>5.111</v>
+        <v>5.47</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -2352,19 +2352,19 @@
         <v>35</v>
       </c>
       <c r="F57" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I57" t="n">
-        <v>5.111</v>
+        <v>5.138</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -2384,19 +2384,19 @@
         <v>35</v>
       </c>
       <c r="F58" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
       </c>
       <c r="H58" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I58" t="n">
-        <v>4.961</v>
+        <v>5.138</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -2416,19 +2416,19 @@
         <v>35</v>
       </c>
       <c r="F59" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
       </c>
       <c r="H59" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I59" t="n">
-        <v>5.111</v>
+        <v>6.957</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -2448,19 +2448,19 @@
         <v>35</v>
       </c>
       <c r="F60" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
       </c>
       <c r="H60" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I60" t="n">
-        <v>5.138</v>
+        <v>5.255</v>
       </c>
       <c r="J60" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -2480,24 +2480,24 @@
         <v>35</v>
       </c>
       <c r="F61" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
       </c>
       <c r="H61" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="I61" t="n">
-        <v>6.677</v>
+        <v>5.078</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2506,30 +2506,30 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F62" t="n">
-        <v>1.5985</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H62" t="n">
-        <v>2.406</v>
+        <v>1.17</v>
       </c>
       <c r="I62" t="n">
-        <v>4.121</v>
+        <v>5.47</v>
       </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2538,30 +2538,30 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F63" t="n">
-        <v>1.5985</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H63" t="n">
-        <v>2.387</v>
+        <v>1.17</v>
       </c>
       <c r="I63" t="n">
-        <v>4.452</v>
+        <v>5.47</v>
       </c>
       <c r="J63" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2570,30 +2570,30 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F64" t="n">
-        <v>1.5795</v>
+        <v>5.1</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H64" t="n">
-        <v>2.406</v>
+        <v>1.17</v>
       </c>
       <c r="I64" t="n">
-        <v>4.874</v>
+        <v>5.078</v>
       </c>
       <c r="J64" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2602,30 +2602,30 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F65" t="n">
-        <v>1.5795</v>
+        <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H65" t="n">
-        <v>2.387</v>
+        <v>1.17</v>
       </c>
       <c r="I65" t="n">
-        <v>5.205</v>
+        <v>5.47</v>
       </c>
       <c r="J65" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2634,25 +2634,25 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F66" t="n">
-        <v>1.57</v>
+        <v>5.1</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H66" t="n">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="I66" t="n">
-        <v>5.361</v>
+        <v>6.564</v>
       </c>
       <c r="J66" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -2672,19 +2672,19 @@
         <v>38</v>
       </c>
       <c r="F67" t="n">
-        <v>1.55</v>
+        <v>1.6175</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
       </c>
       <c r="H67" t="n">
-        <v>2.45</v>
+        <v>2.368</v>
       </c>
       <c r="I67" t="n">
-        <v>5.332</v>
+        <v>4.054</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -2704,19 +2704,19 @@
         <v>38</v>
       </c>
       <c r="F68" t="n">
-        <v>1.53</v>
+        <v>1.6175</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
       </c>
       <c r="H68" t="n">
-        <v>2.5</v>
+        <v>2.349</v>
       </c>
       <c r="I68" t="n">
-        <v>5.359</v>
+        <v>4.395</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -2736,19 +2736,19 @@
         <v>38</v>
       </c>
       <c r="F69" t="n">
-        <v>1.53</v>
+        <v>1.608</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
       </c>
       <c r="H69" t="n">
-        <v>2.44</v>
+        <v>2.368</v>
       </c>
       <c r="I69" t="n">
-        <v>6.343</v>
+        <v>4.419</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -2768,19 +2768,19 @@
         <v>38</v>
       </c>
       <c r="F70" t="n">
-        <v>1.64</v>
+        <v>1.608</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
       </c>
       <c r="H70" t="n">
-        <v>2.25</v>
+        <v>2.349</v>
       </c>
       <c r="I70" t="n">
-        <v>5.42</v>
+        <v>4.76</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -2800,19 +2800,19 @@
         <v>38</v>
       </c>
       <c r="F71" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
       </c>
       <c r="H71" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="I71" t="n">
-        <v>5.096</v>
+        <v>5.332</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -2832,19 +2832,19 @@
         <v>38</v>
       </c>
       <c r="F72" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
       </c>
       <c r="H72" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="I72" t="n">
-        <v>5.207</v>
+        <v>6.176</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -2864,19 +2864,19 @@
         <v>38</v>
       </c>
       <c r="F73" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
       </c>
       <c r="H73" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I73" t="n">
-        <v>5.332</v>
+        <v>5.359</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -2896,19 +2896,19 @@
         <v>38</v>
       </c>
       <c r="F74" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G74" t="s">
         <v>39</v>
       </c>
       <c r="H74" t="n">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="I74" t="n">
-        <v>5.096</v>
+        <v>6.183</v>
       </c>
       <c r="J74" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -2928,19 +2928,19 @@
         <v>38</v>
       </c>
       <c r="F75" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
       </c>
       <c r="H75" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I75" t="n">
-        <v>5.359</v>
+        <v>5.361</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2960,7 +2960,7 @@
         <v>38</v>
       </c>
       <c r="F76" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -2969,15 +2969,15 @@
         <v>2.4</v>
       </c>
       <c r="I76" t="n">
-        <v>6.602</v>
+        <v>4.958</v>
       </c>
       <c r="J76" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2986,30 +2986,30 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F77" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H77" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I77" t="n">
-        <v>5.09</v>
+        <v>4.958</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -3018,30 +3018,30 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F78" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H78" t="n">
-        <v>2.08</v>
+        <v>2.45</v>
       </c>
       <c r="I78" t="n">
-        <v>5.22</v>
+        <v>5.332</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3050,30 +3050,30 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F79" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H79" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="I79" t="n">
-        <v>5.336</v>
+        <v>4.958</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3082,30 +3082,30 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F80" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H80" t="n">
-        <v>2.08</v>
+        <v>2.45</v>
       </c>
       <c r="I80" t="n">
-        <v>6.556</v>
+        <v>5.332</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3114,25 +3114,25 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F81" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H81" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="I81" t="n">
-        <v>5.423</v>
+        <v>6.257</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
@@ -3152,19 +3152,19 @@
         <v>41</v>
       </c>
       <c r="F82" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
       </c>
       <c r="H82" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I82" t="n">
-        <v>4.762</v>
+        <v>5.278</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -3184,19 +3184,19 @@
         <v>41</v>
       </c>
       <c r="F83" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
       </c>
       <c r="H83" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I83" t="n">
-        <v>5.423</v>
+        <v>5.362</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -3216,19 +3216,19 @@
         <v>41</v>
       </c>
       <c r="F84" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G84" t="s">
         <v>42</v>
       </c>
       <c r="H84" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="I84" t="n">
-        <v>4.762</v>
+        <v>5.336</v>
       </c>
       <c r="J84" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -3245,22 +3245,22 @@
         <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F85" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G85" t="s">
         <v>42</v>
       </c>
       <c r="H85" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="I85" t="n">
-        <v>5.336</v>
+        <v>6.347</v>
       </c>
       <c r="J85" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -3280,24 +3280,24 @@
         <v>41</v>
       </c>
       <c r="F86" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
       </c>
       <c r="H86" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I86" t="n">
-        <v>6.443</v>
+        <v>5.278</v>
       </c>
       <c r="J86" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3306,30 +3306,30 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F87" t="n">
-        <v>8.22</v>
+        <v>1.75</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H87" t="n">
-        <v>1.114</v>
+        <v>2.1</v>
       </c>
       <c r="I87" t="n">
-        <v>1.932</v>
+        <v>4.762</v>
       </c>
       <c r="J87" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3338,30 +3338,30 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F88" t="n">
-        <v>8.22</v>
+        <v>1.73</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H88" t="n">
-        <v>1.1045</v>
+        <v>2.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.704</v>
+        <v>5.423</v>
       </c>
       <c r="J88" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3370,30 +3370,30 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F89" t="n">
-        <v>8.22</v>
+        <v>1.75</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H89" t="n">
-        <v>1.095</v>
+        <v>2.1</v>
       </c>
       <c r="I89" t="n">
-        <v>3.49</v>
+        <v>4.762</v>
       </c>
       <c r="J89" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -3402,30 +3402,30 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F90" t="n">
-        <v>8.03</v>
+        <v>1.77</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H90" t="n">
-        <v>1.114</v>
+        <v>2.05</v>
       </c>
       <c r="I90" t="n">
-        <v>2.22</v>
+        <v>5.278</v>
       </c>
       <c r="J90" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3434,25 +3434,25 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F91" t="n">
-        <v>8.03</v>
+        <v>1.74</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H91" t="n">
-        <v>1.1045</v>
+        <v>2.05</v>
       </c>
       <c r="I91" t="n">
-        <v>2.992</v>
+        <v>6.252</v>
       </c>
       <c r="J91" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
@@ -3472,16 +3472,16 @@
         <v>45</v>
       </c>
       <c r="F92" t="n">
-        <v>8.03</v>
+        <v>8.41</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
       </c>
       <c r="H92" t="n">
-        <v>1.095</v>
+        <v>1.114</v>
       </c>
       <c r="I92" t="n">
-        <v>3.778</v>
+        <v>1.657</v>
       </c>
       <c r="J92" t="s">
         <v>15</v>
@@ -3504,19 +3504,19 @@
         <v>45</v>
       </c>
       <c r="F93" t="n">
-        <v>7</v>
+        <v>8.41</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
       </c>
       <c r="H93" t="n">
-        <v>1.1</v>
+        <v>1.1045</v>
       </c>
       <c r="I93" t="n">
-        <v>5.195</v>
+        <v>2.429</v>
       </c>
       <c r="J93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -3536,19 +3536,19 @@
         <v>45</v>
       </c>
       <c r="F94" t="n">
-        <v>7</v>
+        <v>8.41</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
       </c>
       <c r="H94" t="n">
-        <v>1.1</v>
+        <v>1.095</v>
       </c>
       <c r="I94" t="n">
-        <v>5.195</v>
+        <v>3.215</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -3568,19 +3568,19 @@
         <v>45</v>
       </c>
       <c r="F95" t="n">
-        <v>7</v>
+        <v>8.22</v>
       </c>
       <c r="G95" t="s">
         <v>46</v>
       </c>
       <c r="H95" t="n">
-        <v>1.1</v>
+        <v>1.114</v>
       </c>
       <c r="I95" t="n">
-        <v>5.195</v>
+        <v>1.932</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -3600,19 +3600,19 @@
         <v>45</v>
       </c>
       <c r="F96" t="n">
-        <v>6.9</v>
+        <v>8.22</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
       </c>
       <c r="H96" t="n">
-        <v>1.09</v>
+        <v>1.1045</v>
       </c>
       <c r="I96" t="n">
-        <v>6.236</v>
+        <v>2.704</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -3632,19 +3632,19 @@
         <v>45</v>
       </c>
       <c r="F97" t="n">
-        <v>7</v>
+        <v>8.22</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
       </c>
       <c r="H97" t="n">
-        <v>1.09</v>
+        <v>1.095</v>
       </c>
       <c r="I97" t="n">
-        <v>6.029</v>
+        <v>3.49</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -3664,19 +3664,19 @@
         <v>45</v>
       </c>
       <c r="F98" t="n">
-        <v>7</v>
+        <v>7.65</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
       </c>
       <c r="H98" t="n">
-        <v>1.1</v>
+        <v>1.114</v>
       </c>
       <c r="I98" t="n">
-        <v>5.195</v>
+        <v>2.839</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -3696,19 +3696,19 @@
         <v>45</v>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>7.65</v>
       </c>
       <c r="G99" t="s">
         <v>46</v>
       </c>
       <c r="H99" t="n">
-        <v>1.1</v>
+        <v>1.1045</v>
       </c>
       <c r="I99" t="n">
-        <v>5.195</v>
+        <v>3.611</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -3728,19 +3728,19 @@
         <v>45</v>
       </c>
       <c r="F100" t="n">
-        <v>7</v>
+        <v>7.65</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
       </c>
       <c r="H100" t="n">
-        <v>1.1</v>
+        <v>1.095</v>
       </c>
       <c r="I100" t="n">
-        <v>5.195</v>
+        <v>4.396</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -3772,7 +3772,7 @@
         <v>5.195</v>
       </c>
       <c r="J101" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
@@ -3804,7 +3804,7 @@
         <v>5.195</v>
       </c>
       <c r="J102" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
@@ -3836,12 +3836,12 @@
         <v>5.195</v>
       </c>
       <c r="J103" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3850,30 +3850,30 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F104" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="G104" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H104" t="n">
-        <v>1.456</v>
+        <v>1.09</v>
       </c>
       <c r="I104" t="n">
-        <v>3.164</v>
+        <v>6.236</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3882,30 +3882,30 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F105" t="n">
-        <v>2.9</v>
+        <v>7.25</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H105" t="n">
-        <v>1.4275</v>
+        <v>1.09</v>
       </c>
       <c r="I105" t="n">
-        <v>4.535</v>
+        <v>5.536</v>
       </c>
       <c r="J105" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3914,30 +3914,30 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F106" t="n">
-        <v>2.805</v>
+        <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H106" t="n">
-        <v>1.456</v>
+        <v>1.1</v>
       </c>
       <c r="I106" t="n">
-        <v>4.332</v>
+        <v>5.195</v>
       </c>
       <c r="J106" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3946,30 +3946,30 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F107" t="n">
-        <v>2.805</v>
+        <v>7.5</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H107" t="n">
-        <v>1.4275</v>
+        <v>1.09</v>
       </c>
       <c r="I107" t="n">
-        <v>5.703</v>
+        <v>5.076</v>
       </c>
       <c r="J107" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3978,30 +3978,30 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F108" t="n">
-        <v>2.95</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H108" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="I108" t="n">
-        <v>5.327</v>
+        <v>5.195</v>
       </c>
       <c r="J108" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -4010,30 +4010,30 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F109" t="n">
-        <v>2.92</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H109" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="I109" t="n">
-        <v>5.169</v>
+        <v>5.195</v>
       </c>
       <c r="J109" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4042,30 +4042,30 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F110" t="n">
-        <v>2.95</v>
+        <v>7.5</v>
       </c>
       <c r="G110" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H110" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="I110" t="n">
-        <v>5.327</v>
+        <v>5.076</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4074,25 +4074,25 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F111" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H111" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="I111" t="n">
-        <v>6.425</v>
+        <v>6.029</v>
       </c>
       <c r="J111" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
@@ -4112,19 +4112,19 @@
         <v>48</v>
       </c>
       <c r="F112" t="n">
-        <v>2.9</v>
+        <v>2.862</v>
       </c>
       <c r="G112" t="s">
         <v>49</v>
       </c>
       <c r="H112" t="n">
-        <v>1.42</v>
+        <v>1.475</v>
       </c>
       <c r="I112" t="n">
-        <v>4.905</v>
+        <v>2.737</v>
       </c>
       <c r="J112" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -4144,19 +4144,19 @@
         <v>48</v>
       </c>
       <c r="F113" t="n">
-        <v>2.93</v>
+        <v>2.862</v>
       </c>
       <c r="G113" t="s">
         <v>49</v>
       </c>
       <c r="H113" t="n">
-        <v>1.41</v>
+        <v>1.4465</v>
       </c>
       <c r="I113" t="n">
-        <v>5.052</v>
+        <v>4.073</v>
       </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
@@ -4176,19 +4176,19 @@
         <v>48</v>
       </c>
       <c r="F114" t="n">
-        <v>2.85</v>
+        <v>2.805</v>
       </c>
       <c r="G114" t="s">
         <v>49</v>
       </c>
       <c r="H114" t="n">
-        <v>1.42</v>
+        <v>1.475</v>
       </c>
       <c r="I114" t="n">
-        <v>5.51</v>
+        <v>3.447</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -4208,19 +4208,19 @@
         <v>48</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>2.805</v>
       </c>
       <c r="G115" t="s">
         <v>49</v>
       </c>
       <c r="H115" t="n">
-        <v>1.4</v>
+        <v>1.4465</v>
       </c>
       <c r="I115" t="n">
-        <v>4.762</v>
+        <v>4.783</v>
       </c>
       <c r="J115" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -4240,19 +4240,19 @@
         <v>48</v>
       </c>
       <c r="F116" t="n">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="G116" t="s">
         <v>49</v>
       </c>
       <c r="H116" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="I116" t="n">
-        <v>5.052</v>
+        <v>5.329</v>
       </c>
       <c r="J116" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -4272,19 +4272,19 @@
         <v>48</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="G117" t="s">
         <v>49</v>
       </c>
       <c r="H117" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="I117" t="n">
-        <v>4.762</v>
+        <v>5.329</v>
       </c>
       <c r="J117" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -4304,24 +4304,24 @@
         <v>48</v>
       </c>
       <c r="F118" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G118" t="s">
         <v>49</v>
       </c>
       <c r="H118" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="I118" t="n">
-        <v>6.947</v>
+        <v>5.327</v>
       </c>
       <c r="J118" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4330,30 +4330,30 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F119" t="n">
-        <v>2.95</v>
+        <v>2.76</v>
       </c>
       <c r="G119" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H119" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="I119" t="n">
-        <v>5.327</v>
+        <v>6.162</v>
       </c>
       <c r="J119" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -4362,30 +4362,30 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E120" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F120" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="G120" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H120" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="I120" t="n">
-        <v>5.169</v>
+        <v>4.532</v>
       </c>
       <c r="J120" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -4394,30 +4394,30 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F121" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="G121" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H121" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I121" t="n">
-        <v>5.018</v>
+        <v>4.857</v>
       </c>
       <c r="J121" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4426,30 +4426,30 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E122" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F122" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="G122" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H122" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="I122" t="n">
-        <v>5.327</v>
+        <v>5.51</v>
       </c>
       <c r="J122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4458,30 +4458,30 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F123" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="G123" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H123" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="I123" t="n">
-        <v>5.327</v>
+        <v>5.329</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4490,30 +4490,30 @@
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E124" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F124" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="G124" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H124" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="I124" t="n">
-        <v>5.911</v>
+        <v>4.857</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4522,30 +4522,30 @@
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E125" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F125" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="G125" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H125" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="I125" t="n">
-        <v>5.052</v>
+        <v>5.018</v>
       </c>
       <c r="J125" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4554,25 +4554,25 @@
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F126" t="n">
         <v>2.8</v>
       </c>
       <c r="G126" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H126" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="I126" t="n">
-        <v>5.159</v>
+        <v>6.636</v>
       </c>
       <c r="J126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
@@ -4592,7 +4592,7 @@
         <v>51</v>
       </c>
       <c r="F127" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G127" t="s">
         <v>52</v>
@@ -4601,199 +4601,199 @@
         <v>1.4</v>
       </c>
       <c r="I127" t="n">
-        <v>5.911</v>
+        <v>5.327</v>
       </c>
       <c r="J127" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F128" t="n">
-        <v>1.44</v>
+        <v>2.75</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H128" t="n">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="I128" t="n">
-        <v>5.159</v>
+        <v>5.329</v>
       </c>
       <c r="J128" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F129" t="n">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H129" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="I129" t="n">
-        <v>5.035</v>
+        <v>5.329</v>
       </c>
       <c r="J129" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F130" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H130" t="n">
-        <v>2.99</v>
+        <v>1.42</v>
       </c>
       <c r="I130" t="n">
-        <v>4.873</v>
+        <v>4.905</v>
       </c>
       <c r="J130" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F131" t="n">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H131" t="n">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="I131" t="n">
-        <v>5</v>
+        <v>5.329</v>
       </c>
       <c r="J131" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F132" t="n">
-        <v>2.31</v>
+        <v>2.75</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H132" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="I132" t="n">
-        <v>5.018</v>
+        <v>5.329</v>
       </c>
       <c r="J132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F133" t="n">
-        <v>4.2</v>
+        <v>2.93</v>
       </c>
       <c r="G133" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H133" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="I133" t="n">
-        <v>5.11</v>
+        <v>5.052</v>
       </c>
       <c r="J133" t="s">
         <v>24</v>
@@ -4801,71 +4801,71 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F134" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H134" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="I134" t="n">
-        <v>5.005</v>
+        <v>5.329</v>
       </c>
       <c r="J134" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F135" t="n">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H135" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="I135" t="n">
-        <v>4.973</v>
+        <v>6.294</v>
       </c>
       <c r="J135" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4874,24 +4874,1720 @@
         <v>54</v>
       </c>
       <c r="D136" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.4465</v>
+      </c>
+      <c r="G136" t="s">
+        <v>38</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5.273</v>
+      </c>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.4465</v>
+      </c>
+      <c r="G137" t="s">
+        <v>38</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="I137" t="n">
+        <v>8.518</v>
+      </c>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.4465</v>
+      </c>
+      <c r="G138" t="s">
+        <v>38</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12.051</v>
+      </c>
+      <c r="J138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="G139" t="s">
+        <v>38</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="G140" t="s">
+        <v>38</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="I140" t="n">
+        <v>10.865</v>
+      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="G141" t="s">
+        <v>38</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I141" t="n">
+        <v>14.398</v>
+      </c>
+      <c r="J141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.3515</v>
+      </c>
+      <c r="G142" t="s">
+        <v>38</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10.132</v>
+      </c>
+      <c r="J142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.3515</v>
+      </c>
+      <c r="G143" t="s">
+        <v>38</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="I143" t="n">
+        <v>13.377</v>
+      </c>
+      <c r="J143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.3515</v>
+      </c>
+      <c r="G144" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I144" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>45149.4097222222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G145" t="s">
+        <v>38</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.159</v>
+      </c>
+      <c r="J145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" t="s">
+        <v>56</v>
+      </c>
+      <c r="E146" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.035</v>
+      </c>
+      <c r="J146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>57</v>
+      </c>
+      <c r="E147" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.4085</v>
+      </c>
+      <c r="G147" t="s">
+        <v>33</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148" t="s">
+        <v>42</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.4085</v>
+      </c>
+      <c r="G148" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7.898</v>
+      </c>
+      <c r="J148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" t="s">
+        <v>57</v>
+      </c>
+      <c r="E149" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.4085</v>
+      </c>
+      <c r="G149" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="I149" t="n">
+        <v>11.288</v>
+      </c>
+      <c r="J149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7.958</v>
+      </c>
+      <c r="J150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" t="s">
+        <v>57</v>
+      </c>
+      <c r="E151" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="G151" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I151" t="n">
+        <v>10.376</v>
+      </c>
+      <c r="J151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="G152" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="I152" t="n">
+        <v>13.765</v>
+      </c>
+      <c r="J152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="G153" t="s">
+        <v>33</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I153" t="n">
+        <v>10.069</v>
+      </c>
+      <c r="J153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" t="s">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>42</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="G154" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12.486</v>
+      </c>
+      <c r="J154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>54</v>
+      </c>
+      <c r="D155" t="s">
+        <v>57</v>
+      </c>
+      <c r="E155" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="G155" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="I155" t="n">
+        <v>15.876</v>
+      </c>
+      <c r="J155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>45150.15625</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.873</v>
+      </c>
+      <c r="J156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>45150.2743055556</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" t="s">
+        <v>58</v>
+      </c>
+      <c r="E157" t="s">
+        <v>53</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G157" t="s">
+        <v>32</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5</v>
+      </c>
+      <c r="J157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" t="s">
+        <v>49</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.292</v>
+      </c>
+      <c r="G158" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.6175</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5.454</v>
+      </c>
+      <c r="J158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" t="s">
+        <v>59</v>
+      </c>
+      <c r="E159" t="s">
+        <v>49</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2.292</v>
+      </c>
+      <c r="G159" t="s">
+        <v>46</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.5415</v>
+      </c>
+      <c r="I159" t="n">
+        <v>8.502</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" t="s">
+        <v>59</v>
+      </c>
+      <c r="E160" t="s">
+        <v>49</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.292</v>
+      </c>
+      <c r="G160" t="s">
+        <v>46</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="I160" t="n">
+        <v>10.564</v>
+      </c>
+      <c r="J160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" t="s">
+        <v>49</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="G161" t="s">
+        <v>46</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1.6175</v>
+      </c>
+      <c r="I161" t="n">
+        <v>9.831</v>
+      </c>
+      <c r="J161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E162" t="s">
+        <v>49</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="G162" t="s">
+        <v>46</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.5415</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="J162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" t="s">
+        <v>59</v>
+      </c>
+      <c r="E163" t="s">
+        <v>49</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="G163" t="s">
+        <v>46</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="I163" t="n">
+        <v>14.942</v>
+      </c>
+      <c r="J163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164" t="s">
+        <v>59</v>
+      </c>
+      <c r="E164" t="s">
+        <v>49</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G164" t="s">
+        <v>46</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.6175</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12.126</v>
+      </c>
+      <c r="J164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" t="s">
+        <v>59</v>
+      </c>
+      <c r="E165" t="s">
+        <v>49</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G165" t="s">
+        <v>46</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.5415</v>
+      </c>
+      <c r="I165" t="n">
+        <v>15.174</v>
+      </c>
+      <c r="J165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" t="s">
+        <v>59</v>
+      </c>
+      <c r="E166" t="s">
+        <v>49</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G166" t="s">
+        <v>46</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="I166" t="n">
+        <v>17.236</v>
+      </c>
+      <c r="J166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>45150.3923611111</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" t="s">
+        <v>59</v>
+      </c>
+      <c r="E167" t="s">
+        <v>49</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G167" t="s">
+        <v>46</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5.018</v>
+      </c>
+      <c r="J167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>45150.4236111111</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>54</v>
+      </c>
+      <c r="D168" t="s">
+        <v>60</v>
+      </c>
+      <c r="E168" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G168" t="s">
+        <v>51</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E169" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5.364</v>
+      </c>
+      <c r="J169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" t="s">
+        <v>61</v>
+      </c>
+      <c r="E170" t="s">
+        <v>35</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="I170" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="J170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>54</v>
+      </c>
+      <c r="D171" t="s">
+        <v>61</v>
+      </c>
+      <c r="E171" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.4275</v>
+      </c>
+      <c r="I171" t="n">
+        <v>9.735</v>
+      </c>
+      <c r="J171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" t="s">
+        <v>54</v>
+      </c>
+      <c r="D172" t="s">
+        <v>61</v>
+      </c>
+      <c r="E172" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.311</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="I172" t="n">
+        <v>8.953</v>
+      </c>
+      <c r="J172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" t="s">
+        <v>61</v>
+      </c>
+      <c r="E173" t="s">
+        <v>35</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.311</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="I173" t="n">
+        <v>11.068</v>
+      </c>
+      <c r="J173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174" t="s">
+        <v>61</v>
+      </c>
+      <c r="E174" t="s">
+        <v>35</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.311</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.4275</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13.324</v>
+      </c>
+      <c r="J174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175" t="s">
+        <v>61</v>
+      </c>
+      <c r="E175" t="s">
+        <v>35</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="I175" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="J175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" t="s">
+        <v>61</v>
+      </c>
+      <c r="E176" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="I176" t="n">
+        <v>14.526</v>
+      </c>
+      <c r="J176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" t="s">
+        <v>61</v>
+      </c>
+      <c r="E177" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.4275</v>
+      </c>
+      <c r="I177" t="n">
+        <v>16.782</v>
+      </c>
+      <c r="J177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" t="s">
+        <v>61</v>
+      </c>
+      <c r="E178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5.005</v>
+      </c>
+      <c r="J178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" t="s">
+        <v>62</v>
+      </c>
+      <c r="E179" t="s">
+        <v>48</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="I179" t="n">
+        <v>5.646</v>
+      </c>
+      <c r="J179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>54</v>
+      </c>
+      <c r="D180" t="s">
+        <v>62</v>
+      </c>
+      <c r="E180" t="s">
+        <v>48</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8.327</v>
+      </c>
+      <c r="J180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" t="s">
+        <v>62</v>
+      </c>
+      <c r="E181" t="s">
+        <v>48</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="I181" t="n">
+        <v>10.132</v>
+      </c>
+      <c r="J181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" t="s">
+        <v>62</v>
+      </c>
+      <c r="E182" t="s">
+        <v>48</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="I182" t="n">
+        <v>8.374</v>
+      </c>
+      <c r="J182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" t="s">
+        <v>62</v>
+      </c>
+      <c r="E183" t="s">
+        <v>48</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G183" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="I183" t="n">
+        <v>11.055</v>
+      </c>
+      <c r="J183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" t="s">
+        <v>62</v>
+      </c>
+      <c r="E184" t="s">
+        <v>48</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G184" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="I184" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="J184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185" t="s">
+        <v>62</v>
+      </c>
+      <c r="E185" t="s">
+        <v>48</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="I185" t="n">
+        <v>11.434</v>
+      </c>
+      <c r="J185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" t="s">
+        <v>62</v>
+      </c>
+      <c r="E186" t="s">
+        <v>48</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G186" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="I186" t="n">
+        <v>14.115</v>
+      </c>
+      <c r="J186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" t="s">
+        <v>62</v>
+      </c>
+      <c r="E187" t="s">
+        <v>48</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="I187" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="J187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188" t="s">
+        <v>62</v>
+      </c>
+      <c r="E188" t="s">
+        <v>48</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4.973</v>
+      </c>
+      <c r="J188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>45151.2777777778</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189" t="s">
         <v>63</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E189" t="s">
         <v>39</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F189" t="n">
         <v>1.43</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G189" t="s">
         <v>41</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H189" t="n">
         <v>2.86</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I189" t="n">
         <v>4.895</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J189" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -592,16 +592,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.646</v>
+        <v>1.627</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.368</v>
+        <v>2.425</v>
       </c>
       <c r="I2" t="n">
-        <v>2.983</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -624,16 +624,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.646</v>
+        <v>1.627</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.349</v>
+        <v>2.406</v>
       </c>
       <c r="I3" t="n">
-        <v>3.325</v>
+        <v>3.026</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -656,16 +656,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.646</v>
+        <v>1.627</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.273</v>
+        <v>2.387</v>
       </c>
       <c r="I4" t="n">
-        <v>4.748</v>
+        <v>3.356</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -694,10 +694,10 @@
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.368</v>
+        <v>2.425</v>
       </c>
       <c r="I5" t="n">
-        <v>4.054</v>
+        <v>3.061</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -726,10 +726,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.349</v>
+        <v>2.406</v>
       </c>
       <c r="I6" t="n">
-        <v>4.395</v>
+        <v>3.387</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -758,10 +758,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.273</v>
+        <v>2.387</v>
       </c>
       <c r="I7" t="n">
-        <v>5.819</v>
+        <v>3.717</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -816,16 +816,16 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>5.215</v>
+        <v>5.235</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -944,16 +944,16 @@
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>5.215</v>
+        <v>6.36</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -1040,16 +1040,16 @@
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>5.215</v>
+        <v>6.36</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
@@ -1136,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>1.076</v>
+        <v>1.0665</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -1145,7 +1145,7 @@
         <v>11.925</v>
       </c>
       <c r="I19" t="n">
-        <v>1.323</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>1.076</v>
+        <v>1.0665</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -1177,7 +1177,7 @@
         <v>11.45</v>
       </c>
       <c r="I20" t="n">
-        <v>1.67</v>
+        <v>2.498</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1200,7 +1200,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0665</v>
+        <v>1.057</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -1209,7 +1209,7 @@
         <v>11.925</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.993</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1232,7 +1232,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0665</v>
+        <v>1.057</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -1241,7 +1241,7 @@
         <v>11.45</v>
       </c>
       <c r="I22" t="n">
-        <v>2.498</v>
+        <v>3.341</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1264,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>1.057</v>
+        <v>1.0475</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
@@ -1273,7 +1273,7 @@
         <v>11.925</v>
       </c>
       <c r="I23" t="n">
-        <v>2.993</v>
+        <v>3.851</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -1296,7 +1296,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>1.057</v>
+        <v>1.0475</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -1305,7 +1305,7 @@
         <v>11.45</v>
       </c>
       <c r="I24" t="n">
-        <v>3.341</v>
+        <v>4.199</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -1462,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="I29" t="n">
-        <v>4.34</v>
+        <v>4.596</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -1680,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="n">
-        <v>1.3895</v>
+        <v>1.399</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -1689,7 +1689,7 @@
         <v>2.9475</v>
       </c>
       <c r="I36" t="n">
-        <v>5.895</v>
+        <v>5.407</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -1712,7 +1712,7 @@
         <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>1.3895</v>
+        <v>1.399</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -1721,7 +1721,7 @@
         <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>6.451</v>
+        <v>5.962</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -1744,16 +1744,16 @@
         <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>1.361</v>
+        <v>1.399</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>2.9475</v>
+        <v>2.52</v>
       </c>
       <c r="I38" t="n">
-        <v>7.402</v>
+        <v>11.162</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -1776,16 +1776,16 @@
         <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>1.361</v>
+        <v>1.3705</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9</v>
+        <v>2.9475</v>
       </c>
       <c r="I39" t="n">
-        <v>7.958</v>
+        <v>6.893</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -1808,16 +1808,16 @@
         <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>1.3515</v>
+        <v>1.3705</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>2.9475</v>
+        <v>2.9</v>
       </c>
       <c r="I40" t="n">
-        <v>7.919</v>
+        <v>7.449</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -1840,16 +1840,16 @@
         <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>1.3515</v>
+        <v>1.3705</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
       </c>
       <c r="H41" t="n">
-        <v>2.9</v>
+        <v>2.52</v>
       </c>
       <c r="I41" t="n">
-        <v>8.475</v>
+        <v>12.649</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
@@ -1872,19 +1872,19 @@
         <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>1.35</v>
+        <v>1.361</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>2.9475</v>
       </c>
       <c r="I42" t="n">
-        <v>5.324</v>
+        <v>7.402</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1904,19 +1904,19 @@
         <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37</v>
+        <v>1.361</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I43" t="n">
-        <v>5.251</v>
+        <v>7.958</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1936,19 +1936,19 @@
         <v>32</v>
       </c>
       <c r="F44" t="n">
-        <v>1.37</v>
+        <v>1.361</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="I44" t="n">
-        <v>5.251</v>
+        <v>13.158</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1968,19 +1968,19 @@
         <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
       </c>
       <c r="H45" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>6.316</v>
+        <v>5.324</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -2000,7 +2000,7 @@
         <v>32</v>
       </c>
       <c r="F46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
@@ -2009,10 +2009,10 @@
         <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>5.787</v>
+        <v>5.251</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -2032,19 +2032,19 @@
         <v>32</v>
       </c>
       <c r="F47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>5.075</v>
+        <v>5.251</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -2064,19 +2064,19 @@
         <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
       </c>
       <c r="H48" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I48" t="n">
-        <v>4.739</v>
+        <v>6.316</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -2102,13 +2102,13 @@
         <v>33</v>
       </c>
       <c r="H49" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>5.275</v>
+        <v>5.787</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -2140,7 +2140,7 @@
         <v>5.075</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -2172,7 +2172,7 @@
         <v>4.739</v>
       </c>
       <c r="J51" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -2192,24 +2192,24 @@
         <v>32</v>
       </c>
       <c r="F52" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I52" t="n">
-        <v>6.326</v>
+        <v>5.275</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2218,30 +2218,30 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F53" t="n">
-        <v>5.275</v>
+        <v>1.36</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H53" t="n">
-        <v>1.1805</v>
+        <v>3.17</v>
       </c>
       <c r="I53" t="n">
-        <v>3.667</v>
+        <v>5.075</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2250,30 +2250,30 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F54" t="n">
-        <v>5.275</v>
+        <v>1.37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54" t="n">
-        <v>1.171</v>
+        <v>3.15</v>
       </c>
       <c r="I54" t="n">
-        <v>4.354</v>
+        <v>4.739</v>
       </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45143.1736111111</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2282,25 +2282,25 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F55" t="n">
-        <v>5.275</v>
+        <v>1.37</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H55" t="n">
-        <v>1.1615</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>5.053</v>
+        <v>6.326</v>
       </c>
       <c r="J55" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -2320,19 +2320,19 @@
         <v>35</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>5.275</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
       </c>
       <c r="H56" t="n">
-        <v>1.17</v>
+        <v>1.1805</v>
       </c>
       <c r="I56" t="n">
-        <v>5.47</v>
+        <v>3.667</v>
       </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -2352,19 +2352,19 @@
         <v>35</v>
       </c>
       <c r="F57" t="n">
-        <v>5.5</v>
+        <v>5.275</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>1.15</v>
+        <v>1.171</v>
       </c>
       <c r="I57" t="n">
-        <v>5.138</v>
+        <v>4.354</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -2384,19 +2384,19 @@
         <v>35</v>
       </c>
       <c r="F58" t="n">
-        <v>5.5</v>
+        <v>5.275</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
       </c>
       <c r="H58" t="n">
-        <v>1.15</v>
+        <v>1.1615</v>
       </c>
       <c r="I58" t="n">
-        <v>5.138</v>
+        <v>5.053</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -2422,13 +2422,13 @@
         <v>36</v>
       </c>
       <c r="H59" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="I59" t="n">
-        <v>6.957</v>
+        <v>5.47</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -2448,19 +2448,19 @@
         <v>35</v>
       </c>
       <c r="F60" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
       </c>
       <c r="H60" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I60" t="n">
-        <v>5.255</v>
+        <v>5.47</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -2480,19 +2480,19 @@
         <v>35</v>
       </c>
       <c r="F61" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
       </c>
       <c r="H61" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="I61" t="n">
-        <v>5.078</v>
+        <v>5.138</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -2512,19 +2512,19 @@
         <v>35</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
       </c>
       <c r="H62" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="I62" t="n">
-        <v>5.47</v>
+        <v>6.564</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -2544,7 +2544,7 @@
         <v>35</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -2553,10 +2553,10 @@
         <v>1.17</v>
       </c>
       <c r="I63" t="n">
-        <v>5.47</v>
+        <v>4.701</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -2576,19 +2576,19 @@
         <v>35</v>
       </c>
       <c r="F64" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G64" t="s">
         <v>36</v>
       </c>
       <c r="H64" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I64" t="n">
-        <v>5.078</v>
+        <v>5.075</v>
       </c>
       <c r="J64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -2620,7 +2620,7 @@
         <v>5.47</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -2640,24 +2640,24 @@
         <v>35</v>
       </c>
       <c r="F66" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
       </c>
       <c r="H66" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="I66" t="n">
-        <v>6.564</v>
+        <v>5.47</v>
       </c>
       <c r="J66" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2666,30 +2666,30 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F67" t="n">
-        <v>1.6175</v>
+        <v>5.3</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H67" t="n">
-        <v>2.368</v>
+        <v>1.16</v>
       </c>
       <c r="I67" t="n">
-        <v>4.054</v>
+        <v>5.075</v>
       </c>
       <c r="J67" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2698,30 +2698,30 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F68" t="n">
-        <v>1.6175</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H68" t="n">
-        <v>2.349</v>
+        <v>1.17</v>
       </c>
       <c r="I68" t="n">
-        <v>4.395</v>
+        <v>5.47</v>
       </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2730,25 +2730,25 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F69" t="n">
-        <v>1.608</v>
+        <v>5.1</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H69" t="n">
-        <v>2.368</v>
+        <v>1.15</v>
       </c>
       <c r="I69" t="n">
-        <v>4.419</v>
+        <v>6.564</v>
       </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -2768,16 +2768,16 @@
         <v>38</v>
       </c>
       <c r="F70" t="n">
-        <v>1.608</v>
+        <v>1.5985</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
       </c>
       <c r="H70" t="n">
-        <v>2.349</v>
+        <v>2.482</v>
       </c>
       <c r="I70" t="n">
-        <v>4.76</v>
+        <v>2.849</v>
       </c>
       <c r="J70" t="s">
         <v>15</v>
@@ -2800,19 +2800,19 @@
         <v>38</v>
       </c>
       <c r="F71" t="n">
-        <v>1.55</v>
+        <v>1.5985</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
       </c>
       <c r="H71" t="n">
-        <v>2.45</v>
+        <v>2.463</v>
       </c>
       <c r="I71" t="n">
-        <v>5.332</v>
+        <v>3.16</v>
       </c>
       <c r="J71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -2832,19 +2832,19 @@
         <v>38</v>
       </c>
       <c r="F72" t="n">
-        <v>1.53</v>
+        <v>1.5985</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
       </c>
       <c r="H72" t="n">
-        <v>2.45</v>
+        <v>2.444</v>
       </c>
       <c r="I72" t="n">
-        <v>6.176</v>
+        <v>3.475</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -2864,19 +2864,19 @@
         <v>38</v>
       </c>
       <c r="F73" t="n">
-        <v>1.53</v>
+        <v>1.589</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
       </c>
       <c r="H73" t="n">
-        <v>2.5</v>
+        <v>2.482</v>
       </c>
       <c r="I73" t="n">
-        <v>5.359</v>
+        <v>3.223</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -2896,19 +2896,19 @@
         <v>38</v>
       </c>
       <c r="F74" t="n">
-        <v>1.55</v>
+        <v>1.589</v>
       </c>
       <c r="G74" t="s">
         <v>39</v>
       </c>
       <c r="H74" t="n">
-        <v>2.4</v>
+        <v>2.463</v>
       </c>
       <c r="I74" t="n">
-        <v>6.183</v>
+        <v>3.534</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -2928,19 +2928,19 @@
         <v>38</v>
       </c>
       <c r="F75" t="n">
-        <v>1.57</v>
+        <v>1.589</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
       </c>
       <c r="H75" t="n">
-        <v>2.4</v>
+        <v>2.444</v>
       </c>
       <c r="I75" t="n">
-        <v>5.361</v>
+        <v>3.849</v>
       </c>
       <c r="J75" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -2960,19 +2960,19 @@
         <v>38</v>
       </c>
       <c r="F76" t="n">
-        <v>1.58</v>
+        <v>1.5795</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
       </c>
       <c r="H76" t="n">
-        <v>2.4</v>
+        <v>2.482</v>
       </c>
       <c r="I76" t="n">
-        <v>4.958</v>
+        <v>3.601</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2992,19 +2992,19 @@
         <v>38</v>
       </c>
       <c r="F77" t="n">
-        <v>1.58</v>
+        <v>1.5795</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
       </c>
       <c r="H77" t="n">
-        <v>2.4</v>
+        <v>2.463</v>
       </c>
       <c r="I77" t="n">
-        <v>4.958</v>
+        <v>3.912</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -3024,19 +3024,19 @@
         <v>38</v>
       </c>
       <c r="F78" t="n">
-        <v>1.55</v>
+        <v>1.5795</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
       </c>
       <c r="H78" t="n">
-        <v>2.45</v>
+        <v>2.444</v>
       </c>
       <c r="I78" t="n">
-        <v>5.332</v>
+        <v>4.228</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -3056,19 +3056,19 @@
         <v>38</v>
       </c>
       <c r="F79" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="G79" t="s">
         <v>39</v>
       </c>
       <c r="H79" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I79" t="n">
-        <v>4.958</v>
+        <v>5.332</v>
       </c>
       <c r="J79" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -3100,7 +3100,7 @@
         <v>5.332</v>
       </c>
       <c r="J80" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -3120,24 +3120,24 @@
         <v>38</v>
       </c>
       <c r="F81" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
       </c>
       <c r="H81" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I81" t="n">
-        <v>6.257</v>
+        <v>5.359</v>
       </c>
       <c r="J81" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3146,30 +3146,30 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F82" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H82" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="I82" t="n">
-        <v>5.278</v>
+        <v>6.183</v>
       </c>
       <c r="J82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3178,30 +3178,30 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F83" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H83" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="I83" t="n">
-        <v>5.362</v>
+        <v>5.361</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3210,30 +3210,30 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H84" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="I84" t="n">
-        <v>5.336</v>
+        <v>4.958</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3242,30 +3242,30 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F85" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H85" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="I85" t="n">
-        <v>6.347</v>
+        <v>4.958</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -3274,30 +3274,30 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F86" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H86" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="I86" t="n">
-        <v>5.278</v>
+        <v>5.332</v>
       </c>
       <c r="J86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3306,30 +3306,30 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F87" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H87" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I87" t="n">
-        <v>4.762</v>
+        <v>4.958</v>
       </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3338,30 +3338,30 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F88" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H88" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I88" t="n">
-        <v>5.423</v>
+        <v>4.958</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45143.3923611111</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3370,25 +3370,25 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F89" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H89" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="I89" t="n">
-        <v>4.762</v>
+        <v>6.257</v>
       </c>
       <c r="J89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
@@ -3405,7 +3405,7 @@
         <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F90" t="n">
         <v>1.77</v>
@@ -3420,7 +3420,7 @@
         <v>5.278</v>
       </c>
       <c r="J90" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
@@ -3440,7 +3440,7 @@
         <v>41</v>
       </c>
       <c r="F91" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
@@ -3449,15 +3449,15 @@
         <v>2.05</v>
       </c>
       <c r="I91" t="n">
-        <v>6.252</v>
+        <v>5.278</v>
       </c>
       <c r="J91" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3466,30 +3466,30 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F92" t="n">
-        <v>8.41</v>
+        <v>1.77</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H92" t="n">
-        <v>1.114</v>
+        <v>2.05</v>
       </c>
       <c r="I92" t="n">
-        <v>1.657</v>
+        <v>5.278</v>
       </c>
       <c r="J92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3498,30 +3498,30 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F93" t="n">
-        <v>8.41</v>
+        <v>1.74</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H93" t="n">
-        <v>1.1045</v>
+        <v>2.04</v>
       </c>
       <c r="I93" t="n">
-        <v>2.429</v>
+        <v>6.491</v>
       </c>
       <c r="J93" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3530,30 +3530,30 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F94" t="n">
-        <v>8.41</v>
+        <v>1.77</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H94" t="n">
-        <v>1.095</v>
+        <v>2.05</v>
       </c>
       <c r="I94" t="n">
-        <v>3.215</v>
+        <v>5.278</v>
       </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3562,30 +3562,30 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F95" t="n">
-        <v>8.22</v>
+        <v>1.77</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H95" t="n">
-        <v>1.114</v>
+        <v>2.1</v>
       </c>
       <c r="I95" t="n">
-        <v>1.932</v>
+        <v>4.116</v>
       </c>
       <c r="J95" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3594,30 +3594,30 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F96" t="n">
-        <v>8.22</v>
+        <v>1.73</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H96" t="n">
-        <v>1.1045</v>
+        <v>2.1</v>
       </c>
       <c r="I96" t="n">
-        <v>2.704</v>
+        <v>5.423</v>
       </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3626,30 +3626,30 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F97" t="n">
-        <v>8.22</v>
+        <v>1.77</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H97" t="n">
-        <v>1.095</v>
+        <v>2.1</v>
       </c>
       <c r="I97" t="n">
-        <v>3.49</v>
+        <v>4.116</v>
       </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3658,30 +3658,30 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F98" t="n">
-        <v>7.65</v>
+        <v>1.78</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H98" t="n">
-        <v>1.114</v>
+        <v>2.05</v>
       </c>
       <c r="I98" t="n">
-        <v>2.839</v>
+        <v>4.96</v>
       </c>
       <c r="J98" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3690,25 +3690,25 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F99" t="n">
-        <v>7.65</v>
+        <v>1.74</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H99" t="n">
-        <v>1.1045</v>
+        <v>2.05</v>
       </c>
       <c r="I99" t="n">
-        <v>3.611</v>
+        <v>6.252</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -3728,16 +3728,16 @@
         <v>45</v>
       </c>
       <c r="F100" t="n">
-        <v>7.65</v>
+        <v>9.17</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
       </c>
       <c r="H100" t="n">
-        <v>1.095</v>
+        <v>1.1045</v>
       </c>
       <c r="I100" t="n">
-        <v>4.396</v>
+        <v>1.444</v>
       </c>
       <c r="J100" t="s">
         <v>15</v>
@@ -3760,19 +3760,19 @@
         <v>45</v>
       </c>
       <c r="F101" t="n">
-        <v>7</v>
+        <v>9.17</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
       </c>
       <c r="H101" t="n">
-        <v>1.1</v>
+        <v>1.095</v>
       </c>
       <c r="I101" t="n">
-        <v>5.195</v>
+        <v>2.229</v>
       </c>
       <c r="J101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -3792,19 +3792,19 @@
         <v>45</v>
       </c>
       <c r="F102" t="n">
-        <v>7</v>
+        <v>9.17</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
       </c>
       <c r="H102" t="n">
-        <v>1.1</v>
+        <v>1.0855</v>
       </c>
       <c r="I102" t="n">
-        <v>5.195</v>
+        <v>3.029</v>
       </c>
       <c r="J102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -3824,19 +3824,19 @@
         <v>45</v>
       </c>
       <c r="F103" t="n">
-        <v>7</v>
+        <v>8.98</v>
       </c>
       <c r="G103" t="s">
         <v>46</v>
       </c>
       <c r="H103" t="n">
-        <v>1.1</v>
+        <v>1.1045</v>
       </c>
       <c r="I103" t="n">
-        <v>5.195</v>
+        <v>1.675</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -3856,19 +3856,19 @@
         <v>45</v>
       </c>
       <c r="F104" t="n">
-        <v>6.9</v>
+        <v>8.98</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
       </c>
       <c r="H104" t="n">
-        <v>1.09</v>
+        <v>1.095</v>
       </c>
       <c r="I104" t="n">
-        <v>6.236</v>
+        <v>2.46</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -3888,19 +3888,19 @@
         <v>45</v>
       </c>
       <c r="F105" t="n">
-        <v>7.25</v>
+        <v>8.98</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
       </c>
       <c r="H105" t="n">
-        <v>1.09</v>
+        <v>1.0855</v>
       </c>
       <c r="I105" t="n">
-        <v>5.536</v>
+        <v>3.259</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -3920,19 +3920,19 @@
         <v>45</v>
       </c>
       <c r="F106" t="n">
-        <v>7</v>
+        <v>8.41</v>
       </c>
       <c r="G106" t="s">
         <v>46</v>
       </c>
       <c r="H106" t="n">
-        <v>1.1</v>
+        <v>1.1045</v>
       </c>
       <c r="I106" t="n">
-        <v>5.195</v>
+        <v>2.429</v>
       </c>
       <c r="J106" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -3952,19 +3952,19 @@
         <v>45</v>
       </c>
       <c r="F107" t="n">
-        <v>7.5</v>
+        <v>8.41</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
       </c>
       <c r="H107" t="n">
-        <v>1.09</v>
+        <v>1.095</v>
       </c>
       <c r="I107" t="n">
-        <v>5.076</v>
+        <v>3.215</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -3984,19 +3984,19 @@
         <v>45</v>
       </c>
       <c r="F108" t="n">
-        <v>7</v>
+        <v>8.41</v>
       </c>
       <c r="G108" t="s">
         <v>46</v>
       </c>
       <c r="H108" t="n">
-        <v>1.1</v>
+        <v>1.0855</v>
       </c>
       <c r="I108" t="n">
-        <v>5.195</v>
+        <v>4.014</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -4028,7 +4028,7 @@
         <v>5.195</v>
       </c>
       <c r="J109" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
@@ -4048,19 +4048,19 @@
         <v>45</v>
       </c>
       <c r="F110" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G110" t="s">
         <v>46</v>
       </c>
       <c r="H110" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I110" t="n">
-        <v>5.076</v>
+        <v>5.195</v>
       </c>
       <c r="J110" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
@@ -4086,18 +4086,18 @@
         <v>46</v>
       </c>
       <c r="H111" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I111" t="n">
-        <v>6.029</v>
+        <v>5.195</v>
       </c>
       <c r="J111" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4106,30 +4106,30 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F112" t="n">
-        <v>2.862</v>
+        <v>6.9</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H112" t="n">
-        <v>1.475</v>
+        <v>1.09</v>
       </c>
       <c r="I112" t="n">
-        <v>2.737</v>
+        <v>6.236</v>
       </c>
       <c r="J112" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -4138,30 +4138,30 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F113" t="n">
-        <v>2.862</v>
+        <v>7.5</v>
       </c>
       <c r="G113" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H113" t="n">
-        <v>1.4465</v>
+        <v>1.09</v>
       </c>
       <c r="I113" t="n">
-        <v>4.073</v>
+        <v>5.076</v>
       </c>
       <c r="J113" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -4170,30 +4170,30 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F114" t="n">
-        <v>2.805</v>
+        <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H114" t="n">
-        <v>1.475</v>
+        <v>1.1</v>
       </c>
       <c r="I114" t="n">
-        <v>3.447</v>
+        <v>5.195</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4202,30 +4202,30 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F115" t="n">
-        <v>2.805</v>
+        <v>7.5</v>
       </c>
       <c r="G115" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H115" t="n">
-        <v>1.4465</v>
+        <v>1.09</v>
       </c>
       <c r="I115" t="n">
-        <v>4.783</v>
+        <v>5.076</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4234,30 +4234,30 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F116" t="n">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H116" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="I116" t="n">
-        <v>5.329</v>
+        <v>5.195</v>
       </c>
       <c r="J116" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4266,30 +4266,30 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F117" t="n">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H117" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="I117" t="n">
-        <v>5.329</v>
+        <v>5.195</v>
       </c>
       <c r="J117" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4298,30 +4298,30 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F118" t="n">
-        <v>2.95</v>
+        <v>7.5</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H118" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="I118" t="n">
-        <v>5.327</v>
+        <v>5.076</v>
       </c>
       <c r="J118" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4330,25 +4330,25 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F119" t="n">
-        <v>2.76</v>
+        <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H119" t="n">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="I119" t="n">
-        <v>6.162</v>
+        <v>6.029</v>
       </c>
       <c r="J119" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
@@ -4368,19 +4368,19 @@
         <v>48</v>
       </c>
       <c r="F120" t="n">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="G120" t="s">
         <v>49</v>
       </c>
       <c r="H120" t="n">
-        <v>1.44</v>
+        <v>1.5035</v>
       </c>
       <c r="I120" t="n">
-        <v>4.532</v>
+        <v>3.412</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -4400,19 +4400,19 @@
         <v>48</v>
       </c>
       <c r="F121" t="n">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="G121" t="s">
         <v>49</v>
       </c>
       <c r="H121" t="n">
-        <v>1.46</v>
+        <v>1.494</v>
       </c>
       <c r="I121" t="n">
-        <v>4.857</v>
+        <v>3.835</v>
       </c>
       <c r="J121" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -4432,19 +4432,19 @@
         <v>48</v>
       </c>
       <c r="F122" t="n">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
       </c>
       <c r="H122" t="n">
-        <v>1.42</v>
+        <v>1.4845</v>
       </c>
       <c r="I122" t="n">
-        <v>5.51</v>
+        <v>4.263</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -4464,19 +4464,19 @@
         <v>48</v>
       </c>
       <c r="F123" t="n">
-        <v>2.75</v>
+        <v>2.691</v>
       </c>
       <c r="G123" t="s">
         <v>49</v>
       </c>
       <c r="H123" t="n">
-        <v>1.45</v>
+        <v>1.5035</v>
       </c>
       <c r="I123" t="n">
-        <v>5.329</v>
+        <v>3.672</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
@@ -4496,19 +4496,19 @@
         <v>48</v>
       </c>
       <c r="F124" t="n">
-        <v>2.75</v>
+        <v>2.691</v>
       </c>
       <c r="G124" t="s">
         <v>49</v>
       </c>
       <c r="H124" t="n">
-        <v>1.46</v>
+        <v>1.494</v>
       </c>
       <c r="I124" t="n">
-        <v>4.857</v>
+        <v>4.095</v>
       </c>
       <c r="J124" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -4528,19 +4528,19 @@
         <v>48</v>
       </c>
       <c r="F125" t="n">
-        <v>2.85</v>
+        <v>2.691</v>
       </c>
       <c r="G125" t="s">
         <v>49</v>
       </c>
       <c r="H125" t="n">
-        <v>1.43</v>
+        <v>1.4845</v>
       </c>
       <c r="I125" t="n">
-        <v>5.018</v>
+        <v>4.524</v>
       </c>
       <c r="J125" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
@@ -4560,24 +4560,24 @@
         <v>48</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="G126" t="s">
         <v>49</v>
       </c>
       <c r="H126" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="I126" t="n">
-        <v>6.636</v>
+        <v>5.329</v>
       </c>
       <c r="J126" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4586,30 +4586,30 @@
         <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F127" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="G127" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H127" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="I127" t="n">
-        <v>5.327</v>
+        <v>5.329</v>
       </c>
       <c r="J127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4618,16 +4618,16 @@
         <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F128" t="n">
         <v>2.75</v>
       </c>
       <c r="G128" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H128" t="n">
         <v>1.45</v>
@@ -4636,12 +4636,12 @@
         <v>5.329</v>
       </c>
       <c r="J128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4650,30 +4650,30 @@
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F129" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="G129" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H129" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="I129" t="n">
-        <v>5.329</v>
+        <v>6.426</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -4682,22 +4682,22 @@
         <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E130" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F130" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="G130" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H130" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="I130" t="n">
-        <v>4.905</v>
+        <v>5.303</v>
       </c>
       <c r="J130" t="s">
         <v>20</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -4714,30 +4714,30 @@
         <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F131" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="G131" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H131" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I131" t="n">
-        <v>5.329</v>
+        <v>4.905</v>
       </c>
       <c r="J131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -4746,30 +4746,30 @@
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F132" t="n">
         <v>2.75</v>
       </c>
       <c r="G132" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H132" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I132" t="n">
-        <v>5.329</v>
+        <v>6.786</v>
       </c>
       <c r="J132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -4778,30 +4778,30 @@
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E133" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F133" t="n">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="G133" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H133" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="I133" t="n">
-        <v>5.052</v>
+        <v>5.329</v>
       </c>
       <c r="J133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4810,30 +4810,30 @@
         <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E134" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F134" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="G134" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H134" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I134" t="n">
-        <v>5.329</v>
+        <v>4.905</v>
       </c>
       <c r="J134" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4842,350 +4842,350 @@
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F135" t="n">
         <v>2.75</v>
       </c>
       <c r="G135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H135" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="I135" t="n">
-        <v>6.294</v>
+        <v>5.329</v>
       </c>
       <c r="J135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F136" t="n">
-        <v>1.4465</v>
+        <v>2.7</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H136" t="n">
-        <v>2.767</v>
+        <v>1.44</v>
       </c>
       <c r="I136" t="n">
-        <v>5.273</v>
+        <v>6.481</v>
       </c>
       <c r="J136" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F137" t="n">
-        <v>1.4465</v>
+        <v>2.64</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H137" t="n">
-        <v>2.539</v>
+        <v>1.49</v>
       </c>
       <c r="I137" t="n">
-        <v>8.518</v>
+        <v>4.993</v>
       </c>
       <c r="J137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F138" t="n">
-        <v>1.4465</v>
+        <v>2.6</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H138" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="I138" t="n">
-        <v>12.051</v>
+        <v>5.128</v>
       </c>
       <c r="J138" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F139" t="n">
-        <v>1.399</v>
+        <v>2.75</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H139" t="n">
-        <v>2.767</v>
+        <v>1.45</v>
       </c>
       <c r="I139" t="n">
-        <v>7.62</v>
+        <v>5.329</v>
       </c>
       <c r="J139" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F140" t="n">
-        <v>1.399</v>
+        <v>2.75</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H140" t="n">
-        <v>2.539</v>
+        <v>1.46</v>
       </c>
       <c r="I140" t="n">
-        <v>10.865</v>
+        <v>4.857</v>
       </c>
       <c r="J140" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F141" t="n">
-        <v>1.399</v>
+        <v>2.6</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H141" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="I141" t="n">
-        <v>14.398</v>
+        <v>5.128</v>
       </c>
       <c r="J141" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F142" t="n">
-        <v>1.3515</v>
+        <v>2.65</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H142" t="n">
-        <v>2.767</v>
+        <v>1.48</v>
       </c>
       <c r="I142" t="n">
-        <v>10.132</v>
+        <v>5.303</v>
       </c>
       <c r="J142" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F143" t="n">
-        <v>1.3515</v>
+        <v>2.63</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H143" t="n">
-        <v>2.539</v>
+        <v>1.49</v>
       </c>
       <c r="I143" t="n">
-        <v>13.377</v>
+        <v>5.137</v>
       </c>
       <c r="J143" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F144" t="n">
-        <v>1.3515</v>
+        <v>2.6</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H144" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="I144" t="n">
-        <v>16.91</v>
+        <v>5.128</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F145" t="n">
-        <v>1.44</v>
+        <v>2.62</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H145" t="n">
-        <v>2.8</v>
+        <v>1.47</v>
       </c>
       <c r="I145" t="n">
-        <v>5.159</v>
+        <v>6.195</v>
       </c>
       <c r="J145" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -5194,30 +5194,30 @@
         <v>54</v>
       </c>
       <c r="D146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F146" t="n">
-        <v>4.1</v>
+        <v>1.399</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H146" t="n">
-        <v>1.24</v>
+        <v>2.824</v>
       </c>
       <c r="I146" t="n">
-        <v>5.035</v>
+        <v>6.89</v>
       </c>
       <c r="J146" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -5226,22 +5226,22 @@
         <v>54</v>
       </c>
       <c r="D147" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F147" t="n">
-        <v>1.4085</v>
+        <v>1.399</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H147" t="n">
-        <v>2.9</v>
+        <v>2.767</v>
       </c>
       <c r="I147" t="n">
-        <v>5.48</v>
+        <v>7.62</v>
       </c>
       <c r="J147" t="s">
         <v>15</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -5258,22 +5258,22 @@
         <v>54</v>
       </c>
       <c r="D148" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F148" t="n">
-        <v>1.4085</v>
+        <v>1.399</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H148" t="n">
-        <v>2.71</v>
+        <v>2.539</v>
       </c>
       <c r="I148" t="n">
-        <v>7.898</v>
+        <v>10.865</v>
       </c>
       <c r="J148" t="s">
         <v>15</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -5290,22 +5290,22 @@
         <v>54</v>
       </c>
       <c r="D149" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F149" t="n">
-        <v>1.4085</v>
+        <v>1.3515</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H149" t="n">
-        <v>2.482</v>
+        <v>2.824</v>
       </c>
       <c r="I149" t="n">
-        <v>11.288</v>
+        <v>9.403</v>
       </c>
       <c r="J149" t="s">
         <v>15</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -5322,22 +5322,22 @@
         <v>54</v>
       </c>
       <c r="D150" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F150" t="n">
-        <v>1.361</v>
+        <v>1.3515</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H150" t="n">
-        <v>2.9</v>
+        <v>2.767</v>
       </c>
       <c r="I150" t="n">
-        <v>7.958</v>
+        <v>10.132</v>
       </c>
       <c r="J150" t="s">
         <v>15</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -5354,22 +5354,22 @@
         <v>54</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F151" t="n">
-        <v>1.361</v>
+        <v>1.3515</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H151" t="n">
-        <v>2.71</v>
+        <v>2.539</v>
       </c>
       <c r="I151" t="n">
-        <v>10.376</v>
+        <v>13.377</v>
       </c>
       <c r="J151" t="s">
         <v>15</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -5386,30 +5386,30 @@
         <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F152" t="n">
-        <v>1.361</v>
+        <v>1.44</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H152" t="n">
-        <v>2.482</v>
+        <v>2.8</v>
       </c>
       <c r="I152" t="n">
-        <v>13.765</v>
+        <v>5.159</v>
       </c>
       <c r="J152" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5418,25 +5418,25 @@
         <v>54</v>
       </c>
       <c r="D153" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F153" t="n">
-        <v>1.323</v>
+        <v>1.44</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H153" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I153" t="n">
-        <v>10.069</v>
+        <v>5.159</v>
       </c>
       <c r="J153" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154">
@@ -5450,25 +5450,25 @@
         <v>54</v>
       </c>
       <c r="D154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E154" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F154" t="n">
-        <v>1.323</v>
+        <v>4.1</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H154" t="n">
-        <v>2.71</v>
+        <v>1.24</v>
       </c>
       <c r="I154" t="n">
-        <v>12.486</v>
+        <v>5.035</v>
       </c>
       <c r="J154" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
@@ -5482,25 +5482,25 @@
         <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F155" t="n">
-        <v>1.323</v>
+        <v>4.2</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H155" t="n">
-        <v>2.482</v>
+        <v>1.23</v>
       </c>
       <c r="I155" t="n">
-        <v>15.876</v>
+        <v>5.11</v>
       </c>
       <c r="J155" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156">
@@ -5520,24 +5520,24 @@
         <v>42</v>
       </c>
       <c r="F156" t="n">
-        <v>1.4</v>
+        <v>1.4085</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
       </c>
       <c r="H156" t="n">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="I156" t="n">
-        <v>4.873</v>
+        <v>5.48</v>
       </c>
       <c r="J156" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45150.15625</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5546,30 +5546,30 @@
         <v>54</v>
       </c>
       <c r="D157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E157" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F157" t="n">
-        <v>1.25</v>
+        <v>1.4085</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157" t="n">
-        <v>4</v>
+        <v>2.71</v>
       </c>
       <c r="I157" t="n">
-        <v>5</v>
+        <v>7.898</v>
       </c>
       <c r="J157" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5578,22 +5578,22 @@
         <v>54</v>
       </c>
       <c r="D158" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F158" t="n">
-        <v>2.292</v>
+        <v>1.4085</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H158" t="n">
-        <v>1.6175</v>
+        <v>2.482</v>
       </c>
       <c r="I158" t="n">
-        <v>5.454</v>
+        <v>11.288</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5610,22 +5610,22 @@
         <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E159" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F159" t="n">
-        <v>2.292</v>
+        <v>1.361</v>
       </c>
       <c r="G159" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H159" t="n">
-        <v>1.5415</v>
+        <v>2.9</v>
       </c>
       <c r="I159" t="n">
-        <v>8.502</v>
+        <v>7.958</v>
       </c>
       <c r="J159" t="s">
         <v>15</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5642,22 +5642,22 @@
         <v>54</v>
       </c>
       <c r="D160" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F160" t="n">
-        <v>2.292</v>
+        <v>1.361</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H160" t="n">
-        <v>1.494</v>
+        <v>2.71</v>
       </c>
       <c r="I160" t="n">
-        <v>10.564</v>
+        <v>10.376</v>
       </c>
       <c r="J160" t="s">
         <v>15</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5674,22 +5674,22 @@
         <v>54</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E161" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F161" t="n">
-        <v>2.083</v>
+        <v>1.361</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H161" t="n">
-        <v>1.6175</v>
+        <v>2.482</v>
       </c>
       <c r="I161" t="n">
-        <v>9.831</v>
+        <v>13.765</v>
       </c>
       <c r="J161" t="s">
         <v>15</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5706,22 +5706,22 @@
         <v>54</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F162" t="n">
-        <v>2.083</v>
+        <v>1.323</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H162" t="n">
-        <v>1.5415</v>
+        <v>2.9</v>
       </c>
       <c r="I162" t="n">
-        <v>12.88</v>
+        <v>10.069</v>
       </c>
       <c r="J162" t="s">
         <v>15</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5738,22 +5738,22 @@
         <v>54</v>
       </c>
       <c r="D163" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E163" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F163" t="n">
-        <v>2.083</v>
+        <v>1.323</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H163" t="n">
-        <v>1.494</v>
+        <v>2.71</v>
       </c>
       <c r="I163" t="n">
-        <v>14.942</v>
+        <v>12.486</v>
       </c>
       <c r="J163" t="s">
         <v>15</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5770,22 +5770,22 @@
         <v>54</v>
       </c>
       <c r="D164" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F164" t="n">
-        <v>1.988</v>
+        <v>1.323</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H164" t="n">
-        <v>1.6175</v>
+        <v>2.482</v>
       </c>
       <c r="I164" t="n">
-        <v>12.126</v>
+        <v>15.876</v>
       </c>
       <c r="J164" t="s">
         <v>15</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5802,30 +5802,30 @@
         <v>54</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F165" t="n">
-        <v>1.988</v>
+        <v>1.38</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H165" t="n">
-        <v>1.5415</v>
+        <v>3.05</v>
       </c>
       <c r="I165" t="n">
-        <v>15.174</v>
+        <v>5.251</v>
       </c>
       <c r="J165" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5834,30 +5834,30 @@
         <v>54</v>
       </c>
       <c r="D166" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E166" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F166" t="n">
-        <v>1.988</v>
+        <v>1.4</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H166" t="n">
-        <v>1.494</v>
+        <v>2.99</v>
       </c>
       <c r="I166" t="n">
-        <v>17.236</v>
+        <v>4.873</v>
       </c>
       <c r="J166" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5866,30 +5866,30 @@
         <v>54</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E167" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F167" t="n">
-        <v>2.31</v>
+        <v>1.25</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H167" t="n">
-        <v>1.62</v>
+        <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>5.018</v>
+        <v>5</v>
       </c>
       <c r="J167" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5898,22 +5898,22 @@
         <v>54</v>
       </c>
       <c r="D168" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F168" t="n">
-        <v>4.2</v>
+        <v>1.27</v>
       </c>
       <c r="G168" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H168" t="n">
-        <v>1.23</v>
+        <v>3.78</v>
       </c>
       <c r="I168" t="n">
-        <v>5.11</v>
+        <v>5.195</v>
       </c>
       <c r="J168" t="s">
         <v>24</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5930,22 +5930,22 @@
         <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F169" t="n">
-        <v>2.52</v>
+        <v>2.292</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H169" t="n">
-        <v>1.5225</v>
+        <v>1.6175</v>
       </c>
       <c r="I169" t="n">
-        <v>5.364</v>
+        <v>5.454</v>
       </c>
       <c r="J169" t="s">
         <v>15</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5962,22 +5962,22 @@
         <v>54</v>
       </c>
       <c r="D170" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F170" t="n">
-        <v>2.52</v>
+        <v>2.292</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H170" t="n">
-        <v>1.475</v>
+        <v>1.5415</v>
       </c>
       <c r="I170" t="n">
-        <v>7.479</v>
+        <v>8.502</v>
       </c>
       <c r="J170" t="s">
         <v>15</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5994,22 +5994,22 @@
         <v>54</v>
       </c>
       <c r="D171" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F171" t="n">
-        <v>2.52</v>
+        <v>2.292</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H171" t="n">
-        <v>1.4275</v>
+        <v>1.494</v>
       </c>
       <c r="I171" t="n">
-        <v>9.735</v>
+        <v>10.564</v>
       </c>
       <c r="J171" t="s">
         <v>15</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -6026,22 +6026,22 @@
         <v>54</v>
       </c>
       <c r="D172" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F172" t="n">
-        <v>2.311</v>
+        <v>2.083</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H172" t="n">
-        <v>1.5225</v>
+        <v>1.6175</v>
       </c>
       <c r="I172" t="n">
-        <v>8.953</v>
+        <v>9.831</v>
       </c>
       <c r="J172" t="s">
         <v>15</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -6058,22 +6058,22 @@
         <v>54</v>
       </c>
       <c r="D173" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F173" t="n">
-        <v>2.311</v>
+        <v>2.083</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H173" t="n">
-        <v>1.475</v>
+        <v>1.5415</v>
       </c>
       <c r="I173" t="n">
-        <v>11.068</v>
+        <v>12.88</v>
       </c>
       <c r="J173" t="s">
         <v>15</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -6090,22 +6090,22 @@
         <v>54</v>
       </c>
       <c r="D174" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F174" t="n">
-        <v>2.311</v>
+        <v>2.083</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H174" t="n">
-        <v>1.4275</v>
+        <v>1.494</v>
       </c>
       <c r="I174" t="n">
-        <v>13.324</v>
+        <v>14.942</v>
       </c>
       <c r="J174" t="s">
         <v>15</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -6122,22 +6122,22 @@
         <v>54</v>
       </c>
       <c r="D175" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F175" t="n">
-        <v>2.14</v>
+        <v>1.988</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H175" t="n">
-        <v>1.5225</v>
+        <v>1.6175</v>
       </c>
       <c r="I175" t="n">
-        <v>12.41</v>
+        <v>12.126</v>
       </c>
       <c r="J175" t="s">
         <v>15</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -6154,22 +6154,22 @@
         <v>54</v>
       </c>
       <c r="D176" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F176" t="n">
-        <v>2.14</v>
+        <v>1.988</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H176" t="n">
-        <v>1.475</v>
+        <v>1.5415</v>
       </c>
       <c r="I176" t="n">
-        <v>14.526</v>
+        <v>15.174</v>
       </c>
       <c r="J176" t="s">
         <v>15</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -6186,22 +6186,22 @@
         <v>54</v>
       </c>
       <c r="D177" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F177" t="n">
-        <v>2.14</v>
+        <v>1.988</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H177" t="n">
-        <v>1.4275</v>
+        <v>1.494</v>
       </c>
       <c r="I177" t="n">
-        <v>16.782</v>
+        <v>17.236</v>
       </c>
       <c r="J177" t="s">
         <v>15</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -6218,30 +6218,30 @@
         <v>54</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F178" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H178" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="I178" t="n">
-        <v>5.005</v>
+        <v>5.603</v>
       </c>
       <c r="J178" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -6250,30 +6250,30 @@
         <v>54</v>
       </c>
       <c r="D179" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F179" t="n">
-        <v>2.102</v>
+        <v>2.36</v>
       </c>
       <c r="G179" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H179" t="n">
-        <v>1.722</v>
+        <v>1.6</v>
       </c>
       <c r="I179" t="n">
-        <v>5.646</v>
+        <v>4.873</v>
       </c>
       <c r="J179" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -6282,30 +6282,30 @@
         <v>54</v>
       </c>
       <c r="D180" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F180" t="n">
-        <v>2.102</v>
+        <v>4.2</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H180" t="n">
-        <v>1.646</v>
+        <v>1.22</v>
       </c>
       <c r="I180" t="n">
-        <v>8.327</v>
+        <v>5.777</v>
       </c>
       <c r="J180" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -6314,30 +6314,30 @@
         <v>54</v>
       </c>
       <c r="D181" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E181" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F181" t="n">
-        <v>2.102</v>
+        <v>4.2</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H181" t="n">
-        <v>1.5985</v>
+        <v>1.23</v>
       </c>
       <c r="I181" t="n">
-        <v>10.132</v>
+        <v>5.11</v>
       </c>
       <c r="J181" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -6346,22 +6346,22 @@
         <v>54</v>
       </c>
       <c r="D182" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E182" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F182" t="n">
-        <v>1.988</v>
+        <v>2.52</v>
       </c>
       <c r="G182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H182" t="n">
-        <v>1.722</v>
+        <v>1.5225</v>
       </c>
       <c r="I182" t="n">
-        <v>8.374</v>
+        <v>5.364</v>
       </c>
       <c r="J182" t="s">
         <v>15</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
@@ -6378,22 +6378,22 @@
         <v>54</v>
       </c>
       <c r="D183" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F183" t="n">
-        <v>1.988</v>
+        <v>2.52</v>
       </c>
       <c r="G183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H183" t="n">
-        <v>1.646</v>
+        <v>1.475</v>
       </c>
       <c r="I183" t="n">
-        <v>11.055</v>
+        <v>7.479</v>
       </c>
       <c r="J183" t="s">
         <v>15</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -6410,22 +6410,22 @@
         <v>54</v>
       </c>
       <c r="D184" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E184" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F184" t="n">
-        <v>1.988</v>
+        <v>2.52</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H184" t="n">
-        <v>1.5985</v>
+        <v>1.4275</v>
       </c>
       <c r="I184" t="n">
-        <v>12.86</v>
+        <v>9.735</v>
       </c>
       <c r="J184" t="s">
         <v>15</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -6442,22 +6442,22 @@
         <v>54</v>
       </c>
       <c r="D185" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E185" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F185" t="n">
-        <v>1.874</v>
+        <v>2.311</v>
       </c>
       <c r="G185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H185" t="n">
-        <v>1.722</v>
+        <v>1.5225</v>
       </c>
       <c r="I185" t="n">
-        <v>11.434</v>
+        <v>8.953</v>
       </c>
       <c r="J185" t="s">
         <v>15</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
@@ -6474,22 +6474,22 @@
         <v>54</v>
       </c>
       <c r="D186" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E186" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F186" t="n">
-        <v>1.874</v>
+        <v>2.311</v>
       </c>
       <c r="G186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H186" t="n">
-        <v>1.646</v>
+        <v>1.475</v>
       </c>
       <c r="I186" t="n">
-        <v>14.115</v>
+        <v>11.068</v>
       </c>
       <c r="J186" t="s">
         <v>15</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6506,22 +6506,22 @@
         <v>54</v>
       </c>
       <c r="D187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E187" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F187" t="n">
-        <v>1.874</v>
+        <v>2.311</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H187" t="n">
-        <v>1.5985</v>
+        <v>1.4275</v>
       </c>
       <c r="I187" t="n">
-        <v>15.92</v>
+        <v>13.324</v>
       </c>
       <c r="J187" t="s">
         <v>15</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6538,30 +6538,30 @@
         <v>54</v>
       </c>
       <c r="D188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E188" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F188" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H188" t="n">
-        <v>1.73</v>
+        <v>1.5225</v>
       </c>
       <c r="I188" t="n">
-        <v>4.973</v>
+        <v>12.41</v>
       </c>
       <c r="J188" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -6570,24 +6570,536 @@
         <v>54</v>
       </c>
       <c r="D189" t="s">
+        <v>61</v>
+      </c>
+      <c r="E189" t="s">
+        <v>35</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="I189" t="n">
+        <v>14.526</v>
+      </c>
+      <c r="J189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" t="s">
+        <v>61</v>
+      </c>
+      <c r="E190" t="s">
+        <v>35</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.4275</v>
+      </c>
+      <c r="I190" t="n">
+        <v>16.782</v>
+      </c>
+      <c r="J190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" t="s">
+        <v>61</v>
+      </c>
+      <c r="E191" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I191" t="n">
+        <v>5.359</v>
+      </c>
+      <c r="J191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>45151.1319444444</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>54</v>
+      </c>
+      <c r="D192" t="s">
+        <v>61</v>
+      </c>
+      <c r="E192" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4.985</v>
+      </c>
+      <c r="J192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" t="s">
+        <v>62</v>
+      </c>
+      <c r="E193" t="s">
+        <v>48</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="G193" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="I193" t="n">
+        <v>5.646</v>
+      </c>
+      <c r="J193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" t="s">
+        <v>62</v>
+      </c>
+      <c r="E194" t="s">
+        <v>48</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="G194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="I194" t="n">
+        <v>8.327</v>
+      </c>
+      <c r="J194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>54</v>
+      </c>
+      <c r="D195" t="s">
+        <v>62</v>
+      </c>
+      <c r="E195" t="s">
+        <v>48</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="I195" t="n">
+        <v>10.132</v>
+      </c>
+      <c r="J195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>54</v>
+      </c>
+      <c r="D196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E196" t="s">
+        <v>48</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="I196" t="n">
+        <v>8.374</v>
+      </c>
+      <c r="J196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" t="s">
+        <v>62</v>
+      </c>
+      <c r="E197" t="s">
+        <v>48</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="I197" t="n">
+        <v>11.055</v>
+      </c>
+      <c r="J197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" t="s">
+        <v>62</v>
+      </c>
+      <c r="E198" t="s">
+        <v>48</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="I198" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="J198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199" t="s">
+        <v>62</v>
+      </c>
+      <c r="E199" t="s">
+        <v>48</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="I199" t="n">
+        <v>11.434</v>
+      </c>
+      <c r="J199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" t="s">
+        <v>62</v>
+      </c>
+      <c r="E200" t="s">
+        <v>48</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="I200" t="n">
+        <v>14.115</v>
+      </c>
+      <c r="J200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" t="s">
+        <v>62</v>
+      </c>
+      <c r="E201" t="s">
+        <v>48</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.5985</v>
+      </c>
+      <c r="I201" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="J201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202" t="s">
+        <v>62</v>
+      </c>
+      <c r="E202" t="s">
+        <v>48</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I202" t="n">
+        <v>5.309</v>
+      </c>
+      <c r="J202" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>45151.2222222222</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>54</v>
+      </c>
+      <c r="D203" t="s">
+        <v>62</v>
+      </c>
+      <c r="E203" t="s">
+        <v>48</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I203" t="n">
+        <v>4.116</v>
+      </c>
+      <c r="J203" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>45151.2777777778</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" t="s">
         <v>63</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E204" t="s">
         <v>39</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G204" t="s">
+        <v>41</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I204" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="J204" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>45151.2777777778</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" t="s">
+        <v>63</v>
+      </c>
+      <c r="E205" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" t="n">
         <v>1.43</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G205" t="s">
         <v>41</v>
       </c>
-      <c r="H189" t="n">
+      <c r="H205" t="n">
         <v>2.86</v>
       </c>
-      <c r="I189" t="n">
+      <c r="I205" t="n">
         <v>4.895</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J205" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -592,16 +592,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.627</v>
+        <v>1.494</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.425</v>
+        <v>2.748</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>3.325</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -624,16 +624,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.627</v>
+        <v>1.4845</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.406</v>
+        <v>2.748</v>
       </c>
       <c r="I3" t="n">
-        <v>3.026</v>
+        <v>3.753</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -656,16 +656,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.627</v>
+        <v>1.4655</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.387</v>
+        <v>2.748</v>
       </c>
       <c r="I4" t="n">
-        <v>3.356</v>
+        <v>4.626</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -688,19 +688,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.6175</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.425</v>
+        <v>2.48</v>
       </c>
       <c r="I5" t="n">
-        <v>3.061</v>
+        <v>5.682</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -720,19 +720,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6175</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.406</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.387</v>
+        <v>5.789</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -752,19 +752,19 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6175</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.387</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.717</v>
+        <v>5.064</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -784,19 +784,19 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>5.053</v>
+        <v>6.195</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -816,19 +816,19 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="I9" t="n">
-        <v>5.235</v>
+        <v>5.303</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -848,19 +848,19 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I10" t="n">
-        <v>6.769</v>
+        <v>6.36</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -880,19 +880,19 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
-        <v>6.36</v>
+        <v>5.064</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="I12" t="n">
-        <v>5.207</v>
+        <v>5.303</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -944,19 +944,19 @@
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>6.36</v>
+        <v>6.037</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -973,22 +973,22 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="I14" t="n">
-        <v>5.207</v>
+        <v>5.064</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -1008,24 +1008,24 @@
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="I15" t="n">
-        <v>5.053</v>
+        <v>5.329</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1034,30 +1034,30 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>1.0665</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>2.28</v>
+        <v>13.35</v>
       </c>
       <c r="I16" t="n">
-        <v>6.36</v>
+        <v>1.255</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1066,30 +1066,30 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>1.62</v>
+        <v>1.0665</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>12.875</v>
       </c>
       <c r="I17" t="n">
-        <v>5.207</v>
+        <v>1.532</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45143.15625</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1098,25 +1098,25 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.0665</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>2.27</v>
+        <v>12.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.165</v>
+        <v>1.829</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1136,16 +1136,16 @@
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0665</v>
+        <v>1.057</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>11.925</v>
+        <v>13.35</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.098</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1168,16 +1168,16 @@
         <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0665</v>
+        <v>1.057</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>11.45</v>
+        <v>12.875</v>
       </c>
       <c r="I20" t="n">
-        <v>2.498</v>
+        <v>2.374</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1206,10 +1206,10 @@
         <v>30</v>
       </c>
       <c r="H21" t="n">
-        <v>11.925</v>
+        <v>12.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.993</v>
+        <v>2.672</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1232,16 +1232,16 @@
         <v>29</v>
       </c>
       <c r="F22" t="n">
-        <v>1.057</v>
+        <v>1.0475</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>11.45</v>
+        <v>13.35</v>
       </c>
       <c r="I22" t="n">
-        <v>3.341</v>
+        <v>2.956</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1270,10 +1270,10 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>11.925</v>
+        <v>12.875</v>
       </c>
       <c r="I23" t="n">
-        <v>3.851</v>
+        <v>3.232</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -1302,10 +1302,10 @@
         <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>11.45</v>
+        <v>12.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.199</v>
+        <v>3.53</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -1328,16 +1328,16 @@
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" t="n">
-        <v>5.238</v>
+        <v>5.245</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -1392,16 +1392,16 @@
         <v>29</v>
       </c>
       <c r="F27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" t="n">
-        <v>5.238</v>
+        <v>5.245</v>
       </c>
       <c r="J27" t="s">
         <v>18</v>
@@ -1424,16 +1424,16 @@
         <v>29</v>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
       </c>
       <c r="H28" t="n">
-        <v>9.6</v>
+        <v>10.25</v>
       </c>
       <c r="I28" t="n">
-        <v>6.571</v>
+        <v>6.843</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -1456,16 +1456,16 @@
         <v>29</v>
       </c>
       <c r="F29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
-        <v>4.596</v>
+        <v>4.329</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -1520,16 +1520,16 @@
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>5.238</v>
+        <v>5.245</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
@@ -1552,16 +1552,16 @@
         <v>29</v>
       </c>
       <c r="F32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>5.451</v>
+        <v>5.238</v>
       </c>
       <c r="J32" t="s">
         <v>23</v>
@@ -1584,16 +1584,16 @@
         <v>29</v>
       </c>
       <c r="F33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
       </c>
       <c r="H33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>4.762</v>
+        <v>6.154</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
@@ -1616,16 +1616,16 @@
         <v>29</v>
       </c>
       <c r="F34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34" t="n">
-        <v>5.238</v>
+        <v>5.245</v>
       </c>
       <c r="J34" t="s">
         <v>26</v>
@@ -1648,16 +1648,16 @@
         <v>29</v>
       </c>
       <c r="F35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>6.349</v>
+        <v>5.245</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
@@ -1680,16 +1680,16 @@
         <v>32</v>
       </c>
       <c r="F36" t="n">
-        <v>1.399</v>
+        <v>1.342</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9475</v>
+        <v>3.5175</v>
       </c>
       <c r="I36" t="n">
-        <v>5.407</v>
+        <v>2.945</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -1712,16 +1712,16 @@
         <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>1.399</v>
+        <v>1.342</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>3.47</v>
       </c>
       <c r="I37" t="n">
-        <v>5.962</v>
+        <v>3.334</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -1744,16 +1744,16 @@
         <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>1.399</v>
+        <v>1.342</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>3.4225</v>
       </c>
       <c r="I38" t="n">
-        <v>11.162</v>
+        <v>3.734</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -1776,16 +1776,16 @@
         <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>1.3705</v>
+        <v>1.323</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9475</v>
+        <v>3.5175</v>
       </c>
       <c r="I39" t="n">
-        <v>6.893</v>
+        <v>4.015</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -1808,16 +1808,16 @@
         <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>1.3705</v>
+        <v>1.323</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>2.9</v>
+        <v>3.47</v>
       </c>
       <c r="I40" t="n">
-        <v>7.449</v>
+        <v>4.404</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -1840,16 +1840,16 @@
         <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>1.3705</v>
+        <v>1.323</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
       </c>
       <c r="H41" t="n">
-        <v>2.52</v>
+        <v>3.4225</v>
       </c>
       <c r="I41" t="n">
-        <v>12.649</v>
+        <v>4.804</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
@@ -1872,19 +1872,19 @@
         <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>1.361</v>
+        <v>1.31</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>2.9475</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>7.402</v>
+        <v>5.748</v>
       </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1904,19 +1904,19 @@
         <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>1.361</v>
+        <v>1.3</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="I43" t="n">
-        <v>7.958</v>
+        <v>5.092</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1936,19 +1936,19 @@
         <v>32</v>
       </c>
       <c r="F44" t="n">
-        <v>1.361</v>
+        <v>1.3</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>13.158</v>
+        <v>5.495</v>
       </c>
       <c r="J44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1968,19 +1968,19 @@
         <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
       </c>
       <c r="H45" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>5.324</v>
+        <v>6.505</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -2000,19 +2000,19 @@
         <v>32</v>
       </c>
       <c r="F46" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>5.251</v>
+        <v>5.495</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -2032,19 +2032,19 @@
         <v>32</v>
       </c>
       <c r="F47" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
       <c r="I47" t="n">
-        <v>5.251</v>
+        <v>5.075</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -2064,19 +2064,19 @@
         <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
       </c>
       <c r="H48" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>6.316</v>
+        <v>4.907</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -2096,19 +2096,19 @@
         <v>32</v>
       </c>
       <c r="F49" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>5.787</v>
+        <v>5.495</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -2128,19 +2128,19 @@
         <v>32</v>
       </c>
       <c r="F50" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>5.075</v>
+        <v>6.091</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2160,19 +2160,19 @@
         <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
       </c>
       <c r="H51" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>4.739</v>
+        <v>5.297</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -2192,24 +2192,24 @@
         <v>32</v>
       </c>
       <c r="F52" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
       </c>
       <c r="H52" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>5.275</v>
+        <v>5.495</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2218,30 +2218,30 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F53" t="n">
-        <v>1.36</v>
+        <v>5.275</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53" t="n">
-        <v>3.17</v>
+        <v>1.19</v>
       </c>
       <c r="I53" t="n">
-        <v>5.075</v>
+        <v>2.991</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2250,30 +2250,30 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
-        <v>1.37</v>
+        <v>5.275</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54" t="n">
-        <v>3.15</v>
+        <v>1.1805</v>
       </c>
       <c r="I54" t="n">
-        <v>4.739</v>
+        <v>3.667</v>
       </c>
       <c r="J54" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45143.2743055556</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2282,25 +2282,25 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F55" t="n">
-        <v>1.37</v>
+        <v>5.275</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>1.171</v>
       </c>
       <c r="I55" t="n">
-        <v>6.326</v>
+        <v>4.354</v>
       </c>
       <c r="J55" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -2320,16 +2320,16 @@
         <v>35</v>
       </c>
       <c r="F56" t="n">
-        <v>5.275</v>
+        <v>5.085</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
       </c>
       <c r="H56" t="n">
-        <v>1.1805</v>
+        <v>1.19</v>
       </c>
       <c r="I56" t="n">
-        <v>3.667</v>
+        <v>3.699</v>
       </c>
       <c r="J56" t="s">
         <v>15</v>
@@ -2352,16 +2352,16 @@
         <v>35</v>
       </c>
       <c r="F57" t="n">
-        <v>5.275</v>
+        <v>5.085</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>1.171</v>
+        <v>1.1805</v>
       </c>
       <c r="I57" t="n">
-        <v>4.354</v>
+        <v>4.376</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
@@ -2384,16 +2384,16 @@
         <v>35</v>
       </c>
       <c r="F58" t="n">
-        <v>5.275</v>
+        <v>5.085</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
       </c>
       <c r="H58" t="n">
-        <v>1.1615</v>
+        <v>1.171</v>
       </c>
       <c r="I58" t="n">
-        <v>5.053</v>
+        <v>5.063</v>
       </c>
       <c r="J58" t="s">
         <v>15</v>
@@ -2448,16 +2448,16 @@
         <v>35</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
       </c>
       <c r="H60" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I60" t="n">
-        <v>5.47</v>
+        <v>5.154</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -2480,16 +2480,16 @@
         <v>35</v>
       </c>
       <c r="F61" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
       </c>
       <c r="H61" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I61" t="n">
-        <v>5.138</v>
+        <v>5.255</v>
       </c>
       <c r="J61" t="s">
         <v>18</v>
@@ -2512,16 +2512,16 @@
         <v>35</v>
       </c>
       <c r="F62" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
       </c>
       <c r="H62" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I62" t="n">
-        <v>6.564</v>
+        <v>6.207</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
@@ -2672,16 +2672,16 @@
         <v>35</v>
       </c>
       <c r="F67" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="G67" t="s">
         <v>36</v>
       </c>
       <c r="H67" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I67" t="n">
-        <v>5.075</v>
+        <v>5.878</v>
       </c>
       <c r="J67" t="s">
         <v>24</v>
@@ -2736,16 +2736,16 @@
         <v>35</v>
       </c>
       <c r="F69" t="n">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
       </c>
       <c r="H69" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I69" t="n">
-        <v>6.564</v>
+        <v>5.255</v>
       </c>
       <c r="J69" t="s">
         <v>27</v>
@@ -2768,16 +2768,16 @@
         <v>38</v>
       </c>
       <c r="F70" t="n">
-        <v>1.5985</v>
+        <v>1.5605</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
       </c>
       <c r="H70" t="n">
-        <v>2.482</v>
+        <v>2.539</v>
       </c>
       <c r="I70" t="n">
-        <v>2.849</v>
+        <v>3.468</v>
       </c>
       <c r="J70" t="s">
         <v>15</v>
@@ -2800,16 +2800,16 @@
         <v>38</v>
       </c>
       <c r="F71" t="n">
-        <v>1.5985</v>
+        <v>1.5605</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
       </c>
       <c r="H71" t="n">
-        <v>2.463</v>
+        <v>2.52</v>
       </c>
       <c r="I71" t="n">
-        <v>3.16</v>
+        <v>3.765</v>
       </c>
       <c r="J71" t="s">
         <v>15</v>
@@ -2832,16 +2832,16 @@
         <v>38</v>
       </c>
       <c r="F72" t="n">
-        <v>1.5985</v>
+        <v>1.551</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
       </c>
       <c r="H72" t="n">
-        <v>2.444</v>
+        <v>2.539</v>
       </c>
       <c r="I72" t="n">
-        <v>3.475</v>
+        <v>3.86</v>
       </c>
       <c r="J72" t="s">
         <v>15</v>
@@ -2864,16 +2864,16 @@
         <v>38</v>
       </c>
       <c r="F73" t="n">
-        <v>1.589</v>
+        <v>1.551</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
       </c>
       <c r="H73" t="n">
-        <v>2.482</v>
+        <v>2.52</v>
       </c>
       <c r="I73" t="n">
-        <v>3.223</v>
+        <v>4.157</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2896,16 +2896,16 @@
         <v>38</v>
       </c>
       <c r="F74" t="n">
-        <v>1.589</v>
+        <v>1.513</v>
       </c>
       <c r="G74" t="s">
         <v>39</v>
       </c>
       <c r="H74" t="n">
-        <v>2.463</v>
+        <v>2.539</v>
       </c>
       <c r="I74" t="n">
-        <v>3.534</v>
+        <v>5.479</v>
       </c>
       <c r="J74" t="s">
         <v>15</v>
@@ -2928,16 +2928,16 @@
         <v>38</v>
       </c>
       <c r="F75" t="n">
-        <v>1.589</v>
+        <v>1.513</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
       </c>
       <c r="H75" t="n">
-        <v>2.444</v>
+        <v>2.52</v>
       </c>
       <c r="I75" t="n">
-        <v>3.849</v>
+        <v>5.776</v>
       </c>
       <c r="J75" t="s">
         <v>15</v>
@@ -2960,19 +2960,19 @@
         <v>38</v>
       </c>
       <c r="F76" t="n">
-        <v>1.5795</v>
+        <v>1.55</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
       </c>
       <c r="H76" t="n">
-        <v>2.482</v>
+        <v>2.45</v>
       </c>
       <c r="I76" t="n">
-        <v>3.601</v>
+        <v>5.332</v>
       </c>
       <c r="J76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2992,19 +2992,19 @@
         <v>38</v>
       </c>
       <c r="F77" t="n">
-        <v>1.5795</v>
+        <v>1.53</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
       </c>
       <c r="H77" t="n">
-        <v>2.463</v>
+        <v>2.45</v>
       </c>
       <c r="I77" t="n">
-        <v>3.912</v>
+        <v>6.176</v>
       </c>
       <c r="J77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
@@ -3024,19 +3024,19 @@
         <v>38</v>
       </c>
       <c r="F78" t="n">
-        <v>1.5795</v>
+        <v>1.53</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
       </c>
       <c r="H78" t="n">
-        <v>2.444</v>
+        <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>4.228</v>
+        <v>5.359</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -3056,19 +3056,19 @@
         <v>38</v>
       </c>
       <c r="F79" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G79" t="s">
         <v>39</v>
       </c>
       <c r="H79" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="I79" t="n">
-        <v>5.332</v>
+        <v>6.119</v>
       </c>
       <c r="J79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -3088,19 +3088,19 @@
         <v>38</v>
       </c>
       <c r="F80" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G80" t="s">
         <v>39</v>
       </c>
       <c r="H80" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I80" t="n">
-        <v>5.332</v>
+        <v>5.361</v>
       </c>
       <c r="J80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -3120,19 +3120,19 @@
         <v>38</v>
       </c>
       <c r="F81" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
       </c>
       <c r="H81" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I81" t="n">
-        <v>5.359</v>
+        <v>4.958</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -3158,13 +3158,13 @@
         <v>39</v>
       </c>
       <c r="H82" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I82" t="n">
-        <v>6.183</v>
+        <v>5.332</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -3184,19 +3184,19 @@
         <v>38</v>
       </c>
       <c r="F83" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
       </c>
       <c r="H83" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I83" t="n">
-        <v>5.361</v>
+        <v>5.332</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -3216,19 +3216,19 @@
         <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G84" t="s">
         <v>39</v>
       </c>
       <c r="H84" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I84" t="n">
-        <v>4.958</v>
+        <v>6.119</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
@@ -3260,7 +3260,7 @@
         <v>4.958</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
@@ -3280,24 +3280,24 @@
         <v>38</v>
       </c>
       <c r="F86" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
       </c>
       <c r="H86" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I86" t="n">
-        <v>5.332</v>
+        <v>5.361</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3306,30 +3306,30 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F87" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H87" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="I87" t="n">
-        <v>4.958</v>
+        <v>5.597</v>
       </c>
       <c r="J87" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3338,30 +3338,30 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F88" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H88" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I88" t="n">
-        <v>4.958</v>
+        <v>5.051</v>
       </c>
       <c r="J88" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45143.3958333333</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3370,25 +3370,25 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F89" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H89" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="I89" t="n">
-        <v>6.257</v>
+        <v>5.335</v>
       </c>
       <c r="J89" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -3408,19 +3408,19 @@
         <v>41</v>
       </c>
       <c r="F90" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
       </c>
       <c r="H90" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="I90" t="n">
-        <v>5.278</v>
+        <v>6.395</v>
       </c>
       <c r="J90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -3440,19 +3440,19 @@
         <v>41</v>
       </c>
       <c r="F91" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
       </c>
       <c r="H91" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I91" t="n">
-        <v>5.278</v>
+        <v>5.335</v>
       </c>
       <c r="J91" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -3478,13 +3478,13 @@
         <v>42</v>
       </c>
       <c r="H92" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I92" t="n">
-        <v>5.278</v>
+        <v>4.116</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
@@ -3504,19 +3504,19 @@
         <v>41</v>
       </c>
       <c r="F93" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
       </c>
       <c r="H93" t="n">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="I93" t="n">
-        <v>6.491</v>
+        <v>5.051</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -3536,19 +3536,19 @@
         <v>41</v>
       </c>
       <c r="F94" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="G94" t="s">
         <v>42</v>
       </c>
       <c r="H94" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="I94" t="n">
-        <v>5.278</v>
+        <v>5.794</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -3565,22 +3565,22 @@
         <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F95" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
       </c>
       <c r="H95" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I95" t="n">
-        <v>4.116</v>
+        <v>5.051</v>
       </c>
       <c r="J95" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
@@ -3600,24 +3600,24 @@
         <v>41</v>
       </c>
       <c r="F96" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="G96" t="s">
         <v>42</v>
       </c>
       <c r="H96" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="I96" t="n">
-        <v>5.423</v>
+        <v>5.249</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3626,30 +3626,30 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F97" t="n">
-        <v>1.77</v>
+        <v>9.55</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H97" t="n">
-        <v>2.1</v>
+        <v>1.095</v>
       </c>
       <c r="I97" t="n">
-        <v>4.116</v>
+        <v>1.795</v>
       </c>
       <c r="J97" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3658,30 +3658,30 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F98" t="n">
-        <v>1.78</v>
+        <v>9.55</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H98" t="n">
-        <v>2.05</v>
+        <v>1.0855</v>
       </c>
       <c r="I98" t="n">
-        <v>4.96</v>
+        <v>2.595</v>
       </c>
       <c r="J98" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45144.1319444444</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3690,25 +3690,25 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F99" t="n">
-        <v>1.74</v>
+        <v>9.55</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H99" t="n">
-        <v>2.05</v>
+        <v>1.076</v>
       </c>
       <c r="I99" t="n">
-        <v>6.252</v>
+        <v>3.408</v>
       </c>
       <c r="J99" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -3728,16 +3728,16 @@
         <v>45</v>
       </c>
       <c r="F100" t="n">
-        <v>9.17</v>
+        <v>8.98</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
       </c>
       <c r="H100" t="n">
-        <v>1.1045</v>
+        <v>1.095</v>
       </c>
       <c r="I100" t="n">
-        <v>1.444</v>
+        <v>2.46</v>
       </c>
       <c r="J100" t="s">
         <v>15</v>
@@ -3760,16 +3760,16 @@
         <v>45</v>
       </c>
       <c r="F101" t="n">
-        <v>9.17</v>
+        <v>8.98</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
       </c>
       <c r="H101" t="n">
-        <v>1.095</v>
+        <v>1.0855</v>
       </c>
       <c r="I101" t="n">
-        <v>2.229</v>
+        <v>3.259</v>
       </c>
       <c r="J101" t="s">
         <v>15</v>
@@ -3792,16 +3792,16 @@
         <v>45</v>
       </c>
       <c r="F102" t="n">
-        <v>9.17</v>
+        <v>8.98</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
       </c>
       <c r="H102" t="n">
-        <v>1.0855</v>
+        <v>1.076</v>
       </c>
       <c r="I102" t="n">
-        <v>3.029</v>
+        <v>4.073</v>
       </c>
       <c r="J102" t="s">
         <v>15</v>
@@ -3824,19 +3824,19 @@
         <v>45</v>
       </c>
       <c r="F103" t="n">
-        <v>8.98</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
         <v>46</v>
       </c>
       <c r="H103" t="n">
-        <v>1.1045</v>
+        <v>1.1</v>
       </c>
       <c r="I103" t="n">
-        <v>1.675</v>
+        <v>5.195</v>
       </c>
       <c r="J103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
@@ -3856,19 +3856,19 @@
         <v>45</v>
       </c>
       <c r="F104" t="n">
-        <v>8.98</v>
+        <v>7</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
       </c>
       <c r="H104" t="n">
-        <v>1.095</v>
+        <v>1.1</v>
       </c>
       <c r="I104" t="n">
-        <v>2.46</v>
+        <v>5.195</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
@@ -3888,19 +3888,19 @@
         <v>45</v>
       </c>
       <c r="F105" t="n">
-        <v>8.98</v>
+        <v>7</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
       </c>
       <c r="H105" t="n">
-        <v>1.0855</v>
+        <v>1.1</v>
       </c>
       <c r="I105" t="n">
-        <v>3.259</v>
+        <v>5.195</v>
       </c>
       <c r="J105" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -3920,19 +3920,19 @@
         <v>45</v>
       </c>
       <c r="F106" t="n">
-        <v>8.41</v>
+        <v>7.1</v>
       </c>
       <c r="G106" t="s">
         <v>46</v>
       </c>
       <c r="H106" t="n">
-        <v>1.1045</v>
+        <v>1.08</v>
       </c>
       <c r="I106" t="n">
-        <v>2.429</v>
+        <v>6.677</v>
       </c>
       <c r="J106" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
@@ -3952,19 +3952,19 @@
         <v>45</v>
       </c>
       <c r="F107" t="n">
-        <v>8.41</v>
+        <v>7.5</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
       </c>
       <c r="H107" t="n">
-        <v>1.095</v>
+        <v>1.09</v>
       </c>
       <c r="I107" t="n">
-        <v>3.215</v>
+        <v>5.076</v>
       </c>
       <c r="J107" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -3984,19 +3984,19 @@
         <v>45</v>
       </c>
       <c r="F108" t="n">
-        <v>8.41</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
         <v>46</v>
       </c>
       <c r="H108" t="n">
-        <v>1.0855</v>
+        <v>1.1</v>
       </c>
       <c r="I108" t="n">
-        <v>4.014</v>
+        <v>5.195</v>
       </c>
       <c r="J108" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
@@ -4016,19 +4016,19 @@
         <v>45</v>
       </c>
       <c r="F109" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G109" t="s">
         <v>46</v>
       </c>
       <c r="H109" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="I109" t="n">
-        <v>5.195</v>
+        <v>5.076</v>
       </c>
       <c r="J109" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -4060,7 +4060,7 @@
         <v>5.195</v>
       </c>
       <c r="J110" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
@@ -4092,7 +4092,7 @@
         <v>5.195</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
@@ -4112,7 +4112,7 @@
         <v>45</v>
       </c>
       <c r="F112" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G112" t="s">
         <v>46</v>
@@ -4121,10 +4121,10 @@
         <v>1.09</v>
       </c>
       <c r="I112" t="n">
-        <v>6.236</v>
+        <v>5.076</v>
       </c>
       <c r="J112" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
@@ -4156,12 +4156,12 @@
         <v>5.076</v>
       </c>
       <c r="J113" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -4170,30 +4170,30 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F114" t="n">
-        <v>7</v>
+        <v>2.634</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H114" t="n">
-        <v>1.1</v>
+        <v>1.5415</v>
       </c>
       <c r="I114" t="n">
-        <v>5.195</v>
+        <v>2.837</v>
       </c>
       <c r="J114" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4202,30 +4202,30 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F115" t="n">
-        <v>7.5</v>
+        <v>2.634</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H115" t="n">
-        <v>1.09</v>
+        <v>1.532</v>
       </c>
       <c r="I115" t="n">
-        <v>5.076</v>
+        <v>3.239</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4234,30 +4234,30 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F116" t="n">
-        <v>7</v>
+        <v>2.634</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H116" t="n">
-        <v>1.1</v>
+        <v>1.5225</v>
       </c>
       <c r="I116" t="n">
-        <v>5.195</v>
+        <v>3.647</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4266,30 +4266,30 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F117" t="n">
-        <v>7</v>
+        <v>2.596</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H117" t="n">
-        <v>1.1</v>
+        <v>1.5415</v>
       </c>
       <c r="I117" t="n">
-        <v>5.195</v>
+        <v>3.393</v>
       </c>
       <c r="J117" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4298,30 +4298,30 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F118" t="n">
-        <v>7.5</v>
+        <v>2.596</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H118" t="n">
-        <v>1.09</v>
+        <v>1.532</v>
       </c>
       <c r="I118" t="n">
-        <v>5.076</v>
+        <v>3.795</v>
       </c>
       <c r="J118" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45144.2222222222</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4330,25 +4330,25 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F119" t="n">
-        <v>7</v>
+        <v>2.596</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H119" t="n">
-        <v>1.09</v>
+        <v>1.5225</v>
       </c>
       <c r="I119" t="n">
-        <v>6.029</v>
+        <v>4.202</v>
       </c>
       <c r="J119" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -4368,16 +4368,16 @@
         <v>48</v>
       </c>
       <c r="F120" t="n">
-        <v>2.71</v>
+        <v>2.577</v>
       </c>
       <c r="G120" t="s">
         <v>49</v>
       </c>
       <c r="H120" t="n">
-        <v>1.5035</v>
+        <v>1.5415</v>
       </c>
       <c r="I120" t="n">
-        <v>3.412</v>
+        <v>3.677</v>
       </c>
       <c r="J120" t="s">
         <v>15</v>
@@ -4400,16 +4400,16 @@
         <v>48</v>
       </c>
       <c r="F121" t="n">
-        <v>2.71</v>
+        <v>2.577</v>
       </c>
       <c r="G121" t="s">
         <v>49</v>
       </c>
       <c r="H121" t="n">
-        <v>1.494</v>
+        <v>1.532</v>
       </c>
       <c r="I121" t="n">
-        <v>3.835</v>
+        <v>4.079</v>
       </c>
       <c r="J121" t="s">
         <v>15</v>
@@ -4432,16 +4432,16 @@
         <v>48</v>
       </c>
       <c r="F122" t="n">
-        <v>2.71</v>
+        <v>2.577</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
       </c>
       <c r="H122" t="n">
-        <v>1.4845</v>
+        <v>1.5225</v>
       </c>
       <c r="I122" t="n">
-        <v>4.263</v>
+        <v>4.486</v>
       </c>
       <c r="J122" t="s">
         <v>15</v>
@@ -4464,19 +4464,19 @@
         <v>48</v>
       </c>
       <c r="F123" t="n">
-        <v>2.691</v>
+        <v>2.45</v>
       </c>
       <c r="G123" t="s">
         <v>49</v>
       </c>
       <c r="H123" t="n">
-        <v>1.5035</v>
+        <v>1.55</v>
       </c>
       <c r="I123" t="n">
-        <v>3.672</v>
+        <v>5.332</v>
       </c>
       <c r="J123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -4496,19 +4496,19 @@
         <v>48</v>
       </c>
       <c r="F124" t="n">
-        <v>2.691</v>
+        <v>2.45</v>
       </c>
       <c r="G124" t="s">
         <v>49</v>
       </c>
       <c r="H124" t="n">
-        <v>1.494</v>
+        <v>1.55</v>
       </c>
       <c r="I124" t="n">
-        <v>4.095</v>
+        <v>5.332</v>
       </c>
       <c r="J124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
@@ -4528,19 +4528,19 @@
         <v>48</v>
       </c>
       <c r="F125" t="n">
-        <v>2.691</v>
+        <v>2.5</v>
       </c>
       <c r="G125" t="s">
         <v>49</v>
       </c>
       <c r="H125" t="n">
-        <v>1.4845</v>
+        <v>1.53</v>
       </c>
       <c r="I125" t="n">
-        <v>4.524</v>
+        <v>5.359</v>
       </c>
       <c r="J125" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -4560,19 +4560,19 @@
         <v>48</v>
       </c>
       <c r="F126" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="G126" t="s">
         <v>49</v>
       </c>
       <c r="H126" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="I126" t="n">
-        <v>5.329</v>
+        <v>6.343</v>
       </c>
       <c r="J126" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
@@ -4592,19 +4592,19 @@
         <v>48</v>
       </c>
       <c r="F127" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="G127" t="s">
         <v>49</v>
       </c>
       <c r="H127" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="I127" t="n">
-        <v>5.329</v>
+        <v>6.176</v>
       </c>
       <c r="J127" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -4624,19 +4624,19 @@
         <v>48</v>
       </c>
       <c r="F128" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="G128" t="s">
         <v>49</v>
       </c>
       <c r="H128" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I128" t="n">
-        <v>5.329</v>
+        <v>4.905</v>
       </c>
       <c r="J128" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
@@ -4656,19 +4656,19 @@
         <v>48</v>
       </c>
       <c r="F129" t="n">
-        <v>2.74</v>
+        <v>2.55</v>
       </c>
       <c r="G129" t="s">
         <v>49</v>
       </c>
       <c r="H129" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="I129" t="n">
-        <v>6.426</v>
+        <v>5.005</v>
       </c>
       <c r="J129" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
@@ -4688,19 +4688,19 @@
         <v>48</v>
       </c>
       <c r="F130" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="G130" t="s">
         <v>49</v>
       </c>
       <c r="H130" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I130" t="n">
-        <v>5.303</v>
+        <v>5.128</v>
       </c>
       <c r="J130" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
@@ -4720,19 +4720,19 @@
         <v>48</v>
       </c>
       <c r="F131" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="G131" t="s">
         <v>49</v>
       </c>
       <c r="H131" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="I131" t="n">
-        <v>4.905</v>
+        <v>5.017</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
@@ -4752,19 +4752,19 @@
         <v>48</v>
       </c>
       <c r="F132" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="G132" t="s">
         <v>49</v>
       </c>
       <c r="H132" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="I132" t="n">
-        <v>6.786</v>
+        <v>5.332</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
@@ -4784,24 +4784,24 @@
         <v>48</v>
       </c>
       <c r="F133" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="G133" t="s">
         <v>49</v>
       </c>
       <c r="H133" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="I133" t="n">
-        <v>5.329</v>
+        <v>5.359</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4810,30 +4810,30 @@
         <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E134" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F134" t="n">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="G134" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H134" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="I134" t="n">
-        <v>4.905</v>
+        <v>4.993</v>
       </c>
       <c r="J134" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4842,30 +4842,30 @@
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F135" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="G135" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H135" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="I135" t="n">
-        <v>5.329</v>
+        <v>5.303</v>
       </c>
       <c r="J135" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45144.2777777778</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4874,25 +4874,25 @@
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F136" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G136" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H136" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="I136" t="n">
-        <v>6.481</v>
+        <v>5.303</v>
       </c>
       <c r="J136" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
@@ -4912,19 +4912,19 @@
         <v>51</v>
       </c>
       <c r="F137" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G137" t="s">
         <v>52</v>
       </c>
       <c r="H137" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I137" t="n">
-        <v>4.993</v>
+        <v>5.128</v>
       </c>
       <c r="J137" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
@@ -4944,19 +4944,19 @@
         <v>51</v>
       </c>
       <c r="F138" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="G138" t="s">
         <v>52</v>
       </c>
       <c r="H138" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I138" t="n">
-        <v>5.128</v>
+        <v>5.303</v>
       </c>
       <c r="J138" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
@@ -4976,19 +4976,19 @@
         <v>51</v>
       </c>
       <c r="F139" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="G139" t="s">
         <v>52</v>
       </c>
       <c r="H139" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="I139" t="n">
-        <v>5.329</v>
+        <v>5.303</v>
       </c>
       <c r="J139" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -5008,19 +5008,19 @@
         <v>51</v>
       </c>
       <c r="F140" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="G140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H140" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="I140" t="n">
-        <v>4.857</v>
+        <v>4.985</v>
       </c>
       <c r="J140" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141">
@@ -5040,19 +5040,19 @@
         <v>51</v>
       </c>
       <c r="F141" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="G141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H141" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I141" t="n">
-        <v>5.128</v>
+        <v>5.303</v>
       </c>
       <c r="J141" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
@@ -5072,115 +5072,115 @@
         <v>51</v>
       </c>
       <c r="F142" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="G142" t="s">
         <v>52</v>
       </c>
       <c r="H142" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I142" t="n">
-        <v>5.303</v>
+        <v>5.128</v>
       </c>
       <c r="J142" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F143" t="n">
-        <v>2.63</v>
+        <v>1.4085</v>
       </c>
       <c r="G143" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H143" t="n">
-        <v>1.49</v>
+        <v>2.824</v>
       </c>
       <c r="I143" t="n">
-        <v>5.137</v>
+        <v>6.408</v>
       </c>
       <c r="J143" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D144" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E144" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F144" t="n">
-        <v>2.6</v>
+        <v>1.4085</v>
       </c>
       <c r="G144" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H144" t="n">
-        <v>1.5</v>
+        <v>2.767</v>
       </c>
       <c r="I144" t="n">
-        <v>5.128</v>
+        <v>7.138</v>
       </c>
       <c r="J144" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D145" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E145" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F145" t="n">
-        <v>2.62</v>
+        <v>1.4085</v>
       </c>
       <c r="G145" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H145" t="n">
-        <v>1.47</v>
+        <v>2.539</v>
       </c>
       <c r="I145" t="n">
-        <v>6.195</v>
+        <v>10.383</v>
       </c>
       <c r="J145" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
@@ -5296,19 +5296,19 @@
         <v>36</v>
       </c>
       <c r="F149" t="n">
-        <v>1.3515</v>
+        <v>1.44</v>
       </c>
       <c r="G149" t="s">
         <v>38</v>
       </c>
       <c r="H149" t="n">
-        <v>2.824</v>
+        <v>2.8</v>
       </c>
       <c r="I149" t="n">
-        <v>9.403</v>
+        <v>5.159</v>
       </c>
       <c r="J149" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
@@ -5328,24 +5328,24 @@
         <v>36</v>
       </c>
       <c r="F150" t="n">
-        <v>1.3515</v>
+        <v>1.44</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
       </c>
       <c r="H150" t="n">
-        <v>2.767</v>
+        <v>2.8</v>
       </c>
       <c r="I150" t="n">
-        <v>10.132</v>
+        <v>5.159</v>
       </c>
       <c r="J150" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45150.15625</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -5354,30 +5354,30 @@
         <v>54</v>
       </c>
       <c r="D151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F151" t="n">
-        <v>1.3515</v>
+        <v>4.1</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H151" t="n">
-        <v>2.539</v>
+        <v>1.24</v>
       </c>
       <c r="I151" t="n">
-        <v>13.377</v>
+        <v>5.035</v>
       </c>
       <c r="J151" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45150.15625</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -5386,30 +5386,30 @@
         <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F152" t="n">
-        <v>1.44</v>
+        <v>4.2</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H152" t="n">
-        <v>2.8</v>
+        <v>1.23</v>
       </c>
       <c r="I152" t="n">
-        <v>5.159</v>
+        <v>5.11</v>
       </c>
       <c r="J152" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45150.15625</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5418,25 +5418,25 @@
         <v>54</v>
       </c>
       <c r="D153" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F153" t="n">
-        <v>1.44</v>
+        <v>1.4085</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H153" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I153" t="n">
-        <v>5.159</v>
+        <v>5.48</v>
       </c>
       <c r="J153" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154">
@@ -5450,25 +5450,25 @@
         <v>54</v>
       </c>
       <c r="D154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F154" t="n">
-        <v>4.1</v>
+        <v>1.4085</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H154" t="n">
-        <v>1.24</v>
+        <v>2.71</v>
       </c>
       <c r="I154" t="n">
-        <v>5.035</v>
+        <v>7.898</v>
       </c>
       <c r="J154" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -5482,25 +5482,25 @@
         <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F155" t="n">
-        <v>4.2</v>
+        <v>1.4085</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H155" t="n">
-        <v>1.23</v>
+        <v>2.482</v>
       </c>
       <c r="I155" t="n">
-        <v>5.11</v>
+        <v>11.288</v>
       </c>
       <c r="J155" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
@@ -5520,7 +5520,7 @@
         <v>42</v>
       </c>
       <c r="F156" t="n">
-        <v>1.4085</v>
+        <v>1.361</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -5529,7 +5529,7 @@
         <v>2.9</v>
       </c>
       <c r="I156" t="n">
-        <v>5.48</v>
+        <v>7.958</v>
       </c>
       <c r="J156" t="s">
         <v>15</v>
@@ -5552,7 +5552,7 @@
         <v>42</v>
       </c>
       <c r="F157" t="n">
-        <v>1.4085</v>
+        <v>1.361</v>
       </c>
       <c r="G157" t="s">
         <v>33</v>
@@ -5561,7 +5561,7 @@
         <v>2.71</v>
       </c>
       <c r="I157" t="n">
-        <v>7.898</v>
+        <v>10.376</v>
       </c>
       <c r="J157" t="s">
         <v>15</v>
@@ -5584,7 +5584,7 @@
         <v>42</v>
       </c>
       <c r="F158" t="n">
-        <v>1.4085</v>
+        <v>1.361</v>
       </c>
       <c r="G158" t="s">
         <v>33</v>
@@ -5593,7 +5593,7 @@
         <v>2.482</v>
       </c>
       <c r="I158" t="n">
-        <v>11.288</v>
+        <v>13.765</v>
       </c>
       <c r="J158" t="s">
         <v>15</v>
@@ -5616,7 +5616,7 @@
         <v>42</v>
       </c>
       <c r="F159" t="n">
-        <v>1.361</v>
+        <v>1.323</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -5625,7 +5625,7 @@
         <v>2.9</v>
       </c>
       <c r="I159" t="n">
-        <v>7.958</v>
+        <v>10.069</v>
       </c>
       <c r="J159" t="s">
         <v>15</v>
@@ -5648,7 +5648,7 @@
         <v>42</v>
       </c>
       <c r="F160" t="n">
-        <v>1.361</v>
+        <v>1.323</v>
       </c>
       <c r="G160" t="s">
         <v>33</v>
@@ -5657,7 +5657,7 @@
         <v>2.71</v>
       </c>
       <c r="I160" t="n">
-        <v>10.376</v>
+        <v>12.486</v>
       </c>
       <c r="J160" t="s">
         <v>15</v>
@@ -5680,7 +5680,7 @@
         <v>42</v>
       </c>
       <c r="F161" t="n">
-        <v>1.361</v>
+        <v>1.323</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -5689,7 +5689,7 @@
         <v>2.482</v>
       </c>
       <c r="I161" t="n">
-        <v>13.765</v>
+        <v>15.876</v>
       </c>
       <c r="J161" t="s">
         <v>15</v>
@@ -5712,19 +5712,19 @@
         <v>42</v>
       </c>
       <c r="F162" t="n">
-        <v>1.323</v>
+        <v>1.38</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
       </c>
       <c r="H162" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I162" t="n">
-        <v>10.069</v>
+        <v>5.251</v>
       </c>
       <c r="J162" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
@@ -5744,24 +5744,24 @@
         <v>42</v>
       </c>
       <c r="F163" t="n">
-        <v>1.323</v>
+        <v>1.43</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
       </c>
       <c r="H163" t="n">
-        <v>2.71</v>
+        <v>2.86</v>
       </c>
       <c r="I163" t="n">
-        <v>12.486</v>
+        <v>4.895</v>
       </c>
       <c r="J163" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5770,30 +5770,30 @@
         <v>54</v>
       </c>
       <c r="D164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F164" t="n">
-        <v>1.323</v>
+        <v>1.25</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H164" t="n">
-        <v>2.482</v>
+        <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>15.876</v>
+        <v>5</v>
       </c>
       <c r="J164" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5802,30 +5802,30 @@
         <v>54</v>
       </c>
       <c r="D165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F165" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H165" t="n">
-        <v>3.05</v>
+        <v>3.78</v>
       </c>
       <c r="I165" t="n">
-        <v>5.251</v>
+        <v>5.195</v>
       </c>
       <c r="J165" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5834,30 +5834,30 @@
         <v>54</v>
       </c>
       <c r="D166" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E166" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F166" t="n">
-        <v>1.4</v>
+        <v>2.292</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H166" t="n">
-        <v>2.99</v>
+        <v>1.6175</v>
       </c>
       <c r="I166" t="n">
-        <v>4.873</v>
+        <v>5.454</v>
       </c>
       <c r="J166" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5866,30 +5866,30 @@
         <v>54</v>
       </c>
       <c r="D167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E167" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F167" t="n">
-        <v>1.25</v>
+        <v>2.292</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H167" t="n">
-        <v>4</v>
+        <v>1.5415</v>
       </c>
       <c r="I167" t="n">
-        <v>5</v>
+        <v>8.502</v>
       </c>
       <c r="J167" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5898,25 +5898,25 @@
         <v>54</v>
       </c>
       <c r="D168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E168" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F168" t="n">
-        <v>1.27</v>
+        <v>2.292</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H168" t="n">
-        <v>3.78</v>
+        <v>1.494</v>
       </c>
       <c r="I168" t="n">
-        <v>5.195</v>
+        <v>10.564</v>
       </c>
       <c r="J168" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -5936,7 +5936,7 @@
         <v>49</v>
       </c>
       <c r="F169" t="n">
-        <v>2.292</v>
+        <v>2.083</v>
       </c>
       <c r="G169" t="s">
         <v>46</v>
@@ -5945,7 +5945,7 @@
         <v>1.6175</v>
       </c>
       <c r="I169" t="n">
-        <v>5.454</v>
+        <v>9.831</v>
       </c>
       <c r="J169" t="s">
         <v>15</v>
@@ -5968,7 +5968,7 @@
         <v>49</v>
       </c>
       <c r="F170" t="n">
-        <v>2.292</v>
+        <v>2.083</v>
       </c>
       <c r="G170" t="s">
         <v>46</v>
@@ -5977,7 +5977,7 @@
         <v>1.5415</v>
       </c>
       <c r="I170" t="n">
-        <v>8.502</v>
+        <v>12.88</v>
       </c>
       <c r="J170" t="s">
         <v>15</v>
@@ -6000,7 +6000,7 @@
         <v>49</v>
       </c>
       <c r="F171" t="n">
-        <v>2.292</v>
+        <v>2.083</v>
       </c>
       <c r="G171" t="s">
         <v>46</v>
@@ -6009,7 +6009,7 @@
         <v>1.494</v>
       </c>
       <c r="I171" t="n">
-        <v>10.564</v>
+        <v>14.942</v>
       </c>
       <c r="J171" t="s">
         <v>15</v>
@@ -6032,7 +6032,7 @@
         <v>49</v>
       </c>
       <c r="F172" t="n">
-        <v>2.083</v>
+        <v>1.988</v>
       </c>
       <c r="G172" t="s">
         <v>46</v>
@@ -6041,7 +6041,7 @@
         <v>1.6175</v>
       </c>
       <c r="I172" t="n">
-        <v>9.831</v>
+        <v>12.126</v>
       </c>
       <c r="J172" t="s">
         <v>15</v>
@@ -6064,7 +6064,7 @@
         <v>49</v>
       </c>
       <c r="F173" t="n">
-        <v>2.083</v>
+        <v>1.988</v>
       </c>
       <c r="G173" t="s">
         <v>46</v>
@@ -6073,7 +6073,7 @@
         <v>1.5415</v>
       </c>
       <c r="I173" t="n">
-        <v>12.88</v>
+        <v>15.174</v>
       </c>
       <c r="J173" t="s">
         <v>15</v>
@@ -6096,7 +6096,7 @@
         <v>49</v>
       </c>
       <c r="F174" t="n">
-        <v>2.083</v>
+        <v>1.988</v>
       </c>
       <c r="G174" t="s">
         <v>46</v>
@@ -6105,7 +6105,7 @@
         <v>1.494</v>
       </c>
       <c r="I174" t="n">
-        <v>14.942</v>
+        <v>17.236</v>
       </c>
       <c r="J174" t="s">
         <v>15</v>
@@ -6128,19 +6128,19 @@
         <v>49</v>
       </c>
       <c r="F175" t="n">
-        <v>1.988</v>
+        <v>2.32</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
       </c>
       <c r="H175" t="n">
-        <v>1.6175</v>
+        <v>1.6</v>
       </c>
       <c r="I175" t="n">
-        <v>12.126</v>
+        <v>5.603</v>
       </c>
       <c r="J175" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
@@ -6160,24 +6160,24 @@
         <v>49</v>
       </c>
       <c r="F176" t="n">
-        <v>1.988</v>
+        <v>2.36</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
       </c>
       <c r="H176" t="n">
-        <v>1.5415</v>
+        <v>1.6</v>
       </c>
       <c r="I176" t="n">
-        <v>15.174</v>
+        <v>4.873</v>
       </c>
       <c r="J176" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -6186,30 +6186,30 @@
         <v>54</v>
       </c>
       <c r="D177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F177" t="n">
-        <v>1.988</v>
+        <v>4.2</v>
       </c>
       <c r="G177" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H177" t="n">
-        <v>1.494</v>
+        <v>1.22</v>
       </c>
       <c r="I177" t="n">
-        <v>17.236</v>
+        <v>5.777</v>
       </c>
       <c r="J177" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -6218,30 +6218,30 @@
         <v>54</v>
       </c>
       <c r="D178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E178" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F178" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H178" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="I178" t="n">
-        <v>5.603</v>
+        <v>5.11</v>
       </c>
       <c r="J178" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -6250,30 +6250,30 @@
         <v>54</v>
       </c>
       <c r="D179" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E179" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F179" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H179" t="n">
-        <v>1.6</v>
+        <v>1.5225</v>
       </c>
       <c r="I179" t="n">
-        <v>4.873</v>
+        <v>5.364</v>
       </c>
       <c r="J179" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -6282,30 +6282,30 @@
         <v>54</v>
       </c>
       <c r="D180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E180" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F180" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="G180" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H180" t="n">
-        <v>1.22</v>
+        <v>1.475</v>
       </c>
       <c r="I180" t="n">
-        <v>5.777</v>
+        <v>7.479</v>
       </c>
       <c r="J180" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -6314,25 +6314,25 @@
         <v>54</v>
       </c>
       <c r="D181" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F181" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="G181" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H181" t="n">
-        <v>1.23</v>
+        <v>1.4275</v>
       </c>
       <c r="I181" t="n">
-        <v>5.11</v>
+        <v>9.735</v>
       </c>
       <c r="J181" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
@@ -6352,7 +6352,7 @@
         <v>35</v>
       </c>
       <c r="F182" t="n">
-        <v>2.52</v>
+        <v>2.311</v>
       </c>
       <c r="G182" t="s">
         <v>13</v>
@@ -6361,7 +6361,7 @@
         <v>1.5225</v>
       </c>
       <c r="I182" t="n">
-        <v>5.364</v>
+        <v>8.953</v>
       </c>
       <c r="J182" t="s">
         <v>15</v>
@@ -6384,7 +6384,7 @@
         <v>35</v>
       </c>
       <c r="F183" t="n">
-        <v>2.52</v>
+        <v>2.311</v>
       </c>
       <c r="G183" t="s">
         <v>13</v>
@@ -6393,7 +6393,7 @@
         <v>1.475</v>
       </c>
       <c r="I183" t="n">
-        <v>7.479</v>
+        <v>11.068</v>
       </c>
       <c r="J183" t="s">
         <v>15</v>
@@ -6416,7 +6416,7 @@
         <v>35</v>
       </c>
       <c r="F184" t="n">
-        <v>2.52</v>
+        <v>2.311</v>
       </c>
       <c r="G184" t="s">
         <v>13</v>
@@ -6425,7 +6425,7 @@
         <v>1.4275</v>
       </c>
       <c r="I184" t="n">
-        <v>9.735</v>
+        <v>13.324</v>
       </c>
       <c r="J184" t="s">
         <v>15</v>
@@ -6448,7 +6448,7 @@
         <v>35</v>
       </c>
       <c r="F185" t="n">
-        <v>2.311</v>
+        <v>2.14</v>
       </c>
       <c r="G185" t="s">
         <v>13</v>
@@ -6457,7 +6457,7 @@
         <v>1.5225</v>
       </c>
       <c r="I185" t="n">
-        <v>8.953</v>
+        <v>12.41</v>
       </c>
       <c r="J185" t="s">
         <v>15</v>
@@ -6480,7 +6480,7 @@
         <v>35</v>
       </c>
       <c r="F186" t="n">
-        <v>2.311</v>
+        <v>2.14</v>
       </c>
       <c r="G186" t="s">
         <v>13</v>
@@ -6489,7 +6489,7 @@
         <v>1.475</v>
       </c>
       <c r="I186" t="n">
-        <v>11.068</v>
+        <v>14.526</v>
       </c>
       <c r="J186" t="s">
         <v>15</v>
@@ -6512,7 +6512,7 @@
         <v>35</v>
       </c>
       <c r="F187" t="n">
-        <v>2.311</v>
+        <v>2.14</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
@@ -6521,7 +6521,7 @@
         <v>1.4275</v>
       </c>
       <c r="I187" t="n">
-        <v>13.324</v>
+        <v>16.782</v>
       </c>
       <c r="J187" t="s">
         <v>15</v>
@@ -6544,19 +6544,19 @@
         <v>35</v>
       </c>
       <c r="F188" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="G188" t="s">
         <v>13</v>
       </c>
       <c r="H188" t="n">
-        <v>1.5225</v>
+        <v>1.53</v>
       </c>
       <c r="I188" t="n">
-        <v>12.41</v>
+        <v>5.359</v>
       </c>
       <c r="J188" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
@@ -6576,24 +6576,24 @@
         <v>35</v>
       </c>
       <c r="F189" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
       </c>
       <c r="H189" t="n">
-        <v>1.475</v>
+        <v>1.51</v>
       </c>
       <c r="I189" t="n">
-        <v>14.526</v>
+        <v>4.985</v>
       </c>
       <c r="J189" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
@@ -6602,22 +6602,22 @@
         <v>54</v>
       </c>
       <c r="D190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F190" t="n">
-        <v>2.14</v>
+        <v>2.102</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="n">
-        <v>1.4275</v>
+        <v>1.722</v>
       </c>
       <c r="I190" t="n">
-        <v>16.782</v>
+        <v>5.646</v>
       </c>
       <c r="J190" t="s">
         <v>15</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -6634,30 +6634,30 @@
         <v>54</v>
       </c>
       <c r="D191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F191" t="n">
-        <v>2.5</v>
+        <v>2.102</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="n">
-        <v>1.53</v>
+        <v>1.646</v>
       </c>
       <c r="I191" t="n">
-        <v>5.359</v>
+        <v>8.327</v>
       </c>
       <c r="J191" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
@@ -6666,25 +6666,25 @@
         <v>54</v>
       </c>
       <c r="D192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E192" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F192" t="n">
-        <v>2.58</v>
+        <v>2.102</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="n">
-        <v>1.51</v>
+        <v>1.5985</v>
       </c>
       <c r="I192" t="n">
-        <v>4.985</v>
+        <v>10.132</v>
       </c>
       <c r="J192" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -6704,7 +6704,7 @@
         <v>48</v>
       </c>
       <c r="F193" t="n">
-        <v>2.102</v>
+        <v>1.988</v>
       </c>
       <c r="G193" t="s">
         <v>14</v>
@@ -6713,7 +6713,7 @@
         <v>1.722</v>
       </c>
       <c r="I193" t="n">
-        <v>5.646</v>
+        <v>8.374</v>
       </c>
       <c r="J193" t="s">
         <v>15</v>
@@ -6736,7 +6736,7 @@
         <v>48</v>
       </c>
       <c r="F194" t="n">
-        <v>2.102</v>
+        <v>1.988</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
@@ -6745,7 +6745,7 @@
         <v>1.646</v>
       </c>
       <c r="I194" t="n">
-        <v>8.327</v>
+        <v>11.055</v>
       </c>
       <c r="J194" t="s">
         <v>15</v>
@@ -6768,7 +6768,7 @@
         <v>48</v>
       </c>
       <c r="F195" t="n">
-        <v>2.102</v>
+        <v>1.988</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
@@ -6777,7 +6777,7 @@
         <v>1.5985</v>
       </c>
       <c r="I195" t="n">
-        <v>10.132</v>
+        <v>12.86</v>
       </c>
       <c r="J195" t="s">
         <v>15</v>
@@ -6800,7 +6800,7 @@
         <v>48</v>
       </c>
       <c r="F196" t="n">
-        <v>1.988</v>
+        <v>1.874</v>
       </c>
       <c r="G196" t="s">
         <v>14</v>
@@ -6809,7 +6809,7 @@
         <v>1.722</v>
       </c>
       <c r="I196" t="n">
-        <v>8.374</v>
+        <v>11.434</v>
       </c>
       <c r="J196" t="s">
         <v>15</v>
@@ -6832,7 +6832,7 @@
         <v>48</v>
       </c>
       <c r="F197" t="n">
-        <v>1.988</v>
+        <v>1.874</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
@@ -6841,7 +6841,7 @@
         <v>1.646</v>
       </c>
       <c r="I197" t="n">
-        <v>11.055</v>
+        <v>14.115</v>
       </c>
       <c r="J197" t="s">
         <v>15</v>
@@ -6864,7 +6864,7 @@
         <v>48</v>
       </c>
       <c r="F198" t="n">
-        <v>1.988</v>
+        <v>1.874</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -6873,7 +6873,7 @@
         <v>1.5985</v>
       </c>
       <c r="I198" t="n">
-        <v>12.86</v>
+        <v>15.92</v>
       </c>
       <c r="J198" t="s">
         <v>15</v>
@@ -6896,19 +6896,19 @@
         <v>48</v>
       </c>
       <c r="F199" t="n">
-        <v>1.874</v>
+        <v>2.12</v>
       </c>
       <c r="G199" t="s">
         <v>14</v>
       </c>
       <c r="H199" t="n">
-        <v>1.722</v>
+        <v>1.72</v>
       </c>
       <c r="I199" t="n">
-        <v>11.434</v>
+        <v>5.309</v>
       </c>
       <c r="J199" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
@@ -6928,24 +6928,24 @@
         <v>48</v>
       </c>
       <c r="F200" t="n">
-        <v>1.874</v>
+        <v>2.1</v>
       </c>
       <c r="G200" t="s">
         <v>14</v>
       </c>
       <c r="H200" t="n">
-        <v>1.646</v>
+        <v>1.77</v>
       </c>
       <c r="I200" t="n">
-        <v>14.115</v>
+        <v>4.116</v>
       </c>
       <c r="J200" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
@@ -6954,30 +6954,30 @@
         <v>54</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F201" t="n">
-        <v>1.874</v>
+        <v>1.42</v>
       </c>
       <c r="G201" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H201" t="n">
-        <v>1.5985</v>
+        <v>2.85</v>
       </c>
       <c r="I201" t="n">
-        <v>15.92</v>
+        <v>5.51</v>
       </c>
       <c r="J201" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
@@ -6986,120 +6986,24 @@
         <v>54</v>
       </c>
       <c r="D202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F202" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H202" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="I202" t="n">
-        <v>5.309</v>
+        <v>5.258</v>
       </c>
       <c r="J202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>45151.2222222222</v>
-      </c>
-      <c r="B203" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" t="s">
-        <v>54</v>
-      </c>
-      <c r="D203" t="s">
-        <v>62</v>
-      </c>
-      <c r="E203" t="s">
-        <v>48</v>
-      </c>
-      <c r="F203" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G203" t="s">
-        <v>14</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I203" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="J203" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>45151.2777777778</v>
-      </c>
-      <c r="B204" t="s">
-        <v>10</v>
-      </c>
-      <c r="C204" t="s">
-        <v>54</v>
-      </c>
-      <c r="D204" t="s">
-        <v>63</v>
-      </c>
-      <c r="E204" t="s">
-        <v>39</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G204" t="s">
-        <v>41</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="I204" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="J204" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>45151.2777777778</v>
-      </c>
-      <c r="B205" t="s">
-        <v>10</v>
-      </c>
-      <c r="C205" t="s">
-        <v>54</v>
-      </c>
-      <c r="D205" t="s">
-        <v>63</v>
-      </c>
-      <c r="E205" t="s">
-        <v>39</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G205" t="s">
-        <v>41</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4.895</v>
-      </c>
-      <c r="J205" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -47,16 +47,16 @@
     <t xml:space="preserve">2023 Toyota AFL Premiership</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 21</t>
+    <t xml:space="preserve">Round 22</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Bulldogs v Richmond</t>
+    <t xml:space="preserve">Collingwood v Geelong</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Bulldogs</t>
+    <t xml:space="preserve">Collingwood</t>
   </si>
   <si>
-    <t xml:space="preserve">Richmond</t>
+    <t xml:space="preserve">Geelong</t>
   </si>
   <si>
     <t xml:space="preserve">Betfair</t>
@@ -77,9 +77,6 @@
     <t xml:space="preserve">Neds</t>
   </si>
   <si>
-    <t xml:space="preserve">Palmerbet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Playup</t>
   </si>
   <si>
@@ -89,121 +86,124 @@
     <t xml:space="preserve">Sportsbet</t>
   </si>
   <si>
-    <t xml:space="preserve">Wst Bulldogs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tab</t>
   </si>
   <si>
     <t xml:space="preserve">TopSport</t>
   </si>
   <si>
-    <t xml:space="preserve">Essendon v West Coast</t>
+    <t xml:space="preserve">Unibet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne v Essendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne</t>
   </si>
   <si>
     <t xml:space="preserve">Essendon</t>
   </si>
   <si>
-    <t xml:space="preserve">West Coast</t>
+    <t xml:space="preserve">Sydney v Gold Coast</t>
   </si>
   <si>
-    <t xml:space="preserve">Adelaide v Gold Coast</t>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Lions v Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Lions</t>
   </si>
   <si>
     <t xml:space="preserve">Adelaide</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold Coast</t>
+    <t xml:space="preserve">Brisbane</t>
   </si>
   <si>
-    <t xml:space="preserve">Hawthorn v Collingwood</t>
+    <t xml:space="preserve">Carlton v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast v Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v Western Bulldogs</t>
   </si>
   <si>
     <t xml:space="preserve">Hawthorn</t>
   </si>
   <si>
-    <t xml:space="preserve">Collingwood</t>
+    <t xml:space="preserve">Western Bulldogs</t>
   </si>
   <si>
-    <t xml:space="preserve">Geelong v Port Adelaide</t>
+    <t xml:space="preserve">Wst Bulldogs</t>
   </si>
   <si>
-    <t xml:space="preserve">Geelong</t>
+    <t xml:space="preserve">St Kilda v Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide v Greater Western Sydney</t>
   </si>
   <si>
     <t xml:space="preserve">Port Adelaide</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Western Sydney v Sydney</t>
-  </si>
-  <si>
     <t xml:space="preserve">Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
   </si>
   <si>
     <t xml:space="preserve">GWS</t>
   </si>
   <si>
-    <t xml:space="preserve">North Melbourne v Melbourne</t>
+    <t xml:space="preserve">Round 23</t>
   </si>
   <si>
-    <t xml:space="preserve">North Melbourne</t>
+    <t xml:space="preserve">Collingwood v Brisbane Lions</t>
   </si>
   <si>
-    <t xml:space="preserve">Melbourne</t>
+    <t xml:space="preserve">Richmond v North Melbourne</t>
   </si>
   <si>
-    <t xml:space="preserve">St Kilda v Carlton</t>
+    <t xml:space="preserve">Gold Coast v Carlton</t>
   </si>
   <si>
-    <t xml:space="preserve">St Kilda</t>
+    <t xml:space="preserve">Greater Western Sydney v Essendon</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlton</t>
+    <t xml:space="preserve">St Kilda v Geelong</t>
   </si>
   <si>
-    <t xml:space="preserve">Fremantle v Brisbane Lions</t>
+    <t xml:space="preserve">Adelaide v Sydney</t>
   </si>
   <si>
-    <t xml:space="preserve">Fremantle</t>
+    <t xml:space="preserve">Western Bulldogs v West Coast</t>
   </si>
   <si>
-    <t xml:space="preserve">Brisbane Lions</t>
+    <t xml:space="preserve">Melbourne v Hawthorn</t>
   </si>
   <si>
-    <t xml:space="preserve">Brisbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Geelong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Melbourne v Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney v Gold Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisbane Lions v Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlton v Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast v Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn v Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Adelaide v Greater Western Sydney</t>
+    <t xml:space="preserve">Fremantle v Port Adelaide</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -592,16 +592,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.494</v>
+        <v>1.798</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.748</v>
+        <v>2.102</v>
       </c>
       <c r="I2" t="n">
-        <v>3.325</v>
+        <v>3.191</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -624,16 +624,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4845</v>
+        <v>1.798</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.748</v>
+        <v>2.083</v>
       </c>
       <c r="I3" t="n">
-        <v>3.753</v>
+        <v>3.625</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -656,16 +656,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4655</v>
+        <v>1.798</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.748</v>
+        <v>2.064</v>
       </c>
       <c r="I4" t="n">
-        <v>4.626</v>
+        <v>4.067</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -688,24 +688,24 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.7885</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>2.102</v>
       </c>
       <c r="I5" t="n">
-        <v>5.682</v>
+        <v>3.487</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -720,24 +720,24 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.7885</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.083</v>
       </c>
       <c r="I6" t="n">
-        <v>5.789</v>
+        <v>3.92</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -752,24 +752,24 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1.47</v>
+        <v>1.7885</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.064</v>
       </c>
       <c r="I7" t="n">
-        <v>5.064</v>
+        <v>4.362</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -784,24 +784,24 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>2.05</v>
       </c>
       <c r="I8" t="n">
-        <v>6.195</v>
+        <v>5.278</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -816,24 +816,24 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="I9" t="n">
-        <v>5.303</v>
+        <v>5.278</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -848,24 +848,24 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>6.36</v>
+        <v>5.556</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -880,24 +880,24 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>2.06</v>
       </c>
       <c r="I11" t="n">
-        <v>5.064</v>
+        <v>6.347</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -912,24 +912,24 @@
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="I12" t="n">
-        <v>5.303</v>
+        <v>5.278</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -944,24 +944,24 @@
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="I13" t="n">
-        <v>6.037</v>
+        <v>5.278</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -973,27 +973,27 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="I14" t="n">
-        <v>5.064</v>
+        <v>5.278</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45142.4097222222</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1008,24 +1008,24 @@
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.75</v>
+        <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>5.329</v>
+        <v>5.22</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1034,30 +1034,30 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0665</v>
+        <v>1.77</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>13.35</v>
+        <v>2.05</v>
       </c>
       <c r="I16" t="n">
-        <v>1.255</v>
+        <v>5.278</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1066,30 +1066,30 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0665</v>
+        <v>1.75</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>12.875</v>
+        <v>2.08</v>
       </c>
       <c r="I17" t="n">
-        <v>1.532</v>
+        <v>5.22</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45149.4097222222</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1098,30 +1098,30 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0665</v>
+        <v>1.76923076923077</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>12.4</v>
+        <v>2.05</v>
       </c>
       <c r="I18" t="n">
-        <v>1.829</v>
+        <v>5.302</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1130,22 +1130,22 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="n">
+        <v>3.755</v>
+      </c>
+      <c r="G19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
       <c r="H19" t="n">
-        <v>13.35</v>
+        <v>1.2945</v>
       </c>
       <c r="I19" t="n">
-        <v>2.098</v>
+        <v>3.881</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1162,22 +1162,22 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="n">
+        <v>3.755</v>
+      </c>
+      <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" t="n">
-        <v>12.875</v>
+        <v>1.285</v>
       </c>
       <c r="I20" t="n">
-        <v>2.374</v>
+        <v>4.452</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1194,22 +1194,22 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="n">
+        <v>3.755</v>
+      </c>
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
       <c r="H21" t="n">
-        <v>12.4</v>
+        <v>1.2565</v>
       </c>
       <c r="I21" t="n">
-        <v>2.672</v>
+        <v>6.217</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1226,22 +1226,22 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="n">
+        <v>3.7075</v>
+      </c>
+      <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="n">
-        <v>1.0475</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
       <c r="H22" t="n">
-        <v>13.35</v>
+        <v>1.2945</v>
       </c>
       <c r="I22" t="n">
-        <v>2.956</v>
+        <v>4.222</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1258,22 +1258,22 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="n">
+        <v>3.7075</v>
+      </c>
+      <c r="G23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="n">
-        <v>1.0475</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
       <c r="H23" t="n">
-        <v>12.875</v>
+        <v>1.285</v>
       </c>
       <c r="I23" t="n">
-        <v>3.232</v>
+        <v>4.793</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1290,22 +1290,22 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="n">
+        <v>3.7075</v>
+      </c>
+      <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.0475</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
       <c r="H24" t="n">
-        <v>12.4</v>
+        <v>1.2565</v>
       </c>
       <c r="I24" t="n">
-        <v>3.53</v>
+        <v>6.559</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1322,30 +1322,30 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="n">
+        <v>3.6125</v>
+      </c>
+      <c r="G25" t="s">
         <v>29</v>
       </c>
-      <c r="F25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>1.2945</v>
       </c>
       <c r="I25" t="n">
-        <v>5.245</v>
+        <v>4.932</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1354,30 +1354,30 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="n">
+        <v>3.6125</v>
+      </c>
+      <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>1.285</v>
       </c>
       <c r="I26" t="n">
-        <v>5.238</v>
+        <v>5.503</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1386,30 +1386,30 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="n">
+        <v>3.6125</v>
+      </c>
+      <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>1.2565</v>
       </c>
       <c r="I27" t="n">
-        <v>5.245</v>
+        <v>7.268</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1418,30 +1418,30 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="F28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
       <c r="H28" t="n">
-        <v>10.25</v>
+        <v>1.27</v>
       </c>
       <c r="I28" t="n">
-        <v>6.843</v>
+        <v>5.407</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1450,30 +1450,30 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>1.32</v>
       </c>
       <c r="I29" t="n">
-        <v>4.329</v>
+        <v>5.169</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1482,30 +1482,30 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G30" t="s">
         <v>29</v>
       </c>
-      <c r="F30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.762</v>
+        <v>5.495</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1514,30 +1514,30 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="F31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>1.31</v>
       </c>
       <c r="I31" t="n">
-        <v>5.245</v>
+        <v>6.639</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1546,30 +1546,30 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
         <v>28</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>1.32</v>
       </c>
       <c r="I32" t="n">
-        <v>5.238</v>
+        <v>4.743</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1578,30 +1578,30 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
         <v>28</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="F33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>1.34</v>
       </c>
       <c r="I33" t="n">
-        <v>6.154</v>
+        <v>4.93</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1610,30 +1610,30 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="F34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
       <c r="H34" t="n">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="I34" t="n">
-        <v>5.245</v>
+        <v>5.495</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45143.15625</v>
+        <v>45150.15625</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1642,30 +1642,30 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
         <v>28</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="F35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
       <c r="H35" t="n">
-        <v>11</v>
+        <v>1.32</v>
       </c>
       <c r="I35" t="n">
-        <v>5.245</v>
+        <v>6.061</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1674,30 +1674,30 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" t="n">
-        <v>1.342</v>
+        <v>3.3</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5175</v>
+        <v>1.34</v>
       </c>
       <c r="I36" t="n">
-        <v>2.945</v>
+        <v>4.93</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1706,30 +1706,30 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>1.342</v>
+        <v>3.4</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H37" t="n">
-        <v>3.47</v>
+        <v>1.32</v>
       </c>
       <c r="I37" t="n">
-        <v>3.334</v>
+        <v>5.169</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1738,30 +1738,30 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>1.342</v>
+        <v>3.35</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4225</v>
+        <v>1.31746031746032</v>
       </c>
       <c r="I38" t="n">
-        <v>3.734</v>
+        <v>5.754</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1770,22 +1770,22 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="n">
+        <v>1.3135</v>
+      </c>
+      <c r="G39" t="s">
         <v>32</v>
       </c>
-      <c r="F39" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
       <c r="H39" t="n">
-        <v>3.5175</v>
+        <v>3.565</v>
       </c>
       <c r="I39" t="n">
-        <v>4.015</v>
+        <v>4.183</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1802,22 +1802,22 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="n">
+        <v>1.2945</v>
+      </c>
+      <c r="G40" t="s">
         <v>32</v>
       </c>
-      <c r="F40" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
       <c r="H40" t="n">
-        <v>3.47</v>
+        <v>3.565</v>
       </c>
       <c r="I40" t="n">
-        <v>4.404</v>
+        <v>5.3</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1834,22 +1834,22 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="n">
+        <v>1.2755</v>
+      </c>
+      <c r="G41" t="s">
         <v>32</v>
       </c>
-      <c r="F41" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
       <c r="H41" t="n">
-        <v>3.4225</v>
+        <v>3.565</v>
       </c>
       <c r="I41" t="n">
-        <v>4.804</v>
+        <v>6.451</v>
       </c>
       <c r="J41" t="s">
         <v>15</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1866,16 +1866,16 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
         <v>31</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
       </c>
       <c r="F42" t="n">
         <v>1.31</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1898,16 +1898,16 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
         <v>31</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
       </c>
       <c r="F43" t="n">
         <v>1.3</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43" t="n">
         <v>3.55</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1930,22 +1930,22 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
         <v>31</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G44" t="s">
         <v>32</v>
       </c>
-      <c r="F44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I44" t="n">
-        <v>5.495</v>
+        <v>5.608</v>
       </c>
       <c r="J44" t="s">
         <v>18</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1962,22 +1962,22 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
         <v>31</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G45" t="s">
         <v>32</v>
       </c>
-      <c r="F45" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>6.505</v>
+        <v>6.696</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1994,22 +1994,22 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
         <v>31</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
       </c>
       <c r="F46" t="n">
         <v>1.3</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>5.495</v>
+        <v>4.701</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2026,22 +2026,22 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G47" t="s">
         <v>32</v>
       </c>
-      <c r="F47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
       <c r="H47" t="n">
-        <v>3.17</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>5.075</v>
+        <v>5.297</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2058,22 +2058,22 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
         <v>31</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G48" t="s">
         <v>32</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.907</v>
+        <v>5.495</v>
       </c>
       <c r="J48" t="s">
         <v>22</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2090,22 +2090,22 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
         <v>31</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G49" t="s">
         <v>32</v>
       </c>
-      <c r="F49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>5.495</v>
+        <v>5.903</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2122,22 +2122,22 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
         <v>31</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
       </c>
       <c r="F50" t="n">
         <v>1.29</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>6.091</v>
+        <v>5.297</v>
       </c>
       <c r="J50" t="s">
         <v>24</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2154,30 +2154,30 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
         <v>31</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G51" t="s">
         <v>32</v>
       </c>
-      <c r="F51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>5.297</v>
+        <v>5.495</v>
       </c>
       <c r="J51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45143.1736111111</v>
+        <v>45150.15625</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2186,30 +2186,30 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
         <v>31</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="n">
+        <v>1.26666666666667</v>
+      </c>
+      <c r="G52" t="s">
         <v>32</v>
       </c>
-      <c r="F52" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>5.495</v>
+        <v>5.974</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2218,30 +2218,30 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
         <v>34</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G53" t="s">
         <v>35</v>
       </c>
-      <c r="F53" t="n">
-        <v>5.275</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
       <c r="H53" t="n">
-        <v>1.19</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.991</v>
+        <v>5.324</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2250,30 +2250,30 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
         <v>34</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G54" t="s">
         <v>35</v>
       </c>
-      <c r="F54" t="n">
-        <v>5.275</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
       <c r="H54" t="n">
-        <v>1.1805</v>
+        <v>3.35</v>
       </c>
       <c r="I54" t="n">
-        <v>3.667</v>
+        <v>5.039</v>
       </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2282,30 +2282,30 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
         <v>34</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
       </c>
-      <c r="F55" t="n">
-        <v>5.275</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
       <c r="H55" t="n">
-        <v>1.171</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>4.354</v>
+        <v>5.396</v>
       </c>
       <c r="J55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2314,30 +2314,30 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G56" t="s">
         <v>35</v>
       </c>
-      <c r="F56" t="n">
-        <v>5.085</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
       <c r="H56" t="n">
-        <v>1.19</v>
+        <v>3.35</v>
       </c>
       <c r="I56" t="n">
-        <v>3.699</v>
+        <v>5.608</v>
       </c>
       <c r="J56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2346,30 +2346,30 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G57" t="s">
         <v>35</v>
       </c>
-      <c r="F57" t="n">
-        <v>5.085</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
       <c r="H57" t="n">
-        <v>1.1805</v>
+        <v>3.35</v>
       </c>
       <c r="I57" t="n">
-        <v>4.376</v>
+        <v>5.039</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2378,30 +2378,30 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
         <v>34</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G58" t="s">
         <v>35</v>
       </c>
-      <c r="F58" t="n">
-        <v>5.085</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
       <c r="H58" t="n">
-        <v>1.171</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>5.063</v>
+        <v>5.495</v>
       </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2410,30 +2410,30 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G59" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="n">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
       <c r="H59" t="n">
-        <v>1.17</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>5.47</v>
+        <v>6.061</v>
       </c>
       <c r="J59" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.2743055556</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2442,30 +2442,30 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G60" t="s">
         <v>35</v>
       </c>
-      <c r="F60" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
       <c r="H60" t="n">
-        <v>1.18</v>
+        <v>3.35</v>
       </c>
       <c r="I60" t="n">
-        <v>5.154</v>
+        <v>5.039</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2474,30 +2474,30 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F61" t="n">
-        <v>5.25</v>
+        <v>2.444</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H61" t="n">
-        <v>1.16</v>
+        <v>1.608</v>
       </c>
       <c r="I61" t="n">
-        <v>5.255</v>
+        <v>3.106</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2506,30 +2506,30 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>2.444</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H62" t="n">
-        <v>1.16</v>
+        <v>1.5985</v>
       </c>
       <c r="I62" t="n">
-        <v>6.207</v>
+        <v>3.475</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2538,30 +2538,30 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F63" t="n">
-        <v>5.2</v>
+        <v>2.444</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H63" t="n">
-        <v>1.17</v>
+        <v>1.589</v>
       </c>
       <c r="I63" t="n">
-        <v>4.701</v>
+        <v>3.849</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2570,30 +2570,30 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F64" t="n">
-        <v>5.3</v>
+        <v>2.406</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H64" t="n">
-        <v>1.16</v>
+        <v>1.608</v>
       </c>
       <c r="I64" t="n">
-        <v>5.075</v>
+        <v>3.752</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2602,30 +2602,30 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>2.406</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H65" t="n">
-        <v>1.17</v>
+        <v>1.5985</v>
       </c>
       <c r="I65" t="n">
-        <v>5.47</v>
+        <v>4.121</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2634,30 +2634,30 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>2.406</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H66" t="n">
-        <v>1.17</v>
+        <v>1.589</v>
       </c>
       <c r="I66" t="n">
-        <v>5.47</v>
+        <v>4.495</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2666,30 +2666,30 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F67" t="n">
-        <v>4.9</v>
+        <v>2.25</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H67" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="I67" t="n">
-        <v>5.878</v>
+        <v>5.051</v>
       </c>
       <c r="J67" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2698,30 +2698,30 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>2.34</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H68" t="n">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="I68" t="n">
-        <v>5.47</v>
+        <v>5.235</v>
       </c>
       <c r="J68" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45143.2743055556</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2730,30 +2730,30 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F69" t="n">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H69" t="n">
-        <v>1.16</v>
+        <v>1.67</v>
       </c>
       <c r="I69" t="n">
-        <v>5.255</v>
+        <v>5.335</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2768,24 +2768,24 @@
         <v>38</v>
       </c>
       <c r="F70" t="n">
-        <v>1.5605</v>
+        <v>2.38</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
       </c>
       <c r="H70" t="n">
-        <v>2.539</v>
+        <v>1.56</v>
       </c>
       <c r="I70" t="n">
-        <v>3.468</v>
+        <v>6.119</v>
       </c>
       <c r="J70" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2800,24 +2800,24 @@
         <v>38</v>
       </c>
       <c r="F71" t="n">
-        <v>1.5605</v>
+        <v>2.35</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
       </c>
       <c r="H71" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="I71" t="n">
-        <v>3.765</v>
+        <v>5.053</v>
       </c>
       <c r="J71" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2832,24 +2832,24 @@
         <v>38</v>
       </c>
       <c r="F72" t="n">
-        <v>1.551</v>
+        <v>2.4</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
       </c>
       <c r="H72" t="n">
-        <v>2.539</v>
+        <v>1.58</v>
       </c>
       <c r="I72" t="n">
-        <v>3.86</v>
+        <v>4.958</v>
       </c>
       <c r="J72" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2864,24 +2864,24 @@
         <v>38</v>
       </c>
       <c r="F73" t="n">
-        <v>1.551</v>
+        <v>2.35</v>
       </c>
       <c r="G73" t="s">
         <v>39</v>
       </c>
       <c r="H73" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="I73" t="n">
-        <v>4.157</v>
+        <v>5.053</v>
       </c>
       <c r="J73" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2896,24 +2896,24 @@
         <v>38</v>
       </c>
       <c r="F74" t="n">
-        <v>1.513</v>
+        <v>2.38</v>
       </c>
       <c r="G74" t="s">
         <v>39</v>
       </c>
       <c r="H74" t="n">
-        <v>2.539</v>
+        <v>1.56</v>
       </c>
       <c r="I74" t="n">
-        <v>5.479</v>
+        <v>6.119</v>
       </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2928,24 +2928,24 @@
         <v>38</v>
       </c>
       <c r="F75" t="n">
-        <v>1.513</v>
+        <v>2.4</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
       </c>
       <c r="H75" t="n">
-        <v>2.52</v>
+        <v>1.58</v>
       </c>
       <c r="I75" t="n">
-        <v>5.776</v>
+        <v>4.958</v>
       </c>
       <c r="J75" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2960,24 +2960,24 @@
         <v>38</v>
       </c>
       <c r="F76" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
       </c>
       <c r="H76" t="n">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="I76" t="n">
-        <v>5.332</v>
+        <v>5.361</v>
       </c>
       <c r="J76" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.3923611111</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2992,24 +2992,24 @@
         <v>38</v>
       </c>
       <c r="F77" t="n">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
       </c>
       <c r="H77" t="n">
-        <v>2.45</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="I77" t="n">
-        <v>6.176</v>
+        <v>5.303</v>
       </c>
       <c r="J77" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -3018,30 +3018,30 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F78" t="n">
-        <v>1.53</v>
+        <v>5.465</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H78" t="n">
-        <v>2.5</v>
+        <v>1.171</v>
       </c>
       <c r="I78" t="n">
-        <v>5.359</v>
+        <v>3.695</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3050,30 +3050,30 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F79" t="n">
-        <v>1.56</v>
+        <v>5.465</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H79" t="n">
-        <v>2.38</v>
+        <v>1.133</v>
       </c>
       <c r="I79" t="n">
-        <v>6.119</v>
+        <v>6.56</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3082,30 +3082,30 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F80" t="n">
-        <v>1.57</v>
+        <v>5.1</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H80" t="n">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="I80" t="n">
-        <v>5.361</v>
+        <v>6.564</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3114,30 +3114,30 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F81" t="n">
-        <v>1.58</v>
+        <v>5</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H81" t="n">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="I81" t="n">
-        <v>4.958</v>
+        <v>5.47</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3146,30 +3146,30 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F82" t="n">
-        <v>1.55</v>
+        <v>4.9</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H82" t="n">
-        <v>2.45</v>
+        <v>1.18</v>
       </c>
       <c r="I82" t="n">
-        <v>5.332</v>
+        <v>5.154</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3178,30 +3178,30 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F83" t="n">
-        <v>1.55</v>
+        <v>4.9</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H83" t="n">
-        <v>2.45</v>
+        <v>1.16</v>
       </c>
       <c r="I83" t="n">
-        <v>5.332</v>
+        <v>6.615</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3210,30 +3210,30 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F84" t="n">
-        <v>1.56</v>
+        <v>4.75</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H84" t="n">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="I84" t="n">
-        <v>6.119</v>
+        <v>5.086</v>
       </c>
       <c r="J84" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3242,30 +3242,30 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F85" t="n">
-        <v>1.58</v>
+        <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H85" t="n">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="I85" t="n">
-        <v>4.958</v>
+        <v>5.47</v>
       </c>
       <c r="J85" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45143.3923611111</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -3274,30 +3274,30 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F86" t="n">
-        <v>1.57</v>
+        <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H86" t="n">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="I86" t="n">
-        <v>5.361</v>
+        <v>5.47</v>
       </c>
       <c r="J86" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3312,24 +3312,24 @@
         <v>41</v>
       </c>
       <c r="F87" t="n">
-        <v>1.63</v>
+        <v>4.9</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
       </c>
       <c r="H87" t="n">
-        <v>2.26</v>
+        <v>1.17</v>
       </c>
       <c r="I87" t="n">
-        <v>5.597</v>
+        <v>5.878</v>
       </c>
       <c r="J87" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3344,24 +3344,24 @@
         <v>41</v>
       </c>
       <c r="F88" t="n">
-        <v>1.65</v>
+        <v>5</v>
       </c>
       <c r="G88" t="s">
         <v>42</v>
       </c>
       <c r="H88" t="n">
-        <v>2.25</v>
+        <v>1.17</v>
       </c>
       <c r="I88" t="n">
-        <v>5.051</v>
+        <v>5.47</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3376,24 +3376,24 @@
         <v>41</v>
       </c>
       <c r="F89" t="n">
-        <v>1.67</v>
+        <v>5</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
       </c>
       <c r="H89" t="n">
-        <v>2.2</v>
+        <v>1.17</v>
       </c>
       <c r="I89" t="n">
-        <v>5.335</v>
+        <v>5.47</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45150.4236111111</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -3408,24 +3408,24 @@
         <v>41</v>
       </c>
       <c r="F90" t="n">
-        <v>1.63</v>
+        <v>4.9</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
       </c>
       <c r="H90" t="n">
-        <v>2.22</v>
+        <v>1.17857142857143</v>
       </c>
       <c r="I90" t="n">
-        <v>6.395</v>
+        <v>5.257</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3434,30 +3434,30 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F91" t="n">
-        <v>1.67</v>
+        <v>2.805</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H91" t="n">
-        <v>2.2</v>
+        <v>1.4845</v>
       </c>
       <c r="I91" t="n">
-        <v>5.335</v>
+        <v>3.013</v>
       </c>
       <c r="J91" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3466,30 +3466,30 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F92" t="n">
-        <v>1.77</v>
+        <v>2.805</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H92" t="n">
-        <v>2.1</v>
+        <v>1.475</v>
       </c>
       <c r="I92" t="n">
-        <v>4.116</v>
+        <v>3.447</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3498,30 +3498,30 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F93" t="n">
-        <v>1.65</v>
+        <v>2.805</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H93" t="n">
-        <v>2.25</v>
+        <v>1.4655</v>
       </c>
       <c r="I93" t="n">
-        <v>5.051</v>
+        <v>3.887</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3530,30 +3530,30 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F94" t="n">
-        <v>1.63</v>
+        <v>2.786</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H94" t="n">
-        <v>2.25</v>
+        <v>1.4845</v>
       </c>
       <c r="I94" t="n">
-        <v>5.794</v>
+        <v>3.257</v>
       </c>
       <c r="J94" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3562,30 +3562,30 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="n">
-        <v>1.65</v>
+        <v>2.786</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H95" t="n">
-        <v>2.25</v>
+        <v>1.475</v>
       </c>
       <c r="I95" t="n">
-        <v>5.051</v>
+        <v>3.69</v>
       </c>
       <c r="J95" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45143.3958333333</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3594,30 +3594,30 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F96" t="n">
-        <v>1.65</v>
+        <v>2.786</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H96" t="n">
-        <v>2.24</v>
+        <v>1.4655</v>
       </c>
       <c r="I96" t="n">
-        <v>5.249</v>
+        <v>4.13</v>
       </c>
       <c r="J96" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3626,22 +3626,22 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" t="s">
         <v>44</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="n">
+        <v>2.729</v>
+      </c>
+      <c r="G97" t="s">
         <v>45</v>
       </c>
-      <c r="F97" t="n">
-        <v>9.55</v>
-      </c>
-      <c r="G97" t="s">
-        <v>46</v>
-      </c>
       <c r="H97" t="n">
-        <v>1.095</v>
+        <v>1.4845</v>
       </c>
       <c r="I97" t="n">
-        <v>1.795</v>
+        <v>4.006</v>
       </c>
       <c r="J97" t="s">
         <v>15</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3658,22 +3658,22 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" t="s">
         <v>44</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="n">
+        <v>2.729</v>
+      </c>
+      <c r="G98" t="s">
         <v>45</v>
       </c>
-      <c r="F98" t="n">
-        <v>9.55</v>
-      </c>
-      <c r="G98" t="s">
-        <v>46</v>
-      </c>
       <c r="H98" t="n">
-        <v>1.0855</v>
+        <v>1.475</v>
       </c>
       <c r="I98" t="n">
-        <v>2.595</v>
+        <v>4.44</v>
       </c>
       <c r="J98" t="s">
         <v>15</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3690,22 +3690,22 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" t="s">
         <v>44</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="n">
+        <v>2.729</v>
+      </c>
+      <c r="G99" t="s">
         <v>45</v>
       </c>
-      <c r="F99" t="n">
-        <v>9.55</v>
-      </c>
-      <c r="G99" t="s">
-        <v>46</v>
-      </c>
       <c r="H99" t="n">
-        <v>1.076</v>
+        <v>1.4655</v>
       </c>
       <c r="I99" t="n">
-        <v>3.408</v>
+        <v>4.88</v>
       </c>
       <c r="J99" t="s">
         <v>15</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3722,30 +3722,30 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" t="s">
         <v>44</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G100" t="s">
         <v>45</v>
       </c>
-      <c r="F100" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="G100" t="s">
-        <v>46</v>
-      </c>
       <c r="H100" t="n">
-        <v>1.095</v>
+        <v>1.47</v>
       </c>
       <c r="I100" t="n">
-        <v>2.46</v>
+        <v>5.064</v>
       </c>
       <c r="J100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3754,30 +3754,30 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" t="s">
         <v>44</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G101" t="s">
         <v>45</v>
       </c>
-      <c r="F101" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="G101" t="s">
-        <v>46</v>
-      </c>
       <c r="H101" t="n">
-        <v>1.0855</v>
+        <v>1.5</v>
       </c>
       <c r="I101" t="n">
-        <v>3.259</v>
+        <v>5.128</v>
       </c>
       <c r="J101" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3786,30 +3786,30 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" t="s">
         <v>44</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G102" t="s">
         <v>45</v>
       </c>
-      <c r="F102" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="G102" t="s">
-        <v>46</v>
-      </c>
       <c r="H102" t="n">
-        <v>1.076</v>
+        <v>1.5</v>
       </c>
       <c r="I102" t="n">
-        <v>4.073</v>
+        <v>5.128</v>
       </c>
       <c r="J102" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3818,30 +3818,30 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" t="s">
         <v>44</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G103" t="s">
         <v>45</v>
       </c>
-      <c r="F103" t="n">
-        <v>7</v>
-      </c>
-      <c r="G103" t="s">
-        <v>46</v>
-      </c>
       <c r="H103" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="I103" t="n">
-        <v>5.195</v>
+        <v>6.327</v>
       </c>
       <c r="J103" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3850,30 +3850,30 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" t="s">
         <v>44</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G104" t="s">
         <v>45</v>
       </c>
-      <c r="F104" t="n">
-        <v>7</v>
-      </c>
-      <c r="G104" t="s">
-        <v>46</v>
-      </c>
       <c r="H104" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="I104" t="n">
-        <v>5.195</v>
+        <v>5.303</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3882,30 +3882,30 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" t="s">
         <v>44</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G105" t="s">
         <v>45</v>
       </c>
-      <c r="F105" t="n">
-        <v>7</v>
-      </c>
-      <c r="G105" t="s">
-        <v>46</v>
-      </c>
       <c r="H105" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I105" t="n">
-        <v>5.195</v>
+        <v>5.128</v>
       </c>
       <c r="J105" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3914,30 +3914,30 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" t="s">
         <v>44</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G106" t="s">
         <v>45</v>
       </c>
-      <c r="F106" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G106" t="s">
-        <v>46</v>
-      </c>
       <c r="H106" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="I106" t="n">
-        <v>6.677</v>
+        <v>5.064</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3946,30 +3946,30 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" t="s">
         <v>44</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G107" t="s">
         <v>45</v>
       </c>
-      <c r="F107" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G107" t="s">
-        <v>46</v>
-      </c>
       <c r="H107" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="I107" t="n">
-        <v>5.076</v>
+        <v>4.835</v>
       </c>
       <c r="J107" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3978,30 +3978,30 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" t="s">
         <v>44</v>
       </c>
-      <c r="E108" t="s">
-        <v>45</v>
-      </c>
       <c r="F108" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="G108" t="s">
         <v>46</v>
       </c>
       <c r="H108" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I108" t="n">
-        <v>5.195</v>
+        <v>5.128</v>
       </c>
       <c r="J108" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -4010,30 +4010,30 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" t="s">
         <v>44</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G109" t="s">
         <v>45</v>
       </c>
-      <c r="F109" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G109" t="s">
-        <v>46</v>
-      </c>
       <c r="H109" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="I109" t="n">
-        <v>5.076</v>
+        <v>5.128</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.1319444444</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4042,30 +4042,30 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" t="s">
         <v>44</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G110" t="s">
         <v>45</v>
       </c>
-      <c r="F110" t="n">
-        <v>7</v>
-      </c>
-      <c r="G110" t="s">
-        <v>46</v>
-      </c>
       <c r="H110" t="n">
-        <v>1.1</v>
+        <v>1.46511627906977</v>
       </c>
       <c r="I110" t="n">
-        <v>5.195</v>
+        <v>5.291</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4074,30 +4074,30 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F111" t="n">
-        <v>7</v>
+        <v>1.8455</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H111" t="n">
-        <v>1.1</v>
+        <v>2.045</v>
       </c>
       <c r="I111" t="n">
-        <v>5.195</v>
+        <v>3.086</v>
       </c>
       <c r="J111" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4106,30 +4106,30 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F112" t="n">
-        <v>7.5</v>
+        <v>1.8455</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H112" t="n">
-        <v>1.09</v>
+        <v>2.026</v>
       </c>
       <c r="I112" t="n">
-        <v>5.076</v>
+        <v>3.544</v>
       </c>
       <c r="J112" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45144.1319444444</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -4138,30 +4138,30 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F113" t="n">
-        <v>7.5</v>
+        <v>1.8455</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H113" t="n">
-        <v>1.09</v>
+        <v>2.007</v>
       </c>
       <c r="I113" t="n">
-        <v>5.076</v>
+        <v>4.011</v>
       </c>
       <c r="J113" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -4176,16 +4176,16 @@
         <v>48</v>
       </c>
       <c r="F114" t="n">
-        <v>2.634</v>
+        <v>1.836</v>
       </c>
       <c r="G114" t="s">
         <v>49</v>
       </c>
       <c r="H114" t="n">
-        <v>1.5415</v>
+        <v>2.045</v>
       </c>
       <c r="I114" t="n">
-        <v>2.837</v>
+        <v>3.366</v>
       </c>
       <c r="J114" t="s">
         <v>15</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4208,16 +4208,16 @@
         <v>48</v>
       </c>
       <c r="F115" t="n">
-        <v>2.634</v>
+        <v>1.836</v>
       </c>
       <c r="G115" t="s">
         <v>49</v>
       </c>
       <c r="H115" t="n">
-        <v>1.532</v>
+        <v>2.026</v>
       </c>
       <c r="I115" t="n">
-        <v>3.239</v>
+        <v>3.825</v>
       </c>
       <c r="J115" t="s">
         <v>15</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4240,16 +4240,16 @@
         <v>48</v>
       </c>
       <c r="F116" t="n">
-        <v>2.634</v>
+        <v>1.836</v>
       </c>
       <c r="G116" t="s">
         <v>49</v>
       </c>
       <c r="H116" t="n">
-        <v>1.5225</v>
+        <v>2.007</v>
       </c>
       <c r="I116" t="n">
-        <v>3.647</v>
+        <v>4.292</v>
       </c>
       <c r="J116" t="s">
         <v>15</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4272,16 +4272,16 @@
         <v>48</v>
       </c>
       <c r="F117" t="n">
-        <v>2.596</v>
+        <v>1.779</v>
       </c>
       <c r="G117" t="s">
         <v>49</v>
       </c>
       <c r="H117" t="n">
-        <v>1.5415</v>
+        <v>2.045</v>
       </c>
       <c r="I117" t="n">
-        <v>3.393</v>
+        <v>5.111</v>
       </c>
       <c r="J117" t="s">
         <v>15</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4304,16 +4304,16 @@
         <v>48</v>
       </c>
       <c r="F118" t="n">
-        <v>2.596</v>
+        <v>1.779</v>
       </c>
       <c r="G118" t="s">
         <v>49</v>
       </c>
       <c r="H118" t="n">
-        <v>1.532</v>
+        <v>2.026</v>
       </c>
       <c r="I118" t="n">
-        <v>3.795</v>
+        <v>5.57</v>
       </c>
       <c r="J118" t="s">
         <v>15</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4336,16 +4336,16 @@
         <v>48</v>
       </c>
       <c r="F119" t="n">
-        <v>2.596</v>
+        <v>1.779</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
       </c>
       <c r="H119" t="n">
-        <v>1.5225</v>
+        <v>2.007</v>
       </c>
       <c r="I119" t="n">
-        <v>4.202</v>
+        <v>6.037</v>
       </c>
       <c r="J119" t="s">
         <v>15</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -4368,24 +4368,24 @@
         <v>48</v>
       </c>
       <c r="F120" t="n">
-        <v>2.577</v>
+        <v>1.85</v>
       </c>
       <c r="G120" t="s">
         <v>49</v>
       </c>
       <c r="H120" t="n">
-        <v>1.5415</v>
+        <v>1.95</v>
       </c>
       <c r="I120" t="n">
-        <v>3.677</v>
+        <v>5.336</v>
       </c>
       <c r="J120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -4400,24 +4400,24 @@
         <v>48</v>
       </c>
       <c r="F121" t="n">
-        <v>2.577</v>
+        <v>1.82</v>
       </c>
       <c r="G121" t="s">
         <v>49</v>
       </c>
       <c r="H121" t="n">
-        <v>1.532</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>4.079</v>
+        <v>4.945</v>
       </c>
       <c r="J121" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4432,24 +4432,24 @@
         <v>48</v>
       </c>
       <c r="F122" t="n">
-        <v>2.577</v>
+        <v>1.8</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
       </c>
       <c r="H122" t="n">
-        <v>1.5225</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>4.486</v>
+        <v>5.556</v>
       </c>
       <c r="J122" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4464,24 +4464,24 @@
         <v>48</v>
       </c>
       <c r="F123" t="n">
-        <v>2.45</v>
+        <v>1.79</v>
       </c>
       <c r="G123" t="s">
         <v>49</v>
       </c>
       <c r="H123" t="n">
-        <v>1.55</v>
+        <v>1.98</v>
       </c>
       <c r="I123" t="n">
-        <v>5.332</v>
+        <v>6.371</v>
       </c>
       <c r="J123" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4496,24 +4496,24 @@
         <v>48</v>
       </c>
       <c r="F124" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="G124" t="s">
         <v>49</v>
       </c>
       <c r="H124" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="I124" t="n">
-        <v>5.332</v>
+        <v>5.061</v>
       </c>
       <c r="J124" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4528,24 +4528,24 @@
         <v>48</v>
       </c>
       <c r="F125" t="n">
-        <v>2.5</v>
+        <v>1.77</v>
       </c>
       <c r="G125" t="s">
         <v>49</v>
       </c>
       <c r="H125" t="n">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="I125" t="n">
-        <v>5.359</v>
+        <v>5.278</v>
       </c>
       <c r="J125" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4560,24 +4560,24 @@
         <v>48</v>
       </c>
       <c r="F126" t="n">
-        <v>2.44</v>
+        <v>1.8</v>
       </c>
       <c r="G126" t="s">
         <v>49</v>
       </c>
       <c r="H126" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>6.343</v>
+        <v>5.556</v>
       </c>
       <c r="J126" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4592,24 +4592,24 @@
         <v>48</v>
       </c>
       <c r="F127" t="n">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="G127" t="s">
         <v>49</v>
       </c>
       <c r="H127" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="I127" t="n">
-        <v>6.176</v>
+        <v>4.45</v>
       </c>
       <c r="J127" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4624,24 +4624,24 @@
         <v>48</v>
       </c>
       <c r="F128" t="n">
-        <v>2.82</v>
+        <v>1.77</v>
       </c>
       <c r="G128" t="s">
         <v>49</v>
       </c>
       <c r="H128" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="I128" t="n">
-        <v>4.905</v>
+        <v>5.278</v>
       </c>
       <c r="J128" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4656,24 +4656,24 @@
         <v>48</v>
       </c>
       <c r="F129" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="G129" t="s">
         <v>49</v>
       </c>
       <c r="H129" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>5.005</v>
+        <v>5.249</v>
       </c>
       <c r="J129" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2222222222</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -4688,24 +4688,24 @@
         <v>48</v>
       </c>
       <c r="F130" t="n">
-        <v>2.6</v>
+        <v>1.84745762711864</v>
       </c>
       <c r="G130" t="s">
         <v>49</v>
       </c>
       <c r="H130" t="n">
-        <v>1.5</v>
+        <v>1.94339622641509</v>
       </c>
       <c r="I130" t="n">
-        <v>5.128</v>
+        <v>5.585</v>
       </c>
       <c r="J130" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -4714,30 +4714,30 @@
         <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E131" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F131" t="n">
-        <v>2.42</v>
+        <v>1.53</v>
       </c>
       <c r="G131" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H131" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="I131" t="n">
-        <v>5.017</v>
+        <v>5.359</v>
       </c>
       <c r="J131" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -4746,30 +4746,30 @@
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E132" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F132" t="n">
-        <v>2.45</v>
+        <v>1.52</v>
       </c>
       <c r="G132" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H132" t="n">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="I132" t="n">
-        <v>5.332</v>
+        <v>5.005</v>
       </c>
       <c r="J132" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45144.2222222222</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -4778,30 +4778,30 @@
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E133" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F133" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H133" t="n">
-        <v>1.53</v>
+        <v>2.55</v>
       </c>
       <c r="I133" t="n">
-        <v>5.359</v>
+        <v>5.005</v>
       </c>
       <c r="J133" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4816,24 +4816,24 @@
         <v>51</v>
       </c>
       <c r="F134" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="G134" t="s">
         <v>52</v>
       </c>
       <c r="H134" t="n">
-        <v>1.49</v>
+        <v>2.5</v>
       </c>
       <c r="I134" t="n">
-        <v>4.993</v>
+        <v>6.225</v>
       </c>
       <c r="J134" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4848,24 +4848,24 @@
         <v>51</v>
       </c>
       <c r="F135" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
       <c r="G135" t="s">
         <v>52</v>
       </c>
       <c r="H135" t="n">
-        <v>1.48</v>
+        <v>2.65</v>
       </c>
       <c r="I135" t="n">
         <v>5.303</v>
       </c>
       <c r="J135" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4880,24 +4880,24 @@
         <v>51</v>
       </c>
       <c r="F136" t="n">
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="G136" t="s">
         <v>52</v>
       </c>
       <c r="H136" t="n">
-        <v>1.48</v>
+        <v>2.6</v>
       </c>
       <c r="I136" t="n">
-        <v>5.303</v>
+        <v>5.128</v>
       </c>
       <c r="J136" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4912,24 +4912,24 @@
         <v>51</v>
       </c>
       <c r="F137" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="G137" t="s">
         <v>52</v>
       </c>
       <c r="H137" t="n">
-        <v>1.5</v>
+        <v>2.49</v>
       </c>
       <c r="I137" t="n">
-        <v>5.128</v>
+        <v>5.096</v>
       </c>
       <c r="J137" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4944,24 +4944,24 @@
         <v>51</v>
       </c>
       <c r="F138" t="n">
-        <v>2.65</v>
+        <v>1.52</v>
       </c>
       <c r="G138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H138" t="n">
-        <v>1.48</v>
+        <v>2.55</v>
       </c>
       <c r="I138" t="n">
-        <v>5.303</v>
+        <v>5.005</v>
       </c>
       <c r="J138" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -4976,24 +4976,24 @@
         <v>51</v>
       </c>
       <c r="F139" t="n">
-        <v>2.65</v>
+        <v>1.51</v>
       </c>
       <c r="G139" t="s">
         <v>52</v>
       </c>
       <c r="H139" t="n">
-        <v>1.48</v>
+        <v>2.55</v>
       </c>
       <c r="I139" t="n">
-        <v>5.303</v>
+        <v>5.441</v>
       </c>
       <c r="J139" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45151.2777777778</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -5008,88 +5008,88 @@
         <v>51</v>
       </c>
       <c r="F140" t="n">
-        <v>2.58</v>
+        <v>1.5</v>
       </c>
       <c r="G140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H140" t="n">
-        <v>1.51</v>
+        <v>2.6</v>
       </c>
       <c r="I140" t="n">
-        <v>4.985</v>
+        <v>5.128</v>
       </c>
       <c r="J140" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E141" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F141" t="n">
-        <v>2.65</v>
+        <v>1.62</v>
       </c>
       <c r="G141" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H141" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="I141" t="n">
-        <v>5.303</v>
+        <v>5.207</v>
       </c>
       <c r="J141" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>45144.2777777778</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D142" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E142" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F142" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="G142" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H142" t="n">
-        <v>1.5</v>
+        <v>2.26</v>
       </c>
       <c r="I142" t="n">
-        <v>5.128</v>
+        <v>5.223</v>
       </c>
       <c r="J142" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -5098,22 +5098,22 @@
         <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F143" t="n">
-        <v>1.4085</v>
+        <v>1.152</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H143" t="n">
-        <v>2.824</v>
+        <v>1.0285</v>
       </c>
       <c r="I143" t="n">
-        <v>6.408</v>
+        <v>84.035</v>
       </c>
       <c r="J143" t="s">
         <v>15</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -5130,22 +5130,22 @@
         <v>54</v>
       </c>
       <c r="D144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F144" t="n">
-        <v>1.4085</v>
+        <v>1.152</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H144" t="n">
-        <v>2.767</v>
+        <v>1.0095</v>
       </c>
       <c r="I144" t="n">
-        <v>7.138</v>
+        <v>85.864</v>
       </c>
       <c r="J144" t="s">
         <v>15</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -5162,22 +5162,22 @@
         <v>54</v>
       </c>
       <c r="D145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F145" t="n">
-        <v>1.4085</v>
+        <v>1.1425</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H145" t="n">
-        <v>2.539</v>
+        <v>1.0285</v>
       </c>
       <c r="I145" t="n">
-        <v>10.383</v>
+        <v>84.756</v>
       </c>
       <c r="J145" t="s">
         <v>15</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -5194,22 +5194,22 @@
         <v>54</v>
       </c>
       <c r="D146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F146" t="n">
-        <v>1.399</v>
+        <v>1.1425</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H146" t="n">
-        <v>2.824</v>
+        <v>1.0095</v>
       </c>
       <c r="I146" t="n">
-        <v>6.89</v>
+        <v>86.586</v>
       </c>
       <c r="J146" t="s">
         <v>15</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -5226,22 +5226,22 @@
         <v>54</v>
       </c>
       <c r="D147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F147" t="n">
-        <v>1.399</v>
+        <v>1.1235</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H147" t="n">
-        <v>2.767</v>
+        <v>1.0285</v>
       </c>
       <c r="I147" t="n">
-        <v>7.62</v>
+        <v>86.237</v>
       </c>
       <c r="J147" t="s">
         <v>15</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -5258,22 +5258,22 @@
         <v>54</v>
       </c>
       <c r="D148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F148" t="n">
-        <v>1.399</v>
+        <v>1.1235</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H148" t="n">
-        <v>2.539</v>
+        <v>1.0095</v>
       </c>
       <c r="I148" t="n">
-        <v>10.865</v>
+        <v>88.067</v>
       </c>
       <c r="J148" t="s">
         <v>15</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -5290,22 +5290,22 @@
         <v>54</v>
       </c>
       <c r="D149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F149" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H149" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="I149" t="n">
-        <v>5.159</v>
+        <v>5.798</v>
       </c>
       <c r="J149" t="s">
         <v>20</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -5322,30 +5322,30 @@
         <v>54</v>
       </c>
       <c r="D150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F150" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H150" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="I150" t="n">
-        <v>5.159</v>
+        <v>5.086</v>
       </c>
       <c r="J150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -5354,30 +5354,30 @@
         <v>54</v>
       </c>
       <c r="D151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F151" t="n">
-        <v>4.1</v>
+        <v>2.197</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H151" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="I151" t="n">
-        <v>5.035</v>
+        <v>9.211</v>
       </c>
       <c r="J151" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -5386,30 +5386,30 @@
         <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F152" t="n">
-        <v>4.2</v>
+        <v>2.197</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H152" t="n">
-        <v>1.23</v>
+        <v>1.513</v>
       </c>
       <c r="I152" t="n">
-        <v>5.11</v>
+        <v>11.61</v>
       </c>
       <c r="J152" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5421,19 +5421,19 @@
         <v>57</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F153" t="n">
-        <v>1.4085</v>
+        <v>2.197</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H153" t="n">
-        <v>2.9</v>
+        <v>1.4655</v>
       </c>
       <c r="I153" t="n">
-        <v>5.48</v>
+        <v>13.753</v>
       </c>
       <c r="J153" t="s">
         <v>15</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -5453,19 +5453,19 @@
         <v>57</v>
       </c>
       <c r="E154" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F154" t="n">
-        <v>1.4085</v>
+        <v>2.045</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H154" t="n">
-        <v>2.71</v>
+        <v>1.57</v>
       </c>
       <c r="I154" t="n">
-        <v>7.898</v>
+        <v>12.594</v>
       </c>
       <c r="J154" t="s">
         <v>15</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -5485,19 +5485,19 @@
         <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F155" t="n">
-        <v>1.4085</v>
+        <v>2.045</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H155" t="n">
-        <v>2.482</v>
+        <v>1.513</v>
       </c>
       <c r="I155" t="n">
-        <v>11.288</v>
+        <v>14.994</v>
       </c>
       <c r="J155" t="s">
         <v>15</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -5517,19 +5517,19 @@
         <v>57</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F156" t="n">
-        <v>1.361</v>
+        <v>2.045</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H156" t="n">
-        <v>2.9</v>
+        <v>1.4655</v>
       </c>
       <c r="I156" t="n">
-        <v>7.958</v>
+        <v>17.136</v>
       </c>
       <c r="J156" t="s">
         <v>15</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5549,27 +5549,27 @@
         <v>57</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F157" t="n">
-        <v>1.361</v>
+        <v>2.3</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H157" t="n">
-        <v>2.71</v>
+        <v>1.62</v>
       </c>
       <c r="I157" t="n">
-        <v>10.376</v>
+        <v>5.207</v>
       </c>
       <c r="J157" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5581,27 +5581,27 @@
         <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F158" t="n">
-        <v>1.361</v>
+        <v>2.25</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H158" t="n">
-        <v>2.482</v>
+        <v>1.65</v>
       </c>
       <c r="I158" t="n">
-        <v>13.765</v>
+        <v>5.051</v>
       </c>
       <c r="J158" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5610,30 +5610,30 @@
         <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F159" t="n">
-        <v>1.323</v>
+        <v>1.35</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H159" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>10.069</v>
+        <v>5.324</v>
       </c>
       <c r="J159" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5642,30 +5642,30 @@
         <v>54</v>
       </c>
       <c r="D160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F160" t="n">
-        <v>1.323</v>
+        <v>1.36</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H160" t="n">
-        <v>2.71</v>
+        <v>3.19</v>
       </c>
       <c r="I160" t="n">
-        <v>12.486</v>
+        <v>4.877</v>
       </c>
       <c r="J160" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5674,22 +5674,22 @@
         <v>54</v>
       </c>
       <c r="D161" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F161" t="n">
-        <v>1.323</v>
+        <v>2.52</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H161" t="n">
-        <v>2.482</v>
+        <v>1.5225</v>
       </c>
       <c r="I161" t="n">
-        <v>15.876</v>
+        <v>5.364</v>
       </c>
       <c r="J161" t="s">
         <v>15</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5706,30 +5706,30 @@
         <v>54</v>
       </c>
       <c r="D162" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F162" t="n">
-        <v>1.38</v>
+        <v>2.52</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H162" t="n">
-        <v>3.05</v>
+        <v>1.475</v>
       </c>
       <c r="I162" t="n">
-        <v>5.251</v>
+        <v>7.479</v>
       </c>
       <c r="J162" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5738,30 +5738,30 @@
         <v>54</v>
       </c>
       <c r="D163" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F163" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H163" t="n">
-        <v>2.86</v>
+        <v>1.4275</v>
       </c>
       <c r="I163" t="n">
-        <v>4.895</v>
+        <v>9.735</v>
       </c>
       <c r="J163" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5770,30 +5770,30 @@
         <v>54</v>
       </c>
       <c r="D164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F164" t="n">
-        <v>1.25</v>
+        <v>2.311</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H164" t="n">
-        <v>4</v>
+        <v>1.5225</v>
       </c>
       <c r="I164" t="n">
-        <v>5</v>
+        <v>8.953</v>
       </c>
       <c r="J164" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5802,30 +5802,30 @@
         <v>54</v>
       </c>
       <c r="D165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E165" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F165" t="n">
-        <v>1.27</v>
+        <v>2.311</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H165" t="n">
-        <v>3.78</v>
+        <v>1.475</v>
       </c>
       <c r="I165" t="n">
-        <v>5.195</v>
+        <v>11.068</v>
       </c>
       <c r="J165" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5837,19 +5837,19 @@
         <v>59</v>
       </c>
       <c r="E166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F166" t="n">
-        <v>2.292</v>
+        <v>2.311</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H166" t="n">
-        <v>1.6175</v>
+        <v>1.4275</v>
       </c>
       <c r="I166" t="n">
-        <v>5.454</v>
+        <v>13.324</v>
       </c>
       <c r="J166" t="s">
         <v>15</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5869,19 +5869,19 @@
         <v>59</v>
       </c>
       <c r="E167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F167" t="n">
-        <v>2.292</v>
+        <v>2.14</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H167" t="n">
-        <v>1.5415</v>
+        <v>1.5225</v>
       </c>
       <c r="I167" t="n">
-        <v>8.502</v>
+        <v>12.41</v>
       </c>
       <c r="J167" t="s">
         <v>15</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5901,19 +5901,19 @@
         <v>59</v>
       </c>
       <c r="E168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F168" t="n">
-        <v>2.292</v>
+        <v>2.14</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H168" t="n">
-        <v>1.494</v>
+        <v>1.475</v>
       </c>
       <c r="I168" t="n">
-        <v>10.564</v>
+        <v>14.526</v>
       </c>
       <c r="J168" t="s">
         <v>15</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5933,19 +5933,19 @@
         <v>59</v>
       </c>
       <c r="E169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F169" t="n">
-        <v>2.083</v>
+        <v>2.14</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H169" t="n">
-        <v>1.6175</v>
+        <v>1.4275</v>
       </c>
       <c r="I169" t="n">
-        <v>9.831</v>
+        <v>16.782</v>
       </c>
       <c r="J169" t="s">
         <v>15</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5965,27 +5965,27 @@
         <v>59</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F170" t="n">
-        <v>2.083</v>
+        <v>2.5</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H170" t="n">
-        <v>1.5415</v>
+        <v>1.53</v>
       </c>
       <c r="I170" t="n">
-        <v>12.88</v>
+        <v>5.359</v>
       </c>
       <c r="J170" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5997,27 +5997,27 @@
         <v>59</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F171" t="n">
-        <v>2.083</v>
+        <v>2.48</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H171" t="n">
-        <v>1.494</v>
+        <v>1.54</v>
       </c>
       <c r="I171" t="n">
-        <v>14.942</v>
+        <v>5.258</v>
       </c>
       <c r="J171" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -6026,22 +6026,22 @@
         <v>54</v>
       </c>
       <c r="D172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F172" t="n">
-        <v>1.988</v>
+        <v>1.6175</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H172" t="n">
-        <v>1.6175</v>
+        <v>2.292</v>
       </c>
       <c r="I172" t="n">
-        <v>12.126</v>
+        <v>5.454</v>
       </c>
       <c r="J172" t="s">
         <v>15</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -6058,22 +6058,22 @@
         <v>54</v>
       </c>
       <c r="D173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F173" t="n">
-        <v>1.988</v>
+        <v>1.6175</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H173" t="n">
-        <v>1.5415</v>
+        <v>2.083</v>
       </c>
       <c r="I173" t="n">
-        <v>15.174</v>
+        <v>9.831</v>
       </c>
       <c r="J173" t="s">
         <v>15</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -6090,22 +6090,22 @@
         <v>54</v>
       </c>
       <c r="D174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F174" t="n">
+        <v>1.6175</v>
+      </c>
+      <c r="G174" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.988</v>
       </c>
-      <c r="G174" t="s">
-        <v>46</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1.494</v>
-      </c>
       <c r="I174" t="n">
-        <v>17.236</v>
+        <v>12.126</v>
       </c>
       <c r="J174" t="s">
         <v>15</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -6122,30 +6122,30 @@
         <v>54</v>
       </c>
       <c r="D175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F175" t="n">
-        <v>2.32</v>
+        <v>1.5415</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H175" t="n">
-        <v>1.6</v>
+        <v>2.292</v>
       </c>
       <c r="I175" t="n">
-        <v>5.603</v>
+        <v>8.502</v>
       </c>
       <c r="J175" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -6154,30 +6154,30 @@
         <v>54</v>
       </c>
       <c r="D176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E176" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F176" t="n">
-        <v>2.36</v>
+        <v>1.5415</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H176" t="n">
-        <v>1.6</v>
+        <v>2.083</v>
       </c>
       <c r="I176" t="n">
-        <v>4.873</v>
+        <v>12.88</v>
       </c>
       <c r="J176" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -6189,27 +6189,27 @@
         <v>60</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F177" t="n">
-        <v>4.2</v>
+        <v>1.5415</v>
       </c>
       <c r="G177" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H177" t="n">
-        <v>1.22</v>
+        <v>1.988</v>
       </c>
       <c r="I177" t="n">
-        <v>5.777</v>
+        <v>15.174</v>
       </c>
       <c r="J177" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -6221,27 +6221,27 @@
         <v>60</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F178" t="n">
-        <v>4.2</v>
+        <v>1.494</v>
       </c>
       <c r="G178" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H178" t="n">
-        <v>1.23</v>
+        <v>2.292</v>
       </c>
       <c r="I178" t="n">
-        <v>5.11</v>
+        <v>10.564</v>
       </c>
       <c r="J178" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -6250,22 +6250,22 @@
         <v>54</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E179" t="s">
         <v>35</v>
       </c>
       <c r="F179" t="n">
-        <v>2.52</v>
+        <v>1.494</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H179" t="n">
-        <v>1.5225</v>
+        <v>2.083</v>
       </c>
       <c r="I179" t="n">
-        <v>5.364</v>
+        <v>14.942</v>
       </c>
       <c r="J179" t="s">
         <v>15</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -6282,22 +6282,22 @@
         <v>54</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E180" t="s">
         <v>35</v>
       </c>
       <c r="F180" t="n">
-        <v>2.52</v>
+        <v>1.494</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H180" t="n">
-        <v>1.475</v>
+        <v>1.988</v>
       </c>
       <c r="I180" t="n">
-        <v>7.479</v>
+        <v>17.236</v>
       </c>
       <c r="J180" t="s">
         <v>15</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -6314,30 +6314,30 @@
         <v>54</v>
       </c>
       <c r="D181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E181" t="s">
         <v>35</v>
       </c>
       <c r="F181" t="n">
-        <v>2.52</v>
+        <v>1.62</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H181" t="n">
-        <v>1.4275</v>
+        <v>2.3</v>
       </c>
       <c r="I181" t="n">
-        <v>9.735</v>
+        <v>5.207</v>
       </c>
       <c r="J181" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -6346,30 +6346,30 @@
         <v>54</v>
       </c>
       <c r="D182" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E182" t="s">
         <v>35</v>
       </c>
       <c r="F182" t="n">
-        <v>2.311</v>
+        <v>1.64</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H182" t="n">
-        <v>1.5225</v>
+        <v>2.26</v>
       </c>
       <c r="I182" t="n">
-        <v>8.953</v>
+        <v>5.223</v>
       </c>
       <c r="J182" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
@@ -6381,19 +6381,19 @@
         <v>61</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F183" t="n">
-        <v>2.311</v>
+        <v>1.019</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H183" t="n">
-        <v>1.475</v>
+        <v>1.0095</v>
       </c>
       <c r="I183" t="n">
-        <v>11.068</v>
+        <v>97.194</v>
       </c>
       <c r="J183" t="s">
         <v>15</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -6413,19 +6413,19 @@
         <v>61</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F184" t="n">
-        <v>2.311</v>
+        <v>1.0095</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H184" t="n">
-        <v>1.4275</v>
+        <v>1.0095</v>
       </c>
       <c r="I184" t="n">
-        <v>13.324</v>
+        <v>98.118</v>
       </c>
       <c r="J184" t="s">
         <v>15</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -6445,27 +6445,27 @@
         <v>61</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F185" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H185" t="n">
-        <v>1.5225</v>
+        <v>11</v>
       </c>
       <c r="I185" t="n">
-        <v>12.41</v>
+        <v>5.245</v>
       </c>
       <c r="J185" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
@@ -6477,27 +6477,27 @@
         <v>61</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F186" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H186" t="n">
-        <v>1.475</v>
+        <v>10.5</v>
       </c>
       <c r="I186" t="n">
-        <v>14.526</v>
+        <v>4.762</v>
       </c>
       <c r="J186" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6506,30 +6506,30 @@
         <v>54</v>
       </c>
       <c r="D187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E187" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F187" t="n">
-        <v>2.14</v>
+        <v>1.2</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H187" t="n">
-        <v>1.4275</v>
+        <v>4.5</v>
       </c>
       <c r="I187" t="n">
-        <v>16.782</v>
+        <v>5.556</v>
       </c>
       <c r="J187" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6538,30 +6538,30 @@
         <v>54</v>
       </c>
       <c r="D188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E188" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F188" t="n">
-        <v>2.5</v>
+        <v>1.21</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H188" t="n">
-        <v>1.53</v>
+        <v>4.45</v>
       </c>
       <c r="I188" t="n">
-        <v>5.359</v>
+        <v>5.117</v>
       </c>
       <c r="J188" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -6570,30 +6570,30 @@
         <v>54</v>
       </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E189" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F189" t="n">
-        <v>2.58</v>
+        <v>2.444</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H189" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="I189" t="n">
-        <v>4.985</v>
+        <v>4.611</v>
       </c>
       <c r="J189" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
@@ -6602,22 +6602,22 @@
         <v>54</v>
       </c>
       <c r="D190" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F190" t="n">
-        <v>2.102</v>
+        <v>2.444</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H190" t="n">
-        <v>1.722</v>
+        <v>1.513</v>
       </c>
       <c r="I190" t="n">
-        <v>5.646</v>
+        <v>7.01</v>
       </c>
       <c r="J190" t="s">
         <v>15</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -6634,22 +6634,22 @@
         <v>54</v>
       </c>
       <c r="D191" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F191" t="n">
-        <v>2.102</v>
+        <v>2.444</v>
       </c>
       <c r="G191" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H191" t="n">
-        <v>1.646</v>
+        <v>1.4655</v>
       </c>
       <c r="I191" t="n">
-        <v>8.327</v>
+        <v>9.153</v>
       </c>
       <c r="J191" t="s">
         <v>15</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
@@ -6666,22 +6666,22 @@
         <v>54</v>
       </c>
       <c r="D192" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F192" t="n">
-        <v>2.102</v>
+        <v>2.387</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H192" t="n">
-        <v>1.5985</v>
+        <v>1.57</v>
       </c>
       <c r="I192" t="n">
-        <v>10.132</v>
+        <v>5.588</v>
       </c>
       <c r="J192" t="s">
         <v>15</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
@@ -6698,22 +6698,22 @@
         <v>54</v>
       </c>
       <c r="D193" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E193" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F193" t="n">
-        <v>1.988</v>
+        <v>2.387</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H193" t="n">
-        <v>1.722</v>
+        <v>1.513</v>
       </c>
       <c r="I193" t="n">
-        <v>8.374</v>
+        <v>7.987</v>
       </c>
       <c r="J193" t="s">
         <v>15</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
@@ -6730,22 +6730,22 @@
         <v>54</v>
       </c>
       <c r="D194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E194" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F194" t="n">
-        <v>1.988</v>
+        <v>2.387</v>
       </c>
       <c r="G194" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H194" t="n">
-        <v>1.646</v>
+        <v>1.4655</v>
       </c>
       <c r="I194" t="n">
-        <v>11.055</v>
+        <v>10.13</v>
       </c>
       <c r="J194" t="s">
         <v>15</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
@@ -6762,22 +6762,22 @@
         <v>54</v>
       </c>
       <c r="D195" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E195" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F195" t="n">
-        <v>1.988</v>
+        <v>2.197</v>
       </c>
       <c r="G195" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H195" t="n">
-        <v>1.5985</v>
+        <v>1.57</v>
       </c>
       <c r="I195" t="n">
-        <v>12.86</v>
+        <v>9.211</v>
       </c>
       <c r="J195" t="s">
         <v>15</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
@@ -6794,22 +6794,22 @@
         <v>54</v>
       </c>
       <c r="D196" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E196" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F196" t="n">
-        <v>1.874</v>
+        <v>2.197</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H196" t="n">
-        <v>1.722</v>
+        <v>1.513</v>
       </c>
       <c r="I196" t="n">
-        <v>11.434</v>
+        <v>11.61</v>
       </c>
       <c r="J196" t="s">
         <v>15</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -6826,22 +6826,22 @@
         <v>54</v>
       </c>
       <c r="D197" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F197" t="n">
-        <v>1.874</v>
+        <v>2.197</v>
       </c>
       <c r="G197" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H197" t="n">
-        <v>1.646</v>
+        <v>1.4655</v>
       </c>
       <c r="I197" t="n">
-        <v>14.115</v>
+        <v>13.753</v>
       </c>
       <c r="J197" t="s">
         <v>15</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
@@ -6858,30 +6858,30 @@
         <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E198" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F198" t="n">
-        <v>1.874</v>
+        <v>2.35</v>
       </c>
       <c r="G198" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H198" t="n">
-        <v>1.5985</v>
+        <v>1.6</v>
       </c>
       <c r="I198" t="n">
-        <v>15.92</v>
+        <v>5.053</v>
       </c>
       <c r="J198" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
@@ -6890,121 +6890,25 @@
         <v>54</v>
       </c>
       <c r="D199" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E199" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F199" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H199" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="I199" t="n">
-        <v>5.309</v>
+        <v>4.873</v>
       </c>
       <c r="J199" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>45151.2222222222</v>
-      </c>
-      <c r="B200" t="s">
-        <v>10</v>
-      </c>
-      <c r="C200" t="s">
-        <v>54</v>
-      </c>
-      <c r="D200" t="s">
-        <v>62</v>
-      </c>
-      <c r="E200" t="s">
-        <v>48</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G200" t="s">
-        <v>14</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I200" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="J200" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>45151.2777777778</v>
-      </c>
-      <c r="B201" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" t="s">
-        <v>54</v>
-      </c>
-      <c r="D201" t="s">
-        <v>63</v>
-      </c>
-      <c r="E201" t="s">
-        <v>39</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G201" t="s">
-        <v>41</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="J201" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>45151.2777777778</v>
-      </c>
-      <c r="B202" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" t="s">
-        <v>54</v>
-      </c>
-      <c r="D202" t="s">
-        <v>63</v>
-      </c>
-      <c r="E202" t="s">
-        <v>39</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G202" t="s">
-        <v>41</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5.258</v>
-      </c>
-      <c r="J202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -47,163 +47,163 @@
     <t xml:space="preserve">2023 Toyota AFL Premiership</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Geelong</t>
+    <t xml:space="preserve">Round 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collingwood v Brisbane Lions</t>
   </si>
   <si>
     <t xml:space="preserve">Collingwood</t>
   </si>
   <si>
+    <t xml:space="preserve">Brisbane Lions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueBet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopSport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond v North Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betfair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midasbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unibet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast v Carlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Western Sydney v Essendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Western Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda v Geelong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Geelong</t>
   </si>
   <si>
-    <t xml:space="preserve">Betfair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueBet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midasbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pointsbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sportsbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TopSport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unibet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Melbourne v Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney v Gold Coast</t>
+    <t xml:space="preserve">Adelaide v Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide</t>
   </si>
   <si>
     <t xml:space="preserve">Sydney</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisbane Lions v Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisbane Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlton v Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlton</t>
+    <t xml:space="preserve">Western Bulldogs v West Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wst Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne v Hawthorn</t>
   </si>
   <si>
     <t xml:space="preserve">Melbourne</t>
   </si>
   <si>
-    <t xml:space="preserve">West Coast v Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast</t>
+    <t xml:space="preserve">Hawthorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremantle v Port Adelaide</t>
   </si>
   <si>
     <t xml:space="preserve">Fremantle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hawthorn v Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wst Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Adelaide v Greater Western Sydney</t>
-  </si>
-  <si>
     <t xml:space="preserve">Port Adelaide</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Brisbane Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond v North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast v Carlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Western Sydney v Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v Geelong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide v Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs v West Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbourne v Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremantle v Port Adelaide</t>
+    <t xml:space="preserve">Round 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon v Collingwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne v Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Lions v St Kilda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geelong v Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast v Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide v Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlton v Greater Western Sydney</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -592,16 +592,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.798</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.102</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.191</v>
+        <v>5.335</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -624,24 +624,24 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.798</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.083</v>
+        <v>2.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.625</v>
+        <v>5.335</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -656,24 +656,24 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.798</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.064</v>
+        <v>2.15</v>
       </c>
       <c r="I4" t="n">
-        <v>4.067</v>
+        <v>5.335</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -688,24 +688,24 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7885</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.102</v>
+        <v>2.15</v>
       </c>
       <c r="I5" t="n">
-        <v>3.487</v>
+        <v>5.335</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -720,24 +720,24 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7885</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.083</v>
+        <v>2.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.92</v>
+        <v>5.335</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -752,24 +752,24 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7885</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.064</v>
+        <v>2.15</v>
       </c>
       <c r="I7" t="n">
-        <v>4.362</v>
+        <v>5.335</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -784,24 +784,24 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>5.278</v>
+        <v>5.043</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -816,24 +816,24 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I9" t="n">
-        <v>5.278</v>
+        <v>5.335</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -848,24 +848,24 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I10" t="n">
-        <v>5.556</v>
+        <v>7.023</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -874,30 +874,30 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>1.2565</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>3.945</v>
       </c>
       <c r="I11" t="n">
-        <v>6.347</v>
+        <v>4.935</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -906,30 +906,30 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>1.77</v>
+        <v>1.2565</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>2.05</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>5.278</v>
+        <v>5.56</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -938,30 +938,30 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>1.247</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>2.05</v>
+        <v>3.945</v>
       </c>
       <c r="I13" t="n">
-        <v>5.278</v>
+        <v>5.541</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -970,30 +970,30 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>1.77</v>
+        <v>1.247</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>2.05</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5.278</v>
+        <v>6.166</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1002,30 +1002,30 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>1.1805</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H15" t="n">
-        <v>2.08</v>
+        <v>3.945</v>
       </c>
       <c r="I15" t="n">
-        <v>5.22</v>
+        <v>10.058</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1034,30 +1034,30 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>1.77</v>
+        <v>1.1805</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H16" t="n">
-        <v>2.05</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>5.278</v>
+        <v>10.684</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1066,30 +1066,30 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H17" t="n">
-        <v>2.08</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.22</v>
+        <v>6.316</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1098,30 +1098,30 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>1.76923076923077</v>
+        <v>1.26</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>2.05</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>5.302</v>
+        <v>5.339</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1130,30 +1130,30 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3.755</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.2945</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.881</v>
+        <v>5.006</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1162,30 +1162,30 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3.755</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.027</v>
+      </c>
+      <c r="J20" t="s">
         <v>29</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.285</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.452</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1194,30 +1194,30 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3.755</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
       <c r="H21" t="n">
-        <v>1.2565</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>6.217</v>
+        <v>6.032</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1226,30 +1226,30 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.7075</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
       <c r="H22" t="n">
-        <v>1.2945</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.222</v>
+        <v>5.006</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1258,30 +1258,30 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.7075</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
       <c r="H23" t="n">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.793</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1290,30 +1290,30 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.7075</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
       <c r="H24" t="n">
-        <v>1.2565</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>6.559</v>
+        <v>5.056</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1322,30 +1322,30 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.6125</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
       <c r="H25" t="n">
-        <v>1.2945</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.932</v>
+        <v>5.006</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1354,30 +1354,30 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.6125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
       <c r="H26" t="n">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>5.503</v>
+        <v>6.667</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.15625</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1386,30 +1386,30 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3.6125</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
       <c r="H27" t="n">
-        <v>1.2565</v>
+        <v>3.95</v>
       </c>
       <c r="I27" t="n">
-        <v>7.268</v>
+        <v>5.316</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1418,30 +1418,30 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
-        <v>3.75</v>
+        <v>2.197</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H28" t="n">
-        <v>1.27</v>
+        <v>1.7125</v>
       </c>
       <c r="I28" t="n">
-        <v>5.407</v>
+        <v>3.911</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1450,30 +1450,30 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>2.197</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H29" t="n">
-        <v>1.32</v>
+        <v>1.703</v>
       </c>
       <c r="I29" t="n">
-        <v>5.169</v>
+        <v>4.237</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1482,30 +1482,30 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>3.5</v>
+        <v>2.178</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H30" t="n">
-        <v>1.3</v>
+        <v>1.7125</v>
       </c>
       <c r="I30" t="n">
-        <v>5.495</v>
+        <v>4.308</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1514,30 +1514,30 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>2.178</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>1.31</v>
+        <v>1.703</v>
       </c>
       <c r="I31" t="n">
-        <v>6.639</v>
+        <v>4.634</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1546,30 +1546,30 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F32" t="n">
-        <v>3.45</v>
+        <v>2.045</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32" t="n">
-        <v>1.32</v>
+        <v>1.7125</v>
       </c>
       <c r="I32" t="n">
-        <v>4.743</v>
+        <v>7.294</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1578,30 +1578,30 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>2.045</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H33" t="n">
-        <v>1.34</v>
+        <v>1.703</v>
       </c>
       <c r="I33" t="n">
-        <v>4.93</v>
+        <v>7.62</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1610,30 +1610,30 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F34" t="n">
-        <v>3.5</v>
+        <v>2.34</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="I34" t="n">
-        <v>5.495</v>
+        <v>6.026</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1642,30 +1642,30 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H35" t="n">
-        <v>1.32</v>
+        <v>1.62</v>
       </c>
       <c r="I35" t="n">
-        <v>6.061</v>
+        <v>5.207</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1674,30 +1674,30 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F36" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="I36" t="n">
-        <v>4.93</v>
+        <v>5.207</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1706,30 +1706,30 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="J37" t="s">
         <v>29</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.169</v>
-      </c>
-      <c r="J37" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1738,30 +1738,30 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>1.31746031746032</v>
+        <v>1.62</v>
       </c>
       <c r="I38" t="n">
-        <v>5.754</v>
+        <v>5.207</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1770,30 +1770,30 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>1.3135</v>
+        <v>2.3</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>3.565</v>
+        <v>1.62</v>
       </c>
       <c r="I39" t="n">
-        <v>4.183</v>
+        <v>5.207</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1802,30 +1802,30 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>1.2945</v>
+        <v>2.3</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>3.565</v>
+        <v>1.62</v>
       </c>
       <c r="I40" t="n">
-        <v>5.3</v>
+        <v>5.207</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1834,30 +1834,30 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2755</v>
+        <v>2.3</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" t="n">
-        <v>3.565</v>
+        <v>1.62</v>
       </c>
       <c r="I41" t="n">
-        <v>6.451</v>
+        <v>5.207</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1866,30 +1866,30 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="I42" t="n">
-        <v>5.748</v>
+        <v>5.207</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1898,30 +1898,30 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>1.3</v>
+        <v>2.28</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>3.55</v>
+        <v>1.6</v>
       </c>
       <c r="I43" t="n">
-        <v>5.092</v>
+        <v>6.36</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1930,30 +1930,30 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.59880239520958</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J44" t="s">
         <v>30</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.608</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1962,30 +1962,30 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F45" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I45" t="n">
-        <v>6.696</v>
+        <v>5.82</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1994,30 +1994,30 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="I46" t="n">
-        <v>4.701</v>
+        <v>5.275</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2026,30 +2026,30 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F47" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>5.297</v>
+        <v>5.324</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2058,30 +2058,30 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F48" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I48" t="n">
-        <v>5.495</v>
+        <v>6.373</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2090,30 +2090,30 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F49" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>5.903</v>
+        <v>4.722</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2122,30 +2122,30 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F50" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>5.297</v>
+        <v>4.843</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2154,30 +2154,30 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F51" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>5.495</v>
+        <v>4.843</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2186,30 +2186,30 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F52" t="n">
-        <v>1.26666666666667</v>
+        <v>1.36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I52" t="n">
-        <v>5.974</v>
+        <v>4.779</v>
       </c>
       <c r="J52" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2218,30 +2218,30 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" t="n">
         <v>1.35</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>5.324</v>
+        <v>6.332</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2250,30 +2250,30 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
-        <v>1.33</v>
+        <v>1.34965034965035</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>5.039</v>
+        <v>5.343</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2282,30 +2282,30 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F55" t="n">
-        <v>1.34</v>
+        <v>2.273</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>1.6935</v>
       </c>
       <c r="I55" t="n">
-        <v>5.396</v>
+        <v>3.044</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2314,30 +2314,30 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F56" t="n">
-        <v>1.32</v>
+        <v>2.273</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H56" t="n">
-        <v>3.35</v>
+        <v>1.684</v>
       </c>
       <c r="I56" t="n">
-        <v>5.608</v>
+        <v>3.377</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2346,30 +2346,30 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F57" t="n">
-        <v>1.33</v>
+        <v>2.235</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H57" t="n">
-        <v>3.35</v>
+        <v>1.6935</v>
       </c>
       <c r="I57" t="n">
-        <v>5.039</v>
+        <v>3.792</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2378,30 +2378,30 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F58" t="n">
-        <v>1.3</v>
+        <v>2.235</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>1.684</v>
       </c>
       <c r="I58" t="n">
-        <v>5.495</v>
+        <v>4.125</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2410,30 +2410,30 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F59" t="n">
-        <v>1.32</v>
+        <v>2.22</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="I59" t="n">
-        <v>6.061</v>
+        <v>5.286</v>
       </c>
       <c r="J59" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2442,30 +2442,30 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F60" t="n">
-        <v>1.33</v>
+        <v>2.24</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H60" t="n">
-        <v>3.35</v>
+        <v>1.65</v>
       </c>
       <c r="I60" t="n">
-        <v>5.039</v>
+        <v>5.249</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2474,30 +2474,30 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F61" t="n">
-        <v>2.444</v>
+        <v>2.3</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H61" t="n">
-        <v>1.608</v>
+        <v>1.62</v>
       </c>
       <c r="I61" t="n">
-        <v>3.106</v>
+        <v>5.207</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2506,30 +2506,30 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62" t="n">
-        <v>2.444</v>
+        <v>2.22</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62" t="n">
-        <v>1.5985</v>
+        <v>1.63</v>
       </c>
       <c r="I62" t="n">
-        <v>3.475</v>
+        <v>6.395</v>
       </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2538,30 +2538,30 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F63" t="n">
-        <v>2.444</v>
+        <v>2.25</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63" t="n">
-        <v>1.589</v>
+        <v>1.64</v>
       </c>
       <c r="I63" t="n">
-        <v>3.849</v>
+        <v>5.42</v>
       </c>
       <c r="J63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2570,30 +2570,30 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F64" t="n">
-        <v>2.406</v>
+        <v>2.25</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H64" t="n">
-        <v>1.608</v>
+        <v>1.65</v>
       </c>
       <c r="I64" t="n">
-        <v>3.752</v>
+        <v>5.051</v>
       </c>
       <c r="J64" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2602,30 +2602,30 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F65" t="n">
-        <v>2.406</v>
+        <v>2.3</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65" t="n">
-        <v>1.5985</v>
+        <v>1.62</v>
       </c>
       <c r="I65" t="n">
-        <v>4.121</v>
+        <v>5.207</v>
       </c>
       <c r="J65" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2634,30 +2634,30 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" t="n">
-        <v>2.406</v>
+        <v>2.21</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H66" t="n">
-        <v>1.589</v>
+        <v>1.67</v>
       </c>
       <c r="I66" t="n">
-        <v>4.495</v>
+        <v>5.129</v>
       </c>
       <c r="J66" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2666,16 +2666,16 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" t="n">
         <v>2.25</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H67" t="n">
         <v>1.65</v>
@@ -2684,12 +2684,12 @@
         <v>5.051</v>
       </c>
       <c r="J67" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2698,30 +2698,30 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F68" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I68" t="n">
-        <v>5.235</v>
+        <v>6.36</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2730,30 +2730,30 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F69" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H69" t="n">
-        <v>1.67</v>
+        <v>1.61728395061728</v>
       </c>
       <c r="I69" t="n">
-        <v>5.335</v>
+        <v>5.692</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2762,30 +2762,30 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F70" t="n">
-        <v>2.38</v>
+        <v>1.513</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H70" t="n">
-        <v>1.56</v>
+        <v>2.349</v>
       </c>
       <c r="I70" t="n">
-        <v>6.119</v>
+        <v>8.665</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2794,30 +2794,30 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F71" t="n">
-        <v>2.35</v>
+        <v>1.513</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H71" t="n">
-        <v>1.6</v>
+        <v>2.292</v>
       </c>
       <c r="I71" t="n">
-        <v>5.053</v>
+        <v>9.724</v>
       </c>
       <c r="J71" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2826,30 +2826,30 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F72" t="n">
-        <v>2.4</v>
+        <v>1.494</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H72" t="n">
-        <v>1.58</v>
+        <v>2.349</v>
       </c>
       <c r="I72" t="n">
-        <v>4.958</v>
+        <v>9.506</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2858,30 +2858,30 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F73" t="n">
-        <v>2.35</v>
+        <v>1.494</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H73" t="n">
-        <v>1.6</v>
+        <v>2.292</v>
       </c>
       <c r="I73" t="n">
-        <v>5.053</v>
+        <v>10.564</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2890,30 +2890,30 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F74" t="n">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H74" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="I74" t="n">
-        <v>6.119</v>
+        <v>6.026</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2922,30 +2922,30 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G75" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" t="n">
         <v>2.4</v>
       </c>
-      <c r="G75" t="s">
-        <v>39</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1.58</v>
-      </c>
       <c r="I75" t="n">
-        <v>4.958</v>
+        <v>5.361</v>
       </c>
       <c r="J75" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2954,30 +2954,30 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G76" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" t="n">
         <v>2.4</v>
       </c>
-      <c r="G76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1.57</v>
-      </c>
       <c r="I76" t="n">
-        <v>5.361</v>
+        <v>4.958</v>
       </c>
       <c r="J76" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2986,30 +2986,30 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F77" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H77" t="n">
-        <v>1.57142857142857</v>
+        <v>2.34</v>
       </c>
       <c r="I77" t="n">
-        <v>5.303</v>
+        <v>6.429</v>
       </c>
       <c r="J77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -3018,30 +3018,30 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F78" t="n">
-        <v>5.465</v>
+        <v>1.6</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H78" t="n">
-        <v>1.171</v>
+        <v>2.35</v>
       </c>
       <c r="I78" t="n">
-        <v>3.695</v>
+        <v>5.053</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3050,30 +3050,30 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F79" t="n">
-        <v>5.465</v>
+        <v>1.58</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H79" t="n">
-        <v>1.133</v>
+        <v>2.4</v>
       </c>
       <c r="I79" t="n">
-        <v>6.56</v>
+        <v>4.958</v>
       </c>
       <c r="J79" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3082,30 +3082,30 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="n">
-        <v>5.1</v>
+        <v>1.55</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H80" t="n">
-        <v>1.15</v>
+        <v>2.45</v>
       </c>
       <c r="I80" t="n">
-        <v>6.564</v>
+        <v>5.332</v>
       </c>
       <c r="J80" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3114,30 +3114,30 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>1.59</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H81" t="n">
-        <v>1.17</v>
+        <v>2.36</v>
       </c>
       <c r="I81" t="n">
-        <v>5.47</v>
+        <v>5.266</v>
       </c>
       <c r="J81" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3146,30 +3146,30 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F82" t="n">
-        <v>4.9</v>
+        <v>1.55</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82" t="n">
-        <v>1.18</v>
+        <v>2.45</v>
       </c>
       <c r="I82" t="n">
-        <v>5.154</v>
+        <v>5.332</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3178,30 +3178,30 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F83" t="n">
-        <v>4.9</v>
+        <v>1.55</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H83" t="n">
-        <v>1.16</v>
+        <v>2.35</v>
       </c>
       <c r="I83" t="n">
-        <v>6.615</v>
+        <v>7.069</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3210,30 +3210,30 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" t="n">
-        <v>4.75</v>
+        <v>1.55555555555556</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84" t="n">
-        <v>1.19</v>
+        <v>2.43</v>
       </c>
       <c r="I84" t="n">
-        <v>5.086</v>
+        <v>5.438</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3242,30 +3242,30 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>1.038</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H85" t="n">
-        <v>1.17</v>
+        <v>17.15</v>
       </c>
       <c r="I85" t="n">
-        <v>5.47</v>
+        <v>2.17</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -3274,30 +3274,30 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>1.038</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H86" t="n">
-        <v>1.17</v>
+        <v>16.675</v>
       </c>
       <c r="I86" t="n">
-        <v>5.47</v>
+        <v>2.336</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3306,30 +3306,30 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F87" t="n">
-        <v>4.9</v>
+        <v>1.0285</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H87" t="n">
-        <v>1.17</v>
+        <v>17.15</v>
       </c>
       <c r="I87" t="n">
-        <v>5.878</v>
+        <v>3.06</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3338,30 +3338,30 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>1.0285</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H88" t="n">
-        <v>1.17</v>
+        <v>16.675</v>
       </c>
       <c r="I88" t="n">
-        <v>5.47</v>
+        <v>3.226</v>
       </c>
       <c r="J88" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3370,30 +3370,30 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>1.019</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H89" t="n">
-        <v>1.17</v>
+        <v>17.15</v>
       </c>
       <c r="I89" t="n">
-        <v>5.47</v>
+        <v>3.966</v>
       </c>
       <c r="J89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -3402,30 +3402,30 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F90" t="n">
-        <v>4.9</v>
+        <v>1.019</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H90" t="n">
-        <v>1.17857142857143</v>
+        <v>16.675</v>
       </c>
       <c r="I90" t="n">
-        <v>5.257</v>
+        <v>4.132</v>
       </c>
       <c r="J90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3434,22 +3434,22 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="n">
-        <v>2.805</v>
+        <v>1.02</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="n">
-        <v>1.4845</v>
+        <v>12</v>
       </c>
       <c r="I91" t="n">
-        <v>3.013</v>
+        <v>6.373</v>
       </c>
       <c r="J91" t="s">
         <v>15</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3466,30 +3466,30 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="n">
-        <v>2.805</v>
+        <v>1.02</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="n">
-        <v>1.475</v>
+        <v>14</v>
       </c>
       <c r="I92" t="n">
-        <v>3.447</v>
+        <v>5.182</v>
       </c>
       <c r="J92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3498,30 +3498,30 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="n">
-        <v>2.805</v>
+        <v>1.02</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="n">
-        <v>1.4655</v>
+        <v>14</v>
       </c>
       <c r="I93" t="n">
-        <v>3.887</v>
+        <v>5.182</v>
       </c>
       <c r="J93" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3530,30 +3530,30 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="n">
-        <v>2.786</v>
+        <v>1.02</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="n">
-        <v>1.4845</v>
+        <v>15</v>
       </c>
       <c r="I94" t="n">
-        <v>3.257</v>
+        <v>4.706</v>
       </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3562,30 +3562,30 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="n">
-        <v>2.786</v>
+        <v>1.02</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="n">
-        <v>1.475</v>
+        <v>14</v>
       </c>
       <c r="I95" t="n">
-        <v>3.69</v>
+        <v>5.182</v>
       </c>
       <c r="J95" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3594,30 +3594,30 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="n">
-        <v>2.786</v>
+        <v>1.02</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="n">
-        <v>1.4655</v>
+        <v>13</v>
       </c>
       <c r="I96" t="n">
-        <v>4.13</v>
+        <v>5.732</v>
       </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3626,30 +3626,30 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="n">
-        <v>2.729</v>
+        <v>1.02</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="n">
-        <v>1.4845</v>
+        <v>13</v>
       </c>
       <c r="I97" t="n">
-        <v>4.006</v>
+        <v>5.732</v>
       </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3658,30 +3658,30 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F98" t="n">
-        <v>2.729</v>
+        <v>1.02</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="n">
-        <v>1.475</v>
+        <v>13</v>
       </c>
       <c r="I98" t="n">
-        <v>4.44</v>
+        <v>5.732</v>
       </c>
       <c r="J98" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3690,30 +3690,30 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="n">
-        <v>2.729</v>
+        <v>1.02</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="n">
-        <v>1.4655</v>
+        <v>13</v>
       </c>
       <c r="I99" t="n">
-        <v>4.88</v>
+        <v>5.732</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3722,30 +3722,30 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="n">
-        <v>1.47</v>
+        <v>15</v>
       </c>
       <c r="I100" t="n">
-        <v>5.064</v>
+        <v>5.677</v>
       </c>
       <c r="J100" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3754,30 +3754,30 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F101" t="n">
-        <v>2.6</v>
+        <v>1.304</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H101" t="n">
-        <v>1.5</v>
+        <v>3.755</v>
       </c>
       <c r="I101" t="n">
-        <v>5.128</v>
+        <v>3.318</v>
       </c>
       <c r="J101" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3786,30 +3786,30 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F102" t="n">
-        <v>2.6</v>
+        <v>1.285</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H102" t="n">
-        <v>1.5</v>
+        <v>3.755</v>
       </c>
       <c r="I102" t="n">
-        <v>5.128</v>
+        <v>4.452</v>
       </c>
       <c r="J102" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3818,30 +3818,30 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F103" t="n">
-        <v>2.58</v>
+        <v>1.2565</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H103" t="n">
-        <v>1.48</v>
+        <v>3.755</v>
       </c>
       <c r="I103" t="n">
-        <v>6.327</v>
+        <v>6.217</v>
       </c>
       <c r="J103" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3850,30 +3850,30 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F104" t="n">
-        <v>2.65</v>
+        <v>1.22</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H104" t="n">
-        <v>1.48</v>
+        <v>4.15</v>
       </c>
       <c r="I104" t="n">
-        <v>5.303</v>
+        <v>6.064</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3882,30 +3882,30 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F105" t="n">
-        <v>2.6</v>
+        <v>1.27</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H105" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="I105" t="n">
-        <v>5.128</v>
+        <v>5.056</v>
       </c>
       <c r="J105" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3914,30 +3914,30 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F106" t="n">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H106" t="n">
-        <v>1.47</v>
+        <v>3.75</v>
       </c>
       <c r="I106" t="n">
-        <v>5.064</v>
+        <v>5.407</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3946,30 +3946,30 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F107" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H107" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="I107" t="n">
-        <v>4.835</v>
+        <v>6.316</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3978,30 +3978,30 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F108" t="n">
-        <v>2.6</v>
+        <v>1.26</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H108" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="I108" t="n">
-        <v>5.128</v>
+        <v>5.681</v>
       </c>
       <c r="J108" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -4010,30 +4010,30 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F109" t="n">
-        <v>2.6</v>
+        <v>1.26</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H109" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="I109" t="n">
-        <v>5.128</v>
+        <v>5.006</v>
       </c>
       <c r="J109" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4042,30 +4042,30 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F110" t="n">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H110" t="n">
-        <v>1.46511627906977</v>
+        <v>3.75</v>
       </c>
       <c r="I110" t="n">
-        <v>5.291</v>
+        <v>5.407</v>
       </c>
       <c r="J110" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4074,30 +4074,30 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F111" t="n">
-        <v>1.8455</v>
+        <v>1.27</v>
       </c>
       <c r="G111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H111" t="n">
-        <v>2.045</v>
+        <v>3.82</v>
       </c>
       <c r="I111" t="n">
-        <v>3.086</v>
+        <v>4.918</v>
       </c>
       <c r="J111" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4106,30 +4106,30 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F112" t="n">
-        <v>1.8455</v>
+        <v>1.27</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H112" t="n">
-        <v>2.026</v>
+        <v>3.8</v>
       </c>
       <c r="I112" t="n">
-        <v>3.544</v>
+        <v>5.056</v>
       </c>
       <c r="J112" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -4138,30 +4138,30 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" t="n">
-        <v>1.8455</v>
+        <v>1.25</v>
       </c>
       <c r="G113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H113" t="n">
-        <v>2.007</v>
+        <v>3.85</v>
       </c>
       <c r="I113" t="n">
-        <v>4.011</v>
+        <v>5.974</v>
       </c>
       <c r="J113" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -4170,30 +4170,30 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" t="n">
-        <v>1.836</v>
+        <v>1.23809523809524</v>
       </c>
       <c r="G114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H114" t="n">
-        <v>2.045</v>
+        <v>4.1</v>
       </c>
       <c r="I114" t="n">
-        <v>3.366</v>
+        <v>5.159</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4202,30 +4202,30 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F115" t="n">
-        <v>1.836</v>
+        <v>2.482</v>
       </c>
       <c r="G115" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H115" t="n">
-        <v>2.026</v>
+        <v>1.5795</v>
       </c>
       <c r="I115" t="n">
-        <v>3.825</v>
+        <v>3.601</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4234,30 +4234,30 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F116" t="n">
-        <v>1.836</v>
+        <v>2.482</v>
       </c>
       <c r="G116" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H116" t="n">
-        <v>2.007</v>
+        <v>1.57</v>
       </c>
       <c r="I116" t="n">
-        <v>4.292</v>
+        <v>3.984</v>
       </c>
       <c r="J116" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4266,30 +4266,30 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F117" t="n">
-        <v>1.779</v>
+        <v>2.482</v>
       </c>
       <c r="G117" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H117" t="n">
-        <v>2.045</v>
+        <v>1.5225</v>
       </c>
       <c r="I117" t="n">
-        <v>5.111</v>
+        <v>5.972</v>
       </c>
       <c r="J117" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4298,22 +4298,22 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F118" t="n">
-        <v>1.779</v>
+        <v>2.35</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H118" t="n">
-        <v>2.026</v>
+        <v>1.58</v>
       </c>
       <c r="I118" t="n">
-        <v>5.57</v>
+        <v>5.844</v>
       </c>
       <c r="J118" t="s">
         <v>15</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4330,30 +4330,30 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F119" t="n">
-        <v>1.779</v>
+        <v>2.34</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H119" t="n">
-        <v>2.007</v>
+        <v>1.6</v>
       </c>
       <c r="I119" t="n">
-        <v>6.037</v>
+        <v>5.235</v>
       </c>
       <c r="J119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -4362,30 +4362,30 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F120" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="G120" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H120" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="I120" t="n">
-        <v>5.336</v>
+        <v>4.958</v>
       </c>
       <c r="J120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -4394,30 +4394,30 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F121" t="n">
-        <v>1.82</v>
+        <v>2.36</v>
       </c>
       <c r="G121" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="I121" t="n">
-        <v>4.945</v>
+        <v>6.475</v>
       </c>
       <c r="J121" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4426,22 +4426,22 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F122" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G122" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="I122" t="n">
-        <v>5.556</v>
+        <v>5.844</v>
       </c>
       <c r="J122" t="s">
         <v>18</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4458,22 +4458,22 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F123" t="n">
-        <v>1.79</v>
+        <v>2.45</v>
       </c>
       <c r="G123" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H123" t="n">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="I123" t="n">
-        <v>6.371</v>
+        <v>5.332</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4490,22 +4490,22 @@
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F124" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G124" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H124" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="I124" t="n">
-        <v>5.061</v>
+        <v>5.053</v>
       </c>
       <c r="J124" t="s">
         <v>20</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4522,30 +4522,30 @@
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F125" t="n">
-        <v>1.77</v>
+        <v>2.36</v>
       </c>
       <c r="G125" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H125" t="n">
-        <v>2.05</v>
+        <v>1.59</v>
       </c>
       <c r="I125" t="n">
-        <v>5.278</v>
+        <v>5.266</v>
       </c>
       <c r="J125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4554,30 +4554,30 @@
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F126" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="I126" t="n">
-        <v>5.556</v>
+        <v>4.958</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4586,30 +4586,30 @@
         <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F127" t="n">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="G127" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H127" t="n">
-        <v>2.02</v>
+        <v>1.54</v>
       </c>
       <c r="I127" t="n">
-        <v>4.45</v>
+        <v>6.602</v>
       </c>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4618,414 +4618,414 @@
         <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F128" t="n">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H128" t="n">
-        <v>2.05</v>
+        <v>1.53763440860215</v>
       </c>
       <c r="I128" t="n">
-        <v>5.278</v>
+        <v>5.035</v>
       </c>
       <c r="J128" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D129" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F129" t="n">
-        <v>1.81</v>
+        <v>3.9</v>
       </c>
       <c r="G129" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="I129" t="n">
-        <v>5.249</v>
+        <v>5.006</v>
       </c>
       <c r="J129" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F130" t="n">
-        <v>1.84745762711864</v>
+        <v>1.456</v>
       </c>
       <c r="G130" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H130" t="n">
-        <v>1.94339622641509</v>
+        <v>2.729</v>
       </c>
       <c r="I130" t="n">
-        <v>5.585</v>
+        <v>5.325</v>
       </c>
       <c r="J130" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D131" t="s">
+        <v>56</v>
+      </c>
+      <c r="E131" t="s">
         <v>50</v>
       </c>
-      <c r="E131" t="s">
-        <v>51</v>
-      </c>
       <c r="F131" t="n">
-        <v>1.53</v>
+        <v>1.456</v>
       </c>
       <c r="G131" t="s">
         <v>52</v>
       </c>
       <c r="H131" t="n">
-        <v>2.5</v>
+        <v>2.539</v>
       </c>
       <c r="I131" t="n">
-        <v>5.359</v>
+        <v>8.067</v>
       </c>
       <c r="J131" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D132" t="s">
+        <v>56</v>
+      </c>
+      <c r="E132" t="s">
         <v>50</v>
       </c>
-      <c r="E132" t="s">
-        <v>51</v>
-      </c>
       <c r="F132" t="n">
-        <v>1.52</v>
+        <v>1.456</v>
       </c>
       <c r="G132" t="s">
         <v>52</v>
       </c>
       <c r="H132" t="n">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="I132" t="n">
-        <v>5.005</v>
+        <v>11.6</v>
       </c>
       <c r="J132" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D133" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" t="s">
         <v>50</v>
       </c>
-      <c r="E133" t="s">
-        <v>51</v>
-      </c>
       <c r="F133" t="n">
-        <v>1.52</v>
+        <v>1.4085</v>
       </c>
       <c r="G133" t="s">
         <v>52</v>
       </c>
       <c r="H133" t="n">
-        <v>2.55</v>
+        <v>2.729</v>
       </c>
       <c r="I133" t="n">
-        <v>5.005</v>
+        <v>7.641</v>
       </c>
       <c r="J133" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D134" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" t="s">
         <v>50</v>
       </c>
-      <c r="E134" t="s">
-        <v>51</v>
-      </c>
       <c r="F134" t="n">
-        <v>1.51</v>
+        <v>1.4085</v>
       </c>
       <c r="G134" t="s">
         <v>52</v>
       </c>
       <c r="H134" t="n">
-        <v>2.5</v>
+        <v>2.539</v>
       </c>
       <c r="I134" t="n">
-        <v>6.225</v>
+        <v>10.383</v>
       </c>
       <c r="J134" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D135" t="s">
+        <v>56</v>
+      </c>
+      <c r="E135" t="s">
         <v>50</v>
       </c>
-      <c r="E135" t="s">
-        <v>51</v>
-      </c>
       <c r="F135" t="n">
-        <v>1.48</v>
+        <v>1.4085</v>
       </c>
       <c r="G135" t="s">
         <v>52</v>
       </c>
       <c r="H135" t="n">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="I135" t="n">
-        <v>5.303</v>
+        <v>13.916</v>
       </c>
       <c r="J135" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D136" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" t="s">
         <v>50</v>
       </c>
-      <c r="E136" t="s">
-        <v>51</v>
-      </c>
       <c r="F136" t="n">
-        <v>1.5</v>
+        <v>1.361</v>
       </c>
       <c r="G136" t="s">
         <v>52</v>
       </c>
       <c r="H136" t="n">
-        <v>2.6</v>
+        <v>2.729</v>
       </c>
       <c r="I136" t="n">
-        <v>5.128</v>
+        <v>10.119</v>
       </c>
       <c r="J136" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D137" t="s">
+        <v>56</v>
+      </c>
+      <c r="E137" t="s">
         <v>50</v>
       </c>
-      <c r="E137" t="s">
-        <v>51</v>
-      </c>
       <c r="F137" t="n">
-        <v>1.54</v>
+        <v>1.361</v>
       </c>
       <c r="G137" t="s">
         <v>52</v>
       </c>
       <c r="H137" t="n">
-        <v>2.49</v>
+        <v>2.539</v>
       </c>
       <c r="I137" t="n">
-        <v>5.096</v>
+        <v>12.861</v>
       </c>
       <c r="J137" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D138" t="s">
+        <v>56</v>
+      </c>
+      <c r="E138" t="s">
         <v>50</v>
       </c>
-      <c r="E138" t="s">
-        <v>51</v>
-      </c>
       <c r="F138" t="n">
-        <v>1.52</v>
+        <v>1.361</v>
       </c>
       <c r="G138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H138" t="n">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="I138" t="n">
-        <v>5.005</v>
+        <v>16.394</v>
       </c>
       <c r="J138" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D139" t="s">
+        <v>56</v>
+      </c>
+      <c r="E139" t="s">
         <v>50</v>
       </c>
-      <c r="E139" t="s">
-        <v>51</v>
-      </c>
       <c r="F139" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="G139" t="s">
         <v>52</v>
       </c>
       <c r="H139" t="n">
-        <v>2.55</v>
+        <v>2.76</v>
       </c>
       <c r="I139" t="n">
-        <v>5.441</v>
+        <v>5.197</v>
       </c>
       <c r="J139" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45164.15625</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D140" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F140" t="n">
-        <v>1.5</v>
+        <v>2.558</v>
       </c>
       <c r="G140" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H140" t="n">
-        <v>2.6</v>
+        <v>1.5035</v>
       </c>
       <c r="I140" t="n">
-        <v>5.128</v>
+        <v>5.605</v>
       </c>
       <c r="J140" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -5034,30 +5034,30 @@
         <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F141" t="n">
-        <v>1.62</v>
+        <v>2.558</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H141" t="n">
-        <v>2.3</v>
+        <v>1.456</v>
       </c>
       <c r="I141" t="n">
-        <v>5.207</v>
+        <v>7.774</v>
       </c>
       <c r="J141" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -5066,30 +5066,30 @@
         <v>54</v>
       </c>
       <c r="D142" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F142" t="n">
-        <v>1.64</v>
+        <v>2.558</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H142" t="n">
-        <v>2.26</v>
+        <v>1.4085</v>
       </c>
       <c r="I142" t="n">
-        <v>5.223</v>
+        <v>10.091</v>
       </c>
       <c r="J142" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -5098,30 +5098,30 @@
         <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E143" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F143" t="n">
-        <v>1.152</v>
+        <v>2.311</v>
       </c>
       <c r="G143" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H143" t="n">
-        <v>1.0285</v>
+        <v>1.5035</v>
       </c>
       <c r="I143" t="n">
-        <v>84.035</v>
+        <v>9.783</v>
       </c>
       <c r="J143" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -5130,30 +5130,30 @@
         <v>54</v>
       </c>
       <c r="D144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F144" t="n">
-        <v>1.152</v>
+        <v>2.311</v>
       </c>
       <c r="G144" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H144" t="n">
-        <v>1.0095</v>
+        <v>1.456</v>
       </c>
       <c r="I144" t="n">
-        <v>85.864</v>
+        <v>11.953</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -5162,30 +5162,30 @@
         <v>54</v>
       </c>
       <c r="D145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F145" t="n">
-        <v>1.1425</v>
+        <v>2.311</v>
       </c>
       <c r="G145" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H145" t="n">
-        <v>1.0285</v>
+        <v>1.4085</v>
       </c>
       <c r="I145" t="n">
-        <v>84.756</v>
+        <v>14.269</v>
       </c>
       <c r="J145" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -5194,30 +5194,30 @@
         <v>54</v>
       </c>
       <c r="D146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F146" t="n">
-        <v>1.1425</v>
+        <v>2.14</v>
       </c>
       <c r="G146" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H146" t="n">
-        <v>1.0095</v>
+        <v>1.5035</v>
       </c>
       <c r="I146" t="n">
-        <v>86.586</v>
+        <v>13.24</v>
       </c>
       <c r="J146" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -5226,30 +5226,30 @@
         <v>54</v>
       </c>
       <c r="D147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E147" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F147" t="n">
-        <v>1.1235</v>
+        <v>2.14</v>
       </c>
       <c r="G147" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H147" t="n">
-        <v>1.0285</v>
+        <v>1.456</v>
       </c>
       <c r="I147" t="n">
-        <v>86.237</v>
+        <v>15.41</v>
       </c>
       <c r="J147" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -5258,30 +5258,30 @@
         <v>54</v>
       </c>
       <c r="D148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F148" t="n">
-        <v>1.1235</v>
+        <v>2.14</v>
       </c>
       <c r="G148" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H148" t="n">
-        <v>1.0095</v>
+        <v>1.4085</v>
       </c>
       <c r="I148" t="n">
-        <v>88.067</v>
+        <v>17.726</v>
       </c>
       <c r="J148" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -5290,30 +5290,30 @@
         <v>54</v>
       </c>
       <c r="D149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E149" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F149" t="n">
-        <v>1.18</v>
+        <v>2.6</v>
       </c>
       <c r="G149" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H149" t="n">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="I149" t="n">
-        <v>5.798</v>
+        <v>5.128</v>
       </c>
       <c r="J149" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -5322,30 +5322,30 @@
         <v>54</v>
       </c>
       <c r="D150" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F150" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="G150" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H150" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I150" t="n">
-        <v>5.086</v>
+        <v>5.138</v>
       </c>
       <c r="J150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -5354,30 +5354,30 @@
         <v>54</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F151" t="n">
-        <v>2.197</v>
+        <v>1.361</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H151" t="n">
-        <v>1.57</v>
+        <v>2.9</v>
       </c>
       <c r="I151" t="n">
-        <v>9.211</v>
+        <v>7.958</v>
       </c>
       <c r="J151" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -5386,30 +5386,30 @@
         <v>54</v>
       </c>
       <c r="D152" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F152" t="n">
-        <v>2.197</v>
+        <v>1.361</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H152" t="n">
-        <v>1.513</v>
+        <v>2.672</v>
       </c>
       <c r="I152" t="n">
-        <v>11.61</v>
+        <v>10.901</v>
       </c>
       <c r="J152" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5418,30 +5418,30 @@
         <v>54</v>
       </c>
       <c r="D153" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F153" t="n">
-        <v>2.197</v>
+        <v>1.3325</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H153" t="n">
-        <v>1.4655</v>
+        <v>2.9</v>
       </c>
       <c r="I153" t="n">
-        <v>13.753</v>
+        <v>9.53</v>
       </c>
       <c r="J153" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -5450,30 +5450,30 @@
         <v>54</v>
       </c>
       <c r="D154" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F154" t="n">
-        <v>2.045</v>
+        <v>1.3325</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H154" t="n">
-        <v>1.57</v>
+        <v>2.672</v>
       </c>
       <c r="I154" t="n">
-        <v>12.594</v>
+        <v>12.472</v>
       </c>
       <c r="J154" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -5482,30 +5482,30 @@
         <v>54</v>
       </c>
       <c r="D155" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F155" t="n">
-        <v>2.045</v>
+        <v>1.2945</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H155" t="n">
-        <v>1.513</v>
+        <v>2.9</v>
       </c>
       <c r="I155" t="n">
-        <v>14.994</v>
+        <v>11.733</v>
       </c>
       <c r="J155" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -5514,30 +5514,30 @@
         <v>54</v>
       </c>
       <c r="D156" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F156" t="n">
-        <v>2.045</v>
+        <v>1.2945</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H156" t="n">
-        <v>1.4655</v>
+        <v>2.672</v>
       </c>
       <c r="I156" t="n">
-        <v>17.136</v>
+        <v>14.675</v>
       </c>
       <c r="J156" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5546,30 +5546,30 @@
         <v>54</v>
       </c>
       <c r="D157" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F157" t="n">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H157" t="n">
-        <v>1.62</v>
+        <v>3.19</v>
       </c>
       <c r="I157" t="n">
-        <v>5.207</v>
+        <v>4.877</v>
       </c>
       <c r="J157" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5578,30 +5578,30 @@
         <v>54</v>
       </c>
       <c r="D158" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F158" t="n">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H158" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="I158" t="n">
-        <v>5.051</v>
+        <v>5.195</v>
       </c>
       <c r="J158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5610,30 +5610,30 @@
         <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F159" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H159" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="I159" t="n">
-        <v>5.324</v>
+        <v>4.911</v>
       </c>
       <c r="J159" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5642,30 +5642,30 @@
         <v>54</v>
       </c>
       <c r="D160" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E160" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F160" t="n">
-        <v>1.36</v>
+        <v>2.064</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H160" t="n">
-        <v>3.19</v>
+        <v>1.7505</v>
       </c>
       <c r="I160" t="n">
-        <v>4.877</v>
+        <v>5.576</v>
       </c>
       <c r="J160" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5674,30 +5674,30 @@
         <v>54</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F161" t="n">
-        <v>2.52</v>
+        <v>2.064</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H161" t="n">
-        <v>1.5225</v>
+        <v>1.6745</v>
       </c>
       <c r="I161" t="n">
-        <v>5.364</v>
+        <v>8.169</v>
       </c>
       <c r="J161" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5706,30 +5706,30 @@
         <v>54</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F162" t="n">
-        <v>2.52</v>
+        <v>2.064</v>
       </c>
       <c r="G162" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H162" t="n">
-        <v>1.475</v>
+        <v>1.627</v>
       </c>
       <c r="I162" t="n">
-        <v>7.479</v>
+        <v>9.912</v>
       </c>
       <c r="J162" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5738,30 +5738,30 @@
         <v>54</v>
       </c>
       <c r="D163" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F163" t="n">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H163" t="n">
-        <v>1.4275</v>
+        <v>1.7505</v>
       </c>
       <c r="I163" t="n">
-        <v>9.735</v>
+        <v>8.409</v>
       </c>
       <c r="J163" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5770,30 +5770,30 @@
         <v>54</v>
       </c>
       <c r="D164" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F164" t="n">
-        <v>2.311</v>
+        <v>1.95</v>
       </c>
       <c r="G164" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H164" t="n">
-        <v>1.5225</v>
+        <v>1.6745</v>
       </c>
       <c r="I164" t="n">
-        <v>8.953</v>
+        <v>11.001</v>
       </c>
       <c r="J164" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5802,30 +5802,30 @@
         <v>54</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F165" t="n">
-        <v>2.311</v>
+        <v>1.95</v>
       </c>
       <c r="G165" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H165" t="n">
-        <v>1.475</v>
+        <v>1.627</v>
       </c>
       <c r="I165" t="n">
-        <v>11.068</v>
+        <v>12.745</v>
       </c>
       <c r="J165" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5834,30 +5834,30 @@
         <v>54</v>
       </c>
       <c r="D166" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F166" t="n">
-        <v>2.311</v>
+        <v>1.855</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H166" t="n">
-        <v>1.4275</v>
+        <v>1.7505</v>
       </c>
       <c r="I166" t="n">
-        <v>13.324</v>
+        <v>11.035</v>
       </c>
       <c r="J166" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5866,30 +5866,30 @@
         <v>54</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F167" t="n">
-        <v>2.14</v>
+        <v>1.855</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H167" t="n">
-        <v>1.5225</v>
+        <v>1.6745</v>
       </c>
       <c r="I167" t="n">
-        <v>12.41</v>
+        <v>13.628</v>
       </c>
       <c r="J167" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5898,30 +5898,30 @@
         <v>54</v>
       </c>
       <c r="D168" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E168" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F168" t="n">
-        <v>2.14</v>
+        <v>1.855</v>
       </c>
       <c r="G168" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H168" t="n">
-        <v>1.475</v>
+        <v>1.627</v>
       </c>
       <c r="I168" t="n">
-        <v>14.526</v>
+        <v>15.371</v>
       </c>
       <c r="J168" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5930,30 +5930,30 @@
         <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F169" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H169" t="n">
-        <v>1.4275</v>
+        <v>1.77</v>
       </c>
       <c r="I169" t="n">
-        <v>16.782</v>
+        <v>4.116</v>
       </c>
       <c r="J169" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5962,953 +5962,25 @@
         <v>54</v>
       </c>
       <c r="D170" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F170" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="G170" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H170" t="n">
-        <v>1.53</v>
+        <v>3.57</v>
       </c>
       <c r="I170" t="n">
-        <v>5.359</v>
+        <v>4.934</v>
       </c>
       <c r="J170" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>45157.3923611111</v>
-      </c>
-      <c r="B171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" t="s">
-        <v>54</v>
-      </c>
-      <c r="D171" t="s">
-        <v>59</v>
-      </c>
-      <c r="E171" t="s">
-        <v>48</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I171" t="n">
-        <v>5.258</v>
-      </c>
-      <c r="J171" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="s">
-        <v>54</v>
-      </c>
-      <c r="D172" t="s">
-        <v>60</v>
-      </c>
-      <c r="E172" t="s">
-        <v>35</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1.6175</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2.292</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5.454</v>
-      </c>
-      <c r="J172" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" t="s">
-        <v>54</v>
-      </c>
-      <c r="D173" t="s">
-        <v>60</v>
-      </c>
-      <c r="E173" t="s">
-        <v>35</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1.6175</v>
-      </c>
-      <c r="G173" t="s">
-        <v>31</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9.831</v>
-      </c>
-      <c r="J173" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" t="s">
-        <v>54</v>
-      </c>
-      <c r="D174" t="s">
-        <v>60</v>
-      </c>
-      <c r="E174" t="s">
-        <v>35</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1.6175</v>
-      </c>
-      <c r="G174" t="s">
-        <v>31</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1.988</v>
-      </c>
-      <c r="I174" t="n">
-        <v>12.126</v>
-      </c>
-      <c r="J174" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" t="s">
-        <v>54</v>
-      </c>
-      <c r="D175" t="s">
-        <v>60</v>
-      </c>
-      <c r="E175" t="s">
-        <v>35</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1.5415</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2.292</v>
-      </c>
-      <c r="I175" t="n">
-        <v>8.502</v>
-      </c>
-      <c r="J175" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B176" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" t="s">
-        <v>54</v>
-      </c>
-      <c r="D176" t="s">
-        <v>60</v>
-      </c>
-      <c r="E176" t="s">
-        <v>35</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.5415</v>
-      </c>
-      <c r="G176" t="s">
-        <v>31</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I176" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="J176" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177" t="s">
-        <v>60</v>
-      </c>
-      <c r="E177" t="s">
-        <v>35</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1.5415</v>
-      </c>
-      <c r="G177" t="s">
-        <v>31</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1.988</v>
-      </c>
-      <c r="I177" t="n">
-        <v>15.174</v>
-      </c>
-      <c r="J177" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" t="s">
-        <v>54</v>
-      </c>
-      <c r="D178" t="s">
-        <v>60</v>
-      </c>
-      <c r="E178" t="s">
-        <v>35</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1.494</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2.292</v>
-      </c>
-      <c r="I178" t="n">
-        <v>10.564</v>
-      </c>
-      <c r="J178" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" t="s">
-        <v>54</v>
-      </c>
-      <c r="D179" t="s">
-        <v>60</v>
-      </c>
-      <c r="E179" t="s">
-        <v>35</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1.494</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="I179" t="n">
-        <v>14.942</v>
-      </c>
-      <c r="J179" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" t="s">
-        <v>60</v>
-      </c>
-      <c r="E180" t="s">
-        <v>35</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1.494</v>
-      </c>
-      <c r="G180" t="s">
-        <v>31</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1.988</v>
-      </c>
-      <c r="I180" t="n">
-        <v>17.236</v>
-      </c>
-      <c r="J180" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B181" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" t="s">
-        <v>54</v>
-      </c>
-      <c r="D181" t="s">
-        <v>60</v>
-      </c>
-      <c r="E181" t="s">
-        <v>35</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I181" t="n">
-        <v>5.207</v>
-      </c>
-      <c r="J181" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>45157.4027777778</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" t="s">
-        <v>54</v>
-      </c>
-      <c r="D182" t="s">
-        <v>60</v>
-      </c>
-      <c r="E182" t="s">
-        <v>35</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I182" t="n">
-        <v>5.223</v>
-      </c>
-      <c r="J182" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>45158.1319444444</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" t="s">
-        <v>54</v>
-      </c>
-      <c r="D183" t="s">
-        <v>61</v>
-      </c>
-      <c r="E183" t="s">
-        <v>45</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1.019</v>
-      </c>
-      <c r="G183" t="s">
-        <v>41</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1.0095</v>
-      </c>
-      <c r="I183" t="n">
-        <v>97.194</v>
-      </c>
-      <c r="J183" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>45158.1319444444</v>
-      </c>
-      <c r="B184" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" t="s">
-        <v>54</v>
-      </c>
-      <c r="D184" t="s">
-        <v>61</v>
-      </c>
-      <c r="E184" t="s">
-        <v>45</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1.0095</v>
-      </c>
-      <c r="G184" t="s">
-        <v>41</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1.0095</v>
-      </c>
-      <c r="I184" t="n">
-        <v>98.118</v>
-      </c>
-      <c r="J184" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>45158.1319444444</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" t="s">
-        <v>54</v>
-      </c>
-      <c r="D185" t="s">
-        <v>61</v>
-      </c>
-      <c r="E185" t="s">
-        <v>45</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G185" t="s">
-        <v>41</v>
-      </c>
-      <c r="H185" t="n">
-        <v>11</v>
-      </c>
-      <c r="I185" t="n">
-        <v>5.245</v>
-      </c>
-      <c r="J185" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>45158.1319444444</v>
-      </c>
-      <c r="B186" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" t="s">
-        <v>54</v>
-      </c>
-      <c r="D186" t="s">
-        <v>61</v>
-      </c>
-      <c r="E186" t="s">
-        <v>45</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G186" t="s">
-        <v>41</v>
-      </c>
-      <c r="H186" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I186" t="n">
-        <v>4.762</v>
-      </c>
-      <c r="J186" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>45158.2222222222</v>
-      </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" t="s">
-        <v>54</v>
-      </c>
-      <c r="D187" t="s">
-        <v>62</v>
-      </c>
-      <c r="E187" t="s">
-        <v>39</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G187" t="s">
-        <v>44</v>
-      </c>
-      <c r="H187" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I187" t="n">
-        <v>5.556</v>
-      </c>
-      <c r="J187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>45158.2222222222</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" t="s">
-        <v>54</v>
-      </c>
-      <c r="D188" t="s">
-        <v>62</v>
-      </c>
-      <c r="E188" t="s">
-        <v>39</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>44</v>
-      </c>
-      <c r="H188" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5.117</v>
-      </c>
-      <c r="J188" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" t="s">
-        <v>54</v>
-      </c>
-      <c r="D189" t="s">
-        <v>63</v>
-      </c>
-      <c r="E189" t="s">
-        <v>42</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2.444</v>
-      </c>
-      <c r="G189" t="s">
-        <v>51</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I189" t="n">
-        <v>4.611</v>
-      </c>
-      <c r="J189" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B190" t="s">
-        <v>10</v>
-      </c>
-      <c r="C190" t="s">
-        <v>54</v>
-      </c>
-      <c r="D190" t="s">
-        <v>63</v>
-      </c>
-      <c r="E190" t="s">
-        <v>42</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2.444</v>
-      </c>
-      <c r="G190" t="s">
-        <v>51</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1.513</v>
-      </c>
-      <c r="I190" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="J190" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B191" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" t="s">
-        <v>54</v>
-      </c>
-      <c r="D191" t="s">
-        <v>63</v>
-      </c>
-      <c r="E191" t="s">
-        <v>42</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2.444</v>
-      </c>
-      <c r="G191" t="s">
-        <v>51</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1.4655</v>
-      </c>
-      <c r="I191" t="n">
-        <v>9.153</v>
-      </c>
-      <c r="J191" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B192" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" t="s">
-        <v>54</v>
-      </c>
-      <c r="D192" t="s">
-        <v>63</v>
-      </c>
-      <c r="E192" t="s">
-        <v>42</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2.387</v>
-      </c>
-      <c r="G192" t="s">
-        <v>51</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I192" t="n">
-        <v>5.588</v>
-      </c>
-      <c r="J192" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B193" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" t="s">
-        <v>54</v>
-      </c>
-      <c r="D193" t="s">
-        <v>63</v>
-      </c>
-      <c r="E193" t="s">
-        <v>42</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2.387</v>
-      </c>
-      <c r="G193" t="s">
-        <v>51</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1.513</v>
-      </c>
-      <c r="I193" t="n">
-        <v>7.987</v>
-      </c>
-      <c r="J193" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B194" t="s">
-        <v>10</v>
-      </c>
-      <c r="C194" t="s">
-        <v>54</v>
-      </c>
-      <c r="D194" t="s">
-        <v>63</v>
-      </c>
-      <c r="E194" t="s">
-        <v>42</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2.387</v>
-      </c>
-      <c r="G194" t="s">
-        <v>51</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1.4655</v>
-      </c>
-      <c r="I194" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="J194" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B195" t="s">
-        <v>10</v>
-      </c>
-      <c r="C195" t="s">
-        <v>54</v>
-      </c>
-      <c r="D195" t="s">
-        <v>63</v>
-      </c>
-      <c r="E195" t="s">
-        <v>42</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G195" t="s">
-        <v>51</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I195" t="n">
-        <v>9.211</v>
-      </c>
-      <c r="J195" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B196" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" t="s">
-        <v>54</v>
-      </c>
-      <c r="D196" t="s">
-        <v>63</v>
-      </c>
-      <c r="E196" t="s">
-        <v>42</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G196" t="s">
-        <v>51</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1.513</v>
-      </c>
-      <c r="I196" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="J196" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B197" t="s">
-        <v>10</v>
-      </c>
-      <c r="C197" t="s">
-        <v>54</v>
-      </c>
-      <c r="D197" t="s">
-        <v>63</v>
-      </c>
-      <c r="E197" t="s">
-        <v>42</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G197" t="s">
-        <v>51</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1.4655</v>
-      </c>
-      <c r="I197" t="n">
-        <v>13.753</v>
-      </c>
-      <c r="J197" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B198" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" t="s">
-        <v>54</v>
-      </c>
-      <c r="D198" t="s">
-        <v>63</v>
-      </c>
-      <c r="E198" t="s">
-        <v>42</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G198" t="s">
-        <v>51</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I198" t="n">
-        <v>5.053</v>
-      </c>
-      <c r="J198" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B199" t="s">
-        <v>10</v>
-      </c>
-      <c r="C199" t="s">
-        <v>54</v>
-      </c>
-      <c r="D199" t="s">
-        <v>63</v>
-      </c>
-      <c r="E199" t="s">
-        <v>42</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G199" t="s">
-        <v>51</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I199" t="n">
-        <v>4.873</v>
-      </c>
-      <c r="J199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">start_time</t>
   </si>
@@ -47,163 +47,133 @@
     <t xml:space="preserve">2023 Toyota AFL Premiership</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Brisbane Lions</t>
+    <t xml:space="preserve">Round 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon v Collingwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon</t>
   </si>
   <si>
     <t xml:space="preserve">Collingwood</t>
   </si>
   <si>
+    <t xml:space="preserve">Betfair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueBet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midasbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopSport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unibet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne v Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Lions v St Kilda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brisbane Lions</t>
   </si>
   <si>
-    <t xml:space="preserve">Betr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueBet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pointsbet</t>
+    <t xml:space="preserve">St Kilda</t>
   </si>
   <si>
     <t xml:space="preserve">Brisbane</t>
   </si>
   <si>
-    <t xml:space="preserve">Sportsbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TopSport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond v North Melbourne</t>
+    <t xml:space="preserve">Geelong v Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geelong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wst Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast v Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide v Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide</t>
   </si>
   <si>
     <t xml:space="preserve">Richmond</t>
   </si>
   <si>
-    <t xml:space="preserve">North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betfair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midasbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unibet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast v Carlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast</t>
+    <t xml:space="preserve">Sydney v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlton v Greater Western Sydney</t>
   </si>
   <si>
     <t xml:space="preserve">Carlton</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Western Sydney v Essendon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Greater Western Sydney</t>
   </si>
   <si>
-    <t xml:space="preserve">Essendon</t>
-  </si>
-  <si>
     <t xml:space="preserve">GWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v Geelong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geelong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide v Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs v West Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wst Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbourne v Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremantle v Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon v Collingwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn v Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Melbourne v Gold Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisbane Lions v St Kilda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geelong v Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast v Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Adelaide v Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney v Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlton v Greater Western Sydney</t>
   </si>
 </sst>
 </file>
@@ -577,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -592,16 +562,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>5.085</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>1.209</v>
       </c>
       <c r="I2" t="n">
-        <v>5.335</v>
+        <v>2.379</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -609,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -624,24 +594,24 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>5.085</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.15</v>
+        <v>1.1995</v>
       </c>
       <c r="I3" t="n">
-        <v>5.335</v>
+        <v>3.034</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -656,24 +626,24 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>5.085</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.15</v>
+        <v>1.19</v>
       </c>
       <c r="I4" t="n">
-        <v>5.335</v>
+        <v>3.699</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -688,24 +658,24 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.15</v>
+        <v>1.18</v>
       </c>
       <c r="I5" t="n">
-        <v>5.335</v>
+        <v>6.022</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -720,24 +690,24 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.335</v>
+        <v>5.072</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -752,24 +722,24 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>4.85</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.15</v>
+        <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>5.335</v>
+        <v>5.364</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -784,24 +754,24 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>1.69</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>1.18</v>
       </c>
       <c r="I8" t="n">
-        <v>5.043</v>
+        <v>6.485</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -816,24 +786,24 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.15</v>
+        <v>1.19</v>
       </c>
       <c r="I9" t="n">
-        <v>5.335</v>
+        <v>5.086</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -848,24 +818,24 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="I10" t="n">
-        <v>7.023</v>
+        <v>5.31</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -874,30 +844,30 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.2565</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>3.945</v>
+        <v>1.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.935</v>
+        <v>5.556</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -906,30 +876,30 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2565</v>
+        <v>4.7</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>1.19</v>
       </c>
       <c r="I12" t="n">
-        <v>5.56</v>
+        <v>5.31</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -938,30 +908,30 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.247</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>3.945</v>
+        <v>1.18</v>
       </c>
       <c r="I13" t="n">
-        <v>5.541</v>
+        <v>5.579</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -970,30 +940,30 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.485</v>
+      </c>
+      <c r="J14" t="s">
         <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.247</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.166</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1002,30 +972,30 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.16949152542373</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.115</v>
+      </c>
+      <c r="J15" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.1805</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.058</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1034,30 +1004,30 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1805</v>
+        <v>1.5795</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>10.684</v>
+        <v>2.994</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1066,22 +1036,22 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>1.25</v>
+        <v>1.4845</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>6.316</v>
+        <v>7.045</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -1089,7 +1059,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1098,22 +1068,22 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>2.44</v>
       </c>
       <c r="I18" t="n">
-        <v>5.339</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -1121,7 +1091,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1130,22 +1100,22 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="I19" t="n">
-        <v>5.006</v>
+        <v>5.308</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -1153,7 +1123,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1162,30 +1132,30 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="I20" t="n">
-        <v>7.027</v>
+        <v>5.359</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1194,30 +1164,30 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="I21" t="n">
-        <v>6.032</v>
+        <v>6.533</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1226,30 +1196,30 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="I22" t="n">
-        <v>5.006</v>
+        <v>4.511</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1258,30 +1228,30 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.332</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1290,22 +1260,22 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="I24" t="n">
-        <v>5.056</v>
+        <v>5.332</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -1313,7 +1283,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1322,22 +1292,22 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.006</v>
+        <v>4.958</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -1345,7 +1315,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1354,22 +1324,22 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="I26" t="n">
-        <v>6.667</v>
+        <v>4.958</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
@@ -1377,7 +1347,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45164.15625</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1386,30 +1356,30 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.183</v>
+      </c>
+      <c r="J27" t="s">
         <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.316</v>
-      </c>
-      <c r="J27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1418,30 +1388,30 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>2.197</v>
+        <v>1.53763440860215</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H28" t="n">
-        <v>1.7125</v>
+        <v>2.5</v>
       </c>
       <c r="I28" t="n">
-        <v>3.911</v>
+        <v>5.035</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1450,30 +1420,30 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="G29" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
       <c r="H29" t="n">
-        <v>1.703</v>
+        <v>1.266</v>
       </c>
       <c r="I29" t="n">
-        <v>4.237</v>
+        <v>8.619</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1482,30 +1452,30 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="G30" t="s">
         <v>32</v>
       </c>
-      <c r="F30" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
       <c r="H30" t="n">
-        <v>1.7125</v>
+        <v>1.2565</v>
       </c>
       <c r="I30" t="n">
-        <v>4.308</v>
+        <v>9.216</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1514,30 +1484,30 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" t="n">
-        <v>1.703</v>
+        <v>1.33</v>
       </c>
       <c r="I31" t="n">
-        <v>4.634</v>
+        <v>5.491</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1546,30 +1516,30 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.7125</v>
+        <v>1.33</v>
       </c>
       <c r="I32" t="n">
-        <v>7.294</v>
+        <v>5.039</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1578,30 +1548,30 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G33" t="s">
         <v>32</v>
       </c>
-      <c r="F33" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.703</v>
+        <v>1.35</v>
       </c>
       <c r="I33" t="n">
-        <v>7.62</v>
+        <v>5.324</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1610,30 +1580,30 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G34" t="s">
         <v>32</v>
       </c>
-      <c r="F34" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
       <c r="H34" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="I34" t="n">
-        <v>6.026</v>
+        <v>6.527</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1642,30 +1612,30 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G35" t="s">
         <v>32</v>
       </c>
-      <c r="F35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
       <c r="H35" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="I35" t="n">
-        <v>5.207</v>
+        <v>4.843</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1674,30 +1644,30 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
       </c>
-      <c r="F36" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
       <c r="H36" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="I36" t="n">
-        <v>5.207</v>
+        <v>5.396</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1706,30 +1676,30 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G37" t="s">
         <v>32</v>
       </c>
-      <c r="F37" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
       <c r="H37" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="I37" t="n">
-        <v>6.36</v>
+        <v>5.495</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1738,30 +1708,30 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G38" t="s">
         <v>32</v>
       </c>
-      <c r="F38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
       <c r="H38" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="I38" t="n">
-        <v>5.207</v>
+        <v>4.862</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1770,30 +1740,30 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G39" t="s">
         <v>32</v>
       </c>
-      <c r="F39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
       <c r="H39" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="I39" t="n">
-        <v>5.207</v>
+        <v>5.169</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1802,30 +1772,30 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G40" t="s">
         <v>32</v>
       </c>
-      <c r="F40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
       <c r="H40" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="I40" t="n">
-        <v>5.207</v>
+        <v>6.527</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.15625</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1834,30 +1804,30 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G41" t="s">
         <v>32</v>
       </c>
-      <c r="F41" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
       <c r="H41" t="n">
-        <v>1.62</v>
+        <v>1.31746031746032</v>
       </c>
       <c r="I41" t="n">
-        <v>5.207</v>
+        <v>5.315</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1866,30 +1836,30 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42" t="n">
-        <v>1.62</v>
+        <v>4.4</v>
       </c>
       <c r="I42" t="n">
-        <v>5.207</v>
+        <v>6.061</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1898,30 +1868,30 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F43" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H43" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
-        <v>6.36</v>
+        <v>5.223</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1930,30 +1900,30 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F44" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H44" t="n">
-        <v>1.59880239520958</v>
+        <v>4.3</v>
       </c>
       <c r="I44" t="n">
-        <v>5.1</v>
+        <v>5.223</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1962,30 +1932,30 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
         <v>34</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G45" t="s">
         <v>35</v>
       </c>
-      <c r="F45" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.82</v>
+        <v>4.694</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1994,30 +1964,30 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
         <v>34</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G46" t="s">
         <v>35</v>
       </c>
-      <c r="F46" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
       <c r="H46" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="I46" t="n">
-        <v>5.275</v>
+        <v>5.223</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2026,30 +1996,30 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
         <v>34</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G47" t="s">
         <v>35</v>
       </c>
-      <c r="F47" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>5.324</v>
+        <v>5.556</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2058,30 +2028,30 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G48" t="s">
         <v>35</v>
       </c>
-      <c r="F48" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
       <c r="H48" t="n">
-        <v>3.15</v>
+        <v>4.25</v>
       </c>
       <c r="I48" t="n">
-        <v>6.373</v>
+        <v>4.83</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2090,30 +2060,30 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G49" t="s">
         <v>35</v>
       </c>
-      <c r="F49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I49" t="n">
-        <v>4.722</v>
+        <v>5.223</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2122,30 +2092,30 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
         <v>34</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G50" t="s">
         <v>35</v>
       </c>
-      <c r="F50" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I50" t="n">
-        <v>4.843</v>
+        <v>6.454</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2154,30 +2124,30 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>1.35</v>
+        <v>1.7885</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="I51" t="n">
-        <v>4.843</v>
+        <v>7.195</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2186,30 +2156,30 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" t="n">
-        <v>1.36</v>
+        <v>1.7885</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>1.0095</v>
       </c>
       <c r="I52" t="n">
-        <v>4.779</v>
+        <v>54.972</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2218,30 +2188,30 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F53" t="n">
-        <v>1.35</v>
+        <v>1.779</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="I53" t="n">
-        <v>6.332</v>
+        <v>7.493</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2250,30 +2220,30 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F54" t="n">
-        <v>1.34965034965035</v>
+        <v>1.779</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H54" t="n">
-        <v>3.2</v>
+        <v>1.0095</v>
       </c>
       <c r="I54" t="n">
-        <v>5.343</v>
+        <v>55.27</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2282,30 +2252,30 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
         <v>38</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G55" t="s">
         <v>39</v>
       </c>
-      <c r="F55" t="n">
-        <v>2.273</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
       <c r="H55" t="n">
-        <v>1.6935</v>
+        <v>2.05</v>
       </c>
       <c r="I55" t="n">
-        <v>3.044</v>
+        <v>5.278</v>
       </c>
       <c r="J55" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2314,30 +2284,30 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
         <v>38</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G56" t="s">
         <v>39</v>
       </c>
-      <c r="F56" t="n">
-        <v>2.273</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
       <c r="H56" t="n">
-        <v>1.684</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.377</v>
+        <v>5.556</v>
       </c>
       <c r="J56" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2346,30 +2316,30 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
         <v>38</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G57" t="s">
         <v>39</v>
       </c>
-      <c r="F57" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
       <c r="H57" t="n">
-        <v>1.6935</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>3.792</v>
+        <v>6.497</v>
       </c>
       <c r="J57" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2378,30 +2348,30 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
         <v>38</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G58" t="s">
         <v>39</v>
       </c>
-      <c r="F58" t="n">
-        <v>2.235</v>
-      </c>
-      <c r="G58" t="s">
-        <v>40</v>
-      </c>
       <c r="H58" t="n">
-        <v>1.684</v>
+        <v>2.3</v>
       </c>
       <c r="I58" t="n">
-        <v>4.125</v>
+        <v>5.207</v>
       </c>
       <c r="J58" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2410,30 +2380,30 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
         <v>38</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G59" t="s">
         <v>39</v>
       </c>
-      <c r="F59" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
-      </c>
       <c r="H59" t="n">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="I59" t="n">
-        <v>5.286</v>
+        <v>5.278</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2442,30 +2412,30 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
         <v>38</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G60" t="s">
         <v>39</v>
       </c>
-      <c r="F60" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>40</v>
-      </c>
       <c r="H60" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="I60" t="n">
-        <v>5.249</v>
+        <v>5.423</v>
       </c>
       <c r="J60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2474,30 +2444,30 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
         <v>38</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G61" t="s">
         <v>39</v>
       </c>
-      <c r="F61" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
       <c r="H61" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="I61" t="n">
-        <v>5.207</v>
+        <v>4.116</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2506,30 +2476,30 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
         <v>38</v>
       </c>
-      <c r="E62" t="s">
-        <v>39</v>
-      </c>
       <c r="F62" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
       </c>
       <c r="H62" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>6.395</v>
+        <v>5.556</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2538,30 +2508,30 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G63" t="s">
         <v>39</v>
       </c>
-      <c r="F63" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>40</v>
-      </c>
       <c r="H63" t="n">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="I63" t="n">
-        <v>5.42</v>
+        <v>6.576</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2570,30 +2540,30 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
         <v>38</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="n">
+        <v>1.77519379844961</v>
+      </c>
+      <c r="G64" t="s">
         <v>39</v>
       </c>
-      <c r="F64" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G64" t="s">
-        <v>40</v>
-      </c>
       <c r="H64" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="I64" t="n">
-        <v>5.051</v>
+        <v>5.112</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2602,30 +2572,30 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F65" t="n">
-        <v>2.3</v>
+        <v>5.275</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H65" t="n">
-        <v>1.62</v>
+        <v>1.1995</v>
       </c>
       <c r="I65" t="n">
-        <v>5.207</v>
+        <v>2.325</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2634,30 +2604,30 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F66" t="n">
-        <v>2.21</v>
+        <v>5.275</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H66" t="n">
-        <v>1.67</v>
+        <v>1.19</v>
       </c>
       <c r="I66" t="n">
-        <v>5.129</v>
+        <v>2.991</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2666,30 +2636,30 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F67" t="n">
-        <v>2.25</v>
+        <v>5.275</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H67" t="n">
-        <v>1.65</v>
+        <v>1.1805</v>
       </c>
       <c r="I67" t="n">
-        <v>5.051</v>
+        <v>3.667</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2698,30 +2668,30 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F68" t="n">
-        <v>2.26</v>
+        <v>4.895</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H68" t="n">
-        <v>1.61</v>
+        <v>1.1995</v>
       </c>
       <c r="I68" t="n">
-        <v>6.36</v>
+        <v>3.797</v>
       </c>
       <c r="J68" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2730,30 +2700,30 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F69" t="n">
-        <v>2.28</v>
+        <v>4.895</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H69" t="n">
-        <v>1.61728395061728</v>
+        <v>1.19</v>
       </c>
       <c r="I69" t="n">
-        <v>5.692</v>
+        <v>4.463</v>
       </c>
       <c r="J69" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2768,24 +2738,24 @@
         <v>42</v>
       </c>
       <c r="F70" t="n">
-        <v>1.513</v>
+        <v>4.895</v>
       </c>
       <c r="G70" t="s">
         <v>43</v>
       </c>
       <c r="H70" t="n">
-        <v>2.349</v>
+        <v>1.1805</v>
       </c>
       <c r="I70" t="n">
-        <v>8.665</v>
+        <v>5.139</v>
       </c>
       <c r="J70" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2800,24 +2770,24 @@
         <v>42</v>
       </c>
       <c r="F71" t="n">
-        <v>1.513</v>
+        <v>5.1</v>
       </c>
       <c r="G71" t="s">
         <v>43</v>
       </c>
       <c r="H71" t="n">
-        <v>2.292</v>
+        <v>1.15</v>
       </c>
       <c r="I71" t="n">
-        <v>9.724</v>
+        <v>6.564</v>
       </c>
       <c r="J71" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2832,24 +2802,24 @@
         <v>42</v>
       </c>
       <c r="F72" t="n">
-        <v>1.494</v>
+        <v>4.6</v>
       </c>
       <c r="G72" t="s">
         <v>43</v>
       </c>
       <c r="H72" t="n">
-        <v>2.349</v>
+        <v>1.2</v>
       </c>
       <c r="I72" t="n">
-        <v>9.506</v>
+        <v>5.072</v>
       </c>
       <c r="J72" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2864,24 +2834,24 @@
         <v>42</v>
       </c>
       <c r="F73" t="n">
-        <v>1.494</v>
+        <v>4.8</v>
       </c>
       <c r="G73" t="s">
         <v>43</v>
       </c>
       <c r="H73" t="n">
-        <v>2.292</v>
+        <v>1.18</v>
       </c>
       <c r="I73" t="n">
-        <v>10.564</v>
+        <v>5.579</v>
       </c>
       <c r="J73" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2896,24 +2866,24 @@
         <v>42</v>
       </c>
       <c r="F74" t="n">
-        <v>1.58</v>
+        <v>4.5</v>
       </c>
       <c r="G74" t="s">
         <v>43</v>
       </c>
       <c r="H74" t="n">
-        <v>2.34</v>
+        <v>1.19</v>
       </c>
       <c r="I74" t="n">
-        <v>6.026</v>
+        <v>6.256</v>
       </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2928,24 +2898,24 @@
         <v>42</v>
       </c>
       <c r="F75" t="n">
-        <v>1.57</v>
+        <v>5.2</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
       </c>
       <c r="H75" t="n">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="I75" t="n">
-        <v>5.361</v>
+        <v>4.701</v>
       </c>
       <c r="J75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2960,24 +2930,24 @@
         <v>42</v>
       </c>
       <c r="F76" t="n">
-        <v>1.58</v>
+        <v>4.6</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
       </c>
       <c r="H76" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="I76" t="n">
-        <v>4.958</v>
+        <v>5.072</v>
       </c>
       <c r="J76" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2992,24 +2962,24 @@
         <v>42</v>
       </c>
       <c r="F77" t="n">
-        <v>1.57</v>
+        <v>5</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
       </c>
       <c r="H77" t="n">
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="I77" t="n">
-        <v>6.429</v>
+        <v>5.47</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -3024,24 +2994,24 @@
         <v>42</v>
       </c>
       <c r="F78" t="n">
-        <v>1.6</v>
+        <v>4.45</v>
       </c>
       <c r="G78" t="s">
         <v>43</v>
       </c>
       <c r="H78" t="n">
-        <v>2.35</v>
+        <v>1.2</v>
       </c>
       <c r="I78" t="n">
-        <v>5.053</v>
+        <v>5.805</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3056,24 +3026,24 @@
         <v>42</v>
       </c>
       <c r="F79" t="n">
-        <v>1.58</v>
+        <v>4.5</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
       </c>
       <c r="H79" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="I79" t="n">
-        <v>4.958</v>
+        <v>5.556</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3088,24 +3058,24 @@
         <v>42</v>
       </c>
       <c r="F80" t="n">
-        <v>1.55</v>
+        <v>4.6</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
       </c>
       <c r="H80" t="n">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="I80" t="n">
-        <v>5.332</v>
+        <v>5.072</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3114,30 +3084,30 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F81" t="n">
-        <v>1.59</v>
+        <v>1.1235</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H81" t="n">
-        <v>2.36</v>
+        <v>6.51</v>
       </c>
       <c r="I81" t="n">
-        <v>5.266</v>
+        <v>4.369</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3146,30 +3116,30 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F82" t="n">
-        <v>1.55</v>
+        <v>1.114</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H82" t="n">
-        <v>2.45</v>
+        <v>6.51</v>
       </c>
       <c r="I82" t="n">
-        <v>5.332</v>
+        <v>5.128</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3178,30 +3148,30 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F83" t="n">
-        <v>1.55</v>
+        <v>1.1045</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H83" t="n">
-        <v>2.35</v>
+        <v>6.51</v>
       </c>
       <c r="I83" t="n">
-        <v>7.069</v>
+        <v>5.9</v>
       </c>
       <c r="J83" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3210,30 +3180,30 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F84" t="n">
-        <v>1.55555555555556</v>
+        <v>1.12</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H84" t="n">
-        <v>2.43</v>
+        <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>5.438</v>
+        <v>5.952</v>
       </c>
       <c r="J84" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3248,24 +3218,24 @@
         <v>45</v>
       </c>
       <c r="F85" t="n">
-        <v>1.038</v>
+        <v>1.12</v>
       </c>
       <c r="G85" t="s">
         <v>46</v>
       </c>
       <c r="H85" t="n">
-        <v>17.15</v>
+        <v>6.25</v>
       </c>
       <c r="I85" t="n">
-        <v>2.17</v>
+        <v>5.286</v>
       </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -3280,24 +3250,24 @@
         <v>45</v>
       </c>
       <c r="F86" t="n">
-        <v>1.038</v>
+        <v>1.12</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
       </c>
       <c r="H86" t="n">
-        <v>16.675</v>
+        <v>6.2</v>
       </c>
       <c r="I86" t="n">
-        <v>2.336</v>
+        <v>5.415</v>
       </c>
       <c r="J86" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3312,24 +3282,24 @@
         <v>45</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0285</v>
+        <v>1.11</v>
       </c>
       <c r="G87" t="s">
         <v>46</v>
       </c>
       <c r="H87" t="n">
-        <v>17.15</v>
+        <v>6</v>
       </c>
       <c r="I87" t="n">
-        <v>3.06</v>
+        <v>6.757</v>
       </c>
       <c r="J87" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3344,24 +3314,24 @@
         <v>45</v>
       </c>
       <c r="F88" t="n">
-        <v>1.0285</v>
+        <v>1.13</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
       </c>
       <c r="H88" t="n">
-        <v>16.675</v>
+        <v>6.2</v>
       </c>
       <c r="I88" t="n">
-        <v>3.226</v>
+        <v>4.625</v>
       </c>
       <c r="J88" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3376,24 +3346,24 @@
         <v>45</v>
       </c>
       <c r="F89" t="n">
-        <v>1.019</v>
+        <v>1.13</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
       </c>
       <c r="H89" t="n">
-        <v>17.15</v>
+        <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>3.966</v>
+        <v>5.162</v>
       </c>
       <c r="J89" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -3408,24 +3378,24 @@
         <v>45</v>
       </c>
       <c r="F90" t="n">
-        <v>1.019</v>
+        <v>1.12</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
       </c>
       <c r="H90" t="n">
-        <v>16.675</v>
+        <v>6.25</v>
       </c>
       <c r="I90" t="n">
-        <v>4.132</v>
+        <v>5.286</v>
       </c>
       <c r="J90" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3440,24 +3410,24 @@
         <v>45</v>
       </c>
       <c r="F91" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="G91" t="s">
         <v>46</v>
       </c>
       <c r="H91" t="n">
-        <v>12</v>
+        <v>6.05</v>
       </c>
       <c r="I91" t="n">
-        <v>6.373</v>
+        <v>5.025</v>
       </c>
       <c r="J91" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3472,24 +3442,24 @@
         <v>45</v>
       </c>
       <c r="F92" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
       </c>
       <c r="H92" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="I92" t="n">
-        <v>5.182</v>
+        <v>5.415</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3504,24 +3474,24 @@
         <v>45</v>
       </c>
       <c r="F93" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>5.182</v>
+        <v>6.757</v>
       </c>
       <c r="J93" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3536,24 +3506,24 @@
         <v>45</v>
       </c>
       <c r="F94" t="n">
-        <v>1.02</v>
+        <v>1.11976047904192</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
       </c>
       <c r="H94" t="n">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="I94" t="n">
-        <v>4.706</v>
+        <v>5.305</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3562,30 +3532,30 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F95" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H95" t="n">
-        <v>14</v>
+        <v>2.064</v>
       </c>
       <c r="I95" t="n">
-        <v>5.182</v>
+        <v>5.268</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3594,30 +3564,30 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F96" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H96" t="n">
-        <v>13</v>
+        <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>5.732</v>
+        <v>8.1</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3626,30 +3596,30 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F97" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H97" t="n">
-        <v>13</v>
+        <v>1.7885</v>
       </c>
       <c r="I97" t="n">
-        <v>5.732</v>
+        <v>12.731</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3658,30 +3628,30 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F98" t="n">
-        <v>1.02</v>
+        <v>1.627</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H98" t="n">
-        <v>13</v>
+        <v>2.064</v>
       </c>
       <c r="I98" t="n">
-        <v>5.732</v>
+        <v>9.912</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3690,30 +3660,30 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F99" t="n">
-        <v>1.02</v>
+        <v>1.627</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H99" t="n">
-        <v>13</v>
+        <v>1.95</v>
       </c>
       <c r="I99" t="n">
-        <v>5.732</v>
+        <v>12.745</v>
       </c>
       <c r="J99" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3722,30 +3692,30 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F100" t="n">
-        <v>1.01</v>
+        <v>1.627</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H100" t="n">
+        <v>1.7885</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17.376</v>
+      </c>
+      <c r="J100" t="s">
         <v>15</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5.677</v>
-      </c>
-      <c r="J100" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3754,30 +3724,30 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" t="s">
         <v>48</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G101" t="s">
         <v>49</v>
       </c>
-      <c r="F101" t="n">
-        <v>1.304</v>
-      </c>
-      <c r="G101" t="s">
-        <v>50</v>
-      </c>
       <c r="H101" t="n">
-        <v>3.755</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>3.318</v>
+        <v>5.249</v>
       </c>
       <c r="J101" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3786,30 +3756,30 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" t="s">
         <v>48</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G102" t="s">
         <v>49</v>
       </c>
-      <c r="F102" t="n">
-        <v>1.285</v>
-      </c>
-      <c r="G102" t="s">
-        <v>50</v>
-      </c>
       <c r="H102" t="n">
-        <v>3.755</v>
+        <v>2.02</v>
       </c>
       <c r="I102" t="n">
-        <v>4.452</v>
+        <v>5.061</v>
       </c>
       <c r="J102" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3818,30 +3788,30 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
         <v>48</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G103" t="s">
         <v>49</v>
       </c>
-      <c r="F103" t="n">
-        <v>1.2565</v>
-      </c>
-      <c r="G103" t="s">
-        <v>50</v>
-      </c>
       <c r="H103" t="n">
-        <v>3.755</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>6.217</v>
+        <v>5.556</v>
       </c>
       <c r="J103" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3850,30 +3820,30 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" t="s">
         <v>48</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G104" t="s">
         <v>49</v>
       </c>
-      <c r="F104" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>50</v>
-      </c>
       <c r="H104" t="n">
-        <v>4.15</v>
+        <v>1.98</v>
       </c>
       <c r="I104" t="n">
-        <v>6.064</v>
+        <v>6.371</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3882,30 +3852,30 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" t="s">
         <v>48</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G105" t="s">
         <v>49</v>
       </c>
-      <c r="F105" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G105" t="s">
-        <v>50</v>
-      </c>
       <c r="H105" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="I105" t="n">
-        <v>5.056</v>
+        <v>5.061</v>
       </c>
       <c r="J105" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3914,30 +3884,30 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
         <v>48</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G106" t="s">
         <v>49</v>
       </c>
-      <c r="F106" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>50</v>
-      </c>
       <c r="H106" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>5.407</v>
+        <v>5.556</v>
       </c>
       <c r="J106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3946,30 +3916,30 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" t="s">
         <v>48</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G107" t="s">
         <v>49</v>
       </c>
-      <c r="F107" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>50</v>
-      </c>
       <c r="H107" t="n">
-        <v>3.8</v>
+        <v>2.08</v>
       </c>
       <c r="I107" t="n">
-        <v>6.316</v>
+        <v>5.22</v>
       </c>
       <c r="J107" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3978,30 +3948,30 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" t="s">
         <v>48</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G108" t="s">
         <v>49</v>
       </c>
-      <c r="F108" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G108" t="s">
-        <v>50</v>
-      </c>
       <c r="H108" t="n">
-        <v>3.8</v>
+        <v>2.04</v>
       </c>
       <c r="I108" t="n">
-        <v>5.681</v>
+        <v>4.268</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -4010,30 +3980,30 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
         <v>48</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G109" t="s">
         <v>49</v>
       </c>
-      <c r="F109" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>50</v>
-      </c>
       <c r="H109" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>5.006</v>
+        <v>5.556</v>
       </c>
       <c r="J109" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4042,30 +4012,30 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
+        <v>47</v>
+      </c>
+      <c r="E110" t="s">
         <v>48</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G110" t="s">
         <v>49</v>
       </c>
-      <c r="F110" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>50</v>
-      </c>
       <c r="H110" t="n">
-        <v>3.75</v>
+        <v>1.96</v>
       </c>
       <c r="I110" t="n">
-        <v>5.407</v>
+        <v>6.576</v>
       </c>
       <c r="J110" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4074,30 +4044,30 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" t="s">
         <v>48</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G111" t="s">
         <v>49</v>
       </c>
-      <c r="F111" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G111" t="s">
-        <v>50</v>
-      </c>
       <c r="H111" t="n">
-        <v>3.82</v>
+        <v>2.02</v>
       </c>
       <c r="I111" t="n">
-        <v>4.918</v>
+        <v>5.061</v>
       </c>
       <c r="J111" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4106,30 +4076,30 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F112" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="G112" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H112" t="n">
-        <v>3.8</v>
+        <v>2.65</v>
       </c>
       <c r="I112" t="n">
-        <v>5.056</v>
+        <v>6.229</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -4138,30 +4108,30 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F113" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G113" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H113" t="n">
-        <v>3.85</v>
+        <v>2.6</v>
       </c>
       <c r="I113" t="n">
-        <v>5.974</v>
+        <v>5.128</v>
       </c>
       <c r="J113" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -4170,30 +4140,30 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F114" t="n">
-        <v>1.23809523809524</v>
+        <v>1.48</v>
       </c>
       <c r="G114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H114" t="n">
-        <v>4.1</v>
+        <v>2.65</v>
       </c>
       <c r="I114" t="n">
-        <v>5.159</v>
+        <v>5.303</v>
       </c>
       <c r="J114" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4202,30 +4172,30 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" t="s">
         <v>51</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G115" t="s">
         <v>52</v>
       </c>
-      <c r="F115" t="n">
-        <v>2.482</v>
-      </c>
-      <c r="G115" t="s">
-        <v>53</v>
-      </c>
       <c r="H115" t="n">
-        <v>1.5795</v>
+        <v>2.6</v>
       </c>
       <c r="I115" t="n">
-        <v>3.601</v>
+        <v>6.489</v>
       </c>
       <c r="J115" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4234,30 +4204,30 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" t="s">
         <v>51</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G116" t="s">
         <v>52</v>
       </c>
-      <c r="F116" t="n">
-        <v>2.482</v>
-      </c>
-      <c r="G116" t="s">
-        <v>53</v>
-      </c>
       <c r="H116" t="n">
-        <v>1.57</v>
+        <v>2.65</v>
       </c>
       <c r="I116" t="n">
-        <v>3.984</v>
+        <v>5.303</v>
       </c>
       <c r="J116" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4266,30 +4236,30 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" t="s">
         <v>51</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G117" t="s">
         <v>52</v>
       </c>
-      <c r="F117" t="n">
-        <v>2.482</v>
-      </c>
-      <c r="G117" t="s">
-        <v>53</v>
-      </c>
       <c r="H117" t="n">
-        <v>1.5225</v>
+        <v>2.6</v>
       </c>
       <c r="I117" t="n">
-        <v>5.972</v>
+        <v>5.128</v>
       </c>
       <c r="J117" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4298,30 +4268,30 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" t="s">
         <v>51</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G118" t="s">
         <v>52</v>
       </c>
-      <c r="F118" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G118" t="s">
-        <v>53</v>
-      </c>
       <c r="H118" t="n">
-        <v>1.58</v>
+        <v>2.69</v>
       </c>
       <c r="I118" t="n">
-        <v>5.844</v>
+        <v>5.202</v>
       </c>
       <c r="J118" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4330,30 +4300,30 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
+        <v>50</v>
+      </c>
+      <c r="E119" t="s">
         <v>51</v>
       </c>
-      <c r="E119" t="s">
-        <v>52</v>
-      </c>
       <c r="F119" t="n">
-        <v>2.34</v>
+        <v>1.5</v>
       </c>
       <c r="G119" t="s">
         <v>53</v>
       </c>
       <c r="H119" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="I119" t="n">
-        <v>5.235</v>
+        <v>5.128</v>
       </c>
       <c r="J119" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -4362,30 +4332,30 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" t="s">
         <v>51</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G120" t="s">
         <v>52</v>
       </c>
-      <c r="F120" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G120" t="s">
-        <v>53</v>
-      </c>
       <c r="H120" t="n">
-        <v>1.58</v>
+        <v>2.55</v>
       </c>
       <c r="I120" t="n">
-        <v>4.958</v>
+        <v>6.783</v>
       </c>
       <c r="J120" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -4394,1593 +4364,25 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E121" t="s">
         <v>51</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="n">
+        <v>1.47619047619048</v>
+      </c>
+      <c r="G121" t="s">
         <v>52</v>
       </c>
-      <c r="F121" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G121" t="s">
-        <v>53</v>
-      </c>
       <c r="H121" t="n">
-        <v>1.56</v>
+        <v>2.65</v>
       </c>
       <c r="I121" t="n">
-        <v>6.475</v>
+        <v>5.478</v>
       </c>
       <c r="J121" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s">
-        <v>51</v>
-      </c>
-      <c r="E122" t="s">
-        <v>52</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G122" t="s">
-        <v>53</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5.844</v>
-      </c>
-      <c r="J122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s">
-        <v>51</v>
-      </c>
-      <c r="E123" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G123" t="s">
-        <v>53</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5.332</v>
-      </c>
-      <c r="J123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s">
-        <v>51</v>
-      </c>
-      <c r="E124" t="s">
-        <v>52</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G124" t="s">
-        <v>53</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I124" t="n">
-        <v>5.053</v>
-      </c>
-      <c r="J124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>51</v>
-      </c>
-      <c r="E125" t="s">
-        <v>52</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G125" t="s">
-        <v>53</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.266</v>
-      </c>
-      <c r="J125" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
-        <v>51</v>
-      </c>
-      <c r="E126" t="s">
-        <v>52</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G126" t="s">
-        <v>53</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I126" t="n">
-        <v>4.958</v>
-      </c>
-      <c r="J126" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
-        <v>51</v>
-      </c>
-      <c r="E127" t="s">
-        <v>52</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G127" t="s">
-        <v>53</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.602</v>
-      </c>
-      <c r="J127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>45158.2777777778</v>
-      </c>
-      <c r="B128" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s">
-        <v>51</v>
-      </c>
-      <c r="E128" t="s">
-        <v>52</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G128" t="s">
-        <v>53</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1.53763440860215</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.035</v>
-      </c>
-      <c r="J128" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>45163.4097222222</v>
-      </c>
-      <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" t="s">
-        <v>54</v>
-      </c>
-      <c r="D129" t="s">
-        <v>55</v>
-      </c>
-      <c r="E129" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5.006</v>
-      </c>
-      <c r="J129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" t="s">
-        <v>56</v>
-      </c>
-      <c r="E130" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="G130" t="s">
-        <v>52</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2.729</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="J130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>54</v>
-      </c>
-      <c r="D131" t="s">
-        <v>56</v>
-      </c>
-      <c r="E131" t="s">
-        <v>50</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="G131" t="s">
-        <v>52</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="I131" t="n">
-        <v>8.067</v>
-      </c>
-      <c r="J131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" t="s">
-        <v>54</v>
-      </c>
-      <c r="D132" t="s">
-        <v>56</v>
-      </c>
-      <c r="E132" t="s">
-        <v>50</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="G132" t="s">
-        <v>52</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I132" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J132" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B133" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" t="s">
-        <v>54</v>
-      </c>
-      <c r="D133" t="s">
-        <v>56</v>
-      </c>
-      <c r="E133" t="s">
-        <v>50</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1.4085</v>
-      </c>
-      <c r="G133" t="s">
-        <v>52</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2.729</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7.641</v>
-      </c>
-      <c r="J133" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B134" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" t="s">
-        <v>54</v>
-      </c>
-      <c r="D134" t="s">
-        <v>56</v>
-      </c>
-      <c r="E134" t="s">
-        <v>50</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.4085</v>
-      </c>
-      <c r="G134" t="s">
-        <v>52</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="I134" t="n">
-        <v>10.383</v>
-      </c>
-      <c r="J134" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" t="s">
-        <v>54</v>
-      </c>
-      <c r="D135" t="s">
-        <v>56</v>
-      </c>
-      <c r="E135" t="s">
-        <v>50</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.4085</v>
-      </c>
-      <c r="G135" t="s">
-        <v>52</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I135" t="n">
-        <v>13.916</v>
-      </c>
-      <c r="J135" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B136" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" t="s">
-        <v>54</v>
-      </c>
-      <c r="D136" t="s">
-        <v>56</v>
-      </c>
-      <c r="E136" t="s">
-        <v>50</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="G136" t="s">
-        <v>52</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2.729</v>
-      </c>
-      <c r="I136" t="n">
-        <v>10.119</v>
-      </c>
-      <c r="J136" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" t="s">
-        <v>54</v>
-      </c>
-      <c r="D137" t="s">
-        <v>56</v>
-      </c>
-      <c r="E137" t="s">
-        <v>50</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="G137" t="s">
-        <v>52</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2.539</v>
-      </c>
-      <c r="I137" t="n">
-        <v>12.861</v>
-      </c>
-      <c r="J137" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" t="s">
-        <v>54</v>
-      </c>
-      <c r="D138" t="s">
-        <v>56</v>
-      </c>
-      <c r="E138" t="s">
-        <v>50</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="G138" t="s">
-        <v>52</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I138" t="n">
-        <v>16.394</v>
-      </c>
-      <c r="J138" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" t="s">
-        <v>54</v>
-      </c>
-      <c r="D139" t="s">
-        <v>56</v>
-      </c>
-      <c r="E139" t="s">
-        <v>50</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G139" t="s">
-        <v>52</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5.197</v>
-      </c>
-      <c r="J139" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" t="s">
-        <v>54</v>
-      </c>
-      <c r="D140" t="s">
-        <v>57</v>
-      </c>
-      <c r="E140" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1.5035</v>
-      </c>
-      <c r="I140" t="n">
-        <v>5.605</v>
-      </c>
-      <c r="J140" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B141" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" t="s">
-        <v>54</v>
-      </c>
-      <c r="D141" t="s">
-        <v>57</v>
-      </c>
-      <c r="E141" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="I141" t="n">
-        <v>7.774</v>
-      </c>
-      <c r="J141" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" t="s">
-        <v>54</v>
-      </c>
-      <c r="D142" t="s">
-        <v>57</v>
-      </c>
-      <c r="E142" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1.4085</v>
-      </c>
-      <c r="I142" t="n">
-        <v>10.091</v>
-      </c>
-      <c r="J142" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>54</v>
-      </c>
-      <c r="D143" t="s">
-        <v>57</v>
-      </c>
-      <c r="E143" t="s">
-        <v>27</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.311</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1.5035</v>
-      </c>
-      <c r="I143" t="n">
-        <v>9.783</v>
-      </c>
-      <c r="J143" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" t="s">
-        <v>57</v>
-      </c>
-      <c r="E144" t="s">
-        <v>27</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2.311</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="I144" t="n">
-        <v>11.953</v>
-      </c>
-      <c r="J144" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B145" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" t="s">
-        <v>54</v>
-      </c>
-      <c r="D145" t="s">
-        <v>57</v>
-      </c>
-      <c r="E145" t="s">
-        <v>27</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2.311</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1.4085</v>
-      </c>
-      <c r="I145" t="n">
-        <v>14.269</v>
-      </c>
-      <c r="J145" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B146" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" t="s">
-        <v>57</v>
-      </c>
-      <c r="E146" t="s">
-        <v>27</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1.5035</v>
-      </c>
-      <c r="I146" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="J146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>54</v>
-      </c>
-      <c r="D147" t="s">
-        <v>57</v>
-      </c>
-      <c r="E147" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="I147" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="J147" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B148" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" t="s">
-        <v>54</v>
-      </c>
-      <c r="D148" t="s">
-        <v>57</v>
-      </c>
-      <c r="E148" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1.4085</v>
-      </c>
-      <c r="I148" t="n">
-        <v>17.726</v>
-      </c>
-      <c r="J148" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>45164.15625</v>
-      </c>
-      <c r="B149" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" t="s">
-        <v>54</v>
-      </c>
-      <c r="D149" t="s">
-        <v>57</v>
-      </c>
-      <c r="E149" t="s">
-        <v>27</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G149" t="s">
-        <v>32</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5.128</v>
-      </c>
-      <c r="J149" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>45164.2743055556</v>
-      </c>
-      <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" t="s">
-        <v>54</v>
-      </c>
-      <c r="D150" t="s">
-        <v>58</v>
-      </c>
-      <c r="E150" t="s">
-        <v>21</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>39</v>
-      </c>
-      <c r="H150" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.138</v>
-      </c>
-      <c r="J150" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>45164.3923611111</v>
-      </c>
-      <c r="B151" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" t="s">
-        <v>54</v>
-      </c>
-      <c r="D151" t="s">
-        <v>59</v>
-      </c>
-      <c r="E151" t="s">
-        <v>40</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="G151" t="s">
-        <v>45</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7.958</v>
-      </c>
-      <c r="J151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>45164.3923611111</v>
-      </c>
-      <c r="B152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" t="s">
-        <v>54</v>
-      </c>
-      <c r="D152" t="s">
-        <v>59</v>
-      </c>
-      <c r="E152" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="G152" t="s">
-        <v>45</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2.672</v>
-      </c>
-      <c r="I152" t="n">
-        <v>10.901</v>
-      </c>
-      <c r="J152" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>45164.3923611111</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>54</v>
-      </c>
-      <c r="D153" t="s">
-        <v>59</v>
-      </c>
-      <c r="E153" t="s">
-        <v>40</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1.3325</v>
-      </c>
-      <c r="G153" t="s">
-        <v>45</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9.53</v>
-      </c>
-      <c r="J153" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>45164.3923611111</v>
-      </c>
-      <c r="B154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" t="s">
-        <v>54</v>
-      </c>
-      <c r="D154" t="s">
-        <v>59</v>
-      </c>
-      <c r="E154" t="s">
-        <v>40</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1.3325</v>
-      </c>
-      <c r="G154" t="s">
-        <v>45</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2.672</v>
-      </c>
-      <c r="I154" t="n">
-        <v>12.472</v>
-      </c>
-      <c r="J154" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>45164.3923611111</v>
-      </c>
-      <c r="B155" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" t="s">
-        <v>54</v>
-      </c>
-      <c r="D155" t="s">
-        <v>59</v>
-      </c>
-      <c r="E155" t="s">
-        <v>40</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1.2945</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I155" t="n">
-        <v>11.733</v>
-      </c>
-      <c r="J155" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>45164.3923611111</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="s">
-        <v>54</v>
-      </c>
-      <c r="D156" t="s">
-        <v>59</v>
-      </c>
-      <c r="E156" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1.2945</v>
-      </c>
-      <c r="G156" t="s">
-        <v>45</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2.672</v>
-      </c>
-      <c r="I156" t="n">
-        <v>14.675</v>
-      </c>
-      <c r="J156" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>45164.3923611111</v>
-      </c>
-      <c r="B157" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" t="s">
-        <v>54</v>
-      </c>
-      <c r="D157" t="s">
-        <v>59</v>
-      </c>
-      <c r="E157" t="s">
-        <v>40</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G157" t="s">
-        <v>45</v>
-      </c>
-      <c r="H157" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.877</v>
-      </c>
-      <c r="J157" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>45164.4236111111</v>
-      </c>
-      <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" t="s">
-        <v>54</v>
-      </c>
-      <c r="D158" t="s">
-        <v>60</v>
-      </c>
-      <c r="E158" t="s">
-        <v>46</v>
-      </c>
-      <c r="F158" t="n">
-        <v>7</v>
-      </c>
-      <c r="G158" t="s">
-        <v>42</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>5.195</v>
-      </c>
-      <c r="J158" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>45165.1041666667</v>
-      </c>
-      <c r="B159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" t="s">
-        <v>54</v>
-      </c>
-      <c r="D159" t="s">
-        <v>61</v>
-      </c>
-      <c r="E159" t="s">
-        <v>53</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G159" t="s">
         <v>26</v>
-      </c>
-      <c r="H159" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.911</v>
-      </c>
-      <c r="J159" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B160" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" t="s">
-        <v>62</v>
-      </c>
-      <c r="E160" t="s">
-        <v>43</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2.064</v>
-      </c>
-      <c r="G160" t="s">
-        <v>49</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1.7505</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5.576</v>
-      </c>
-      <c r="J160" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B161" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" t="s">
-        <v>54</v>
-      </c>
-      <c r="D161" t="s">
-        <v>62</v>
-      </c>
-      <c r="E161" t="s">
-        <v>43</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2.064</v>
-      </c>
-      <c r="G161" t="s">
-        <v>49</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1.6745</v>
-      </c>
-      <c r="I161" t="n">
-        <v>8.169</v>
-      </c>
-      <c r="J161" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B162" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162" t="s">
-        <v>62</v>
-      </c>
-      <c r="E162" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2.064</v>
-      </c>
-      <c r="G162" t="s">
-        <v>49</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1.627</v>
-      </c>
-      <c r="I162" t="n">
-        <v>9.912</v>
-      </c>
-      <c r="J162" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B163" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" t="s">
-        <v>54</v>
-      </c>
-      <c r="D163" t="s">
-        <v>62</v>
-      </c>
-      <c r="E163" t="s">
-        <v>43</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G163" t="s">
-        <v>49</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1.7505</v>
-      </c>
-      <c r="I163" t="n">
-        <v>8.409</v>
-      </c>
-      <c r="J163" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B164" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" t="s">
-        <v>54</v>
-      </c>
-      <c r="D164" t="s">
-        <v>62</v>
-      </c>
-      <c r="E164" t="s">
-        <v>43</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G164" t="s">
-        <v>49</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1.6745</v>
-      </c>
-      <c r="I164" t="n">
-        <v>11.001</v>
-      </c>
-      <c r="J164" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" t="s">
-        <v>54</v>
-      </c>
-      <c r="D165" t="s">
-        <v>62</v>
-      </c>
-      <c r="E165" t="s">
-        <v>43</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G165" t="s">
-        <v>49</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1.627</v>
-      </c>
-      <c r="I165" t="n">
-        <v>12.745</v>
-      </c>
-      <c r="J165" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B166" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" t="s">
-        <v>54</v>
-      </c>
-      <c r="D166" t="s">
-        <v>62</v>
-      </c>
-      <c r="E166" t="s">
-        <v>43</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="G166" t="s">
-        <v>49</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1.7505</v>
-      </c>
-      <c r="I166" t="n">
-        <v>11.035</v>
-      </c>
-      <c r="J166" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B167" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" t="s">
-        <v>54</v>
-      </c>
-      <c r="D167" t="s">
-        <v>62</v>
-      </c>
-      <c r="E167" t="s">
-        <v>43</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="G167" t="s">
-        <v>49</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1.6745</v>
-      </c>
-      <c r="I167" t="n">
-        <v>13.628</v>
-      </c>
-      <c r="J167" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" t="s">
-        <v>54</v>
-      </c>
-      <c r="D168" t="s">
-        <v>62</v>
-      </c>
-      <c r="E168" t="s">
-        <v>43</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="G168" t="s">
-        <v>49</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1.627</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15.371</v>
-      </c>
-      <c r="J168" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>45165.2222222222</v>
-      </c>
-      <c r="B169" t="s">
-        <v>10</v>
-      </c>
-      <c r="C169" t="s">
-        <v>54</v>
-      </c>
-      <c r="D169" t="s">
-        <v>62</v>
-      </c>
-      <c r="E169" t="s">
-        <v>43</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G169" t="s">
-        <v>49</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4.116</v>
-      </c>
-      <c r="J169" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B170" t="s">
-        <v>10</v>
-      </c>
-      <c r="C170" t="s">
-        <v>54</v>
-      </c>
-      <c r="D170" t="s">
-        <v>63</v>
-      </c>
-      <c r="E170" t="s">
-        <v>33</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4.934</v>
-      </c>
-      <c r="J170" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">start_time</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">Midasbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neds</t>
   </si>
   <si>
     <t xml:space="preserve">Playup</t>
@@ -562,16 +559,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>5.085</v>
+        <v>4.61</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.209</v>
+        <v>1.228</v>
       </c>
       <c r="I2" t="n">
-        <v>2.379</v>
+        <v>3.125</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -594,16 +591,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>5.085</v>
+        <v>4.61</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1995</v>
+        <v>1.2185</v>
       </c>
       <c r="I3" t="n">
-        <v>3.034</v>
+        <v>3.76</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -626,16 +623,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>5.085</v>
+        <v>4.61</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1.19</v>
+        <v>1.209</v>
       </c>
       <c r="I4" t="n">
-        <v>3.699</v>
+        <v>4.405</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -658,16 +655,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I5" t="n">
-        <v>6.022</v>
+        <v>5.086</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -722,16 +719,16 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.364</v>
+        <v>5.556</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -754,16 +751,16 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I8" t="n">
-        <v>6.485</v>
+        <v>6.256</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -786,16 +783,16 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.086</v>
+        <v>5.556</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -818,16 +815,16 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.31</v>
+        <v>5.072</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -850,16 +847,16 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I11" t="n">
-        <v>5.556</v>
+        <v>5.31</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -882,16 +879,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.31</v>
+        <v>5.556</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -914,16 +911,16 @@
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.579</v>
+        <v>6.322</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -946,16 +943,16 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.18</v>
+        <v>1.17857142857143</v>
       </c>
       <c r="I14" t="n">
-        <v>6.485</v>
+        <v>5.257</v>
       </c>
       <c r="J14" t="s">
         <v>25</v>
@@ -963,7 +960,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -972,25 +969,25 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>5.1</v>
+        <v>1.5985</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>1.16949152542373</v>
+        <v>2.425</v>
       </c>
       <c r="I15" t="n">
-        <v>5.115</v>
+        <v>3.796</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1004,22 +1001,22 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="n">
+        <v>1.589</v>
+      </c>
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="n">
-        <v>1.5795</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>2.425</v>
       </c>
       <c r="I16" t="n">
-        <v>2.994</v>
+        <v>4.17</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -1036,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="n">
+        <v>1.5795</v>
+      </c>
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.4845</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
       <c r="H17" t="n">
-        <v>2.52</v>
+        <v>2.425</v>
       </c>
       <c r="I17" t="n">
-        <v>7.045</v>
+        <v>4.548</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -1068,22 +1065,22 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
       </c>
       <c r="F18" t="n">
         <v>1.55</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.332</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -1100,16 +1097,16 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
         <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>1.58</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" t="n">
         <v>2.38</v>
@@ -1132,22 +1129,22 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.359</v>
+        <v>5.361</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
@@ -1164,22 +1161,22 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
       <c r="H21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I21" t="n">
-        <v>6.533</v>
+        <v>6.067</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -1196,22 +1193,22 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
       <c r="H22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.511</v>
+        <v>4.958</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -1228,16 +1225,16 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
       </c>
       <c r="F23" t="n">
         <v>1.55</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" t="n">
         <v>2.45</v>
@@ -1260,22 +1257,22 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
       <c r="H24" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="I24" t="n">
-        <v>5.332</v>
+        <v>4.91</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -1292,16 +1289,16 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
         <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>1.58</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" t="n">
         <v>2.4</v>
@@ -1324,22 +1321,22 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
       <c r="H26" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I26" t="n">
-        <v>4.958</v>
+        <v>6.475</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
@@ -1356,22 +1353,22 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="n">
+        <v>1.53763440860215</v>
+      </c>
+      <c r="G27" t="s">
         <v>28</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
       <c r="H27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I27" t="n">
-        <v>6.183</v>
+        <v>5.035</v>
       </c>
       <c r="J27" t="s">
         <v>25</v>
@@ -1388,25 +1385,25 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>1.53763440860215</v>
+        <v>3.5175</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>2.5</v>
+        <v>1.3515</v>
       </c>
       <c r="I28" t="n">
-        <v>5.035</v>
+        <v>2.421</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1420,22 +1417,22 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="n">
+        <v>3.5175</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="F29" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
       <c r="H29" t="n">
-        <v>1.266</v>
+        <v>1.342</v>
       </c>
       <c r="I29" t="n">
-        <v>8.619</v>
+        <v>2.945</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -1452,22 +1449,22 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
         <v>30</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="n">
+        <v>3.5175</v>
+      </c>
+      <c r="G30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
       <c r="H30" t="n">
-        <v>1.2565</v>
+        <v>1.3325</v>
       </c>
       <c r="I30" t="n">
-        <v>9.216</v>
+        <v>3.476</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1484,25 +1481,25 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="n">
+        <v>3.4225</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
       <c r="H31" t="n">
-        <v>1.33</v>
+        <v>1.3515</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491</v>
+        <v>3.21</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1516,25 +1513,25 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="n">
+        <v>3.4225</v>
+      </c>
+      <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="F32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.33</v>
+        <v>1.342</v>
       </c>
       <c r="I32" t="n">
-        <v>5.039</v>
+        <v>3.734</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1548,25 +1545,25 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="n">
+        <v>3.4225</v>
+      </c>
+      <c r="G33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.35</v>
+        <v>1.3325</v>
       </c>
       <c r="I33" t="n">
-        <v>5.324</v>
+        <v>4.265</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1580,25 +1577,25 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
       </c>
       <c r="H34" t="n">
         <v>1.32</v>
       </c>
       <c r="I34" t="n">
-        <v>6.527</v>
+        <v>5.169</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1612,25 +1609,25 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
         <v>30</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G35" t="s">
         <v>31</v>
       </c>
-      <c r="F35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
       <c r="H35" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="I35" t="n">
-        <v>4.843</v>
+        <v>5.039</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1644,25 +1641,25 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
         <v>30</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
       <c r="H36" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="I36" t="n">
-        <v>5.396</v>
+        <v>5.495</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1676,25 +1673,25 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G37" t="s">
         <v>31</v>
       </c>
-      <c r="F37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
       <c r="H37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I37" t="n">
-        <v>5.495</v>
+        <v>6.505</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1708,25 +1705,25 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G38" t="s">
         <v>31</v>
       </c>
-      <c r="F38" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
       <c r="H38" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="I38" t="n">
-        <v>4.862</v>
+        <v>5.297</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1740,25 +1737,25 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G39" t="s">
         <v>31</v>
       </c>
-      <c r="F39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
       <c r="H39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I39" t="n">
-        <v>5.169</v>
+        <v>5.957</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1772,25 +1769,25 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
         <v>30</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G40" t="s">
         <v>31</v>
       </c>
-      <c r="F40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
       <c r="H40" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="I40" t="n">
-        <v>6.527</v>
+        <v>5.172</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -1804,30 +1801,30 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G41" t="s">
         <v>31</v>
       </c>
-      <c r="F41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
       <c r="H41" t="n">
-        <v>1.31746031746032</v>
+        <v>1.29</v>
       </c>
       <c r="I41" t="n">
-        <v>5.315</v>
+        <v>5.297</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45164.2743055556</v>
+        <v>45164.15625</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1836,30 +1833,30 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H42" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="I42" t="n">
-        <v>6.061</v>
+        <v>6.335</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45164.2743055556</v>
+        <v>45164.15625</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1868,25 +1865,25 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F43" t="n">
-        <v>1.22</v>
+        <v>3.4</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>1.31746031746032</v>
       </c>
       <c r="I43" t="n">
-        <v>5.223</v>
+        <v>5.315</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -1900,25 +1897,25 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
         <v>33</v>
-      </c>
-      <c r="E44" t="s">
-        <v>34</v>
       </c>
       <c r="F44" t="n">
         <v>1.22</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I44" t="n">
-        <v>5.223</v>
+        <v>5.497</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1932,25 +1929,25 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
         <v>33</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G45" t="s">
         <v>34</v>
       </c>
-      <c r="F45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
       <c r="H45" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>4.694</v>
+        <v>5.035</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -1964,25 +1961,25 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
         <v>33</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G46" t="s">
         <v>34</v>
       </c>
-      <c r="F46" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
       <c r="H46" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>5.223</v>
+        <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1996,25 +1993,25 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
         <v>33</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
-      </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
-        <v>5.556</v>
+        <v>5.035</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -2028,25 +2025,25 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
         <v>33</v>
       </c>
-      <c r="E48" t="s">
-        <v>36</v>
-      </c>
       <c r="F48" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.83</v>
+        <v>5.556</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -2060,25 +2057,25 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I49" t="n">
-        <v>5.223</v>
+        <v>5.11</v>
       </c>
       <c r="J49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -2092,30 +2089,30 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G50" t="s">
         <v>34</v>
       </c>
-      <c r="F50" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
       <c r="H50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
-        <v>6.454</v>
+        <v>5.035</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45164.3923611111</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2124,25 +2121,25 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F51" t="n">
-        <v>1.7885</v>
+        <v>1.22</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H51" t="n">
-        <v>1.95</v>
+        <v>4.1</v>
       </c>
       <c r="I51" t="n">
-        <v>7.195</v>
+        <v>6.357</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -2156,22 +2153,22 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="G52" t="s">
         <v>38</v>
       </c>
-      <c r="F52" t="n">
-        <v>1.7885</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
-      </c>
       <c r="H52" t="n">
-        <v>1.0095</v>
+        <v>1.703</v>
       </c>
       <c r="I52" t="n">
-        <v>54.972</v>
+        <v>4.237</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -2188,22 +2185,22 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
         <v>37</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="G53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
       <c r="H53" t="n">
-        <v>1.95</v>
+        <v>1.6935</v>
       </c>
       <c r="I53" t="n">
-        <v>7.493</v>
+        <v>4.566</v>
       </c>
       <c r="J53" t="s">
         <v>15</v>
@@ -2220,22 +2217,22 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
         <v>37</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="G54" t="s">
         <v>38</v>
       </c>
-      <c r="F54" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
-      </c>
       <c r="H54" t="n">
-        <v>1.0095</v>
+        <v>1.684</v>
       </c>
       <c r="I54" t="n">
-        <v>55.27</v>
+        <v>4.899</v>
       </c>
       <c r="J54" t="s">
         <v>15</v>
@@ -2252,25 +2249,25 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
         <v>37</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G55" t="s">
         <v>38</v>
       </c>
-      <c r="F55" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
       <c r="H55" t="n">
-        <v>2.05</v>
+        <v>1.703</v>
       </c>
       <c r="I55" t="n">
-        <v>5.278</v>
+        <v>5.449</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -2284,25 +2281,25 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
         <v>37</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G56" t="s">
         <v>38</v>
       </c>
-      <c r="F56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1.6935</v>
       </c>
       <c r="I56" t="n">
-        <v>5.556</v>
+        <v>5.778</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -2316,25 +2313,25 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
         <v>37</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G57" t="s">
         <v>38</v>
       </c>
-      <c r="F57" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1.684</v>
       </c>
       <c r="I57" t="n">
-        <v>6.497</v>
+        <v>6.111</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -2348,25 +2345,25 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
         <v>37</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="G58" t="s">
         <v>38</v>
       </c>
-      <c r="F58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G58" t="s">
-        <v>39</v>
-      </c>
       <c r="H58" t="n">
-        <v>2.3</v>
+        <v>1.703</v>
       </c>
       <c r="I58" t="n">
-        <v>5.207</v>
+        <v>5.867</v>
       </c>
       <c r="J58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -2380,25 +2377,25 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
         <v>37</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="G59" t="s">
         <v>38</v>
       </c>
-      <c r="F59" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
-      </c>
       <c r="H59" t="n">
-        <v>2.05</v>
+        <v>1.6935</v>
       </c>
       <c r="I59" t="n">
-        <v>5.278</v>
+        <v>6.197</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -2412,25 +2409,25 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
         <v>37</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="G60" t="s">
         <v>38</v>
       </c>
-      <c r="F60" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G60" t="s">
-        <v>39</v>
-      </c>
       <c r="H60" t="n">
-        <v>2.1</v>
+        <v>1.684</v>
       </c>
       <c r="I60" t="n">
-        <v>5.423</v>
+        <v>6.53</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -2444,25 +2441,25 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
         <v>37</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G61" t="s">
         <v>38</v>
       </c>
-      <c r="F61" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
       <c r="H61" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="I61" t="n">
-        <v>4.116</v>
+        <v>5.335</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -2476,25 +2473,25 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
         <v>37</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G62" t="s">
         <v>38</v>
       </c>
-      <c r="F62" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G62" t="s">
-        <v>40</v>
-      </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I62" t="n">
-        <v>5.556</v>
+        <v>5.335</v>
       </c>
       <c r="J62" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -2508,25 +2505,25 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
         <v>37</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
       <c r="H63" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="I63" t="n">
-        <v>6.576</v>
+        <v>5.335</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -2540,30 +2537,30 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
         <v>37</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G64" t="s">
         <v>38</v>
       </c>
-      <c r="F64" t="n">
-        <v>1.77519379844961</v>
-      </c>
-      <c r="G64" t="s">
-        <v>39</v>
-      </c>
       <c r="H64" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="I64" t="n">
-        <v>5.112</v>
+        <v>6.443</v>
       </c>
       <c r="J64" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45164.4236111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2572,30 +2569,30 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F65" t="n">
-        <v>5.275</v>
+        <v>2.1</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H65" t="n">
-        <v>1.1995</v>
+        <v>1.74</v>
       </c>
       <c r="I65" t="n">
-        <v>2.325</v>
+        <v>5.09</v>
       </c>
       <c r="J65" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45164.4236111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2604,30 +2601,30 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F66" t="n">
-        <v>5.275</v>
+        <v>2.1</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H66" t="n">
-        <v>1.19</v>
+        <v>1.73</v>
       </c>
       <c r="I66" t="n">
-        <v>2.991</v>
+        <v>5.423</v>
       </c>
       <c r="J66" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45164.4236111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2636,30 +2633,30 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F67" t="n">
-        <v>5.275</v>
+        <v>2.13</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H67" t="n">
-        <v>1.1805</v>
+        <v>1.72</v>
       </c>
       <c r="I67" t="n">
-        <v>3.667</v>
+        <v>5.088</v>
       </c>
       <c r="J67" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45164.4236111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2668,30 +2665,30 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F68" t="n">
-        <v>4.895</v>
+        <v>2.1</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H68" t="n">
-        <v>1.1995</v>
+        <v>1.74</v>
       </c>
       <c r="I68" t="n">
-        <v>3.797</v>
+        <v>5.09</v>
       </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45164.4236111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2700,30 +2697,30 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F69" t="n">
-        <v>4.895</v>
+        <v>2.08</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H69" t="n">
-        <v>1.19</v>
+        <v>1.7</v>
       </c>
       <c r="I69" t="n">
-        <v>4.463</v>
+        <v>6.9</v>
       </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45164.4236111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2732,25 +2729,25 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F70" t="n">
-        <v>4.895</v>
+        <v>2.1</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H70" t="n">
-        <v>1.1805</v>
+        <v>1.73529411764706</v>
       </c>
       <c r="I70" t="n">
-        <v>5.139</v>
+        <v>5.246</v>
       </c>
       <c r="J70" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -2764,25 +2761,25 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
         <v>41</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="n">
+        <v>5.085</v>
+      </c>
+      <c r="G71" t="s">
         <v>42</v>
       </c>
-      <c r="F71" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>43</v>
-      </c>
       <c r="H71" t="n">
-        <v>1.15</v>
+        <v>1.2185</v>
       </c>
       <c r="I71" t="n">
-        <v>6.564</v>
+        <v>1.734</v>
       </c>
       <c r="J71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -2796,25 +2793,25 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
         <v>41</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="n">
+        <v>5.085</v>
+      </c>
+      <c r="G72" t="s">
         <v>42</v>
       </c>
-      <c r="F72" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G72" t="s">
-        <v>43</v>
-      </c>
       <c r="H72" t="n">
-        <v>1.2</v>
+        <v>1.209</v>
       </c>
       <c r="I72" t="n">
-        <v>5.072</v>
+        <v>2.379</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -2828,25 +2825,25 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
         <v>41</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="n">
+        <v>5.085</v>
+      </c>
+      <c r="G73" t="s">
         <v>42</v>
       </c>
-      <c r="F73" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G73" t="s">
-        <v>43</v>
-      </c>
       <c r="H73" t="n">
-        <v>1.18</v>
+        <v>1.1995</v>
       </c>
       <c r="I73" t="n">
-        <v>5.579</v>
+        <v>3.034</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -2860,25 +2857,25 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" t="s">
         <v>41</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="n">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
         <v>42</v>
       </c>
-      <c r="F74" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G74" t="s">
-        <v>43</v>
-      </c>
       <c r="H74" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="I74" t="n">
-        <v>6.256</v>
+        <v>5.47</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2892,25 +2889,25 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
         <v>41</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G75" t="s">
         <v>42</v>
       </c>
-      <c r="F75" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G75" t="s">
-        <v>43</v>
-      </c>
       <c r="H75" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4.701</v>
+        <v>5.072</v>
       </c>
       <c r="J75" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -2924,25 +2921,25 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
         <v>41</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G76" t="s">
         <v>42</v>
       </c>
-      <c r="F76" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G76" t="s">
-        <v>43</v>
-      </c>
       <c r="H76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="I76" t="n">
-        <v>5.072</v>
+        <v>5.579</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -2956,25 +2953,25 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
         <v>41</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G77" t="s">
         <v>42</v>
       </c>
-      <c r="F77" t="n">
-        <v>5</v>
-      </c>
-      <c r="G77" t="s">
-        <v>43</v>
-      </c>
       <c r="H77" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I77" t="n">
-        <v>5.47</v>
+        <v>6.485</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -2988,25 +2985,25 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s">
         <v>41</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G78" t="s">
         <v>42</v>
-      </c>
-      <c r="F78" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="G78" t="s">
-        <v>43</v>
       </c>
       <c r="H78" t="n">
         <v>1.2</v>
       </c>
       <c r="I78" t="n">
-        <v>5.805</v>
+        <v>5.556</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -3020,25 +3017,25 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
         <v>41</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
         <v>42</v>
       </c>
-      <c r="F79" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G79" t="s">
-        <v>43</v>
-      </c>
       <c r="H79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="I79" t="n">
-        <v>5.556</v>
+        <v>5.47</v>
       </c>
       <c r="J79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -3052,30 +3049,30 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" t="s">
         <v>41</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G80" t="s">
         <v>42</v>
       </c>
-      <c r="F80" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
       <c r="H80" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I80" t="n">
-        <v>5.072</v>
+        <v>5.086</v>
       </c>
       <c r="J80" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45165.1041666667</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3084,30 +3081,30 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1235</v>
+        <v>4.5</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H81" t="n">
-        <v>6.51</v>
+        <v>1.2</v>
       </c>
       <c r="I81" t="n">
-        <v>4.369</v>
+        <v>5.556</v>
       </c>
       <c r="J81" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45165.1041666667</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3116,25 +3113,25 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F82" t="n">
-        <v>1.114</v>
+        <v>4.75</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H82" t="n">
-        <v>6.51</v>
+        <v>1.18867924528302</v>
       </c>
       <c r="I82" t="n">
-        <v>5.128</v>
+        <v>5.18</v>
       </c>
       <c r="J82" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -3148,22 +3145,22 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" t="s">
         <v>44</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="G83" t="s">
         <v>45</v>
       </c>
-      <c r="F83" t="n">
-        <v>1.1045</v>
-      </c>
-      <c r="G83" t="s">
-        <v>46</v>
-      </c>
       <c r="H83" t="n">
-        <v>6.51</v>
+        <v>5.655</v>
       </c>
       <c r="I83" t="n">
-        <v>5.9</v>
+        <v>5.945</v>
       </c>
       <c r="J83" t="s">
         <v>15</v>
@@ -3180,25 +3177,25 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s">
         <v>44</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="n">
+        <v>1.1235</v>
+      </c>
+      <c r="G84" t="s">
         <v>45</v>
       </c>
-      <c r="F84" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>46</v>
-      </c>
       <c r="H84" t="n">
-        <v>6</v>
+        <v>5.655</v>
       </c>
       <c r="I84" t="n">
-        <v>5.952</v>
+        <v>6.691</v>
       </c>
       <c r="J84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -3212,25 +3209,25 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" t="s">
         <v>44</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G85" t="s">
         <v>45</v>
       </c>
-      <c r="F85" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>46</v>
-      </c>
       <c r="H85" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I85" t="n">
-        <v>5.286</v>
+        <v>5.475</v>
       </c>
       <c r="J85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
@@ -3244,25 +3241,25 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" t="s">
         <v>44</v>
-      </c>
-      <c r="E86" t="s">
-        <v>45</v>
       </c>
       <c r="F86" t="n">
         <v>1.12</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H86" t="n">
-        <v>6.2</v>
+        <v>6.25</v>
       </c>
       <c r="I86" t="n">
-        <v>5.415</v>
+        <v>5.286</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -3276,25 +3273,25 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" t="s">
         <v>44</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G87" t="s">
         <v>45</v>
       </c>
-      <c r="F87" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G87" t="s">
-        <v>46</v>
-      </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I87" t="n">
-        <v>6.757</v>
+        <v>5.415</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -3308,25 +3305,25 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" t="s">
         <v>44</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G88" t="s">
         <v>45</v>
       </c>
-      <c r="F88" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G88" t="s">
-        <v>46</v>
-      </c>
       <c r="H88" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I88" t="n">
-        <v>4.625</v>
+        <v>7.039</v>
       </c>
       <c r="J88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -3340,25 +3337,25 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" t="s">
         <v>44</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G89" t="s">
         <v>45</v>
       </c>
-      <c r="F89" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G89" t="s">
-        <v>46</v>
-      </c>
       <c r="H89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I89" t="n">
-        <v>5.162</v>
+        <v>5.475</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -3372,16 +3369,16 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" t="s">
         <v>44</v>
-      </c>
-      <c r="E90" t="s">
-        <v>45</v>
       </c>
       <c r="F90" t="n">
         <v>1.12</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90" t="n">
         <v>6.25</v>
@@ -3390,7 +3387,7 @@
         <v>5.286</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -3404,16 +3401,16 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" t="s">
         <v>44</v>
-      </c>
-      <c r="E91" t="s">
-        <v>45</v>
       </c>
       <c r="F91" t="n">
         <v>1.13</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91" t="n">
         <v>6.05</v>
@@ -3422,7 +3419,7 @@
         <v>5.025</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -3436,25 +3433,25 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" t="s">
         <v>44</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G92" t="s">
         <v>45</v>
       </c>
-      <c r="F92" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>46</v>
-      </c>
       <c r="H92" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I92" t="n">
-        <v>5.415</v>
+        <v>5.475</v>
       </c>
       <c r="J92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
@@ -3468,25 +3465,25 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" t="s">
         <v>44</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G93" t="s">
         <v>45</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G93" t="s">
-        <v>46</v>
       </c>
       <c r="H93" t="n">
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>6.757</v>
+        <v>5.952</v>
       </c>
       <c r="J93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -3500,16 +3497,16 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" t="s">
         <v>44</v>
-      </c>
-      <c r="E94" t="s">
-        <v>45</v>
       </c>
       <c r="F94" t="n">
         <v>1.11976047904192</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H94" t="n">
         <v>6.25</v>
@@ -3518,7 +3515,7 @@
         <v>5.305</v>
       </c>
       <c r="J94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
@@ -3532,25 +3529,25 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" t="s">
         <v>47</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G95" t="s">
         <v>48</v>
       </c>
-      <c r="F95" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G95" t="s">
-        <v>49</v>
-      </c>
       <c r="H95" t="n">
-        <v>2.064</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>5.268</v>
+        <v>5.556</v>
       </c>
       <c r="J95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -3564,25 +3561,25 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" t="s">
         <v>47</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G96" t="s">
         <v>48</v>
       </c>
-      <c r="F96" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G96" t="s">
-        <v>49</v>
-      </c>
       <c r="H96" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="I96" t="n">
-        <v>8.1</v>
+        <v>5.061</v>
       </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -3596,25 +3593,25 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" t="s">
         <v>47</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G97" t="s">
         <v>48</v>
       </c>
-      <c r="F97" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G97" t="s">
-        <v>49</v>
-      </c>
       <c r="H97" t="n">
-        <v>1.7885</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>12.731</v>
+        <v>5.556</v>
       </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -3628,25 +3625,25 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" t="s">
         <v>47</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G98" t="s">
         <v>48</v>
       </c>
-      <c r="F98" t="n">
-        <v>1.627</v>
-      </c>
-      <c r="G98" t="s">
-        <v>49</v>
-      </c>
       <c r="H98" t="n">
-        <v>2.064</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>9.912</v>
+        <v>6.18</v>
       </c>
       <c r="J98" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -3660,25 +3657,25 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" t="s">
         <v>47</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G99" t="s">
         <v>48</v>
       </c>
-      <c r="F99" t="n">
-        <v>1.627</v>
-      </c>
-      <c r="G99" t="s">
-        <v>49</v>
-      </c>
       <c r="H99" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>12.745</v>
+        <v>5.556</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -3692,25 +3689,25 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" t="s">
         <v>47</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G100" t="s">
         <v>48</v>
       </c>
-      <c r="F100" t="n">
-        <v>1.627</v>
-      </c>
-      <c r="G100" t="s">
-        <v>49</v>
-      </c>
       <c r="H100" t="n">
-        <v>1.7885</v>
+        <v>2.08</v>
       </c>
       <c r="I100" t="n">
-        <v>17.376</v>
+        <v>5.22</v>
       </c>
       <c r="J100" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -3724,25 +3721,25 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" t="s">
         <v>47</v>
-      </c>
-      <c r="E101" t="s">
-        <v>48</v>
       </c>
       <c r="F101" t="n">
         <v>1.81</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I101" t="n">
-        <v>5.249</v>
+        <v>4.268</v>
       </c>
       <c r="J101" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
@@ -3756,25 +3753,25 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" t="s">
         <v>47</v>
-      </c>
-      <c r="E102" t="s">
-        <v>48</v>
       </c>
       <c r="F102" t="n">
         <v>1.8</v>
       </c>
       <c r="G102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H102" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>5.061</v>
+        <v>5.556</v>
       </c>
       <c r="J102" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
@@ -3788,25 +3785,25 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" t="s">
         <v>47</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G103" t="s">
         <v>48</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G103" t="s">
-        <v>49</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>5.556</v>
+        <v>6.18</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
@@ -3820,30 +3817,30 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" t="s">
         <v>47</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G104" t="s">
         <v>48</v>
       </c>
-      <c r="F104" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G104" t="s">
-        <v>49</v>
-      </c>
       <c r="H104" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I104" t="n">
-        <v>6.371</v>
+        <v>5.061</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3852,30 +3849,30 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F105" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H105" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="I105" t="n">
-        <v>5.061</v>
+        <v>5.128</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3884,30 +3881,30 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F106" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="G106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="I106" t="n">
-        <v>5.556</v>
+        <v>5.005</v>
       </c>
       <c r="J106" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3916,30 +3913,30 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F107" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H107" t="n">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="I107" t="n">
-        <v>5.22</v>
+        <v>5.128</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3948,30 +3945,30 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F108" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="G108" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H108" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="I108" t="n">
-        <v>4.268</v>
+        <v>6.667</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3980,30 +3977,30 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F109" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I109" t="n">
-        <v>5.556</v>
+        <v>5.359</v>
       </c>
       <c r="J109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4012,30 +4009,30 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F110" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="G110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H110" t="n">
-        <v>1.96</v>
+        <v>2.54</v>
       </c>
       <c r="I110" t="n">
-        <v>6.576</v>
+        <v>5.16</v>
       </c>
       <c r="J110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4044,25 +4041,25 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F111" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="G111" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H111" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I111" t="n">
-        <v>5.061</v>
+        <v>5.005</v>
       </c>
       <c r="J111" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
@@ -4076,25 +4073,25 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" t="s">
         <v>50</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G112" t="s">
         <v>51</v>
       </c>
-      <c r="F112" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G112" t="s">
-        <v>52</v>
-      </c>
       <c r="H112" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="I112" t="n">
-        <v>6.229</v>
+        <v>6.667</v>
       </c>
       <c r="J112" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
@@ -4108,281 +4105,25 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" t="s">
         <v>50</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="n">
+        <v>1.51282051282051</v>
+      </c>
+      <c r="G113" t="s">
         <v>51</v>
       </c>
-      <c r="F113" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G113" t="s">
-        <v>52</v>
-      </c>
       <c r="H113" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I113" t="n">
-        <v>5.128</v>
+        <v>5.317</v>
       </c>
       <c r="J113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>50</v>
-      </c>
-      <c r="E114" t="s">
-        <v>51</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.303</v>
-      </c>
-      <c r="J114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>50</v>
-      </c>
-      <c r="E115" t="s">
-        <v>51</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G115" t="s">
-        <v>52</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.489</v>
-      </c>
-      <c r="J115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>50</v>
-      </c>
-      <c r="E116" t="s">
-        <v>51</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G116" t="s">
-        <v>52</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.303</v>
-      </c>
-      <c r="J116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" t="s">
-        <v>51</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G117" t="s">
-        <v>52</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.128</v>
-      </c>
-      <c r="J117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>50</v>
-      </c>
-      <c r="E118" t="s">
-        <v>51</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G118" t="s">
-        <v>52</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5.202</v>
-      </c>
-      <c r="J118" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s">
-        <v>50</v>
-      </c>
-      <c r="E119" t="s">
-        <v>51</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G119" t="s">
-        <v>53</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I119" t="n">
-        <v>5.128</v>
-      </c>
-      <c r="J119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s">
-        <v>50</v>
-      </c>
-      <c r="E120" t="s">
-        <v>51</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I120" t="n">
-        <v>6.783</v>
-      </c>
-      <c r="J120" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>45165.3402777778</v>
-      </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s">
-        <v>50</v>
-      </c>
-      <c r="E121" t="s">
-        <v>51</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1.47619047619048</v>
-      </c>
-      <c r="G121" t="s">
-        <v>52</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I121" t="n">
-        <v>5.478</v>
-      </c>
-      <c r="J121" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Apps/head_to_head.xlsx
+++ b/Apps/head_to_head.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">start_time</t>
   </si>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">Round 24</t>
   </si>
   <si>
-    <t xml:space="preserve">Essendon v Collingwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood</t>
+    <t xml:space="preserve">Hawthorn v Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremantle</t>
   </si>
   <si>
     <t xml:space="preserve">Betfair</t>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">Midasbet</t>
   </si>
   <si>
+    <t xml:space="preserve">Neds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Playup</t>
   </si>
   <si>
@@ -90,15 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unibet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn v Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremantle</t>
   </si>
   <si>
     <t xml:space="preserve">North Melbourne v Gold Coast</t>
@@ -544,7 +538,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -559,16 +553,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>4.61</v>
+        <v>1.703</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.228</v>
+        <v>2.273</v>
       </c>
       <c r="I2" t="n">
-        <v>3.125</v>
+        <v>2.715</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -576,7 +570,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -591,16 +585,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>4.61</v>
+        <v>1.703</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2185</v>
+        <v>2.254</v>
       </c>
       <c r="I3" t="n">
-        <v>3.76</v>
+        <v>3.085</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -608,7 +602,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -623,16 +617,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>4.61</v>
+        <v>1.703</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1.209</v>
+        <v>2.235</v>
       </c>
       <c r="I4" t="n">
-        <v>4.405</v>
+        <v>3.463</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -640,7 +634,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -655,24 +649,24 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>4.75</v>
+        <v>1.6935</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>1.19</v>
+        <v>2.273</v>
       </c>
       <c r="I5" t="n">
-        <v>5.086</v>
+        <v>3.044</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -687,24 +681,24 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>1.6935</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2</v>
+        <v>2.254</v>
       </c>
       <c r="I6" t="n">
-        <v>5.072</v>
+        <v>3.415</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -719,24 +713,24 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>1.6935</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>1.2</v>
+        <v>2.235</v>
       </c>
       <c r="I7" t="n">
-        <v>5.556</v>
+        <v>3.792</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -751,24 +745,24 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>1.684</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1.19</v>
+        <v>2.273</v>
       </c>
       <c r="I8" t="n">
-        <v>6.256</v>
+        <v>3.377</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -783,24 +777,24 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>1.684</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>1.2</v>
+        <v>2.254</v>
       </c>
       <c r="I9" t="n">
-        <v>5.556</v>
+        <v>3.748</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -815,24 +809,24 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>1.684</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>1.2</v>
+        <v>2.235</v>
       </c>
       <c r="I10" t="n">
-        <v>5.072</v>
+        <v>4.125</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -847,24 +841,24 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.19</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>5.31</v>
+        <v>5.207</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -879,24 +873,24 @@
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.556</v>
+        <v>5.335</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -911,24 +905,24 @@
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>4.35</v>
+        <v>1.62</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>6.322</v>
+        <v>5.207</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -943,19 +937,19 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>4.9</v>
+        <v>1.64</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.17857142857143</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.257</v>
+        <v>6.43</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -969,25 +963,25 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1.5985</v>
+        <v>1.62</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.425</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.796</v>
+        <v>5.207</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1001,25 +995,25 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>1.589</v>
+        <v>1.62</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.425</v>
+        <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.17</v>
+        <v>5.207</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1033,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>1.5795</v>
+        <v>1.65</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>2.425</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>4.548</v>
+        <v>4.084</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1065,25 +1059,25 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="I18" t="n">
-        <v>5.332</v>
+        <v>6.035</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -1097,25 +1091,25 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I19" t="n">
-        <v>5.308</v>
+        <v>5.051</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -1129,25 +1123,25 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="I20" t="n">
-        <v>5.361</v>
+        <v>5.588</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1161,25 +1155,25 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.61728395061728</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.692</v>
+      </c>
+      <c r="J21" t="s">
         <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.067</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1193,25 +1187,25 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>1.58</v>
+        <v>4.895</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" t="n">
-        <v>2.4</v>
+        <v>1.228</v>
       </c>
       <c r="I22" t="n">
-        <v>4.958</v>
+        <v>1.862</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1225,25 +1219,25 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>1.55</v>
+        <v>4.895</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>2.45</v>
+        <v>1.2185</v>
       </c>
       <c r="I23" t="n">
-        <v>5.332</v>
+        <v>2.497</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1257,25 +1251,25 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>1.59</v>
+        <v>4.895</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" t="n">
-        <v>2.38</v>
+        <v>1.209</v>
       </c>
       <c r="I24" t="n">
-        <v>4.91</v>
+        <v>3.142</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1289,25 +1283,25 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>1.58</v>
+        <v>4.8</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" t="n">
-        <v>2.4</v>
+        <v>1.228</v>
       </c>
       <c r="I25" t="n">
-        <v>4.958</v>
+        <v>2.267</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -1321,25 +1315,25 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>1.56</v>
+        <v>4.8</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" t="n">
-        <v>2.36</v>
+        <v>1.2185</v>
       </c>
       <c r="I26" t="n">
-        <v>6.475</v>
+        <v>2.901</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -1353,25 +1347,25 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>1.53763440860215</v>
+        <v>4.8</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" t="n">
-        <v>2.5</v>
+        <v>1.209</v>
       </c>
       <c r="I27" t="n">
-        <v>5.035</v>
+        <v>3.546</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1385,25 +1379,25 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.5175</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
       <c r="H28" t="n">
-        <v>1.3515</v>
+        <v>1.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.421</v>
+        <v>5.556</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1417,25 +1411,25 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.5175</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
       <c r="H29" t="n">
-        <v>1.342</v>
+        <v>1.23</v>
       </c>
       <c r="I29" t="n">
-        <v>2.945</v>
+        <v>4.83</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1449,25 +1443,25 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.5175</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
       <c r="H30" t="n">
-        <v>1.3325</v>
+        <v>1.21</v>
       </c>
       <c r="I30" t="n">
-        <v>3.476</v>
+        <v>5.372</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1481,25 +1475,25 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.4225</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
       <c r="H31" t="n">
-        <v>1.3515</v>
+        <v>1.22</v>
       </c>
       <c r="I31" t="n">
-        <v>3.21</v>
+        <v>6.357</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1513,25 +1507,25 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3.4225</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.342</v>
+        <v>1.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.734</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1545,25 +1539,25 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.4225</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.3325</v>
+        <v>1.22</v>
       </c>
       <c r="I33" t="n">
-        <v>4.265</v>
+        <v>5.223</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1577,25 +1571,25 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
       <c r="H34" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5.169</v>
+        <v>5.072</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -1609,25 +1603,25 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
       <c r="H35" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="I35" t="n">
-        <v>5.039</v>
+        <v>5.992</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -1641,25 +1635,25 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
       <c r="H36" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="I36" t="n">
-        <v>5.495</v>
+        <v>5.223</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -1673,25 +1667,25 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G37" t="s">
         <v>29</v>
       </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
       <c r="H37" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="I37" t="n">
-        <v>6.505</v>
+        <v>5.223</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -1705,30 +1699,30 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G38" t="s">
         <v>29</v>
       </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
       <c r="H38" t="n">
-        <v>1.29</v>
+        <v>1.21978021978022</v>
       </c>
       <c r="I38" t="n">
-        <v>5.297</v>
+        <v>5.511</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45164.15625</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1737,30 +1731,30 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>3.25</v>
+        <v>1.22</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39" t="n">
-        <v>1.33</v>
+        <v>4.3</v>
       </c>
       <c r="I39" t="n">
-        <v>5.957</v>
+        <v>5.223</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45164.15625</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1769,30 +1763,30 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" t="n">
-        <v>3.54</v>
+        <v>1.22</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="I40" t="n">
-        <v>5.172</v>
+        <v>5.223</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45164.15625</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1801,30 +1795,30 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" t="n">
-        <v>3.6</v>
+        <v>1.23</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41" t="n">
-        <v>1.29</v>
+        <v>4.15</v>
       </c>
       <c r="I41" t="n">
-        <v>5.297</v>
+        <v>5.397</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45164.15625</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1833,30 +1827,30 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>3.4</v>
+        <v>1.19</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="I42" t="n">
-        <v>6.335</v>
+        <v>5.773</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45164.15625</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1865,25 +1859,25 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="n">
-        <v>3.4</v>
+        <v>1.22</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43" t="n">
-        <v>1.31746031746032</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
-        <v>5.315</v>
+        <v>5.223</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1897,25 +1891,25 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F44" t="n">
         <v>1.22</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I44" t="n">
-        <v>5.497</v>
+        <v>5.223</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -1929,25 +1923,25 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
       </c>
       <c r="F45" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>4.85</v>
       </c>
       <c r="I45" t="n">
-        <v>5.035</v>
+        <v>6.089</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -1961,25 +1955,25 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
       </c>
       <c r="F46" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>5.556</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -1993,30 +1987,30 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G47" t="s">
         <v>32</v>
       </c>
-      <c r="E47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
       <c r="H47" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>5.035</v>
+        <v>5.223</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45164.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2025,30 +2019,30 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2</v>
+        <v>2.482</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>1.5985</v>
       </c>
       <c r="I48" t="n">
-        <v>5.556</v>
+        <v>2.849</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45164.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2057,30 +2051,30 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
         <v>35</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23</v>
+        <v>2.482</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H49" t="n">
-        <v>4.2</v>
+        <v>1.589</v>
       </c>
       <c r="I49" t="n">
-        <v>5.11</v>
+        <v>3.223</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45164.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2089,30 +2083,30 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
         <v>35</v>
       </c>
       <c r="F50" t="n">
-        <v>1.24</v>
+        <v>2.482</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H50" t="n">
-        <v>4.1</v>
+        <v>1.5795</v>
       </c>
       <c r="I50" t="n">
-        <v>5.035</v>
+        <v>3.601</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45164.2743055556</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2121,25 +2115,25 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51" t="n">
-        <v>1.22</v>
+        <v>2.463</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H51" t="n">
-        <v>4.1</v>
+        <v>1.5985</v>
       </c>
       <c r="I51" t="n">
-        <v>6.357</v>
+        <v>3.16</v>
       </c>
       <c r="J51" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -2153,22 +2147,22 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="G52" t="s">
         <v>36</v>
       </c>
-      <c r="E52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
       <c r="H52" t="n">
-        <v>1.703</v>
+        <v>1.589</v>
       </c>
       <c r="I52" t="n">
-        <v>4.237</v>
+        <v>3.534</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
@@ -2185,22 +2179,22 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="G53" t="s">
         <v>36</v>
       </c>
-      <c r="E53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G53" t="s">
-        <v>38</v>
-      </c>
       <c r="H53" t="n">
-        <v>1.6935</v>
+        <v>1.5795</v>
       </c>
       <c r="I53" t="n">
-        <v>4.566</v>
+        <v>3.912</v>
       </c>
       <c r="J53" t="s">
         <v>15</v>
@@ -2217,22 +2211,22 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="G54" t="s">
         <v>36</v>
       </c>
-      <c r="E54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2.197</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
-      </c>
       <c r="H54" t="n">
-        <v>1.684</v>
+        <v>1.5985</v>
       </c>
       <c r="I54" t="n">
-        <v>4.899</v>
+        <v>3.475</v>
       </c>
       <c r="J54" t="s">
         <v>15</v>
@@ -2249,22 +2243,22 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="G55" t="s">
         <v>36</v>
       </c>
-      <c r="E55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
       <c r="H55" t="n">
-        <v>1.703</v>
+        <v>1.589</v>
       </c>
       <c r="I55" t="n">
-        <v>5.449</v>
+        <v>3.849</v>
       </c>
       <c r="J55" t="s">
         <v>15</v>
@@ -2281,22 +2275,22 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="G56" t="s">
         <v>36</v>
       </c>
-      <c r="E56" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
       <c r="H56" t="n">
-        <v>1.6935</v>
+        <v>1.5795</v>
       </c>
       <c r="I56" t="n">
-        <v>5.778</v>
+        <v>4.228</v>
       </c>
       <c r="J56" t="s">
         <v>15</v>
@@ -2313,25 +2307,25 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G57" t="s">
         <v>36</v>
       </c>
-      <c r="E57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
       <c r="H57" t="n">
-        <v>1.684</v>
+        <v>1.6</v>
       </c>
       <c r="I57" t="n">
-        <v>6.111</v>
+        <v>5.053</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -2345,25 +2339,25 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G58" t="s">
         <v>36</v>
       </c>
-      <c r="E58" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
       <c r="H58" t="n">
-        <v>1.703</v>
+        <v>1.56</v>
       </c>
       <c r="I58" t="n">
-        <v>5.867</v>
+        <v>5.425</v>
       </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -2377,25 +2371,25 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G59" t="s">
         <v>36</v>
       </c>
-      <c r="E59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
       <c r="H59" t="n">
-        <v>1.6935</v>
+        <v>1.6</v>
       </c>
       <c r="I59" t="n">
-        <v>6.197</v>
+        <v>5.053</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -2409,25 +2403,25 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G60" t="s">
         <v>36</v>
       </c>
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
       <c r="H60" t="n">
-        <v>1.684</v>
+        <v>1.56</v>
       </c>
       <c r="I60" t="n">
-        <v>6.53</v>
+        <v>6.119</v>
       </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -2441,25 +2435,25 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G61" t="s">
         <v>36</v>
       </c>
-      <c r="E61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
       <c r="H61" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="I61" t="n">
-        <v>5.335</v>
+        <v>5.053</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -2473,25 +2467,25 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G62" t="s">
         <v>36</v>
       </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>38</v>
-      </c>
       <c r="H62" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="I62" t="n">
-        <v>5.335</v>
+        <v>5.332</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -2505,25 +2499,25 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G63" t="s">
         <v>36</v>
       </c>
-      <c r="E63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
       <c r="H63" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="I63" t="n">
-        <v>5.335</v>
+        <v>5.361</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -2537,25 +2531,25 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G64" t="s">
         <v>36</v>
       </c>
-      <c r="E64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
-      </c>
       <c r="H64" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="I64" t="n">
-        <v>6.443</v>
+        <v>6.119</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -2569,25 +2563,25 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G65" t="s">
         <v>37</v>
       </c>
-      <c r="F65" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
       <c r="H65" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="I65" t="n">
-        <v>5.09</v>
+        <v>5.332</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -2601,25 +2595,25 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G66" t="s">
         <v>36</v>
       </c>
-      <c r="E66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
       <c r="H66" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="I66" t="n">
-        <v>5.423</v>
+        <v>5.361</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -2633,30 +2627,30 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
       </c>
-      <c r="E67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
       <c r="H67" t="n">
-        <v>1.72</v>
+        <v>1.57142857142857</v>
       </c>
       <c r="I67" t="n">
-        <v>5.088</v>
+        <v>5.303</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45164.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2665,30 +2659,30 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F68" t="n">
-        <v>2.1</v>
+        <v>4.705</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68" t="n">
-        <v>1.74</v>
+        <v>1.228</v>
       </c>
       <c r="I68" t="n">
-        <v>5.09</v>
+        <v>2.687</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45164.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2697,30 +2691,30 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F69" t="n">
-        <v>2.08</v>
+        <v>4.705</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H69" t="n">
-        <v>1.7</v>
+        <v>1.2185</v>
       </c>
       <c r="I69" t="n">
-        <v>6.9</v>
+        <v>3.322</v>
       </c>
       <c r="J69" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45164.3923611111</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2729,25 +2723,25 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F70" t="n">
-        <v>2.1</v>
+        <v>4.705</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H70" t="n">
-        <v>1.73529411764706</v>
+        <v>1.209</v>
       </c>
       <c r="I70" t="n">
-        <v>5.246</v>
+        <v>3.967</v>
       </c>
       <c r="J70" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -2761,22 +2755,22 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="G71" t="s">
         <v>40</v>
       </c>
-      <c r="E71" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5.085</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
       <c r="H71" t="n">
-        <v>1.2185</v>
+        <v>1.228</v>
       </c>
       <c r="I71" t="n">
-        <v>1.734</v>
+        <v>3.125</v>
       </c>
       <c r="J71" t="s">
         <v>15</v>
@@ -2793,22 +2787,22 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="G72" t="s">
         <v>40</v>
       </c>
-      <c r="E72" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5.085</v>
-      </c>
-      <c r="G72" t="s">
-        <v>42</v>
-      </c>
       <c r="H72" t="n">
-        <v>1.209</v>
+        <v>1.2185</v>
       </c>
       <c r="I72" t="n">
-        <v>2.379</v>
+        <v>3.76</v>
       </c>
       <c r="J72" t="s">
         <v>15</v>
@@ -2825,22 +2819,22 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="G73" t="s">
         <v>40</v>
       </c>
-      <c r="E73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5.085</v>
-      </c>
-      <c r="G73" t="s">
-        <v>42</v>
-      </c>
       <c r="H73" t="n">
-        <v>1.1995</v>
+        <v>1.209</v>
       </c>
       <c r="I73" t="n">
-        <v>3.034</v>
+        <v>4.405</v>
       </c>
       <c r="J73" t="s">
         <v>15</v>
@@ -2857,22 +2851,22 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G74" t="s">
         <v>40</v>
       </c>
-      <c r="E74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" t="n">
-        <v>5</v>
-      </c>
-      <c r="G74" t="s">
-        <v>42</v>
-      </c>
       <c r="H74" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="I74" t="n">
-        <v>5.47</v>
+        <v>5.556</v>
       </c>
       <c r="J74" t="s">
         <v>16</v>
@@ -2889,16 +2883,16 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F75" t="n">
         <v>4.6</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H75" t="n">
         <v>1.2</v>
@@ -2921,22 +2915,22 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G76" t="s">
         <v>40</v>
       </c>
-      <c r="E76" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G76" t="s">
-        <v>42</v>
-      </c>
       <c r="H76" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I76" t="n">
-        <v>5.579</v>
+        <v>5.31</v>
       </c>
       <c r="J76" t="s">
         <v>18</v>
@@ -2953,22 +2947,22 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G77" t="s">
         <v>40</v>
       </c>
-      <c r="E77" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
       <c r="H77" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I77" t="n">
-        <v>6.485</v>
+        <v>6.256</v>
       </c>
       <c r="J77" t="s">
         <v>19</v>
@@ -2985,22 +2979,22 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G78" t="s">
         <v>40</v>
       </c>
-      <c r="E78" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G78" t="s">
-        <v>42</v>
-      </c>
       <c r="H78" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="I78" t="n">
-        <v>5.556</v>
+        <v>5.497</v>
       </c>
       <c r="J78" t="s">
         <v>20</v>
@@ -3017,22 +3011,22 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G79" t="s">
         <v>40</v>
       </c>
-      <c r="E79" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" t="n">
-        <v>5</v>
-      </c>
-      <c r="G79" t="s">
-        <v>42</v>
-      </c>
       <c r="H79" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="I79" t="n">
-        <v>5.47</v>
+        <v>5.556</v>
       </c>
       <c r="J79" t="s">
         <v>21</v>
@@ -3049,22 +3043,22 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G80" t="s">
         <v>40</v>
       </c>
-      <c r="E80" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G80" t="s">
-        <v>42</v>
-      </c>
       <c r="H80" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I80" t="n">
-        <v>5.086</v>
+        <v>5.072</v>
       </c>
       <c r="J80" t="s">
         <v>22</v>
@@ -3081,22 +3075,22 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G81" t="s">
         <v>40</v>
-      </c>
-      <c r="E81" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G81" t="s">
-        <v>42</v>
       </c>
       <c r="H81" t="n">
         <v>1.2</v>
       </c>
       <c r="I81" t="n">
-        <v>5.556</v>
+        <v>6.061</v>
       </c>
       <c r="J81" t="s">
         <v>23</v>
@@ -3113,30 +3107,30 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G82" t="s">
         <v>40</v>
       </c>
-      <c r="E82" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G82" t="s">
-        <v>42</v>
-      </c>
       <c r="H82" t="n">
-        <v>1.18867924528302</v>
+        <v>1.2</v>
       </c>
       <c r="I82" t="n">
-        <v>5.18</v>
+        <v>5.556</v>
       </c>
       <c r="J82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45165.1041666667</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3145,25 +3139,25 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F83" t="n">
-        <v>1.133</v>
+        <v>4.6</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H83" t="n">
-        <v>5.655</v>
+        <v>1.18867924528302</v>
       </c>
       <c r="I83" t="n">
-        <v>5.945</v>
+        <v>5.866</v>
       </c>
       <c r="J83" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
@@ -3177,22 +3171,22 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="G84" t="s">
         <v>43</v>
       </c>
-      <c r="E84" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1.1235</v>
-      </c>
-      <c r="G84" t="s">
-        <v>45</v>
-      </c>
       <c r="H84" t="n">
-        <v>5.655</v>
+        <v>6.89</v>
       </c>
       <c r="I84" t="n">
-        <v>6.691</v>
+        <v>2.775</v>
       </c>
       <c r="J84" t="s">
         <v>15</v>
@@ -3209,25 +3203,25 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.1235</v>
+      </c>
+      <c r="G85" t="s">
         <v>43</v>
       </c>
-      <c r="E85" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G85" t="s">
-        <v>45</v>
-      </c>
       <c r="H85" t="n">
-        <v>6.5</v>
+        <v>6.89</v>
       </c>
       <c r="I85" t="n">
-        <v>5.475</v>
+        <v>3.521</v>
       </c>
       <c r="J85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -3241,25 +3235,25 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="G86" t="s">
         <v>43</v>
       </c>
-      <c r="E86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>45</v>
-      </c>
       <c r="H86" t="n">
-        <v>6.25</v>
+        <v>6.89</v>
       </c>
       <c r="I86" t="n">
-        <v>5.286</v>
+        <v>4.28</v>
       </c>
       <c r="J86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -3273,25 +3267,25 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G87" t="s">
         <v>43</v>
       </c>
-      <c r="E87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>45</v>
-      </c>
       <c r="H87" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="I87" t="n">
-        <v>5.415</v>
+        <v>5.475</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -3305,25 +3299,25 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G88" t="s">
         <v>43</v>
       </c>
-      <c r="E88" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G88" t="s">
-        <v>45</v>
-      </c>
       <c r="H88" t="n">
-        <v>5.9</v>
+        <v>6.25</v>
       </c>
       <c r="I88" t="n">
-        <v>7.039</v>
+        <v>5.286</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -3337,25 +3331,25 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G89" t="s">
         <v>43</v>
       </c>
-      <c r="E89" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G89" t="s">
-        <v>45</v>
-      </c>
       <c r="H89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I89" t="n">
-        <v>5.475</v>
+        <v>5.195</v>
       </c>
       <c r="J89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -3369,25 +3363,25 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G90" t="s">
         <v>43</v>
       </c>
-      <c r="E90" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>45</v>
-      </c>
       <c r="H90" t="n">
-        <v>6.25</v>
+        <v>6.2</v>
       </c>
       <c r="I90" t="n">
-        <v>5.286</v>
+        <v>7.038</v>
       </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -3401,25 +3395,25 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G91" t="s">
         <v>43</v>
       </c>
-      <c r="E91" t="s">
-        <v>44</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G91" t="s">
-        <v>45</v>
-      </c>
       <c r="H91" t="n">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>5.025</v>
+        <v>5.952</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -3433,25 +3427,25 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G92" t="s">
         <v>43</v>
       </c>
-      <c r="E92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
       <c r="H92" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
-        <v>5.475</v>
+        <v>5.195</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
@@ -3465,25 +3459,25 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F93" t="n">
         <v>1.12</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I93" t="n">
-        <v>5.952</v>
+        <v>5.286</v>
       </c>
       <c r="J93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -3497,30 +3491,30 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G94" t="s">
         <v>43</v>
       </c>
-      <c r="E94" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1.11976047904192</v>
-      </c>
-      <c r="G94" t="s">
-        <v>45</v>
-      </c>
       <c r="H94" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I94" t="n">
-        <v>5.305</v>
+        <v>5.887</v>
       </c>
       <c r="J94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3529,30 +3523,30 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F95" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="G95" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I95" t="n">
-        <v>5.556</v>
+        <v>5.195</v>
       </c>
       <c r="J95" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3561,30 +3555,30 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F96" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H96" t="n">
-        <v>2.02</v>
+        <v>7</v>
       </c>
       <c r="I96" t="n">
-        <v>5.061</v>
+        <v>5.195</v>
       </c>
       <c r="J96" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3593,25 +3587,25 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F97" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I97" t="n">
-        <v>5.556</v>
+        <v>5.195</v>
       </c>
       <c r="J97" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
@@ -3625,25 +3619,25 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.8455</v>
+      </c>
+      <c r="G98" t="s">
         <v>46</v>
       </c>
-      <c r="E98" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G98" t="s">
-        <v>48</v>
-      </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>2.045</v>
       </c>
       <c r="I98" t="n">
-        <v>6.18</v>
+        <v>3.086</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -3657,25 +3651,25 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.8455</v>
+      </c>
+      <c r="G99" t="s">
         <v>46</v>
       </c>
-      <c r="E99" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G99" t="s">
-        <v>48</v>
-      </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>2.026</v>
       </c>
       <c r="I99" t="n">
-        <v>5.556</v>
+        <v>3.544</v>
       </c>
       <c r="J99" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -3689,25 +3683,25 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.8455</v>
+      </c>
+      <c r="G100" t="s">
         <v>46</v>
       </c>
-      <c r="E100" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G100" t="s">
-        <v>48</v>
-      </c>
       <c r="H100" t="n">
-        <v>2.08</v>
+        <v>2.007</v>
       </c>
       <c r="I100" t="n">
-        <v>5.22</v>
+        <v>4.011</v>
       </c>
       <c r="J100" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -3721,25 +3715,25 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="G101" t="s">
         <v>46</v>
       </c>
-      <c r="E101" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G101" t="s">
-        <v>48</v>
-      </c>
       <c r="H101" t="n">
-        <v>2.04</v>
+        <v>2.045</v>
       </c>
       <c r="I101" t="n">
-        <v>4.268</v>
+        <v>3.366</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -3753,25 +3747,25 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="G102" t="s">
         <v>46</v>
       </c>
-      <c r="E102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G102" t="s">
-        <v>48</v>
-      </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>2.026</v>
       </c>
       <c r="I102" t="n">
-        <v>5.556</v>
+        <v>3.825</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -3785,25 +3779,25 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="G103" t="s">
         <v>46</v>
       </c>
-      <c r="E103" t="s">
-        <v>47</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G103" t="s">
-        <v>48</v>
-      </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>2.007</v>
       </c>
       <c r="I103" t="n">
-        <v>6.18</v>
+        <v>4.292</v>
       </c>
       <c r="J103" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -3817,30 +3811,30 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.8265</v>
+      </c>
+      <c r="G104" t="s">
         <v>46</v>
       </c>
-      <c r="E104" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G104" t="s">
-        <v>48</v>
-      </c>
       <c r="H104" t="n">
-        <v>2.02</v>
+        <v>2.045</v>
       </c>
       <c r="I104" t="n">
-        <v>5.061</v>
+        <v>3.649</v>
       </c>
       <c r="J104" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3849,30 +3843,30 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E105" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F105" t="n">
-        <v>1.5</v>
+        <v>1.8265</v>
       </c>
       <c r="G105" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H105" t="n">
-        <v>2.6</v>
+        <v>2.026</v>
       </c>
       <c r="I105" t="n">
-        <v>5.128</v>
+        <v>4.108</v>
       </c>
       <c r="J105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3881,30 +3875,30 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E106" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F106" t="n">
-        <v>1.52</v>
+        <v>1.8265</v>
       </c>
       <c r="G106" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H106" t="n">
-        <v>2.55</v>
+        <v>2.007</v>
       </c>
       <c r="I106" t="n">
-        <v>5.005</v>
+        <v>4.575</v>
       </c>
       <c r="J106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3913,30 +3907,30 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F107" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H107" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>5.128</v>
+        <v>5.556</v>
       </c>
       <c r="J107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3945,30 +3939,30 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F108" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="G108" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H108" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="I108" t="n">
-        <v>6.667</v>
+        <v>5.278</v>
       </c>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3977,30 +3971,30 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F109" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="G109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H109" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>5.359</v>
+        <v>5.556</v>
       </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4009,30 +4003,30 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F110" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="G110" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H110" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="I110" t="n">
-        <v>5.16</v>
+        <v>6.347</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -4041,30 +4035,30 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E111" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F111" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="G111" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H111" t="n">
-        <v>2.55</v>
+        <v>2.02</v>
       </c>
       <c r="I111" t="n">
-        <v>5.005</v>
+        <v>5.061</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45165.3402777778</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4073,57 +4067,505 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F112" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="G112" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H112" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="I112" t="n">
-        <v>6.667</v>
+        <v>5.278</v>
       </c>
       <c r="J112" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
+        <v>45165.2222222222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45165.2222222222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.556</v>
+      </c>
+      <c r="J114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45165.2222222222</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45165.2222222222</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5.335</v>
+      </c>
+      <c r="J116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45165.2222222222</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.061</v>
+      </c>
+      <c r="J117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>45165.3402777778</v>
       </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G118" t="s">
         <v>49</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>47</v>
+      </c>
+      <c r="E119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>47</v>
+      </c>
+      <c r="E121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6.347</v>
+      </c>
+      <c r="J121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>47</v>
+      </c>
+      <c r="E122" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G123" t="s">
+        <v>49</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J123" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>47</v>
+      </c>
+      <c r="E124" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G124" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G125" t="s">
         <v>50</v>
       </c>
-      <c r="F113" t="n">
-        <v>1.51282051282051</v>
-      </c>
-      <c r="G113" t="s">
-        <v>51</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5.317</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="H125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.548</v>
+      </c>
+      <c r="J126" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>45165.3402777778</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.6993006993007</v>
+      </c>
+      <c r="G127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I127" t="n">
+        <v>4.931</v>
+      </c>
+      <c r="J127" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
